--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20009_{C61D0823-7E04-2C4D-8A50-62D780DD683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70FBEB5B-CCAD-0E4B-97B7-4D9D3198243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="500" windowWidth="29940" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="500" windowWidth="45380" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -1004,22 +1004,7 @@
       <t>ttp://_x0000__x0000__x0001_=~_x0001_@ö_x0002_Dö_x0001_Hü_x0001_Mþ_x0002_QĄ_x0002__x0000__x0000__x0000__x0000__x000E_耀_x000E_"牛乳・乳製品（詳細不明）"_x0001__x000C__x001C_5_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0008_</t>
     </rPh>
     <rPh sb="126" eb="127">
-      <t>_x0000__x0008_"</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>十二指腸</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>潰瘍"_x0001_</t>
-    </rPh>
-    <rPh sb="252" eb="253">
-      <t>_x0000_ĉ_x0000__x0008_耀</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>_x0008_"十二</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t/>
+      <t>_x0000__x0008_"十二指腸潰瘍"_x0001__x0000_ĉ_x0000__x0008_耀_x0008_"十二</t>
     </rPh>
     <phoneticPr fontId="24"/>
   </si>
@@ -1842,9 +1827,6 @@
     </rPh>
     <rPh sb="259" eb="261">
       <t>_x0000_k_x0002__x0006_</t>
-    </rPh>
-    <rPh sb="259" eb="261">
-      <t/>
     </rPh>
     <phoneticPr fontId="24"/>
   </si>
@@ -2848,7 +2830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2918,9 +2900,6 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2939,7 +2918,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2951,10 +2930,31 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2963,32 +2963,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3348,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="218" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3466,7 +3442,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="39" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -3491,7 +3467,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="39" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -3514,7 +3490,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -3541,7 +3517,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -3568,7 +3544,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -3595,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -4068,7 +4044,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="39" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -4293,14 +4269,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="195">
+    <row r="41" spans="1:9" ht="210">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="24" t="s">
         <v>277</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -5746,8 +5722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5864,7 +5840,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="39" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -5889,7 +5865,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="39" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -5912,7 +5888,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -5939,7 +5915,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -5966,7 +5942,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -5993,7 +5969,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -6635,7 +6611,7 @@
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="14" t="s">
         <v>270</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -6681,7 +6657,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>237</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -6691,7 +6667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="195">
+    <row r="41" spans="1:9" ht="210">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -6755,7 +6731,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -6774,7 +6750,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -7325,7 +7301,7 @@
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -7344,7 +7320,7 @@
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -7367,13 +7343,13 @@
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="25" t="s">
         <v>251</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="26" t="s">
         <v>291</v>
       </c>
       <c r="H70" s="6" t="s">
@@ -7407,264 +7383,264 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="180">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="29" t="s">
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="31" t="s">
+      <c r="H72" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="33" t="s">
+      <c r="F73" s="31"/>
+      <c r="G73" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="H73" s="33"/>
-      <c r="I73" s="35"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="33"/>
     </row>
     <row r="74" spans="1:9" ht="30">
-      <c r="A74" s="41"/>
-      <c r="B74" s="34" t="s">
+      <c r="A74" s="44"/>
+      <c r="B74" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" s="34" t="s">
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G74" s="34" t="s">
+      <c r="G74" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="H74" s="38" t="s">
+      <c r="H74" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="I74" s="35" t="s">
+      <c r="I74" s="33" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="41"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="35" t="s">
+      <c r="A75" s="44"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="33" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="41"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="35" t="s">
+      <c r="A76" s="44"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="33" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="84">
-      <c r="A77" s="40"/>
-      <c r="B77" s="32" t="s">
+      <c r="A77" s="34"/>
+      <c r="B77" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="F77" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="H77" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="35" t="s">
+      <c r="H77" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="33" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="45">
-      <c r="A78" s="40"/>
-      <c r="B78" s="32" t="s">
+      <c r="A78" s="34"/>
+      <c r="B78" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="H78" s="33"/>
-      <c r="I78" s="35"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="33"/>
     </row>
     <row r="79" spans="1:9" ht="30">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="32"/>
-      <c r="G79" s="33" t="s">
+      <c r="F79" s="31"/>
+      <c r="G79" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="H79" s="33"/>
-      <c r="I79" s="35"/>
-    </row>
-    <row r="80" spans="1:9" s="39" customFormat="1" ht="70">
-      <c r="A80" s="40"/>
-      <c r="B80" s="32" t="s">
+      <c r="H79" s="32"/>
+      <c r="I79" s="33"/>
+    </row>
+    <row r="80" spans="1:9" ht="70">
+      <c r="A80" s="34"/>
+      <c r="B80" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32" t="s">
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F80" s="32" t="s">
+      <c r="F80" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="H80" s="33"/>
-      <c r="I80" s="35" t="s">
+      <c r="H80" s="32"/>
+      <c r="I80" s="33" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="32"/>
-      <c r="G81" s="33" t="s">
+      <c r="F81" s="31"/>
+      <c r="G81" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="H81" s="33"/>
-      <c r="I81" s="35"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="40"/>
-      <c r="B82" s="32" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="35"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" spans="1:9" ht="28">
-      <c r="A83" s="40"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="32" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H83" s="33"/>
-      <c r="I83" s="35" t="s">
+      <c r="H83" s="32"/>
+      <c r="I83" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="40"/>
-      <c r="B84" s="32" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="32" t="s">
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="H84" s="33"/>
-      <c r="I84" s="35"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" ht="31" thickBot="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43" t="s">
+      <c r="A85" s="35"/>
+      <c r="B85" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43" t="s">
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="G85" s="44" t="s">
+      <c r="G85" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="H85" s="44"/>
-      <c r="I85" s="45"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -5,29 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core-1/reference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70FBEB5B-CCAD-0E4B-97B7-4D9D3198243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BC91A9-E01E-BC44-8606-8014A527053A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="500" windowWidth="45380" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52140" yWindow="620" windowWidth="29940" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
     <sheet name="ConditionTable" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ftn1" localSheetId="2">Sheet1!$A$51</definedName>
+    <definedName name="_ftnref1" localSheetId="2">Sheet1!$H$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="421">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -238,9 +239,6 @@
     <t>"active"</t>
   </si>
   <si>
-    <t>dispkay</t>
-  </si>
-  <si>
     <t>”Active"</t>
   </si>
   <si>
@@ -852,10 +850,6 @@
     <phoneticPr fontId="24"/>
   </si>
   <si>
-    <t>最終更新日時。YYYY-MM-DDThh:mm:ss.sss+zz:zz</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
     <t>本リソースのタグ情報</t>
     <rPh sb="0" eb="10">
       <t xml:space="preserve">ジョウホウ </t>
@@ -937,23 +931,6 @@
     <rPh sb="182" eb="183">
       <t xml:space="preserve">カナラズ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>入力された臨床的状態に対する検証状況を示す。確からしさと考えられる。コード化記述が必須。clinicalStatusとの制約条件を参照のこと。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>疑い病名フラグとして使用する。</t>
-    </r>
     <phoneticPr fontId="24"/>
   </si>
   <si>
@@ -1357,10 +1334,6 @@
     <phoneticPr fontId="24"/>
   </si>
   <si>
-    <t>この状態が最初に記録された日時。</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
     <t>"1989-08-23"</t>
     <phoneticPr fontId="24"/>
   </si>
@@ -1368,12 +1341,6 @@
     <t>stage</t>
   </si>
   <si>
-    <t>この状態の臨床的ステージやグレード表現。</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
     <r>
       <t>"urn:oid:</t>
     </r>
@@ -1424,8 +1391,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>system</t>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t>Reference(ClinicalImpression | DiagnosticReport | Observation)</t>
+  </si>
+  <si>
+    <t>"urn:..."</t>
+  </si>
+  <si>
+    <t>ステージ情報の根拠となる診断レポートや検査結果、または臨床評価情報への参照する。</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1435,7 +1423,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>値は</t>
+      <t>病理検査担当者</t>
     </r>
     <r>
       <rPr>
@@ -1444,249 +1432,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>MEDIS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>標準病名マスター修飾語交換用コードを使用する場合の例示。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"1244"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>MEDIS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>標準病名マスター修飾語交換用コードで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>第１期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のコード。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>第１期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はそのテキスト記述の例。</t>
-    </r>
-  </si>
-  <si>
-    <t>assessment</t>
-  </si>
-  <si>
-    <t>Reference(ClinicalImpression | DiagnosticReport | Observation)</t>
-  </si>
-  <si>
-    <t>"urn:..."</t>
-  </si>
-  <si>
-    <t>ステージ情報の根拠となる診断レポートや検査結果、または臨床評価情報への参照する。</t>
-  </si>
-  <si>
-    <t>evidence</t>
-  </si>
-  <si>
-    <r>
-      <t>状態を確認または反駁した証拠など、状態の検証ステータスの基礎となる裏付けとなる証拠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>兆候。</t>
-    </r>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>患者状態に関する追加的な情報</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>病理検査担当者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>この追加的な情報が作成された日時。</t>
-  </si>
-  <si>
-    <r>
-      <t>追加的な情報の内容。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>markdown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>形式のテキストが使用できる。データとして</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイト以内であること。</t>
     </r>
   </si>
   <si>
@@ -1786,9 +1532,20 @@
     <phoneticPr fontId="24"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">EDIS 病名交換コード、病名管理番号、ICD10分類コード、レセプト電算処理用傷病名コード、またはレセプト電算処理用傷病名コードの未コード化コード(7桁all 9)のいずれかまたは複数の組み合わせで表現することを推奨する。
-</t>
+    <t>最終更新日時。YYYY-MM-DDThh:mm:ss.sss+zz:zz
+この要素は、このリソースのデータを取り込んで蓄積していたシステムが、このリソースになんらかの変更があった可能性があった日時を取得し、このデータを再取り込みする必要性の判断をするために使われる。本要素に前回取り込んだ時点より後の日時が設定されている場合には、なんらかの変更があった可能性がある（変更がない場合もある）ものとして判断される。したがって、内容になんらかの変更があった場合、またはこのリソースのデータが初めて作成された場合には、その時点以降の日時（たとえば、このリソースのデータを作成した日時）を設定しなければならない。内容の変更がない場合でも、このリソースのデータが作り直された場合や単に複写された場合にその日時を設定しなおしてもよい。ただし、内容に変更がないのであれば、日時を変更しなくてもよい。また、この要素の変更とmeta.versionIdの変更とは、必ずしも連動しないことがある。</t>
+    <rPh sb="133" eb="136">
+      <t xml:space="preserve">ホンヨウソ </t>
+    </rPh>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>入力された臨床的状態に対する検証状況を示す。確からしさと考えられる。コード化記述が必須。clinicalStatusとの制約条件を参照のこと。</t>
     </r>
     <r>
       <rPr>
@@ -1799,35 +1556,1533 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
+      <t>疑い病名フラグとしても使用される。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv4</t>
+    </r>
+  </si>
+  <si>
+    <t>説明</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <r>
+      <t>MedicationRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースであることを示す</t>
+    </r>
+  </si>
+  <si>
+    <t>"MedicationRequest"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>最終更新日時。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>YYYY-MM-DDThh:mm:ss.sss+zz:zz (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>. 2015-02-07T13:28:17.239+09:00)</t>
+    </r>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を指定する。値は固定。処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を使用する。</t>
+    </r>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_MedicationRequest_ePrescriptionData"</t>
+  </si>
+  <si>
+    <t>Narrative</t>
+  </si>
+  <si>
+    <t>本リソースをテキストで表現したものを入れてもよい。</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>固定値。テキスト内容の全てがリソースのコンテンツから生成されたことを示す。</t>
+  </si>
+  <si>
+    <t>"generated"</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>xhtml</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;xxx&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>1..1*</t>
+  </si>
+  <si>
+    <r>
+      <t>剤グループ（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）番号。詳細は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.9.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>剤グループ構造とその番号」参照。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>剤グループ番号の名前空間を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.3.81"</t>
+  </si>
+  <si>
+    <t>剤グループ番号</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <r>
+      <t>剤グループ内連番。詳細は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.9.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>剤グループ構造とその番号」参照。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>剤グループ内番号の名前空間を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.3.82"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
+  </si>
+  <si>
+    <r>
+      <t>過去処方は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>固定値</t>
+    </r>
+  </si>
+  <si>
+    <t>"completed"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>"order"</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <r>
+      <t>医薬品コードと医薬品名称。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>coding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要素を繰り返すことで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HOT9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>YJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コードなど複数のコード体系で医薬品コードを並記することが可能。</t>
+    </r>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <r>
+      <t>医薬品コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HOT9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。値は例示。</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid: 1.2.392.200119.4.403.1"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HOT9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）。値は例示</t>
+    </r>
+  </si>
+  <si>
+    <t>"103831601"</t>
+  </si>
+  <si>
+    <t>医薬品名称。値は例示[1]。</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カルボシステイン錠２５０ｍｇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <r>
+      <t>患者を表す</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースへの参照。</t>
+    </r>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <r>
+      <t>Patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>fullUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要素に指定される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UUID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を指定。値は例示。</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:uuid:1af0a9a6-a91d-3aef-fc4e-069995b89c4f"</t>
+  </si>
+  <si>
+    <t>authoredOn</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。値は例示。</t>
+  </si>
+  <si>
+    <t>"2020-08-21T12:28:17+09:00"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>薬剤単位の備考。詳細は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.9.8.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薬剤単位の指示」</t>
+    </r>
+  </si>
+  <si>
+    <t>備考文字列。値は例示。</t>
+  </si>
+  <si>
+    <r>
+      <t>"4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日間服用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週間休薬後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日間服用。患者に書面にて説明済み。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>dosageInstruction</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <r>
+      <t>用法や投与量を含む処方指示。詳細は表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>16-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に記載。</t>
+    </r>
+  </si>
+  <si>
+    <t>dispenseRequest</t>
+  </si>
+  <si>
+    <t>調剤情報</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <r>
+      <t>調剤指示を表す拡張「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructionForDispense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>16-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に示す。</t>
+    </r>
+  </si>
+  <si>
+    <t>0..1*</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>頓用回数を表現する拡張「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ExpectedRepeatCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。</t>
+    </r>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <r>
+      <t>拡張を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/ePrescription/StructureDefinition/ExpectedRepeatCount"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>valueInteger</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>頓用回数。値は例示。</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>調剤量</t>
+  </si>
+  <si>
+    <t>調剤量。値は例示。</t>
+  </si>
+  <si>
+    <t>単位文字列。値は例示。</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>錠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>医薬品単位略号を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.2.101"</t>
+  </si>
+  <si>
+    <t>医薬品単位略号。値は例示。</t>
+  </si>
+  <si>
+    <t>"TAB"</t>
+  </si>
+  <si>
+    <t>expectedSupplyDuration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>調剤日数</t>
+  </si>
+  <si>
+    <t>調剤日数。値は例示。</t>
+  </si>
+  <si>
+    <t>調剤日数の単位。「日」固定。</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <t>"http://unitsofmeasure.org"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>「日」を表す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コード。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <t>"d"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <r>
+      <t>後発医薬品への変更可否情報。詳細は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後発品変更可否」参照。</t>
+    </r>
+  </si>
+  <si>
+    <t>allowedCodeableConcept</t>
+  </si>
+  <si>
+    <t>後発品変更不可コード。</t>
+  </si>
+  <si>
+    <r>
+      <t>後発品変更不可コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.2.41"</t>
+  </si>
+  <si>
+    <t>後発品変更不可コード。値は例示。</t>
+  </si>
+  <si>
+    <t>値は例示。</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変更不可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>[1] 本文書中の例では、実際の医薬品名称を使用している。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEDIS 病名交換コード、病名管理番号、ICD10分類コード、レセプト電算処理用傷病名コード、またはレセプト電算処理用傷病名コードの未コード化コード(7桁all 9)のいずれかまたは複数の組み合わせで表現することを推奨する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
       <t>電子カルテ情報共有サービスでは、コード化は必須で、病名管理番号またはレセプト電算処理用傷病名コードのいずれかを必ず使用し、それ以外にICD10分類コードを追加することを推奨する。なお、病名のコード化ができない場合には、レセプト電算処理用傷病名コードとして、未コード化コード(7桁all 9）を使用する。</t>
     </r>
-    <rPh sb="107" eb="109">
+    <rPh sb="108" eb="110">
       <t xml:space="preserve">スイショウ </t>
     </rPh>
-    <rPh sb="132" eb="133">
+    <rPh sb="133" eb="134">
       <t xml:space="preserve">カ </t>
     </rPh>
-    <rPh sb="134" eb="136">
+    <rPh sb="135" eb="137">
       <t xml:space="preserve">ヒッス </t>
     </rPh>
-    <rPh sb="190" eb="192">
+    <rPh sb="191" eb="193">
       <t xml:space="preserve">ツイカ </t>
     </rPh>
-    <rPh sb="197" eb="199">
+    <rPh sb="198" eb="200">
       <t xml:space="preserve">スイショウ </t>
     </rPh>
-    <rPh sb="205" eb="207">
+    <rPh sb="206" eb="208">
       <t xml:space="preserve">ビョウメイ </t>
     </rPh>
-    <rPh sb="211" eb="212">
+    <rPh sb="212" eb="213">
       <t xml:space="preserve">カ </t>
     </rPh>
-    <rPh sb="217" eb="219">
+    <rPh sb="218" eb="220">
       <t xml:space="preserve">バアイ </t>
     </rPh>
-    <rPh sb="259" eb="261">
+    <rPh sb="260" eb="262">
       <t>_x0000_k_x0002__x0006_</t>
     </rPh>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>この状態が記録された日時。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>MEDIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>標準病名マスター修飾語交換用コードを使用する場合の例示。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"1244"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>MEDIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>標準病名マスター修飾語交換用コードで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第１期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のコード。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第１期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はそのテキスト記述の例。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>この状態の臨床的ステージやグレード表現。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>患者状態に関する追加的な情報</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>記載者氏名などの文字列。必ずしも氏名でなくてもよい。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>この追加的な情報が作成された日時。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>追加的な情報の内容。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>markdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>形式のテキストが使用できる。データとして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイト以内であること。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>状態を確認または反駁した証拠など、状態の検証ステータスの基礎となる裏付けとなる証拠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>兆候。</t>
+    </r>
     <phoneticPr fontId="24"/>
   </si>
 </sst>
@@ -1835,7 +3090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2072,6 +3327,28 @@
       <name val="MS Mincho"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="41">
@@ -2699,7 +3976,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2829,8 +4106,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2951,6 +4231,66 @@
     <xf numFmtId="0" fontId="21" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2966,8 +4306,23 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3010,6 +4365,7 @@
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="43" xr:uid="{DE8C59AF-A319-5D47-A13C-DABA585E8E85}"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3324,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3380,7 +4736,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -3403,7 +4759,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="9"/>
@@ -3438,7 +4794,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3474,7 +4830,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
@@ -3551,7 +4907,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
@@ -3599,7 +4955,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
@@ -3618,7 +4974,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -3637,7 +4993,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
@@ -3656,7 +5012,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
@@ -3675,7 +5031,7 @@
         <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -3696,13 +5052,13 @@
         <v>28</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
@@ -3721,7 +5077,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>18</v>
@@ -3744,7 +5100,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
@@ -3788,7 +5144,7 @@
         <v>57</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>11</v>
@@ -3815,7 +5171,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>18</v>
@@ -3832,7 +5188,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -3842,13 +5198,13 @@
         <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
@@ -3856,7 +5212,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3867,33 +5223,33 @@
         <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="45">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>54</v>
@@ -3907,14 +5263,14 @@
         <v>25</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="45">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>56</v>
@@ -3930,18 +5286,18 @@
         <v>28</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60">
       <c r="A27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>59</v>
@@ -3957,24 +5313,24 @@
         <v>32</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="21" t="s">
@@ -3984,21 +5340,21 @@
         <v>49</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -4009,14 +5365,14 @@
         <v>49</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="105">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4028,18 +5384,18 @@
         <v>32</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="195">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4051,18 +5407,18 @@
         <v>32</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="105">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4074,13 +5430,13 @@
         <v>32</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
@@ -4097,7 +5453,7 @@
         <v>53</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -4118,7 +5474,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="9"/>
@@ -4141,13 +5497,13 @@
         <v>28</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4168,13 +5524,13 @@
         <v>32</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4185,7 +5541,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7" t="s">
@@ -4195,13 +5551,13 @@
         <v>49</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45">
@@ -4209,7 +5565,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -4220,18 +5576,18 @@
         <v>49</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105">
       <c r="A39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4240,16 +5596,16 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90">
@@ -4260,13 +5616,13 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="210">
@@ -4277,18 +5633,18 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
       <c r="A42" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4297,16 +5653,16 @@
         <v>52</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="165">
@@ -4317,18 +5673,18 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="195">
       <c r="A44" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -4337,17 +5693,17 @@
         <v>52</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" ht="60">
       <c r="A45" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -4356,21 +5712,21 @@
         <v>52</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -4379,21 +5735,21 @@
         <v>52</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>48</v>
@@ -4404,24 +5760,24 @@
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="90">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -4432,21 +5788,21 @@
         <v>32</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4457,18 +5813,18 @@
         <v>49</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>27</v>
@@ -4482,18 +5838,18 @@
         <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
       <c r="A51" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>32</v>
@@ -4507,18 +5863,18 @@
         <v>32</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4527,20 +5883,20 @@
         <v>52</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4548,20 +5904,20 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4569,17 +5925,17 @@
         <v>52</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" ht="30">
       <c r="A55" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -4588,20 +5944,20 @@
         <v>52</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" ht="30">
       <c r="A56" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -4609,20 +5965,20 @@
         <v>52</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>48</v>
@@ -4632,27 +5988,27 @@
         <v>52</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="14" t="s">
@@ -4662,21 +6018,21 @@
         <v>49</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30">
       <c r="A59" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>27</v>
@@ -4689,21 +6045,21 @@
         <v>28</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30">
       <c r="A60" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>32</v>
@@ -4716,21 +6072,21 @@
         <v>32</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30">
       <c r="A61" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -4738,20 +6094,20 @@
         <v>52</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>48</v>
@@ -4761,27 +6117,27 @@
         <v>52</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="14" t="s">
@@ -4791,21 +6147,21 @@
         <v>49</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
       <c r="A64" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>27</v>
@@ -4818,21 +6174,21 @@
         <v>28</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="30">
       <c r="A65" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>32</v>
@@ -4845,18 +6201,18 @@
         <v>32</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4868,18 +6224,18 @@
         <v>49</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4888,17 +6244,17 @@
         <v>52</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="90">
       <c r="A68" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4907,21 +6263,21 @@
         <v>52</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="180">
       <c r="A69" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4930,21 +6286,21 @@
         <v>52</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -4953,17 +6309,17 @@
         <v>52</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" ht="30">
       <c r="A71" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -4972,20 +6328,20 @@
         <v>20</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -4996,21 +6352,21 @@
         <v>49</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -5018,20 +6374,20 @@
         <v>52</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" ht="30">
       <c r="A74" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -5039,17 +6395,17 @@
         <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" ht="30">
       <c r="A75" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -5058,20 +6414,20 @@
         <v>20</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" ht="225">
       <c r="A76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -5082,17 +6438,17 @@
         <v>53</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>54</v>
@@ -5105,17 +6461,17 @@
         <v>25</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" ht="195">
       <c r="A78" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>56</v>
@@ -5130,21 +6486,21 @@
         <v>57</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>59</v>
@@ -5159,27 +6515,27 @@
         <v>32</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>52</v>
@@ -5188,24 +6544,24 @@
         <v>49</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="14" t="s">
@@ -5215,21 +6571,21 @@
         <v>49</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -5240,17 +6596,17 @@
         <v>53</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="9"/>
     </row>
     <row r="83" spans="1:9" ht="30">
       <c r="A83" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>54</v>
@@ -5263,17 +6619,17 @@
         <v>25</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" ht="45">
       <c r="A84" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>56</v>
@@ -5288,21 +6644,21 @@
         <v>57</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>59</v>
@@ -5317,27 +6673,27 @@
         <v>32</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>52</v>
@@ -5346,24 +6702,24 @@
         <v>49</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30">
       <c r="A87" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="14" t="s">
@@ -5373,21 +6729,21 @@
         <v>49</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="45">
       <c r="A88" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -5398,21 +6754,21 @@
         <v>49</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -5420,24 +6776,24 @@
         <v>52</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="75">
       <c r="A90" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -5448,21 +6804,21 @@
         <v>32</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -5473,17 +6829,17 @@
         <v>53</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9" ht="30">
       <c r="A92" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>54</v>
@@ -5496,17 +6852,17 @@
         <v>25</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="9"/>
     </row>
     <row r="93" spans="1:9" ht="30">
       <c r="A93" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>56</v>
@@ -5521,21 +6877,21 @@
         <v>57</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>59</v>
@@ -5550,27 +6906,27 @@
         <v>32</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="30">
       <c r="A95" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>52</v>
@@ -5579,24 +6935,24 @@
         <v>49</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="14" t="s">
@@ -5606,21 +6962,21 @@
         <v>49</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -5628,23 +6984,23 @@
         <v>20</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9" ht="30">
       <c r="A98" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="14" t="s">
@@ -5654,57 +7010,57 @@
         <v>49</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="31" thickBot="1">
       <c r="A100" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G100" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>148</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="19"/>
@@ -5720,10 +7076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I84" sqref="A1:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5778,13 +7134,13 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5801,12 +7157,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="255">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -5822,7 +7178,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -5836,7 +7192,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -5872,7 +7228,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
@@ -5949,7 +7305,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
@@ -5997,7 +7353,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
@@ -6016,7 +7372,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -6035,7 +7391,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
@@ -6054,7 +7410,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
@@ -6073,7 +7429,7 @@
         <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -6094,13 +7450,13 @@
         <v>28</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
@@ -6119,7 +7475,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>18</v>
@@ -6136,13 +7492,13 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
@@ -6157,13 +7513,13 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9"/>
@@ -6186,13 +7542,13 @@
         <v>57</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75">
@@ -6213,7 +7569,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>18</v>
@@ -6230,7 +7586,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -6240,13 +7596,13 @@
         <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
@@ -6254,7 +7610,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -6265,33 +7621,33 @@
         <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="60">
       <c r="A24" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>54</v>
@@ -6305,14 +7661,14 @@
         <v>25</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="45">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>56</v>
@@ -6328,18 +7684,18 @@
         <v>28</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="120">
       <c r="A27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>59</v>
@@ -6355,24 +7711,24 @@
         <v>32</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="22" t="s">
@@ -6382,21 +7738,21 @@
         <v>49</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -6407,37 +7763,37 @@
         <v>49</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="75">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="90">
       <c r="A31" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -6449,13 +7805,13 @@
         <v>32</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
@@ -6472,12 +7828,12 @@
         <v>53</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" ht="150">
+    <row r="33" spans="1:9" ht="165">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -6493,7 +7849,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -6516,13 +7872,13 @@
         <v>28</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6543,13 +7899,13 @@
         <v>32</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6560,7 +7916,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7" t="s">
@@ -6570,13 +7926,13 @@
         <v>49</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="135">
@@ -6584,7 +7940,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -6595,41 +7951,41 @@
         <v>49</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
       <c r="A38" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105">
       <c r="A39" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -6638,16 +7994,16 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90">
@@ -6658,13 +8014,13 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="210">
@@ -6675,18 +8031,18 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
       <c r="A42" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -6695,16 +8051,16 @@
         <v>52</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="165">
@@ -6715,18 +8071,18 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="255">
       <c r="A44" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -6735,17 +8091,17 @@
         <v>52</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" ht="60">
       <c r="A45" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -6754,21 +8110,21 @@
         <v>52</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -6777,21 +8133,21 @@
         <v>52</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>48</v>
@@ -6802,24 +8158,24 @@
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="90">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -6830,21 +8186,21 @@
         <v>32</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -6855,18 +8211,18 @@
         <v>49</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>27</v>
@@ -6880,18 +8236,18 @@
         <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
       <c r="A51" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>32</v>
@@ -6905,18 +8261,18 @@
         <v>32</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6925,20 +8281,20 @@
         <v>52</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -6946,20 +8302,20 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -6967,17 +8323,17 @@
         <v>52</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" ht="30">
       <c r="A55" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6986,20 +8342,20 @@
         <v>52</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" ht="30">
       <c r="A56" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -7007,20 +8363,20 @@
         <v>52</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>48</v>
@@ -7030,27 +8386,27 @@
         <v>52</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="14" t="s">
@@ -7060,21 +8416,21 @@
         <v>49</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30">
       <c r="A59" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>27</v>
@@ -7087,21 +8443,21 @@
         <v>28</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30">
       <c r="A60" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>32</v>
@@ -7114,21 +8470,21 @@
         <v>32</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30">
       <c r="A61" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -7136,20 +8492,20 @@
         <v>52</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>48</v>
@@ -7159,27 +8515,27 @@
         <v>52</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="14" t="s">
@@ -7189,21 +8545,21 @@
         <v>49</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
       <c r="A64" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>27</v>
@@ -7216,21 +8572,21 @@
         <v>28</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="30">
       <c r="A65" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>32</v>
@@ -7243,18 +8599,18 @@
         <v>32</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -7266,37 +8622,37 @@
         <v>49</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="195">
       <c r="A67" s="5" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" ht="195">
+    <row r="68" spans="1:9" ht="90">
       <c r="A68" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -7305,347 +8661,1741 @@
         <v>52</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G68" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" ht="90">
-      <c r="A69" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="25" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>288</v>
+        <v>94</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>412</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="90">
       <c r="A70" s="5" t="s">
-        <v>290</v>
+        <v>128</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="25" t="s">
-        <v>251</v>
+      <c r="E70" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>291</v>
+        <v>129</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I70" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="180">
+      <c r="A71" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="31"/>
+      <c r="G72" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="H72" s="32"/>
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="1:9" ht="30">
+      <c r="A73" s="64"/>
+      <c r="B73" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="I73" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="64"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="64"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="90">
-      <c r="A71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H71" s="6" t="s">
+    <row r="76" spans="1:9" ht="84">
+      <c r="A76" s="34"/>
+      <c r="B76" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="H76" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="180">
-      <c r="A72" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" spans="1:9" ht="30">
-      <c r="A74" s="44"/>
-      <c r="B74" s="40" t="s">
+      <c r="I76" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="44"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="33" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="44"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="84">
+    </row>
+    <row r="77" spans="1:9" ht="45">
       <c r="A77" s="34"/>
       <c r="B77" s="31" t="s">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="H77" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="45">
-      <c r="A78" s="34"/>
-      <c r="B78" s="31" t="s">
-        <v>70</v>
-      </c>
+      <c r="H77" s="32"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="1:9" ht="30">
+      <c r="A78" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="31"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>53</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F78" s="31"/>
       <c r="G78" s="32" t="s">
-        <v>314</v>
+        <v>420</v>
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="33"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
-      <c r="A79" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="B79" s="31"/>
+    <row r="79" spans="1:9" ht="70">
+      <c r="A79" s="34"/>
+      <c r="B79" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="31"/>
+      <c r="F79" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="G79" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33"/>
-    </row>
-    <row r="80" spans="1:9" ht="70">
-      <c r="A80" s="34"/>
-      <c r="B80" s="31" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" s="31"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F80" s="31" t="s">
-        <v>53</v>
-      </c>
+      <c r="F80" s="31"/>
       <c r="G80" s="32" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="H80" s="32"/>
-      <c r="I80" s="33" t="s">
-        <v>316</v>
-      </c>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="B81" s="31"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
       <c r="E81" s="31" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="H81" s="32"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
       <c r="I81" s="33"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="28">
       <c r="A82" s="34"/>
-      <c r="B82" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="C82" s="31"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="D82" s="31"/>
       <c r="E82" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" spans="1:9" ht="28">
+      <c r="F82" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="34"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="B83" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="31"/>
       <c r="D83" s="31"/>
       <c r="E83" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>142</v>
+        <v>418</v>
       </c>
       <c r="H83" s="32"/>
-      <c r="I83" s="33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="34"/>
-      <c r="B84" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="1:9" ht="31" thickBot="1">
-      <c r="A85" s="35"/>
-      <c r="B85" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36" t="s">
+      <c r="I83" s="33"/>
+    </row>
+    <row r="84" spans="1:9" ht="31" thickBot="1">
+      <c r="A84" s="35"/>
+      <c r="B84" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="G85" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="38"/>
+      <c r="F84" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="H84" s="37"/>
+      <c r="I84" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+  </mergeCells>
+  <phoneticPr fontId="24"/>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{AB1C1CC0-9590-7041-A13D-22995CEE2EEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD54AD-8E5D-4B45-9582-E50E52A9C420}">
+  <dimension ref="A1:I85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="42" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="42" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45">
+      <c r="A17" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="1:9" ht="60">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" spans="1:9" ht="30">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+    </row>
+    <row r="44" spans="1:9" ht="45">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+    </row>
+    <row r="51" spans="1:9" ht="75">
+      <c r="A51" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="43"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="43"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="50"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="69"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="68"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="69"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="68"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="69"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="68"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="54"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="54"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="54"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="54"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="54"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="54"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="54"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+    </row>
+    <row r="85" spans="1:9" ht="21" thickBot="1">
+      <c r="A85" s="57"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
     <mergeCell ref="G74:G76"/>
     <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="C74:C76"/>
@@ -7655,8 +10405,9 @@
   </mergeCells>
   <phoneticPr fontId="24"/>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1" xr:uid="{AB1C1CC0-9590-7041-A13D-22995CEE2EEF}"/>
+    <hyperlink ref="A51" r:id="rId1" location="_ftnref1" display="applewebdata://36CC18F4-330A-4781-81CA-8EDA98B6FFCE/ - _ftnref1" xr:uid="{840AD232-17BE-C940-8168-E78AC1E9BA86}"/>
+    <hyperlink ref="G21" r:id="rId2" location="_ftn1" display="applewebdata://36CC18F4-330A-4781-81CA-8EDA98B6FFCE/ - _ftn1" xr:uid="{A21BF670-E7E2-AB43-A859-B5A599642C7D}"/>
   </hyperlinks>
-  <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BC91A9-E01E-BC44-8606-8014A527053A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B4DEC-67A3-0841-A7A8-E8A418DB84D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="620" windowWidth="29940" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50800" yWindow="460" windowWidth="29940" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="423">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -695,12 +695,6 @@
   </si>
   <si>
     <t>JP-Coreで定めるallergy-substanceコード表のコードを使用を推奨する。コード化できない場合には、code.textのみで記述する。コード化の有無にかかわらず、電子カルテシステム等で登録され表示されている文字列をcode.textに必ず設定すること。</t>
-  </si>
-  <si>
-    <t>使用するコード表（推奨）：ValueSethttp://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS
-CodeSystemは、category要素に対応して、http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyFoodAllergen_CS
-http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS
-http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyMedicationAllergen_CSの3つのいずれかから選択することが推奨されている。</t>
   </si>
   <si>
     <t>コードに対応する表示名</t>
@@ -3083,6 +3077,21 @@
       </rPr>
       <t>兆候。</t>
     </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>使用するコード表（推奨）：ValueSethttp://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS
+CodeSystemは、category要素に対応して、http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyFoodAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS
+http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyMedicationAllergen_CSの3つのいずれかから選択することが推奨されている。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/condition-ver-status</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>"SE"</t>
     <phoneticPr fontId="24"/>
   </si>
 </sst>
@@ -4680,8 +4689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4736,7 +4745,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -4794,7 +4803,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4974,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -5407,7 +5416,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>18</v>
@@ -5430,7 +5439,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>18</v>
@@ -5497,7 +5506,7 @@
         <v>28</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>204</v>
+        <v>420</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>18</v>
@@ -5551,7 +5560,7 @@
         <v>49</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>18</v>
@@ -5599,7 +5608,7 @@
         <v>83</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>18</v>
@@ -5616,7 +5625,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>18</v>
@@ -5633,7 +5642,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>18</v>
@@ -5656,7 +5665,7 @@
         <v>88</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>18</v>
@@ -5673,7 +5682,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>18</v>
@@ -5696,7 +5705,7 @@
         <v>92</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
@@ -5715,7 +5724,7 @@
         <v>94</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>18</v>
@@ -5738,7 +5747,7 @@
         <v>97</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>18</v>
@@ -5788,7 +5797,7 @@
         <v>32</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>18</v>
@@ -5813,7 +5822,7 @@
         <v>49</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>18</v>
@@ -5838,7 +5847,7 @@
         <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
@@ -5863,7 +5872,7 @@
         <v>32</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>18</v>
@@ -5968,7 +5977,7 @@
         <v>119</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
@@ -5991,7 +6000,7 @@
         <v>99</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>18</v>
@@ -6045,7 +6054,7 @@
         <v>28</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
@@ -6072,7 +6081,7 @@
         <v>32</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>18</v>
@@ -6120,7 +6129,7 @@
         <v>99</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>18</v>
@@ -6174,7 +6183,7 @@
         <v>28</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
@@ -6201,7 +6210,7 @@
         <v>32</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>18</v>
@@ -6266,7 +6275,7 @@
         <v>129</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>18</v>
@@ -6289,7 +6298,7 @@
         <v>132</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>18</v>
@@ -6417,7 +6426,7 @@
         <v>149</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="9"/>
@@ -6438,7 +6447,7 @@
         <v>53</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="9"/>
@@ -6461,7 +6470,7 @@
         <v>25</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="9"/>
@@ -6486,7 +6495,7 @@
         <v>57</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>18</v>
@@ -6544,7 +6553,7 @@
         <v>49</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>18</v>
@@ -6571,7 +6580,7 @@
         <v>49</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>18</v>
@@ -6673,7 +6682,7 @@
         <v>32</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>18</v>
@@ -6729,7 +6738,7 @@
         <v>49</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>18</v>
@@ -6804,7 +6813,7 @@
         <v>32</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>18</v>
@@ -6877,7 +6886,7 @@
         <v>57</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>18</v>
@@ -6906,7 +6915,7 @@
         <v>32</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>18</v>
@@ -6935,7 +6944,7 @@
         <v>49</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>18</v>
@@ -6962,7 +6971,7 @@
         <v>49</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>18</v>
@@ -7078,8 +7087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I84" sqref="A1:I84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7134,13 +7143,13 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7178,7 +7187,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -7192,7 +7201,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -7228,7 +7237,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
@@ -7372,7 +7381,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -7391,7 +7400,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
@@ -7429,7 +7438,7 @@
         <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -7475,7 +7484,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>18</v>
@@ -7492,13 +7501,13 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
@@ -7513,13 +7522,13 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9"/>
@@ -7548,7 +7557,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75">
@@ -7569,7 +7578,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>18</v>
@@ -7586,7 +7595,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -7596,7 +7605,7 @@
         <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>18</v>
@@ -7628,19 +7637,19 @@
     </row>
     <row r="24" spans="1:9" ht="60">
       <c r="A24" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
@@ -7666,7 +7675,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="45">
+    <row r="26" spans="1:9" ht="63">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -7684,13 +7693,13 @@
         <v>28</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>65</v>
+      <c r="I26" s="20" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="120">
@@ -7711,7 +7720,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>18</v>
@@ -7728,7 +7737,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="22" t="s">
@@ -7738,7 +7747,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>18</v>
@@ -7776,24 +7785,24 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="90">
       <c r="A31" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -7805,13 +7814,13 @@
         <v>32</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>74</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
@@ -7828,7 +7837,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -7849,7 +7858,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -7872,13 +7881,13 @@
         <v>28</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7905,7 +7914,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7916,7 +7925,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7" t="s">
@@ -7926,13 +7935,13 @@
         <v>49</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="135">
@@ -7951,41 +7960,41 @@
         <v>49</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
       <c r="A38" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="G38" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105">
       <c r="A39" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -7997,13 +8006,13 @@
         <v>83</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90">
@@ -8014,7 +8023,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>18</v>
@@ -8031,7 +8040,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>18</v>
@@ -8054,7 +8063,7 @@
         <v>88</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>18</v>
@@ -8071,7 +8080,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>18</v>
@@ -8094,7 +8103,7 @@
         <v>92</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
@@ -8113,13 +8122,13 @@
         <v>94</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30">
@@ -8136,7 +8145,7 @@
         <v>97</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>18</v>
@@ -8186,7 +8195,7 @@
         <v>32</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>18</v>
@@ -8211,7 +8220,7 @@
         <v>49</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>18</v>
@@ -8236,7 +8245,7 @@
         <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
@@ -8261,7 +8270,7 @@
         <v>32</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>18</v>
@@ -8366,7 +8375,7 @@
         <v>119</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
@@ -8389,7 +8398,7 @@
         <v>99</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>18</v>
@@ -8443,7 +8452,7 @@
         <v>28</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
@@ -8470,7 +8479,7 @@
         <v>32</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>18</v>
@@ -8518,7 +8527,7 @@
         <v>99</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>18</v>
@@ -8572,7 +8581,7 @@
         <v>28</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
@@ -8599,7 +8608,7 @@
         <v>32</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>18</v>
@@ -8633,7 +8642,7 @@
     </row>
     <row r="67" spans="1:9" ht="195">
       <c r="A67" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -8645,14 +8654,14 @@
         <v>92</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="90">
       <c r="A68" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -8664,36 +8673,36 @@
         <v>94</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="90">
@@ -8710,7 +8719,7 @@
         <v>129</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>18</v>
@@ -8733,18 +8742,18 @@
         <v>132</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H71" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -8754,7 +8763,7 @@
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
@@ -8762,7 +8771,7 @@
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="64"/>
       <c r="B73" s="60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
@@ -8773,13 +8782,13 @@
         <v>53</v>
       </c>
       <c r="G73" s="60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8792,7 +8801,7 @@
       <c r="G74" s="60"/>
       <c r="H74" s="62"/>
       <c r="I74" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8805,13 +8814,13 @@
       <c r="G75" s="60"/>
       <c r="H75" s="63"/>
       <c r="I75" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="84">
       <c r="A76" s="34"/>
       <c r="B76" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
@@ -8819,16 +8828,16 @@
         <v>20</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H76" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="45">
@@ -8845,14 +8854,14 @@
         <v>53</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="33"/>
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
@@ -8862,7 +8871,7 @@
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="33"/>
@@ -8881,16 +8890,16 @@
         <v>53</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
@@ -8900,7 +8909,7 @@
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="33"/>
@@ -8908,7 +8917,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="34"/>
       <c r="B81" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
@@ -8934,11 +8943,11 @@
         <v>49</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8955,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="33"/>
@@ -8974,7 +8983,7 @@
         <v>146</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="38"/>
@@ -8993,6 +9002,7 @@
   <phoneticPr fontId="24"/>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" xr:uid="{AB1C1CC0-9590-7041-A13D-22995CEE2EEF}"/>
+    <hyperlink ref="I26" r:id="rId2" xr:uid="{AED6A22D-53CC-2D42-BF5B-4C9F39BD1453}"/>
   </hyperlinks>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
 </worksheet>
@@ -9020,16 +9030,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>312</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>313</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>4</v>
@@ -9038,11 +9048,11 @@
         <v>5</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1" s="41"/>
       <c r="I1" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9055,11 +9065,11 @@
       <c r="E2" s="45"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="44"/>
       <c r="I2" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9093,7 +9103,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
@@ -9101,7 +9111,7 @@
     <row r="5" spans="1:9" ht="60">
       <c r="A5" s="43"/>
       <c r="B5" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -9112,11 +9122,11 @@
         <v>21</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9130,10 +9140,10 @@
         <v>52</v>
       </c>
       <c r="F6" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="44" t="s">
         <v>322</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>323</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
@@ -9141,7 +9151,7 @@
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="43"/>
       <c r="B7" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -9152,17 +9162,17 @@
         <v>32</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45">
       <c r="A8" s="43"/>
       <c r="B8" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -9170,29 +9180,29 @@
         <v>10</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="47"/>
@@ -9211,11 +9221,11 @@
         <v>28</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9232,28 +9242,28 @@
         <v>49</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="A12" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -9272,11 +9282,11 @@
         <v>28</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9293,16 +9303,16 @@
         <v>49</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -9314,16 +9324,16 @@
         <v>32</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -9339,12 +9349,12 @@
       </c>
       <c r="H16" s="44"/>
       <c r="I16" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -9356,7 +9366,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -9364,12 +9374,12 @@
     <row r="18" spans="1:9">
       <c r="A18" s="43"/>
       <c r="B18" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>25</v>
@@ -9386,17 +9396,17 @@
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9413,11 +9423,11 @@
         <v>32</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30">
@@ -9434,16 +9444,16 @@
         <v>49</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -9452,10 +9462,10 @@
         <v>10</v>
       </c>
       <c r="F22" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>355</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>356</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -9463,7 +9473,7 @@
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="43"/>
       <c r="B23" s="44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -9474,37 +9484,37 @@
         <v>49</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" s="44" t="s">
         <v>94</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -9516,7 +9526,7 @@
         <v>137</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H25" s="44"/>
       <c r="I25" s="48"/>
@@ -9535,16 +9545,16 @@
         <v>146</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H26" s="44"/>
       <c r="I26" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30">
       <c r="A27" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -9553,17 +9563,17 @@
         <v>20</v>
       </c>
       <c r="F27" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="G27" s="44" t="s">
         <v>367</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>368</v>
       </c>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -9575,7 +9585,7 @@
         <v>149</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
@@ -9583,7 +9593,7 @@
     <row r="29" spans="1:9" ht="30">
       <c r="A29" s="43"/>
       <c r="B29" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -9591,10 +9601,10 @@
         <v>20</v>
       </c>
       <c r="F29" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" s="44" t="s">
         <v>372</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>373</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
@@ -9602,18 +9612,18 @@
     <row r="30" spans="1:9" ht="30">
       <c r="A30" s="43"/>
       <c r="B30" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
       <c r="E30" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="44" t="s">
         <v>374</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>375</v>
       </c>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
@@ -9622,7 +9632,7 @@
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
@@ -9632,28 +9642,28 @@
         <v>28</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" s="44" t="s">
         <v>380</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>381</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44">
@@ -9663,7 +9673,7 @@
     <row r="33" spans="1:9" ht="30">
       <c r="A33" s="43"/>
       <c r="B33" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
@@ -9674,7 +9684,7 @@
         <v>119</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
@@ -9693,7 +9703,7 @@
         <v>99</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H34" s="44"/>
       <c r="I34" s="44">
@@ -9714,11 +9724,11 @@
         <v>49</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H35" s="44"/>
       <c r="I35" s="44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
@@ -9735,11 +9745,11 @@
         <v>28</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H36" s="44"/>
       <c r="I36" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -9756,28 +9766,28 @@
         <v>32</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H37" s="44"/>
       <c r="I37" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="43"/>
       <c r="B38" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F38" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G38" s="44" t="s">
         <v>392</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>393</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -9796,7 +9806,7 @@
         <v>99</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44">
@@ -9817,11 +9827,11 @@
         <v>49</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H40" s="44"/>
       <c r="I40" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -9838,11 +9848,11 @@
         <v>28</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H41" s="44"/>
       <c r="I41" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -9859,16 +9869,16 @@
         <v>32</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H42" s="44"/>
       <c r="I42" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
       <c r="A43" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -9880,7 +9890,7 @@
         <v>149</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
@@ -9888,7 +9898,7 @@
     <row r="44" spans="1:9" ht="45">
       <c r="A44" s="43"/>
       <c r="B44" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
@@ -9908,13 +9918,13 @@
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
       <c r="E45" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>25</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -9933,11 +9943,11 @@
         <v>28</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H46" s="44"/>
       <c r="I46" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -9954,11 +9964,11 @@
         <v>32</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H47" s="44"/>
       <c r="I47" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -9975,11 +9985,11 @@
         <v>49</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H48" s="44"/>
       <c r="I48" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -10006,7 +10016,7 @@
     </row>
     <row r="51" spans="1:9" ht="75">
       <c r="A51" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B4DEC-67A3-0841-A7A8-E8A418DB84D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAD988-4228-6E4E-90C2-1C76E5B095A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50800" yWindow="460" windowWidth="29940" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17180" yWindow="5220" windowWidth="29940" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -7087,8 +7087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAD988-4228-6E4E-90C2-1C76E5B095A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F38F0B-B0BF-B845-8F53-EFF489E4AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="5220" windowWidth="29940" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34940" yWindow="760" windowWidth="24960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
     <sheet name="ConditionTable" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="MedicationRequestTable" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="2">Sheet1!$A$51</definedName>
-    <definedName name="_ftnref1" localSheetId="2">Sheet1!$H$21</definedName>
+    <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!$A$51</definedName>
+    <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$H$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="421">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -107,9 +107,6 @@
     <t>instant</t>
   </si>
   <si>
-    <t>最終更新日時。YYYY-MM-DDThh:mm:ss.sss+zz:zz</t>
-  </si>
-  <si>
     <t>例示</t>
   </si>
   <si>
@@ -661,12 +658,6 @@
     <t>recorder要素から参照される場合には、そのJP_Practitionerリソースの実体。JP_Practitionerリソースの必須要素だけが含まれればよい。</t>
   </si>
   <si>
-    <t>このアレルギー情報を作成した施設内で、このアレルギー情報を他のアレルギー情報と一意に区別できるID。このID情報をキーとして本アレルギー情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。</t>
-  </si>
-  <si>
-    <t>アレルギー情報IDの文字列。URI形式を使う場合には、urn:ietf:rfc:3986に準拠すること。</t>
-  </si>
-  <si>
     <t>臨床的状態のステータス。コードで記述は必須。ただし、verificationStatus要素が'entered-in-error'であれば、本要素は存在してはならない。それ以外では必須。</t>
   </si>
   <si>
@@ -871,9 +862,6 @@
       <t>電子カルテ情報共有サービスでは、JP_Patientリソースのcontainedは必須。</t>
     </r>
     <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>傷病名情報IDの文字列。URI形式を使う場合には、urn:ietf:rfc:3986に準拠すること。</t>
   </si>
   <si>
     <t>臨床的状態のステータスのコード化情報</t>
@@ -1066,10 +1054,6 @@
   </si>
   <si>
     <t>保険個人識別子(例では、保険者等番号＝12345、被保険者証等の記号＝あいう、被保険者証等の番号＝１８７、枝番＝05の患者)を記述した外部にある患者リソースを参照する場合の例。</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>この傷病名情報を作成した施設内で、この傷病名情報を他の傷病名情報と一意に区別できるID。このID情報をキーとして本傷病名情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。</t>
     <phoneticPr fontId="24"/>
   </si>
   <si>
@@ -1618,56 +1602,8 @@
     <t>値</t>
   </si>
   <si>
-    <r>
-      <t>MedicationRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リソースであることを示す</t>
-    </r>
-  </si>
-  <si>
     <t>"MedicationRequest"</t>
     <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>最終更新日時。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>YYYY-MM-DDThh:mm:ss.sss+zz:zz (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>. 2015-02-07T13:28:17.239+09:00)</t>
-    </r>
   </si>
   <si>
     <t>profile</t>
@@ -3092,6 +3028,80 @@
   </si>
   <si>
     <t>"SE"</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>MedicationRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースであることを示す。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>最終更新日時。YYYY-MM-DDThh:mm:ss.sss+zz:zz
+この要素は、このリソースのデータを取り込んで蓄積していたシステムが、このリソースになんらかの変更があった可能性があった日時を取得し、このデータを再取り込みする必要性の判断をするために使われる。本要素に前回取り込んだ時点より後の日時が設定されている場合には、なんらかの変更があった可能性がある（変更がない場合もある）ものとして判断される。したがって、内容になんらかの変更があった場合、またはこのリソースのデータが初めて作成された場合には、その時点以降の日時（たとえば、このリソースのデータを作成した日時）を設定しなければならない。内容の変更がない場合でも、このリソースのデータが作り直された場合や単に複写された場合にその日時を設定しなおしてもよい。ただし、内容に変更がないのであれば、日時を変更しなくてもよい。また、この要素の変更とmeta.versionIdの変更とは、必ずしも連動しないことがある。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <r>
+      <t>最終更新日時。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>YYYY-MM-DDThh:mm:ss.sss+zz:zz (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>. 2015-02-07T13:28:17.239+09:00)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+この要素は、このリソースのデータを取り込んで蓄積していたシステムが、このリソースになんらかの変更があった可能性があった日時を取得し、このデータを再取り込みする必要性の判断をするために使われる。本要素に前回取り込んだ時点より後の日時が設定されている場合には、なんらかの変更があった可能性がある（変更がない場合もある）ものとして判断される。したがって、内容になんらかの変更があった場合、またはこのリソースのデータが初めて作成された場合には、その時点以降の日時（たとえば、このリソースのデータを作成した日時）を設定しなければならない。内容の変更がない場合でも、このリソースのデータが作り直された場合や単に複写された場合にその日時を設定しなおしてもよい。ただし、内容に変更がないのであれば、日時を変更しなくてもよい。また、この要素の変更とmeta.versionIdの変更とは、必ずしも連動しないことがある。</t>
+    </r>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるID。このID情報をキーとして本リソース情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>このリソース情報IDの文字列。URI形式を使う場合には、urn:ietf:rfc:3986に準拠すること。</t>
     <phoneticPr fontId="24"/>
   </si>
 </sst>
@@ -4689,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4745,7 +4755,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -4768,12 +4778,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="255">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -4789,13 +4799,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
@@ -4803,24 +4813,24 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4828,18 +4838,18 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
@@ -4849,26 +4859,26 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
@@ -4876,26 +4886,26 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75">
@@ -4903,26 +4913,26 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30">
@@ -4930,127 +4940,127 @@
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="75">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="90">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="90">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="90">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>192</v>
+        <v>419</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="63">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -5058,24 +5068,24 @@
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -5083,374 +5093,374 @@
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="45">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="45">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="45">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="105">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="195">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="105">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5459,122 +5469,122 @@
         <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="75">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" ht="165">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -5582,21 +5592,21 @@
         <v>10</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105">
       <c r="A39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -5605,16 +5615,16 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90">
@@ -5625,13 +5635,13 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="210">
@@ -5642,36 +5652,36 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="24" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
       <c r="A42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="165">
@@ -5682,86 +5692,86 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="195">
       <c r="A44" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" ht="60">
       <c r="A45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="A46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -5769,49 +5779,49 @@
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="90">
       <c r="A48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -5819,584 +5829,584 @@
         <v>10</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
       <c r="A51" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" ht="30">
       <c r="A55" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" ht="30">
       <c r="A56" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30">
       <c r="A59" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30">
       <c r="A60" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30">
       <c r="A61" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
       <c r="A64" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="30">
       <c r="A65" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="90">
       <c r="A68" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="180">
       <c r="A69" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F69" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" ht="30">
       <c r="A71" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" ht="30">
       <c r="A74" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -6404,672 +6414,672 @@
         <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" ht="30">
       <c r="A75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" ht="225">
       <c r="A76" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G76" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" ht="195">
       <c r="A78" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G78" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="9"/>
     </row>
     <row r="83" spans="1:9" ht="30">
       <c r="A83" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" ht="45">
       <c r="A84" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G84" s="15" t="s">
+      <c r="H84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30">
       <c r="A87" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="45">
       <c r="A88" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="75">
       <c r="A90" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F91" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G91" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9" ht="30">
       <c r="A92" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="9"/>
     </row>
     <row r="93" spans="1:9" ht="30">
       <c r="A93" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G93" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="30">
       <c r="A95" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9" ht="30">
       <c r="A98" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="31" thickBot="1">
       <c r="A100" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="19"/>
@@ -7087,8 +7097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7143,13 +7153,13 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7166,7 +7176,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="9"/>
@@ -7187,13 +7197,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
@@ -7201,24 +7211,24 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7226,18 +7236,18 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
@@ -7247,26 +7257,26 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
@@ -7274,26 +7284,26 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75">
@@ -7301,26 +7311,26 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30">
@@ -7328,127 +7338,127 @@
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="75">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="90">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="90">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="90">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>274</v>
+        <v>419</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="63">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -7456,24 +7466,24 @@
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -7481,351 +7491,351 @@
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="30">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="45">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="60">
       <c r="A24" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="63">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="120">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="75">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="90">
       <c r="A31" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -7834,122 +7844,122 @@
         <v>10</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="165">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="135">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="135">
       <c r="A37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -7957,44 +7967,44 @@
         <v>10</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
       <c r="A38" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="H38" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105">
       <c r="A39" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -8003,16 +8013,16 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90">
@@ -8023,13 +8033,13 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="210">
@@ -8040,36 +8050,36 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
       <c r="A42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="165">
@@ -8080,86 +8090,86 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="255">
       <c r="A44" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" ht="60">
       <c r="A45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="A46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -8167,49 +8177,49 @@
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="90">
       <c r="A48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -8217,553 +8227,553 @@
         <v>10</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
       <c r="A51" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" ht="30">
       <c r="A55" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" ht="30">
       <c r="A56" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30">
       <c r="A59" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30">
       <c r="A60" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30">
       <c r="A61" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
       <c r="A64" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="30">
       <c r="A65" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="195">
       <c r="A67" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="90">
       <c r="A68" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="90">
       <c r="A70" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="180">
       <c r="A71" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="34" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="32" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
@@ -8771,24 +8781,24 @@
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="64"/>
       <c r="B73" s="60" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F73" s="60" t="s">
-        <v>53</v>
-      </c>
       <c r="G73" s="60" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8801,7 +8811,7 @@
       <c r="G74" s="60"/>
       <c r="H74" s="62"/>
       <c r="I74" s="33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8814,64 +8824,64 @@
       <c r="G75" s="60"/>
       <c r="H75" s="63"/>
       <c r="I75" s="33" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="84">
       <c r="A76" s="34"/>
       <c r="B76" s="31" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H76" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="45">
       <c r="A77" s="34"/>
       <c r="B77" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F77" s="31" t="s">
-        <v>53</v>
-      </c>
       <c r="G77" s="32" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="33"/>
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="32" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="33"/>
@@ -8879,37 +8889,37 @@
     <row r="79" spans="1:9" ht="70">
       <c r="A79" s="34"/>
       <c r="B79" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="33" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="32" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="33"/>
@@ -8917,12 +8927,12 @@
     <row r="81" spans="1:9">
       <c r="A81" s="34"/>
       <c r="B81" s="31" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
       <c r="E81" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
@@ -8933,38 +8943,38 @@
       <c r="A82" s="34"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D82" s="31"/>
       <c r="E82" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="33" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="34"/>
       <c r="B83" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
       <c r="E83" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="33"/>
@@ -8972,7 +8982,7 @@
     <row r="84" spans="1:9" ht="31" thickBot="1">
       <c r="A84" s="35"/>
       <c r="B84" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
@@ -8980,10 +8990,10 @@
         <v>10</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="38"/>
@@ -9012,8 +9022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD54AD-8E5D-4B45-9582-E50E52A9C420}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9030,16 +9040,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="40" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>4</v>
@@ -9048,11 +9058,11 @@
         <v>5</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H1" s="41"/>
       <c r="I1" s="41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9065,11 +9075,11 @@
       <c r="E2" s="45"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="H2" s="44"/>
       <c r="I2" s="46" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9089,7 +9099,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="270">
       <c r="A4" s="43"/>
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -9103,7 +9113,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
@@ -9111,39 +9121,39 @@
     <row r="5" spans="1:9" ht="60">
       <c r="A5" s="43"/>
       <c r="B5" s="44" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="44" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
@@ -9151,7 +9161,7 @@
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="43"/>
       <c r="B7" s="44" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -9159,20 +9169,20 @@
         <v>10</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="47" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45">
       <c r="A8" s="43"/>
       <c r="B8" s="44" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -9180,29 +9190,29 @@
         <v>10</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="43" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="47"/>
@@ -9210,7 +9220,7 @@
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="43"/>
       <c r="B10" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -9218,20 +9228,20 @@
         <v>10</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="43"/>
       <c r="B11" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -9239,31 +9249,31 @@
         <v>10</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="A12" s="43" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="45" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -9271,7 +9281,7 @@
     <row r="13" spans="1:9" ht="30">
       <c r="A13" s="43"/>
       <c r="B13" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -9279,20 +9289,20 @@
         <v>10</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="43"/>
       <c r="B14" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -9300,19 +9310,19 @@
         <v>10</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="43" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -9321,19 +9331,19 @@
         <v>10</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="44" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -9342,19 +9352,19 @@
         <v>10</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="44" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="44"/>
       <c r="I16" s="44" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="43" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -9363,10 +9373,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -9374,15 +9384,15 @@
     <row r="18" spans="1:9">
       <c r="A18" s="43"/>
       <c r="B18" s="44" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="45" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
@@ -9392,68 +9402,68 @@
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="45" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="43" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -9462,10 +9472,10 @@
         <v>10</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -9473,7 +9483,7 @@
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="43"/>
       <c r="B23" s="44" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -9481,52 +9491,52 @@
         <v>10</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="43" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="45" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="44" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H25" s="44"/>
       <c r="I25" s="48"/>
@@ -9534,7 +9544,7 @@
     <row r="26" spans="1:9" ht="60">
       <c r="A26" s="43"/>
       <c r="B26" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
@@ -9542,38 +9552,38 @@
         <v>10</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H26" s="44"/>
       <c r="I26" s="44" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30">
       <c r="A27" s="43" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="43" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -9582,10 +9592,10 @@
         <v>10</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
@@ -9593,18 +9603,18 @@
     <row r="29" spans="1:9" ht="30">
       <c r="A29" s="43"/>
       <c r="B29" s="44" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
       <c r="E29" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
@@ -9612,18 +9622,18 @@
     <row r="30" spans="1:9" ht="30">
       <c r="A30" s="43"/>
       <c r="B30" s="44" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
       <c r="E30" s="45" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
@@ -9632,38 +9642,38 @@
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44">
@@ -9673,18 +9683,18 @@
     <row r="33" spans="1:9" ht="30">
       <c r="A33" s="43"/>
       <c r="B33" s="44" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
@@ -9693,17 +9703,17 @@
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H34" s="44"/>
       <c r="I34" s="44">
@@ -9714,80 +9724,80 @@
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H35" s="44"/>
       <c r="I35" s="44" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
       <c r="A36" s="43"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="44"/>
       <c r="E36" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H36" s="44"/>
       <c r="I36" s="44" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="43"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H37" s="44"/>
       <c r="I37" s="44" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="43"/>
       <c r="B38" s="44" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="45" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -9796,17 +9806,17 @@
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="44"/>
       <c r="E39" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44">
@@ -9817,80 +9827,80 @@
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H40" s="44"/>
       <c r="I40" s="49" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="43"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H41" s="44"/>
       <c r="I41" s="44" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="44"/>
       <c r="E42" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H42" s="44"/>
       <c r="I42" s="44" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
       <c r="A43" s="43" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
       <c r="E43" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
@@ -9898,7 +9908,7 @@
     <row r="44" spans="1:9" ht="45">
       <c r="A44" s="43"/>
       <c r="B44" s="44" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
@@ -9906,7 +9916,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
@@ -9918,13 +9928,13 @@
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
       <c r="E45" s="45" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -9934,20 +9944,20 @@
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H46" s="44"/>
       <c r="I46" s="44" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -9955,20 +9965,20 @@
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H47" s="44"/>
       <c r="I47" s="44" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -9976,20 +9986,20 @@
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H48" s="44"/>
       <c r="I48" s="44" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -10016,7 +10026,7 @@
     </row>
     <row r="51" spans="1:9" ht="75">
       <c r="A51" s="43" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F38F0B-B0BF-B845-8F53-EFF489E4AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EBFDF5-336A-D544-AB8D-E16352B41B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34940" yWindow="760" windowWidth="24960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="460" windowWidth="24960" windowHeight="20580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
     <sheet name="ConditionTable" sheetId="4" r:id="rId2"/>
-    <sheet name="MedicationRequestTable" sheetId="5" r:id="rId3"/>
+    <sheet name="MedicationRequestTable" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!$A$51</definedName>
-    <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$H$21</definedName>
+    <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!#REF!</definedName>
+    <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$H$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="428">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -70,7 +70,7 @@
     <rPh sb="7" eb="8">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>固定値 または例示</t>
@@ -80,7 +80,7 @@
     <rPh sb="7" eb="9">
       <t>レイジ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>resourceType</t>
@@ -636,11 +636,11 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>0..1</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t/>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t>コードに対応する表示名</t>
-  </si>
-  <si>
-    <t>このアレルギー不耐症を有する患者のFHIRリソースへの参照。Bundleリソースなどで本リソースから参照可能なPatientリソースが同時に存在する場合には、そのリソースの識別URIを参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）、保険個人識別子が記述される外部リソースが蓄積されていてそれを参照する場合の記述（次次行の例）を示す。</t>
   </si>
   <si>
     <t>このアレルギ情報を記録したときの受診情報（入外区分など）を記述しているEncounterリソースへの参照。Bundleリソースなどで本リソースから参照可能なEncouertリソースが同時に存在する場合には、そのリソースの識別URIを参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）。</t>
@@ -780,11 +777,11 @@
   </si>
   <si>
     <t>profile[+]</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>AllergyIntoleranceリソースであることを示す。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -802,7 +799,7 @@
       </rPr>
       <t>電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報はや薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -820,30 +817,30 @@
       </rPr>
       <t>電子カルテ情報共有サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、category要素の記述を参照すること。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合は、JP_Patientタイプのリソース（Patient.idの値が"#patient203987"と仮定）が本リソースのContainedリソースとして埋め込み記述が必須であるため、そのcontainedリソースのid値(Patient.id)を記述する例２となる。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>Conditionリソースであることを示す</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"Condition"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>本リソースのタグ情報</t>
     <rPh sb="0" eb="10">
       <t xml:space="preserve">ジョウホウ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>encounter要素から参照される場合には、そのJP_Encounterリソースの実体。JP_Encounterリソースの必須要素だけが含まれればよい。ここで埋め込まれるJP_Encounterリソースでは、Encounter.classにこの情報を記録したときの受診情報（入外区分など）を記述して使用する。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -861,50 +858,50 @@
       </rPr>
       <t>電子カルテ情報共有サービスでは、JP_Patientリソースのcontainedは必須。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>臨床的状態のステータスのコード化情報</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"http://terminology.hl7.org/CodeSystem/condition-clinical"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>コード表　http://terminology.hl7.org/CodeSystem/condition-clinical　から　active（存続）, remission(軽快、寛解), inactive（治癒以外での病名の終了）, resolved (治癒) 、unknown（不明）のいずれかを選ぶ。</t>
     <rPh sb="141" eb="143">
       <t xml:space="preserve">フメイ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>Active|Remission|Resolved|Unknownのいずれかの文字列。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>1..*</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"encounter-diagnosi"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>0..1</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>Unconfirmed|Confirmed|Refuted|EnteredinErrorのいずれかの文字列。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>1..1</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>コードで記述が必須で、少なくともひとつのsystem値は固定値。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>unconfirmed|confirmed|refuted|entered-in-error(未確認|確認済み|否定された|入力エラー)のいずれか（ValueSethttp://hl7.org/fhir/ValueSet/allergyintolerance-verificationより選択することが必須）。
@@ -913,26 +910,26 @@
     <rPh sb="182" eb="183">
       <t xml:space="preserve">カナラズ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>severity</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>verificationStatus</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>1..1</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>臨床的状態。病名最終日（abatementDateTime)での状態（転帰）。コードでの記述は必須。ただし、verificationStatus要素が'entered-in-error'であれば、本要素は存在してはならない。それ以外では、必須。</t>
     <rPh sb="108" eb="110">
       <t>ヨウソ _x0000_l_x0002__x0004__x0002__x0008_</t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t xml:space="preserve">潜在的な臨床的危険性、致命度。記述する場合は、コード表："http://jpfhir.jp/fhir/core/CodeSystem/JP_ConditionSeverity_CS"からMI：軽度、MO：中度、SE：重度、UK：不明のいずれかを設定する。
@@ -940,11 +937,11 @@
     <rPh sb="122" eb="124">
       <t xml:space="preserve">セッテイ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>urn:oid:1.2.392.200119.4.101.2</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t xml:space="preserve">MEDIS 病名交換コード：urn:oid:1.2.392.200119.4.101.6
@@ -965,15 +962,15 @@
     <rPh sb="126" eb="127">
       <t>_x0000__x0008_"十二指腸潰瘍"_x0001__x0000_ĉ_x0000__x0008_耀_x0008_"十二</t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"十二指腸潰瘍"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"20064049"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t xml:space="preserve">	傷病名のコードと名称。code.texはコード化の有無にかかわらず病名入力文字列を必ずそのまま設定する。</t>
@@ -998,7 +995,7 @@
     <rPh sb="48" eb="50">
       <t xml:space="preserve">セッテイ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"十二指腸潰瘍・H1期"</t>
@@ -1008,61 +1005,54 @@
     <rPh sb="10" eb="11">
       <t xml:space="preserve">キ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>bodySite</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>0..*</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>CodeableConcept</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>例 1
 {
   "reference":  "urn: ....."
 }</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>.coding[+].system = .coding[=]."urn:oid:1.2.392.200119.4.201.5"
 .coding[=].code = "1244"
 .coding[=].display ="腹部"
 .text"腹部"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>該当する状態が現れている解剖学的な場所を示す。
 system値はMEDIS標準病名マスター修飾語交換用コードを使用する場合の例示。"1244"は、MEDIS標準病名マスター修飾語交換用コードで"腹部"のコード。"腹部"はそのテキスト記述の例。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>subject</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>対象となる患者のFHIRリソースへの参照。Bundleリソースなどで本リソースから参照可能なPatientリソースが同時に存在する場合には、そのリソースの識別URIを参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）、保険個人識別子が記述される外部リソースが蓄積されていてそれを参照する場合の記述（次次行の例）を示す。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">タイショウ </t>
-    </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>保険個人識別子(例では、保険者等番号＝12345、被保険者証等の記号＝あいう、被保険者証等の番号＝１８７、枝番＝05の患者)を記述した外部にある患者リソースを参照する場合の例。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>この傷病名情報を記録したときの受診情報（入外区分など）を記述しているEncounterリソースへの参照。Bundleリソースなどで本リソースから参照可能なEncouertリソースが同時に存在する場合には、そのリソースの識別URIを参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合は、JP_Patientタイプのリソース（Patient.idの値が"#patient203987"と仮定）が本リソースのContainedリソースとして埋め込み記述されることが必須であるため、そのcontainedリソースのid値(Patient.id)を記述する例２となる。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -1083,7 +1073,7 @@
     <rPh sb="268" eb="270">
       <t xml:space="preserve">ヒッス </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -1101,22 +1091,22 @@
       </rPr>
       <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合には、JP_Encounterタイプのリソース（Encounter.idの値が"#encounter203987"と仮定）が本リソースのContainedリソースとして埋め込み記述されることが必須であるため、そのcontainedリソースのid値(Encounter.id)を記述する例2となる。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"2018"
 "1973-06"
 "1989-08-23"
 "2015-02-07T13:28:17+09:00"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>（abatement）</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>abatementDateTime</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -1170,7 +1160,7 @@
     <rPh sb="108" eb="110">
       <t xml:space="preserve">ホウホウ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -1293,27 +1283,27 @@
     <rPh sb="293" eb="296">
       <t xml:space="preserve">レイガイテキ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>一時点の記述方式：
 日付または日時。年や年月だけでもよい。例：2018,1973-06,1905-08-23,2015-02-07T13:28:17+09:00。
 時刻に24:00の使用はできない。
 dateTime以外の方法で記述したい場合には、oncet要素の説明を参照のこと。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t xml:space="preserve">"1989-08-23"
 </t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>recordedDate</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"1989-08-23"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>stage</t>
@@ -1417,11 +1407,11 @@
     <t>{
    "display":  "本人 の母 "
 }</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>例示</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -1446,18 +1436,18 @@
       </rPr>
       <t>肺癌分類、など。当面コーディングをせず、text記述だけ必要に応じて行う。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>状態を裏付ける症状や所見。system値はMEDIS標準病名マスター病名交換用コードを使用する場合の例示。"BOEF"は、MEDIS標準病名マスター病名交換用コードで"持続腹痛"のコード。"持続腹痛"はそのテキスト記述の例。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"urn:oid:1.2.392.200119.4.101.6"
 "B0EF"
 "持続腹痛"
 "長く続く腹部の痛み"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -1507,7 +1497,7 @@
     <rPh sb="138" eb="140">
       <t xml:space="preserve">セッテイ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>最終更新日時。YYYY-MM-DDThh:mm:ss.sss+zz:zz
@@ -1515,11 +1505,11 @@
     <rPh sb="133" eb="136">
       <t xml:space="preserve">ホンヨウソ </t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>display</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -1536,186 +1526,64 @@
       </rPr>
       <t>疑い病名フラグとしても使用される。</t>
     </r>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>要素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lv1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>要素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lv2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>要素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lv3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>要素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lv4</t>
-    </r>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>説明</t>
-    <phoneticPr fontId="18"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>値</t>
   </si>
   <si>
     <t>"MedicationRequest"</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>profile</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を指定する。値は固定。処方情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述仕様の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を使用する。</t>
-    </r>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_MedicationRequest_ePrescriptionData"</t>
   </si>
   <si>
-    <t>Narrative</t>
-  </si>
-  <si>
-    <t>本リソースをテキストで表現したものを入れてもよい。</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>固定値。テキスト内容の全てがリソースのコンテンツから生成されたことを示す。</t>
-  </si>
-  <si>
-    <t>"generated"</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>xhtml</t>
-  </si>
-  <si>
-    <t>&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;xxx&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
     <t>1..1*</t>
   </si>
   <si>
-    <r>
-      <t>剤グループ（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rp</t>
+    <t>"urn:oid:1.2.392.100495.20.3.81"</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.3.82"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
+  </si>
+  <si>
+    <t>"completed"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>"order"</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>"urn:oid: 1.2.392.200119.4.403.1"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"103831601"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1725,7 +1593,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>）番号。詳細は「</t>
+      <t>カルボシステイン錠２５０ｍｇ</t>
     </r>
     <r>
       <rPr>
@@ -1734,7 +1602,21 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>4.9.2</t>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>authoredOn</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"2020-08-21T12:28:17+09:00"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>"4</t>
     </r>
     <r>
       <rPr>
@@ -1744,12 +1626,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>剤グループ構造とその番号」参照。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>剤グループ番号の名前空間を識別する</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -1758,7 +1635,228 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>URI</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日間服用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週間休薬後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日間服用。患者に書面にて説明済み。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>dispenseRequest</t>
+  </si>
+  <si>
+    <t>調剤情報</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>0..1*</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>頓用回数を表現する拡張「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ExpectedRepeatCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。</t>
+    </r>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/ePrescription/StructureDefinition/ExpectedRepeatCount"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>valueInteger</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>頓用回数。値は例示。</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>調剤量</t>
+  </si>
+  <si>
+    <t>調剤量。値は例示。</t>
+  </si>
+  <si>
+    <t>単位文字列。値は例示。</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>錠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>医薬品単位略号を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URL</t>
     </r>
     <r>
       <rPr>
@@ -1772,754 +1870,6 @@
     </r>
   </si>
   <si>
-    <t>"urn:oid:1.2.392.100495.20.3.81"</t>
-  </si>
-  <si>
-    <t>剤グループ番号</t>
-  </si>
-  <si>
-    <t>"1"</t>
-  </si>
-  <si>
-    <r>
-      <t>剤グループ内連番。詳細は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.9.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>剤グループ構造とその番号」参照。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>剤グループ内番号の名前空間を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。固定値。</t>
-    </r>
-  </si>
-  <si>
-    <t>"urn:oid:1.2.392.100495.20.3.82"</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>剤グループ内連番。</t>
-  </si>
-  <si>
-    <r>
-      <t>過去処方は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>固定値</t>
-    </r>
-  </si>
-  <si>
-    <t>"completed"</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t>"order"</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <r>
-      <t>医薬品コードと医薬品名称。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>coding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>要素を繰り返すことで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HOT9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>や</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>YJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コードなど複数のコード体系で医薬品コードを並記することが可能。</t>
-    </r>
-  </si>
-  <si>
-    <t>coding</t>
-  </si>
-  <si>
-    <r>
-      <t>医薬品コード（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HOT9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。値は例示。</t>
-    </r>
-  </si>
-  <si>
-    <t>"urn:oid: 1.2.392.200119.4.403.1"</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>医薬品コード（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HOT9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）。値は例示</t>
-    </r>
-  </si>
-  <si>
-    <t>"103831601"</t>
-  </si>
-  <si>
-    <t>医薬品名称。値は例示[1]。</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>カルボシステイン錠２５０ｍｇ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <r>
-      <t>患者を表す</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Patient</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リソースへの参照。</t>
-    </r>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <r>
-      <t>Patient</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リソースの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>fullUrl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>要素に指定される</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UUID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を指定。値は例示。</t>
-    </r>
-  </si>
-  <si>
-    <t>"urn:uuid:1af0a9a6-a91d-3aef-fc4e-069995b89c4f"</t>
-  </si>
-  <si>
-    <t>authoredOn</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。値は例示。</t>
-  </si>
-  <si>
-    <t>"2020-08-21T12:28:17+09:00"</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>薬剤単位の備考。詳細は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.9.8.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薬剤単位の指示」</t>
-    </r>
-  </si>
-  <si>
-    <t>備考文字列。値は例示。</t>
-  </si>
-  <si>
-    <r>
-      <t>"4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日から</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日間服用。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>週間休薬後、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日から</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日間服用。患者に書面にて説明済み。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>dosageInstruction</t>
-  </si>
-  <si>
-    <t>Dosage</t>
-  </si>
-  <si>
-    <r>
-      <t>用法や投与量を含む処方指示。詳細は表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>16-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に記載。</t>
-    </r>
-  </si>
-  <si>
-    <t>dispenseRequest</t>
-  </si>
-  <si>
-    <t>調剤情報</t>
-  </si>
-  <si>
-    <t>extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <r>
-      <t>調剤指示を表す拡張「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>InstructionForDispense</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」。表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>16-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に示す。</t>
-    </r>
-  </si>
-  <si>
-    <t>0..1*</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>頓用回数を表現する拡張「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>ExpectedRepeatCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」。</t>
-    </r>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <r>
-      <t>拡張を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。固定値。</t>
-    </r>
-  </si>
-  <si>
-    <t>"http://jpfhir.jp/fhir/ePrescription/StructureDefinition/ExpectedRepeatCount"</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <t>valueInteger</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>頓用回数。値は例示。</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>調剤量</t>
-  </si>
-  <si>
-    <t>調剤量。値は例示。</t>
-  </si>
-  <si>
-    <t>単位文字列。値は例示。</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>錠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>医薬品単位略号を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。固定値。</t>
-    </r>
-  </si>
-  <si>
     <t>"urn:oid:1.2.392.100495.20.2.101"</t>
   </si>
   <si>
@@ -2533,7 +1883,7 @@
   </si>
   <si>
     <t>Duration</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>調剤日数</t>
@@ -2542,155 +1892,21 @@
     <t>調剤日数。値は例示。</t>
   </si>
   <si>
-    <t>調剤日数の単位。「日」固定。</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>UCUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>単位コードを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。固定値。</t>
-    </r>
-  </si>
-  <si>
     <t>"http://unitsofmeasure.org"</t>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
-    <r>
-      <t>「日」を表す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UCUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>単位コード。固定値。</t>
-    </r>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"d"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>substitution</t>
   </si>
   <si>
-    <r>
-      <t>後発医薬品への変更可否情報。詳細は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>後発品変更可否」参照。</t>
-    </r>
-  </si>
-  <si>
     <t>allowedCodeableConcept</t>
   </si>
   <si>
     <t>後発品変更不可コード。</t>
-  </si>
-  <si>
-    <r>
-      <t>後発品変更不可コードを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。固定値。</t>
-    </r>
   </si>
   <si>
     <t>"urn:oid:1.2.392.100495.20.2.41"</t>
@@ -2724,9 +1940,6 @@
       </rPr>
       <t>"</t>
     </r>
-  </si>
-  <si>
-    <t>[1] 本文書中の例では、実際の医薬品名称を使用している。</t>
   </si>
   <si>
     <r>
@@ -2771,15 +1984,15 @@
     <rPh sb="260" eb="262">
       <t>_x0000_k_x0002__x0006_</t>
     </rPh>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>この状態が記録された日時。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>summary</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -2928,23 +2141,23 @@
       </rPr>
       <t>はそのテキスト記述の例。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>この状態の臨床的ステージやグレード表現。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>患者状態に関する追加的な情報</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>記載者氏名などの文字列。必ずしも氏名でなくてもよい。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>この追加的な情報が作成された日時。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -2988,7 +2201,7 @@
       </rPr>
       <t>バイト以内であること。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -3013,22 +2226,22 @@
       </rPr>
       <t>兆候。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>使用するコード表（推奨）：ValueSethttp://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS
 CodeSystemは、category要素に対応して、http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyFoodAllergen_CS
 http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS
 http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyMedicationAllergen_CSの3つのいずれかから選択することが推奨されている。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/condition-ver-status</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>"SE"</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -3044,12 +2257,12 @@
       </rPr>
       <t>リソースであることを示す。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>最終更新日時。YYYY-MM-DDThh:mm:ss.sss+zz:zz
 この要素は、このリソースのデータを取り込んで蓄積していたシステムが、このリソースになんらかの変更があった可能性があった日時を取得し、このデータを再取り込みする必要性の判断をするために使われる。本要素に前回取り込んだ時点より後の日時が設定されている場合には、なんらかの変更があった可能性がある（変更がない場合もある）ものとして判断される。したがって、内容になんらかの変更があった場合、またはこのリソースのデータが初めて作成された場合には、その時点以降の日時（たとえば、このリソースのデータを作成した日時）を設定しなければならない。内容の変更がない場合でも、このリソースのデータが作り直された場合や単に複写された場合にその日時を設定しなおしてもよい。ただし、内容に変更がないのであれば、日時を変更しなくてもよい。また、この要素の変更とmeta.versionIdの変更とは、必ずしも連動しないことがある。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -3094,26 +2307,607 @@
       <t xml:space="preserve">
 この要素は、このリソースのデータを取り込んで蓄積していたシステムが、このリソースになんらかの変更があった可能性があった日時を取得し、このデータを再取り込みする必要性の判断をするために使われる。本要素に前回取り込んだ時点より後の日時が設定されている場合には、なんらかの変更があった可能性がある（変更がない場合もある）ものとして判断される。したがって、内容になんらかの変更があった場合、またはこのリソースのデータが初めて作成された場合には、その時点以降の日時（たとえば、このリソースのデータを作成した日時）を設定しなければならない。内容の変更がない場合でも、このリソースのデータが作り直された場合や単に複写された場合にその日時を設定しなおしてもよい。ただし、内容に変更がないのであれば、日時を変更しなくてもよい。また、この要素の変更とmeta.versionIdの変更とは、必ずしも連動しないことがある。</t>
     </r>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるID。このID情報をキーとして本リソース情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>このリソース情報IDの文字列。URI形式を使う場合には、urn:ietf:rfc:3986に準拠すること。</t>
-    <phoneticPr fontId="24"/>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>対象となる患者のFHIRリソースへの参照。Bundleリソースなどで本リソースから参照可能なPatientリソースが同時に存在する場合には、そのリソースの識別URI（fullUrl要素に指定されるUUID）を参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）、保険個人識別子が記述される外部リソースが蓄積されていてそれを参照する場合の記述（次次行の例）を示す。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイショウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>このアレルギー不耐症を有する患者のFHIRリソースへの参照。Bundleリソースなどで本リソースから参照可能なPatientリソースが同時に存在する場合には、そのリソースの識別URI（fullUrl要素に指定されるUUID）を参照する。Containedリソースが存在する場合には、それを参照する記述（次行の例）、保険個人識別子が記述される外部リソースが蓄積されていてそれを参照する場合の記述（次次行の例）を示す。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv4</t>
+    </r>
+  </si>
+  <si>
+    <t>1..1</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるID。このID情報をキーとして本リソース情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。処方を発行したシステムで固有に発番している処方オーダ番号。に相当する。
+さらにidentifierとして、処方特有の剤グループを識別する番号、剤グループ内の番号情報も格納する。</t>
+    <rPh sb="187" eb="189">
+      <t xml:space="preserve">ソウトウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>このリソース情報IDの文字列。URI形式を使う場合には、urn:ietf:rfc:3986に準拠すること。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>剤グループ（Rp）番号。剤グループ番号の名前空間を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>剤グループ番号</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>剤グループ内連番。剤グループ内番号の名前空間を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。固定値。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>調剤が完了しているかどうかは不明であるが、交付が完了した処方として、completed　を設定することとする。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コウフ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">チョウザイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">フメイ </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>投薬指示の意図。order を設定する。</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>category[*]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>0..1</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>薬剤使用区分</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショホウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハッコウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">クブン </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>category[+]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> JP Core Medication Oral/External Category ValueSetとして、MERIT9コード：http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCategoryMERIT9_CS、またはJHSP0007コード　http://jpfhir.jp/fhir/core/CodeSystem/JHSP0007　のいずれかを使用する。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>category[=]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>MERIT9コードから、OHP:外来処方、OHI:院内処方（外来）、OHO:院外処方（外来）、IHP:入院処方、DCG:退院時処方、ORD:定期処方（入院）、XTR:臨時処方(入院）
+JHSP0007コードから、BDP:持参薬処方　などを使用することができる。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>例示</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>OHI</t>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>OHI:院内処方、OHO:院外処方、IHP:入院処方、DCG:退院時処方、ORD:定期処方、XTR:臨時処方、BDP:持参薬処方　</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>院内処方</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品コードと医薬品名称。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>coding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要素を繰り返すことで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HOT9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>YJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コードなど複数のコード体系で医薬品コードを並記することが可能。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>coding[*]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>coding[+]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ共有サービスで使用する場合には、YJコード、HOT9またはHOT7コード、厚生労働省一般名コードのいずれかを必須とする。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>coding[=]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>医薬品コード</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>医薬品名称。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>note[*]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>0..1*</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>薬剤単位の備考。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>note[+]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>備考文字列。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>dosageInstruction[*]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>1..*</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>用法や投与量を含む処方指示。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>extension[*]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>調剤指示を表す拡張「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructionForDispense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>extension[+]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>拡張を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>extension[=]</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>調剤日数の単位。「日」</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>「日」を表す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コード。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>後発医薬品への変更可否情報。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>後発品変更不可コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI。</t>
+    </r>
+    <phoneticPr fontId="35"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3363,14 +3157,43 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3596,6 +3419,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3995,353 +3824,374 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="76">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4385,6 +4235,7 @@
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="43" xr:uid="{DE8C59AF-A319-5D47-A13C-DABA585E8E85}"/>
+    <cellStyle name="標準 3" xfId="44" xr:uid="{EB4AC03A-1603-E242-BDA6-B6DC169DB09C}"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4699,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4755,7 +4606,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -4799,7 +4650,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>17</v>
@@ -4813,7 +4664,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4993,7 +4844,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -5050,7 +4901,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -5096,7 +4947,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>17</v>
@@ -5133,7 +4984,7 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -5156,7 +5007,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -5183,7 +5034,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -5210,7 +5061,7 @@
         <v>153</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -5235,7 +5086,7 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="39" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -5426,7 +5277,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>17</v>
@@ -5449,7 +5300,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>17</v>
@@ -5486,7 +5337,7 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="49" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -5516,7 +5367,7 @@
         <v>27</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>17</v>
@@ -5604,7 +5455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="105">
+    <row r="39" spans="1:9" ht="120">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -5618,7 +5469,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>202</v>
+        <v>374</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>17</v>
@@ -5635,7 +5486,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>17</v>
@@ -5644,7 +5495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="210">
+    <row r="41" spans="1:9" ht="195">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5652,7 +5503,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>17</v>
@@ -5675,7 +5526,7 @@
         <v>87</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>17</v>
@@ -5692,7 +5543,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>17</v>
@@ -5715,7 +5566,7 @@
         <v>91</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
@@ -5734,7 +5585,7 @@
         <v>93</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>17</v>
@@ -5757,7 +5608,7 @@
         <v>96</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>17</v>
@@ -5807,7 +5658,7 @@
         <v>31</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
@@ -5832,7 +5683,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>17</v>
@@ -5857,7 +5708,7 @@
         <v>27</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
@@ -5882,7 +5733,7 @@
         <v>31</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
@@ -5987,7 +5838,7 @@
         <v>118</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
@@ -6010,7 +5861,7 @@
         <v>98</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>17</v>
@@ -6064,7 +5915,7 @@
         <v>27</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
@@ -6091,7 +5942,7 @@
         <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>17</v>
@@ -6139,7 +5990,7 @@
         <v>98</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>17</v>
@@ -6193,7 +6044,7 @@
         <v>27</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
@@ -6220,7 +6071,7 @@
         <v>31</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>17</v>
@@ -6285,7 +6136,7 @@
         <v>128</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>17</v>
@@ -6308,7 +6159,7 @@
         <v>131</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>17</v>
@@ -6436,7 +6287,7 @@
         <v>148</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="9"/>
@@ -6457,7 +6308,7 @@
         <v>52</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="9"/>
@@ -6480,7 +6331,7 @@
         <v>24</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="9"/>
@@ -6505,7 +6356,7 @@
         <v>56</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>17</v>
@@ -6590,7 +6441,7 @@
         <v>48</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>17</v>
@@ -6692,7 +6543,7 @@
         <v>31</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>17</v>
@@ -6748,7 +6599,7 @@
         <v>48</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>17</v>
@@ -6823,7 +6674,7 @@
         <v>31</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>17</v>
@@ -6896,7 +6747,7 @@
         <v>56</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>17</v>
@@ -6925,7 +6776,7 @@
         <v>31</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>17</v>
@@ -6954,7 +6805,7 @@
         <v>48</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>17</v>
@@ -6981,7 +6832,7 @@
         <v>48</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>17</v>
@@ -7085,7 +6936,7 @@
       <c r="I100" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24"/>
+  <phoneticPr fontId="25"/>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" xr:uid="{31259AA5-2232-FE45-B527-54F5618754A7}"/>
   </hyperlinks>
@@ -7097,8 +6948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G17"/>
+    <sheetView showGridLines="0" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7153,13 +7004,13 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7197,7 +7048,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>17</v>
@@ -7211,7 +7062,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -7247,7 +7098,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
@@ -7391,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -7410,7 +7261,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
@@ -7448,7 +7299,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -7494,7 +7345,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>17</v>
@@ -7511,13 +7362,13 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
@@ -7531,14 +7382,14 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>242</v>
+      <c r="E19" s="39" t="s">
+        <v>241</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9"/>
@@ -7554,7 +7405,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -7567,7 +7418,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75">
@@ -7581,14 +7432,14 @@
         <v>31</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>17</v>
@@ -7605,17 +7456,17 @@
         <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>17</v>
@@ -7633,7 +7484,7 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="39" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -7647,19 +7498,19 @@
     </row>
     <row r="24" spans="1:9" ht="60">
       <c r="A24" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
@@ -7703,13 +7554,13 @@
         <v>27</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="120">
@@ -7730,7 +7581,7 @@
         <v>31</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>17</v>
@@ -7747,7 +7598,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="22" t="s">
@@ -7757,7 +7608,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>17</v>
@@ -7775,7 +7626,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -7795,24 +7646,24 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="90">
       <c r="A31" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -7824,13 +7675,13 @@
         <v>31</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
@@ -7847,7 +7698,7 @@
         <v>52</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -7862,13 +7713,13 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -7891,13 +7742,13 @@
         <v>27</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7924,7 +7775,7 @@
         <v>17</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7935,7 +7786,7 @@
         <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7" t="s">
@@ -7951,7 +7802,7 @@
         <v>17</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="135">
@@ -7970,41 +7821,41 @@
         <v>48</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
       <c r="A38" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="G38" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105">
       <c r="A39" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -8016,13 +7867,13 @@
         <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90">
@@ -8033,7 +7884,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>17</v>
@@ -8042,7 +7893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="210">
+    <row r="41" spans="1:9" ht="195">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -8050,7 +7901,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>17</v>
@@ -8073,7 +7924,7 @@
         <v>87</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>17</v>
@@ -8090,7 +7941,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>17</v>
@@ -8113,7 +7964,7 @@
         <v>91</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
@@ -8132,13 +7983,13 @@
         <v>93</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30">
@@ -8155,7 +8006,7 @@
         <v>96</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>17</v>
@@ -8205,7 +8056,7 @@
         <v>31</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
@@ -8230,7 +8081,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>17</v>
@@ -8255,7 +8106,7 @@
         <v>27</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>11</v>
@@ -8280,7 +8131,7 @@
         <v>31</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
@@ -8385,7 +8236,7 @@
         <v>118</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="9"/>
@@ -8408,7 +8259,7 @@
         <v>98</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>17</v>
@@ -8462,7 +8313,7 @@
         <v>27</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>11</v>
@@ -8489,7 +8340,7 @@
         <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>17</v>
@@ -8537,7 +8388,7 @@
         <v>98</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>17</v>
@@ -8591,7 +8442,7 @@
         <v>27</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
@@ -8618,7 +8469,7 @@
         <v>31</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>17</v>
@@ -8652,7 +8503,7 @@
     </row>
     <row r="67" spans="1:9" ht="195">
       <c r="A67" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -8664,14 +8515,14 @@
         <v>91</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="90">
       <c r="A68" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -8683,36 +8534,36 @@
         <v>93</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>93</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="90">
@@ -8729,7 +8580,7 @@
         <v>128</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>17</v>
@@ -8752,18 +8603,18 @@
         <v>131</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H71" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -8773,64 +8624,64 @@
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="32" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="64"/>
-      <c r="B73" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60" t="s">
+      <c r="A73" s="48"/>
+      <c r="B73" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="60" t="s">
+      <c r="F73" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>296</v>
+      <c r="G73" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="48"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="48"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="33" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="64"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="64"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="33" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="84">
       <c r="A76" s="34"/>
       <c r="B76" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
@@ -8838,16 +8689,16 @@
         <v>19</v>
       </c>
       <c r="F76" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G76" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="G76" s="32" t="s">
-        <v>290</v>
-      </c>
       <c r="H76" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="45">
@@ -8864,14 +8715,14 @@
         <v>52</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="33"/>
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
@@ -8881,7 +8732,7 @@
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="32" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="33"/>
@@ -8900,16 +8751,16 @@
         <v>52</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
@@ -8919,7 +8770,7 @@
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="32" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="33"/>
@@ -8927,7 +8778,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="34"/>
       <c r="B81" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
@@ -8953,11 +8804,11 @@
         <v>48</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8974,7 +8825,7 @@
         <v>93</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="33"/>
@@ -8993,7 +8844,7 @@
         <v>145</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="38"/>
@@ -9009,7 +8860,7 @@
     <mergeCell ref="E73:E75"/>
     <mergeCell ref="F73:F75"/>
   </mergeCells>
-  <phoneticPr fontId="24"/>
+  <phoneticPr fontId="25"/>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" xr:uid="{AB1C1CC0-9590-7041-A13D-22995CEE2EEF}"/>
     <hyperlink ref="I26" r:id="rId2" xr:uid="{AED6A22D-53CC-2D42-BF5B-4C9F39BD1453}"/>
@@ -9019,1414 +8870,1344 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD54AD-8E5D-4B45-9582-E50E52A9C420}">
-  <dimension ref="A1:I85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="161" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="42" customWidth="1"/>
-    <col min="2" max="4" width="7.85546875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="42"/>
+    <col min="1" max="1" width="11.28515625" style="75" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="75" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="41" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="59"/>
+    </row>
+    <row r="4" spans="1:9" ht="270">
+      <c r="A4" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="41" t="s">
+    </row>
+    <row r="6" spans="1:9" s="65" customFormat="1">
+      <c r="A6" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="45">
+      <c r="A7" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="30">
+      <c r="A8" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="65" customFormat="1">
+      <c r="A9" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="75">
+      <c r="A10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="135">
+      <c r="A11" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" s="65" customFormat="1" ht="45">
+      <c r="A12" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="65" customFormat="1" ht="30">
+      <c r="A13" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32" customHeight="1">
+      <c r="A20" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="59"/>
+    </row>
+    <row r="21" spans="1:9" ht="102" customHeight="1">
+      <c r="A21" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="91" customHeight="1">
+      <c r="A22" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="58" customHeight="1">
+      <c r="A23" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="1:9" ht="28">
+      <c r="A25" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="59"/>
+    </row>
+    <row r="26" spans="1:9" ht="60">
+      <c r="A26" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28">
+      <c r="A27" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="65" customFormat="1" ht="105">
+      <c r="A29" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="65" customFormat="1" ht="90">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="65" customFormat="1" ht="185" customHeight="1">
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="I33" s="73"/>
+    </row>
+    <row r="34" spans="1:9" ht="60">
+      <c r="A34" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28">
+      <c r="A35" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="59"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="59"/>
+    </row>
+    <row r="37" spans="1:9" ht="28">
+      <c r="A37" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="H37" s="42"/>
+      <c r="I37" s="59"/>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="59"/>
+    </row>
+    <row r="39" spans="1:9" ht="45">
+      <c r="A39" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="E39" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28">
+      <c r="A40" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="55"/>
+      <c r="E40" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="1:9" ht="28">
+      <c r="A42" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="55"/>
+      <c r="E42" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28">
+      <c r="A43" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="E43" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="55"/>
+      <c r="E44" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="I44" s="59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28">
+      <c r="A45" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="55"/>
+      <c r="E45" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28">
+      <c r="A46" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="H46" s="42"/>
+      <c r="I46" s="59"/>
+    </row>
+    <row r="47" spans="1:9" ht="28">
+      <c r="A47" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="55"/>
+      <c r="E47" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28">
+      <c r="A48" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="E48" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="I48" s="74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28">
+      <c r="A49" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28">
+      <c r="A50" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="55"/>
+      <c r="E50" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="I50" s="59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="59"/>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="59"/>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="D53" s="55"/>
+      <c r="E53" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="F53" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="59"/>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="H54" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="I54" s="59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28">
+      <c r="A55" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="59" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" ht="270">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" ht="60">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
+    <row r="56" spans="1:9" ht="28">
+      <c r="A56" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="47" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="44" t="s">
+      <c r="F56" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45">
-      <c r="A17" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-    </row>
-    <row r="19" spans="1:9" ht="30">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="44" t="s">
+      <c r="G56" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44" t="s">
+      <c r="H56" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="59" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-    </row>
-    <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="1:9" ht="30">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="1:9" ht="45">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="45">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="49" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30">
-      <c r="A43" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-    </row>
-    <row r="44" spans="1:9" ht="45">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-    </row>
-    <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>396</v>
-      </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-    </row>
-    <row r="51" spans="1:9" ht="75">
-      <c r="A51" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="43"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="43"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="43"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="43"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="43"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="43"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="43"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="43"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="43"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="43"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="43"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="43"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="43"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="43"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="43"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="50"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="43"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="69"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="68"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="69"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="68"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="69"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="68"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="54"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="54"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="54"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="54"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="54"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="54"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-    </row>
-    <row r="85" spans="1:9" ht="21" thickBot="1">
-      <c r="A85" s="57"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-  </mergeCells>
-  <phoneticPr fontId="24"/>
+  <phoneticPr fontId="25"/>
   <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1" location="_ftnref1" display="applewebdata://36CC18F4-330A-4781-81CA-8EDA98B6FFCE/ - _ftnref1" xr:uid="{840AD232-17BE-C940-8168-E78AC1E9BA86}"/>
-    <hyperlink ref="G21" r:id="rId2" location="_ftn1" display="applewebdata://36CC18F4-330A-4781-81CA-8EDA98B6FFCE/ - _ftn1" xr:uid="{A21BF670-E7E2-AB43-A859-B5A599642C7D}"/>
+    <hyperlink ref="G28" r:id="rId1" location="_ftn1" display="applewebdata://36CC18F4-330A-4781-81CA-8EDA98B6FFCE/ - _ftn1" xr:uid="{DD89D984-68AD-A44F-AB88-FE866478FB77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EBFDF5-336A-D544-AB8D-E16352B41B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DC3656-7FC1-1B4B-A1E5-2F5E5ACC880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="24960" windowHeight="20580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="2260" windowWidth="27920" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
     <sheet name="ConditionTable" sheetId="4" r:id="rId2"/>
     <sheet name="MedicationRequestTable" sheetId="6" r:id="rId3"/>
+    <sheet name="dosageInstructionTable" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!#REF!</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="555">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -2706,10 +2707,6 @@
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <t>用法や投与量を含む処方指示。</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
     <t>extension[*]</t>
     <phoneticPr fontId="35"/>
   </si>
@@ -2889,13 +2886,1622 @@
       <t>URI。</t>
     </r>
     <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>valuePeriod</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>valueDuration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>boundsDuration</t>
+  </si>
+  <si>
+    <t>asNeededBoolean</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>numerator</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <r>
+      <t>服用開始日から服用終了日までの全日数。実投与日数ではないことに注意する。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様を参照。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>頓用型の用法を指定する場合に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を指定する。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様を参照。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>外用薬で部位を指定する場合に使用する。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様を参照。</t>
+    </r>
+  </si>
+  <si>
+    <t>部位のテキスト表現。</t>
+  </si>
+  <si>
+    <t>投与経路</t>
+  </si>
+  <si>
+    <t>投与経路の文字列表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>投与方法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>力価区分。</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回投与量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>医薬品単位略号を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>OID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日投与量を表す。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日投与量。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日投与量の分母である「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日」を表す。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「日」を表す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コード。</t>
+    </r>
+  </si>
+  <si>
+    <t>投与期間を表す</t>
+  </si>
+  <si>
+    <t>単位「日」。</t>
+  </si>
+  <si>
+    <r>
+      <t>補足的な処方指示。本文書では、不均等投与を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日用法として記載する場合に、補足用法コードを記録するために使用する。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様を参照。</t>
+    </r>
+  </si>
+  <si>
+    <t>不均等投与の表現文字列。</t>
+  </si>
+  <si>
+    <t>服用タイミングを記録する。</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse"</t>
+  </si>
+  <si>
+    <t>"2020-08-21"</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"d"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内服・経口・１日３回朝昼夕食後　１回１錠　７日分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.200250.2.2.20.22"</t>
+  </si>
+  <si>
+    <t>"V14NNNNN"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不均等・１回目・４錠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>１日３回　毎食後　７錠（４錠－２錠－１錠）</t>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.200250.2.2.20"</t>
+  </si>
+  <si>
+    <t>"1013044400000000"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内服・経口・１日３回朝昼夕食後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.200250.2.2.20.32"</t>
+  </si>
+  <si>
+    <t>"950"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>膝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes"</t>
+  </si>
+  <si>
+    <t>"PO"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>経口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.200250.2.2.20.30"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.2.22"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>製剤量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>用法や投与量を含む処方指示。表「dosageInstructionTable」を参照のこと。</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>固定値 
+／ 例 示</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>extension[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>extension[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>extension[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コテイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>値</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>処方期間の開始日</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>..1*</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>投与開始日を明示するために使用する拡張「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>PeriodOfUse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。投与開始日を明示しない処方の場合には、処方箋発行日を投与開始日として設定する。</t>
+    </r>
+    <rPh sb="33" eb="36">
+      <t>メイジテ_x0000_!</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>_x0003__x0006_'_x0002_</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">
+,_x0002__x000F_/</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>_x0002__x0013_4_x0003_</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>_x001A_7_x0003_ ;_x0002_$</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>=_x0003_)C_x0002__x0000_</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>_x0000__x0000__x0000_c</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>_x0008_c隔日投</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明示したい場合に使用する拡張</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UsageDuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様も参照すること。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>additionalInstruction[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>coding[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>coding[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>coding[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>additionalInstruction[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>additionalInstruction[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>event[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>doseAndRate[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>doseAndRate[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>doseAndRate[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>投与方法に対応する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用法コード表基本用法１桁コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）を使用してもよい。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法のコード化の有無にかかわらず、用法の完全な文字列を設定する。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ウム </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">カンゼン </t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法。できるかぎりコード化をすることを推奨する。</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">スイショウ </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">スイショウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>標準用法コードによりコード化することを推奨する。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様も参照すること。施設固有のコード化による記述も可能であるが、できるかぎり、JAMI標準用法コードと併用することが望ましい。</t>
+    </r>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t xml:space="preserve">ノゾマシイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>標準用法の場合にはJAMI標準用法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>施設固有コードの場合にはXXXXXXを設定する。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シセツ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">コユウ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法コード</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法コードに対応する表示名。</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>日を意味する単位コード「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>単位コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のコード体系を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>JAMI補足用法８桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>単位コードUCUMにおける実投与日数の単位を表すコード。</t>
+  </si>
+  <si>
+    <t>JAMI外用部位３桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>投与経路コード表のsystemを設定する。</t>
+  </si>
+  <si>
+    <t>力価区分コードのコード体系を識別するURI。</t>
+  </si>
+  <si>
+    <t>UCUM単位コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>拡張を識別するURL。</t>
+  </si>
+  <si>
+    <t>拡張を識別するためのURL。</t>
+  </si>
+  <si>
+    <t>単位コード UCUMを識別するURI。</t>
+  </si>
+  <si>
+    <t>投薬日数の単位文字列。</t>
+  </si>
+  <si>
+    <t>実投与日数。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>dosageInstruction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が表す処方指示の文字列表現。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>補足用法コード指定する。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>コードの表示名。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投薬日数。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部位コード。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部位コードの表示名。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与経路コード表で規定するコード。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与経路コード表で規定するコードの表示名。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用法コード表基本用法１桁コード。同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）を使用してもよい。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用法コード表基本用法１桁コードの表示名。同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）を使用してもよい。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>投与量を記録する。記録方法の詳細は、「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6.9.3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内服薬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　２</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」参照。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>力価区分コードの表示名。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する。詳細は処方情報HL７FHIR記述仕様を参照。</t>
+  </si>
+  <si>
+    <t>力価区分コード。（1：製剤量　2：原薬量）</t>
+  </si>
+  <si>
+    <t>1回投与量。</t>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
+  </si>
+  <si>
+    <t>医薬品単位略号。</t>
+  </si>
+  <si>
+    <t>1日投与量。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3192,6 +4798,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -3428,7 +5064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -3823,6 +5459,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3961,7 +5702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4094,6 +5835,84 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4109,86 +5928,71 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="34" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4550,8 +6354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5337,7 +7141,7 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -5495,7 +7299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="195">
+    <row r="41" spans="1:9" ht="210">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -6948,7 +8752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -7626,7 +9430,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="44" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -7893,7 +9697,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="195">
+    <row r="41" spans="1:9" ht="210">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -8630,22 +10434,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="48"/>
-      <c r="B73" s="44" t="s">
+      <c r="A73" s="74"/>
+      <c r="B73" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44" t="s">
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="44" t="s">
+      <c r="G73" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="H73" s="45" t="s">
+      <c r="H73" s="71" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -8653,27 +10457,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="48"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="46"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="72"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="48"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="47"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="73"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -8873,15 +10677,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="161" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A32" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="75" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="75" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="69" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="69" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" style="41" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="41" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" style="41" customWidth="1"/>
@@ -8890,17 +10694,17 @@
     <col min="10" max="16384" width="10.7109375" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="75">
+      <c r="A1" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>378</v>
       </c>
       <c r="E1" s="40" t="s">
@@ -8912,40 +10716,42 @@
       <c r="G1" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="53" t="s">
+      <c r="H1" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="47" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>379</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="52" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -8953,18 +10759,18 @@
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
-      <c r="I3" s="59"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="270">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="42" t="s">
@@ -8973,226 +10779,226 @@
       <c r="G4" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="57" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="53" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="65" customFormat="1">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:9" s="59" customFormat="1">
+      <c r="A6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="64" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="62"/>
-    </row>
-    <row r="7" spans="1:9" s="65" customFormat="1" ht="45">
-      <c r="A7" s="60" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" s="59" customFormat="1" ht="45">
+      <c r="A7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="56" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="65" customFormat="1" ht="30">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:9" s="59" customFormat="1" ht="30">
+      <c r="A8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="65" customFormat="1">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:9" s="59" customFormat="1">
+      <c r="A9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="67" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="62"/>
-    </row>
-    <row r="10" spans="1:9" s="65" customFormat="1" ht="75">
-      <c r="A10" s="60" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" s="59" customFormat="1" ht="75">
+      <c r="A10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="67" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62"/>
-    </row>
-    <row r="11" spans="1:9" s="65" customFormat="1" ht="135">
-      <c r="A11" s="60" t="s">
+      <c r="H10" s="51"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" s="59" customFormat="1" ht="135">
+      <c r="A11" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="68" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="62"/>
-    </row>
-    <row r="12" spans="1:9" s="65" customFormat="1" ht="45">
-      <c r="A12" s="60" t="s">
+      <c r="H11" s="51"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" s="59" customFormat="1" ht="45">
+      <c r="A12" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="68" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="63" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="65" customFormat="1" ht="30">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:9" s="59" customFormat="1" ht="30">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="68" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="68" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="42" t="s">
@@ -9201,23 +11007,23 @@
       <c r="G14" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="53" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="68" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="42" t="s">
@@ -9226,23 +11032,23 @@
       <c r="G15" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="53" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="68" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="42" t="s">
@@ -9251,23 +11057,23 @@
       <c r="G16" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="53" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="68" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="42" t="s">
@@ -9276,21 +11082,21 @@
       <c r="G17" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="53" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="42" t="s">
@@ -9299,21 +11105,21 @@
       <c r="G18" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="53" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="42" t="s">
@@ -9323,18 +11129,18 @@
         <v>386</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="53" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="70" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="64" t="s">
         <v>388</v>
       </c>
       <c r="F20" s="42" t="s">
@@ -9344,18 +11150,18 @@
         <v>389</v>
       </c>
       <c r="H20" s="42"/>
-      <c r="I20" s="59"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" ht="102" customHeight="1">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="70" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="64" t="s">
         <v>379</v>
       </c>
       <c r="F21" s="42" t="s">
@@ -9364,23 +11170,23 @@
       <c r="G21" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="53" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="91" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="70" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="64" t="s">
         <v>379</v>
       </c>
       <c r="F22" s="42" t="s">
@@ -9389,23 +11195,23 @@
       <c r="G22" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="53" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" customHeight="1">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="70" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="64" t="s">
         <v>388</v>
       </c>
       <c r="F23" s="42" t="s">
@@ -9414,21 +11220,21 @@
       <c r="G23" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="53" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50" t="s">
         <v>379</v>
       </c>
       <c r="F24" s="42" t="s">
@@ -9438,18 +11244,18 @@
         <v>400</v>
       </c>
       <c r="H24" s="42"/>
-      <c r="I24" s="59"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="1:9" ht="28">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50" t="s">
         <v>241</v>
       </c>
       <c r="F25" s="42" t="s">
@@ -9457,20 +11263,20 @@
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="59"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="50" t="s">
         <v>250</v>
       </c>
       <c r="F26" s="42" t="s">
@@ -9479,25 +11285,25 @@
       <c r="G26" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="53" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="42" t="s">
@@ -9506,25 +11312,25 @@
       <c r="G27" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="53" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="42" t="s">
@@ -9533,78 +11339,78 @@
       <c r="G28" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="53" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="65" customFormat="1" ht="105">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:9" s="59" customFormat="1" ht="105">
+      <c r="A29" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="68" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="65" customFormat="1" ht="90">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="72" t="s">
+    <row r="30" spans="1:9" s="59" customFormat="1" ht="90">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="65" customFormat="1" ht="185" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57" t="s">
+    <row r="31" spans="1:9" s="59" customFormat="1" ht="185" customHeight="1">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="H31" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="56" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50" t="s">
         <v>245</v>
       </c>
       <c r="F32" s="42" t="s">
@@ -9613,20 +11419,20 @@
       <c r="G32" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="53" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="43" t="s">
         <v>409</v>
       </c>
@@ -9637,17 +11443,17 @@
         <v>410</v>
       </c>
       <c r="H33" s="42"/>
-      <c r="I33" s="73"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" spans="1:9" ht="60">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="43" t="s">
         <v>10</v>
       </c>
@@ -9657,40 +11463,40 @@
       <c r="G34" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="53" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28">
-      <c r="A35" s="54" t="s">
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56" t="s">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50" t="s">
         <v>414</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>322</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>415</v>
+        <v>491</v>
       </c>
       <c r="H35" s="42"/>
-      <c r="I35" s="59"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="42" t="s">
@@ -9700,17 +11506,17 @@
         <v>324</v>
       </c>
       <c r="H36" s="42"/>
-      <c r="I36" s="59"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" ht="28">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B37" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
+      <c r="B37" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="43" t="s">
         <v>19</v>
       </c>
@@ -9718,20 +11524,20 @@
         <v>325</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H37" s="42"/>
-      <c r="I37" s="59"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
+      <c r="B38" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="43" t="s">
         <v>326</v>
       </c>
@@ -9742,19 +11548,19 @@
         <v>327</v>
       </c>
       <c r="H38" s="42"/>
-      <c r="I38" s="59"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="1:9" ht="45">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B39" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="C39" s="55" t="s">
+      <c r="B39" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="43" t="s">
         <v>10</v>
       </c>
@@ -9762,26 +11568,26 @@
         <v>27</v>
       </c>
       <c r="G39" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="H39" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="I39" s="53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28">
+      <c r="A40" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="I39" s="59" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="28">
-      <c r="A40" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="43" t="s">
         <v>10</v>
       </c>
@@ -9791,22 +11597,22 @@
       <c r="G40" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="H40" s="57" t="s">
+      <c r="H40" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="59">
+      <c r="I40" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="43" t="s">
         <v>51</v>
       </c>
@@ -9817,19 +11623,19 @@
         <v>334</v>
       </c>
       <c r="H41" s="42"/>
-      <c r="I41" s="59"/>
+      <c r="I41" s="53"/>
     </row>
     <row r="42" spans="1:9" ht="28">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="43" t="s">
         <v>10</v>
       </c>
@@ -9839,24 +11645,24 @@
       <c r="G42" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="59">
+      <c r="I42" s="53">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="28">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="55"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="43" t="s">
         <v>10</v>
       </c>
@@ -9866,24 +11672,24 @@
       <c r="G43" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="53" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="43" t="s">
         <v>10</v>
       </c>
@@ -9893,24 +11699,24 @@
       <c r="G44" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="I44" s="59" t="s">
+      <c r="H44" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I44" s="53" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="28">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="55"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="43" t="s">
         <v>10</v>
       </c>
@@ -9920,22 +11726,22 @@
       <c r="G45" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="53" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="28">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="43" t="s">
         <v>243</v>
       </c>
@@ -9946,19 +11752,19 @@
         <v>344</v>
       </c>
       <c r="H46" s="42"/>
-      <c r="I46" s="59"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="1:9" ht="28">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="43" t="s">
         <v>10</v>
       </c>
@@ -9968,24 +11774,24 @@
       <c r="G47" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="H47" s="57" t="s">
+      <c r="H47" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="59">
+      <c r="I47" s="53">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="28">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="55"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="43" t="s">
         <v>10</v>
       </c>
@@ -9993,26 +11799,26 @@
         <v>48</v>
       </c>
       <c r="G48" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I48" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="H48" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="I48" s="74" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="49" spans="1:9" ht="28">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="43" t="s">
         <v>10</v>
       </c>
@@ -10020,26 +11826,26 @@
         <v>27</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="H49" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="I49" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I49" s="53" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="28">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="43" t="s">
         <v>10</v>
       </c>
@@ -10047,22 +11853,22 @@
         <v>31</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="I50" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I50" s="53" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="43" t="s">
         <v>51</v>
       </c>
@@ -10070,20 +11876,20 @@
         <v>148</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H51" s="42"/>
-      <c r="I51" s="59"/>
+      <c r="I51" s="53"/>
     </row>
     <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="43" t="s">
         <v>10</v>
       </c>
@@ -10092,19 +11898,19 @@
       </c>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="53"/>
     </row>
     <row r="53" spans="1:9" ht="30">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="D53" s="55"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="43" t="s">
         <v>307</v>
       </c>
@@ -10115,19 +11921,19 @@
         <v>350</v>
       </c>
       <c r="H53" s="42"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="53"/>
     </row>
     <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="49" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="43" t="s">
@@ -10137,26 +11943,26 @@
         <v>27</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="H54" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="I54" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I54" s="53" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="28">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="49" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="43" t="s">
@@ -10168,24 +11974,24 @@
       <c r="G55" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H55" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="59" t="s">
+      <c r="I55" s="53" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="49" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="43" t="s">
@@ -10197,10 +12003,10 @@
       <c r="G56" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="H56" s="57" t="s">
+      <c r="H56" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="53" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10211,4 +12017,1868 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="87" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="87" customWidth="1"/>
+    <col min="5" max="5" width="5" style="87" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="87" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="87" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="93" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75">
+      <c r="A1" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45">
+      <c r="A2" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="88" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>501</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="I2" s="90"/>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="90"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>502</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>533</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>536</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="H10" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I10" s="90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>534</v>
+      </c>
+      <c r="H11" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>527</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>537</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="90" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60">
+      <c r="A14" s="76" t="s">
+        <v>503</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>464</v>
+      </c>
+      <c r="H14" s="85"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>538</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="90" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>539</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="90" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>466</v>
+      </c>
+      <c r="H20" s="85"/>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>510</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>549</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:9" ht="45">
+      <c r="A23" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>447</v>
+      </c>
+      <c r="H23" s="85"/>
+      <c r="I23" s="90"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>540</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>535</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I25" s="90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>525</v>
+      </c>
+      <c r="H26" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I26" s="90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>524</v>
+      </c>
+      <c r="H27" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I27" s="90" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>519</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="90"/>
+    </row>
+    <row r="29" spans="1:9" ht="75">
+      <c r="A29" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="90"/>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="90" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>523</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="90" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" s="90"/>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>448</v>
+      </c>
+      <c r="H34" s="85"/>
+      <c r="I34" s="90"/>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>449</v>
+      </c>
+      <c r="H35" s="85"/>
+      <c r="I35" s="90"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="78"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="90"/>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="78" t="s">
+        <v>528</v>
+      </c>
+      <c r="H37" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I37" s="90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="78"/>
+      <c r="E38" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="78" t="s">
+        <v>541</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="78" t="s">
+        <v>542</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="90" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="77" t="s">
+        <v>450</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="90" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="H41" s="85"/>
+      <c r="I41" s="90"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="B42" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="78"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="90"/>
+    </row>
+    <row r="43" spans="1:9" ht="45">
+      <c r="A43" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="H43" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I43" s="90" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="77" t="s">
+        <v>543</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="90" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="B45" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="77" t="s">
+        <v>544</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="90" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="B46" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="77" t="s">
+        <v>452</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="90" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="77" t="s">
+        <v>453</v>
+      </c>
+      <c r="H47" s="85"/>
+      <c r="I47" s="90"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B48" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="78"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="90"/>
+    </row>
+    <row r="49" spans="1:9" ht="60">
+      <c r="A49" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B49" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="77" t="s">
+        <v>516</v>
+      </c>
+      <c r="H49" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I49" s="90" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>545</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45">
+      <c r="A51" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B51" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="C51" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="78" t="s">
+        <v>546</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="90" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="77" t="s">
+        <v>454</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="90" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="32">
+      <c r="A53" s="76" t="s">
+        <v>513</v>
+      </c>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" s="77" t="s">
+        <v>547</v>
+      </c>
+      <c r="H53" s="85"/>
+      <c r="I53" s="90"/>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="77" t="s">
+        <v>455</v>
+      </c>
+      <c r="H54" s="85"/>
+      <c r="I54" s="90"/>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="78"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="90"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="H56" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I56" s="90" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30">
+      <c r="A57" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B57" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="D57" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="77" t="s">
+        <v>550</v>
+      </c>
+      <c r="H57" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30">
+      <c r="A58" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B58" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="77" t="s">
+        <v>548</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="90" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30">
+      <c r="A59" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B59" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="H59" s="85"/>
+      <c r="I59" s="90"/>
+    </row>
+    <row r="60" spans="1:9" ht="30">
+      <c r="A60" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B60" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="78" t="s">
+        <v>551</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30">
+      <c r="A61" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B61" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="77" t="s">
+        <v>552</v>
+      </c>
+      <c r="H61" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30">
+      <c r="A62" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B62" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="77" t="s">
+        <v>457</v>
+      </c>
+      <c r="H62" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I62" s="90" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30">
+      <c r="A63" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B63" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="77" t="s">
+        <v>553</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="30">
+      <c r="A64" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B64" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="78" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="H64" s="85"/>
+      <c r="I64" s="90"/>
+    </row>
+    <row r="65" spans="1:9" ht="30">
+      <c r="A65" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B65" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>445</v>
+      </c>
+      <c r="G65" s="78" t="s">
+        <v>459</v>
+      </c>
+      <c r="H65" s="85"/>
+      <c r="I65" s="90"/>
+    </row>
+    <row r="66" spans="1:9" ht="30">
+      <c r="A66" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B66" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="78" t="s">
+        <v>554</v>
+      </c>
+      <c r="H66" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30">
+      <c r="A67" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B67" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C67" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D67" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="77" t="s">
+        <v>552</v>
+      </c>
+      <c r="H67" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30">
+      <c r="A68" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B68" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C68" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="77" t="s">
+        <v>457</v>
+      </c>
+      <c r="H68" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I68" s="90" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="30">
+      <c r="A69" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B69" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="77" t="s">
+        <v>553</v>
+      </c>
+      <c r="H69" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30">
+      <c r="A70" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="78" t="s">
+        <v>445</v>
+      </c>
+      <c r="G70" s="78" t="s">
+        <v>460</v>
+      </c>
+      <c r="H70" s="85"/>
+      <c r="I70" s="90"/>
+    </row>
+    <row r="71" spans="1:9" ht="30">
+      <c r="A71" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B71" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C71" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="77"/>
+      <c r="H71" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I71" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30">
+      <c r="A72" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B72" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="D72" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="77"/>
+      <c r="H72" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I72" s="90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30">
+      <c r="A73" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B73" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C73" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="D73" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="78" t="s">
+        <v>531</v>
+      </c>
+      <c r="H73" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="I73" s="90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="31" thickBot="1">
+      <c r="A74" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B74" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="H74" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="I74" s="92" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DC3656-7FC1-1B4B-A1E5-2F5E5ACC880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9427B9-DEA0-8A49-85DA-3D0CD02C8667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2260" windowWidth="27920" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14120" yWindow="460" windowWidth="34900" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="562">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -1761,9 +1761,6 @@
     <t>dispenseRequest</t>
   </si>
   <si>
-    <t>調剤情報</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -2948,8 +2945,23 @@
     <t>denominator</t>
   </si>
   <si>
-    <r>
-      <t>服用開始日から服用終了日までの全日数。実投与日数ではないことに注意する。詳細は処方情報</t>
+    <t>部位のテキスト表現。</t>
+  </si>
+  <si>
+    <t>投与経路</t>
+  </si>
+  <si>
+    <t>投与経路の文字列表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>投与方法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <r>
+      <t>医薬品単位略号を識別する</t>
     </r>
     <r>
       <rPr>
@@ -2958,7 +2970,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>HL</t>
+      <t>OID</t>
     </r>
     <r>
       <rPr>
@@ -2968,7 +2980,12 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>７</t>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「日」を表す</t>
     </r>
     <r>
       <rPr>
@@ -2977,7 +2994,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>FHIR</t>
+      <t>UCUM</t>
     </r>
     <r>
       <rPr>
@@ -2987,256 +3004,6 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>記述仕様を参照。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>頓用型の用法を指定する場合に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"true"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を指定する。詳細は処方情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>７</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述仕様を参照。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>外用薬で部位を指定する場合に使用する。詳細は処方情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>７</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述仕様を参照。</t>
-    </r>
-  </si>
-  <si>
-    <t>部位のテキスト表現。</t>
-  </si>
-  <si>
-    <t>投与経路</t>
-  </si>
-  <si>
-    <t>投与経路の文字列表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>投与方法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
-  </si>
-  <si>
-    <t>力価区分。</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>回投与量</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>医薬品単位略号を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>OID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日投与量を表す。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日投与量。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日投与量の分母である「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日」を表す。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>「日」を表す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UCUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
       <t>単位コード。</t>
     </r>
   </si>
@@ -3247,72 +3014,7 @@
     <t>単位「日」。</t>
   </si>
   <si>
-    <r>
-      <t>補足的な処方指示。本文書では、不均等投与を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日用法として記載する場合に、補足用法コードを記録するために使用する。詳細は処方情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>７</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述仕様を参照。</t>
-    </r>
-  </si>
-  <si>
     <t>不均等投与の表現文字列。</t>
-  </si>
-  <si>
-    <t>服用タイミングを記録する。</t>
   </si>
   <si>
     <t>"http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse"</t>
@@ -3616,6 +3318,182 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
+    <t>additionalInstruction[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>coding[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>coding[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>coding[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>additionalInstruction[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>additionalInstruction[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>event[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>doseAndRate[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>doseAndRate[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>doseAndRate[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>投与方法に対応する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用法コード表基本用法１桁コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）を使用してもよい。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法のコード化の有無にかかわらず、用法の完全な文字列を設定する。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ウム </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">カンゼン </t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法。できるかぎりコード化をすることを推奨する。</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">スイショウ カ スイショウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -3624,25 +3502,810 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
+      <t>標準用法コードによりコード化することを推奨する。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様も参照すること。施設固有のコード化による記述も可能であるが、できるかぎり、JAMI標準用法コードと併用することが望ましい。</t>
+    </r>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t xml:space="preserve">ノゾマシイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>標準用法の場合にはJAMI標準用法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>施設固有コードの場合にはXXXXXXを設定する。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シセツ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">コユウ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法コード</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>用法コードに対応する表示名。</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>日を意味する単位コード「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>単位コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のコード体系を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>JAMI補足用法８桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>単位コードUCUMにおける実投与日数の単位を表すコード。</t>
+  </si>
+  <si>
+    <t>JAMI外用部位３桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>投与経路コード表のsystemを設定する。</t>
+  </si>
+  <si>
+    <t>力価区分コードのコード体系を識別するURI。</t>
+  </si>
+  <si>
+    <t>UCUM単位コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>拡張を識別するURL。</t>
+  </si>
+  <si>
+    <t>拡張を識別するためのURL。</t>
+  </si>
+  <si>
+    <t>単位コード UCUMを識別するURI。</t>
+  </si>
+  <si>
+    <t>実投与日数。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>補足用法コード指定する。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>コードの表示名。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部位コード。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部位コードの表示名。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与経路コード表で規定するコード。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与経路コード表で規定するコードの表示名。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用法コード表基本用法１桁コード。同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）を使用してもよい。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用法コード表基本用法１桁コードの表示名。同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）を使用してもよい。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>力価区分コードの表示名。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>力価区分コード。（1：製剤量　2：原薬量）</t>
+  </si>
+  <si>
+    <t>1回投与量。</t>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
+  </si>
+  <si>
+    <t>医薬品単位略号。</t>
+  </si>
+  <si>
+    <t>1日投与量。</t>
+  </si>
+  <si>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する。詳細は処方情報HL７FHIR記述仕様も参照。</t>
+  </si>
+  <si>
+    <t>服用タイミングを記録する。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投薬期間（服用開始日から服用終了日まで）の全日数。</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">キカｎ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ゼｎ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投薬期間（服用開始日から服用終了日まで）の全日数の単位文字列。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
       <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日投与量の分母である「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>..1*</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日」を表す。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>分母である「1日」の単位「日」</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ブンボ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>分母である「1日」の日数「1」</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>投薬期間（服用開始日から服用終了日まで）の全日数。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実投与（服用）日数ではないことに注意する。すなわち、実際に服用しない日も１日と数える。詳細は処方情報HL７FHIR記述仕様も参照。なお、この実投与（服用）日数を別に記述したい場合には、</t>
+    </r>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">フクヨウ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ジッサイ </t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t xml:space="preserve">カゾエル </t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t xml:space="preserve">ジツトウヨ </t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t xml:space="preserve">フクヨウ </t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t xml:space="preserve">ニッスウ </t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t xml:space="preserve">ベツ </t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>投与期間とは別に投与実日数を表現したい場合にこの拡張を使用し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>型で開始日を記載する。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>dosageInstruction</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が表す処方指示の文字列表現。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>補足的な処方指示。不均等投与を1日用法として記載する場合に、補足用法コードを記録するために使用する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細は処方情報HL７FHIR記述仕様も参照。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>頓用型の用法を指定する場合に"true"を指定する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。詳細は処方情報HL７FHIR記述仕様も参照。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外用薬で部位を指定する場合に使用する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細は処方情報HL７FHIR記述仕様も参照。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実投与日数を明示したい場合に使用する拡張</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UsageDuration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。詳細は処方情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述仕様も参照すること。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
       <t>投与開始日を明示するために使用する拡張「</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -3652,13 +4315,35 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ 明朝"/>
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>」。投与開始日を明示しない処方の場合には、処方箋発行日を投与開始日として設定する。</t>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。投与開始日を明示しない処方の場合には、処方箋発行日を投与開始日として設定する。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報共有サービスにおいては、本要素を必須とする。</t>
     </r>
     <rPh sb="33" eb="36">
       <t>メイジテ_x0000_!</t>
@@ -3688,11 +4373,133 @@
     <rPh sb="67" eb="69">
       <t/>
     </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明示したい場合に使用する拡張</t>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">デンシ </t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t xml:space="preserve">キョウユウ </t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t xml:space="preserve">ホｎ </t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>1..1*</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>力価区分。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用量は製剤量で記述することを基本とするが、必要に応じて原薬量指定も可能とする。本要素は、安全性のため、外用薬の全量処方指示を除き省略せずに必須とする。</t>
+    </r>
+    <rPh sb="56" eb="59">
+      <t xml:space="preserve">ガイヨウヤク </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">ゼンリョウ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">ショホウ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">シジ </t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t xml:space="preserve">ノゾキ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">回投与量。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回投与量の記録を基本とし、doseQuantity 要素 に SimpleQuantity 型で記述する。単位コードには、医薬品単位略号（urn:oid:1.2.392.100495.20.2.101）を使用する。内服、外用ともに１回量を指定する場合にはこの要素を使用する。</t>
+    </r>
+    <rPh sb="114" eb="116">
+      <t xml:space="preserve">ナイフク </t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t xml:space="preserve">ガイヨウ </t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日投与量を表す。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>処方期間の中で</t>
     </r>
     <r>
       <rPr>
@@ -3701,26 +4508,119 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日量が常に一定となる場合には、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回量に加えて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日量の
+記録も可能とし、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">rateRatio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要素に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ratio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>型で記録す
+る。Ratio 型は比を扱うデータ型で、分母にあたる
+rateRatio.denominator 要素には、投与量の基準となる期間、つまり、1 日量の場合は「1 日」を Quantity 型で指定する。単位には、単位コードUCUM（http://unitsofmeasure.org）で定義されている「日」を表す単位コード「d」を使用する。
+分子にあたる rateRatio.numerator 要素には、1 回量と同様の記法で、1 日投与量を Quantity 型で指定する。内服、外用ともに１日量を指定する場合にはこの要素を使用する。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>rateRatio</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ 明朝"/>
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UsageDuration</t>
+      <t>投与量を記録する。</t>
     </r>
     <r>
       <rPr>
@@ -3730,778 +4630,107 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>」。詳細は処方情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
+      <t xml:space="preserve">
+内服１回量、外用１回量は、doseAndRate.doseQuantityに記述する。処方期間の中で 1 日量が常に一定となる場合場合は、内服１日量、外用１日量は、doseAndRate.rateRatioの分子で指定する。外用の全量指定（２本など）の場合は、調剤量として、MedicationRequestリソースのdispenseRequest.quantity 要素に、SimpleQuantity 型で記録する。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ナイフク </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ガイヨウ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ナイフク </t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">ガイヨウ </t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t xml:space="preserve">ガイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>７</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述仕様も参照すること。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>additionalInstruction[*]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>coding[*]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>coding[+]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>coding[=]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>additionalInstruction[+]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>additionalInstruction[=]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>event[*]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>repeat</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>route</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>doseAndRate[*]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>doseAndRate[+]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>doseAndRate[=]</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>投与方法に対応する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用法コード表基本用法１桁コードを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桁コード（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）を使用してもよい。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>用法のコード化の有無にかかわらず、用法の完全な文字列を設定する。</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ヨウホウ </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ウム </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">ヨウホウ </t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">カンゼン </t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t xml:space="preserve">モジレツ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>用法。できるかぎりコード化をすることを推奨する。</t>
-    <rPh sb="12" eb="13">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">スイショウ </t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t xml:space="preserve">スイショウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>標準用法コードによりコード化することを推奨する。詳細は処方情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>７</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述仕様も参照すること。施設固有のコード化による記述も可能であるが、できるかぎり、JAMI標準用法コードと併用することが望ましい。</t>
-    </r>
-    <rPh sb="66" eb="68">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t xml:space="preserve">カノウ </t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t xml:space="preserve">ノゾマシイ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>標準用法の場合にはJAMI標準用法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桁コードを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>施設固有コードの場合にはXXXXXXを設定する。</t>
-    </r>
+      <t>日投与量の分子の情報を表す。</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ブンシ </t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t xml:space="preserve">シセツ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t xml:space="preserve">コユウ </t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>用法コード</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ヨウホウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>用法コードに対応する表示名。</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">タイオウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>日を意味する単位コード「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>単位コード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UCUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のコード体系を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>JAMI補足用法８桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>単位コードUCUMにおける実投与日数の単位を表すコード。</t>
-  </si>
-  <si>
-    <t>JAMI外用部位３桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>投与経路コード表のsystemを設定する。</t>
-  </si>
-  <si>
-    <t>力価区分コードのコード体系を識別するURI。</t>
-  </si>
-  <si>
-    <t>UCUM単位コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>拡張を識別するURL。</t>
-  </si>
-  <si>
-    <t>拡張を識別するためのURL。</t>
-  </si>
-  <si>
-    <t>単位コード UCUMを識別するURI。</t>
-  </si>
-  <si>
-    <t>投薬日数の単位文字列。</t>
-  </si>
-  <si>
-    <t>実投与日数。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>dosageInstruction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が表す処方指示の文字列表現。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>補足用法コード指定する。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>コードの表示名。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投薬日数。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>部位コード。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>部位コードの表示名。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与経路コード表で規定するコード。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与経路コード表で規定するコードの表示名。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用法コード表基本用法１桁コード。同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桁コード（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）を使用してもよい。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用法コード表基本用法１桁コードの表示名。同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桁コード（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"urn:oid:1.2.392.200250.2.2.20.40"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）を使用してもよい。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>投与量を記録する。記録方法の詳細は、「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>6.9.3.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>内服薬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　２</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」参照。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>力価区分コードの表示名。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使用する。詳細は処方情報HL７FHIR記述仕様を参照。</t>
-  </si>
-  <si>
-    <t>力価区分コード。（1：製剤量　2：原薬量）</t>
-  </si>
-  <si>
-    <t>1回投与量。</t>
-  </si>
-  <si>
-    <t>投与量の単位。</t>
-  </si>
-  <si>
-    <t>医薬品単位略号。</t>
-  </si>
-  <si>
-    <t>1日投与量。</t>
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヲ</t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>dispenseRequest</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>調剤（薬局での払い出し指示）情報</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ヤッキョク </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ハライ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ダシ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シジ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="45">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4799,13 +5028,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="MS Mincho"/>
@@ -4827,6 +5049,37 @@
       <name val="MS Mincho"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="42">
@@ -5064,7 +5317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -5460,13 +5713,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="slantDashDot">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -5478,10 +5731,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="slantDashDot">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -5490,46 +5743,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="slantDashDot">
-        <color indexed="64"/>
-      </right>
-      <top style="slantDashDot">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="slantDashDot">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5541,10 +5764,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="slantDashDot">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5553,13 +5776,100 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="slantDashDot">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="slantDashDot">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5702,7 +6012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5823,9 +6133,6 @@
     <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5838,15 +6145,6 @@
     <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5859,9 +6157,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5892,9 +6187,6 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5904,15 +6196,207 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5928,71 +6412,125 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="34" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -6454,7 +6992,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>17</v>
@@ -6705,7 +7243,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -6751,7 +7289,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>17</v>
@@ -7171,7 +7709,7 @@
         <v>27</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>17</v>
@@ -7273,7 +7811,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>17</v>
@@ -9103,7 +9641,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -9149,7 +9687,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>17</v>
@@ -9364,7 +9902,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="120">
@@ -9430,7 +9968,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -9485,7 +10023,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
@@ -9523,7 +10061,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -9671,7 +10209,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>17</v>
@@ -10361,7 +10899,7 @@
         <v>93</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>17</v>
@@ -10428,28 +10966,28 @@
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="74"/>
-      <c r="B73" s="70" t="s">
+      <c r="A73" s="132"/>
+      <c r="B73" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" s="128"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="128" t="s">
         <v>357</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="G73" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="H73" s="71" t="s">
+      <c r="H73" s="129" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -10457,27 +10995,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="74"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="72"/>
+      <c r="A74" s="132"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="128"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+      <c r="H74" s="130"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="74"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="73"/>
+      <c r="A75" s="132"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
+      <c r="H75" s="131"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -10536,7 +11074,7 @@
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="33"/>
@@ -10574,7 +11112,7 @@
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="33"/>
@@ -10608,7 +11146,7 @@
         <v>48</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="33" t="s">
@@ -10629,7 +11167,7 @@
         <v>93</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="33"/>
@@ -10648,7 +11186,7 @@
         <v>145</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="38"/>
@@ -10677,1337 +11215,1337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="69" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="69" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="41"/>
+    <col min="1" max="1" width="11.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="62" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="76" thickBot="1">
+      <c r="A1" s="138" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="139" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="141" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" thickBot="1">
+      <c r="A2" s="142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144" t="s">
         <v>378</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="40" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
+    </row>
+    <row r="4" spans="1:9" ht="270">
+      <c r="A4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="54" customFormat="1">
+      <c r="A6" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" s="54" customFormat="1" ht="45">
+      <c r="A7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="54" customFormat="1" ht="31" thickBot="1">
+      <c r="A8" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="153"/>
+      <c r="E8" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="54" customFormat="1">
+      <c r="A9" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+    </row>
+    <row r="10" spans="1:9" s="54" customFormat="1" ht="75">
+      <c r="A10" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" s="54" customFormat="1" ht="136" thickBot="1">
+      <c r="A11" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="155"/>
+    </row>
+    <row r="12" spans="1:9" s="54" customFormat="1" ht="45">
+      <c r="A12" s="156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="54" customFormat="1" ht="30">
+      <c r="A13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" thickBot="1">
+      <c r="A17" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="137" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31" thickBot="1">
+      <c r="A18" s="142" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="145" t="s">
+        <v>384</v>
+      </c>
+      <c r="H18" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="164" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21" thickBot="1">
+      <c r="A19" s="142" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="145" t="s">
+        <v>385</v>
+      </c>
+      <c r="H19" s="145"/>
+      <c r="I19" s="164" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32" customHeight="1">
+      <c r="A20" s="147" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="165" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="H20" s="150"/>
+      <c r="I20" s="151"/>
+    </row>
+    <row r="21" spans="1:9" ht="102" customHeight="1">
+      <c r="A21" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="91" customHeight="1">
+      <c r="A22" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
+      <c r="A23" s="133" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="166" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="136" t="s">
+        <v>397</v>
+      </c>
+      <c r="H23" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="137" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="147" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="150" t="s">
+        <v>399</v>
+      </c>
+      <c r="H24" s="150"/>
+      <c r="I24" s="151"/>
+    </row>
+    <row r="25" spans="1:9" ht="28">
+      <c r="A25" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="1:9" ht="60">
+      <c r="A26" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28">
+      <c r="A27" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31" thickBot="1">
+      <c r="A28" s="133" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="134" t="s">
+        <v>403</v>
+      </c>
+      <c r="C28" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="134"/>
+      <c r="E28" s="167" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="136" t="s">
+        <v>405</v>
+      </c>
+      <c r="H28" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="137" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="54" customFormat="1" ht="105">
+      <c r="A29" s="156" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="159" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="159" t="s">
+        <v>372</v>
+      </c>
+      <c r="H29" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="160" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="54" customFormat="1" ht="90">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="54" customFormat="1" ht="201" customHeight="1" thickBot="1">
+      <c r="A31" s="152"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="155" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="31" thickBot="1">
+      <c r="A32" s="142" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="145" t="s">
+        <v>406</v>
+      </c>
+      <c r="H32" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="164" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="147" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="169" t="s">
+        <v>408</v>
+      </c>
+      <c r="F33" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="150" t="s">
+        <v>409</v>
+      </c>
+      <c r="H33" s="150"/>
+      <c r="I33" s="170"/>
+    </row>
+    <row r="34" spans="1:9" ht="61" thickBot="1">
+      <c r="A34" s="133" t="s">
+        <v>410</v>
+      </c>
+      <c r="B34" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="136" t="s">
+        <v>411</v>
+      </c>
+      <c r="H34" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="137" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="31" thickBot="1">
+      <c r="A35" s="142" t="s">
+        <v>412</v>
+      </c>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="144" t="s">
+        <v>413</v>
+      </c>
+      <c r="F35" s="145" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" s="145" t="s">
+        <v>480</v>
+      </c>
+      <c r="H35" s="145"/>
+      <c r="I35" s="164"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="147" t="s">
+        <v>560</v>
+      </c>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="172" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="150" t="s">
+        <v>561</v>
+      </c>
+      <c r="H36" s="150"/>
+      <c r="I36" s="151"/>
+    </row>
+    <row r="37" spans="1:9" ht="28">
+      <c r="A37" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="48"/>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="1:9" ht="45">
+      <c r="A39" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="171" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28">
+      <c r="A40" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="48">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" ht="28">
+      <c r="A42" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" ht="270">
-      <c r="A4" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50" t="s">
+      <c r="F42" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28">
+      <c r="A43" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="H4" s="51" t="s">
+      <c r="F43" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H43" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60">
-      <c r="A5" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="59" customFormat="1">
-      <c r="A6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="51" t="s">
+      <c r="I43" s="48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="I44" s="48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28">
+      <c r="A45" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28">
+      <c r="A46" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="48"/>
+    </row>
+    <row r="47" spans="1:9" ht="28">
+      <c r="A47" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28">
+      <c r="A48" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28">
+      <c r="A49" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="H49" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="I49" s="48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="29" thickBot="1">
+      <c r="A50" s="133" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="134" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="134"/>
+      <c r="E50" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="136" t="s">
+        <v>423</v>
+      </c>
+      <c r="H50" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="I50" s="137" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="48"/>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="48"/>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="F53" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="1:9" s="59" customFormat="1" ht="45">
-      <c r="A7" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="55" t="s">
+      <c r="G53" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="H53" s="41"/>
+      <c r="I53" s="48"/>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="58" t="s">
+      <c r="E54" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F54" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="59" customFormat="1" ht="30">
-      <c r="A8" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="55" t="s">
+      <c r="G54" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28">
+      <c r="A55" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="D55" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="58" t="s">
+      <c r="E55" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F55" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="59" customFormat="1">
-      <c r="A9" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="56"/>
-    </row>
-    <row r="10" spans="1:9" s="59" customFormat="1" ht="75">
-      <c r="A10" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="56"/>
-    </row>
-    <row r="11" spans="1:9" s="59" customFormat="1" ht="135">
-      <c r="A11" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="56"/>
-    </row>
-    <row r="12" spans="1:9" s="59" customFormat="1" ht="45">
-      <c r="A12" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="59" customFormat="1" ht="30">
-      <c r="A13" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="51" t="s">
+      <c r="G55" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="29" thickBot="1">
+      <c r="A56" s="133" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="134" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" s="134" t="s">
+        <v>403</v>
+      </c>
+      <c r="D56" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="H13" s="51" t="s">
+      <c r="G56" s="136" t="s">
+        <v>352</v>
+      </c>
+      <c r="H56" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="53" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" ht="102" customHeight="1">
-      <c r="A21" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="91" customHeight="1">
-      <c r="A22" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>395</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="58" customHeight="1">
-      <c r="A23" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>397</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45">
-      <c r="A24" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="1:9" ht="28">
-      <c r="A25" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="53"/>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="53" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28">
-      <c r="A27" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="59" customFormat="1" ht="105">
-      <c r="A29" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="56" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="59" customFormat="1" ht="90">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="59" customFormat="1" ht="185" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="53" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="67"/>
-    </row>
-    <row r="34" spans="1:9" ht="60">
-      <c r="A34" s="48" t="s">
-        <v>411</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="53" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="53"/>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="1:9" ht="28">
-      <c r="A37" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="53"/>
-    </row>
-    <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="53"/>
-    </row>
-    <row r="39" spans="1:9" ht="45">
-      <c r="A39" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="H39" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="I39" s="53" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="28">
-      <c r="A40" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="H41" s="42"/>
-      <c r="I41" s="53"/>
-    </row>
-    <row r="42" spans="1:9" ht="28">
-      <c r="A42" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="H42" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="53">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28">
-      <c r="A43" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="H43" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="53" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="I44" s="53" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="28">
-      <c r="A45" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28">
-      <c r="A46" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="1:9" ht="28">
-      <c r="A47" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="H47" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28">
-      <c r="A48" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="H48" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="I48" s="68" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="28">
-      <c r="A49" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="H49" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="I49" s="53" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28">
-      <c r="A50" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="I50" s="53" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30">
-      <c r="A51" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="53"/>
-    </row>
-    <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="53"/>
-    </row>
-    <row r="53" spans="1:9" ht="30">
-      <c r="A53" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="H53" s="42"/>
-      <c r="I53" s="53"/>
-    </row>
-    <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="I54" s="53" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="28">
-      <c r="A55" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="H55" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="53" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="28">
-      <c r="A56" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" s="42" t="s">
+      <c r="I56" s="137" t="s">
         <v>353</v>
-      </c>
-      <c r="H56" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="53" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -12023,1858 +12561,1864 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="87" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="87" customWidth="1"/>
-    <col min="5" max="5" width="5" style="87" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="87" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="87" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="93" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="127" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="127" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="127" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:9" ht="76" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="C1" s="73" t="s">
         <v>376</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="73" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="76" thickBot="1">
+      <c r="A2" s="111" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="86" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>551</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="86" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>518</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>486</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="115" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" thickBot="1">
+      <c r="A5" s="117" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="119" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>550</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="89"/>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="115" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>519</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="115" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="105" t="s">
+        <v>545</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="76"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="115" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="116"/>
+      <c r="E10" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="115" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31" thickBot="1">
+      <c r="A12" s="123" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="124"/>
+      <c r="E12" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>513</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>486</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31" thickBot="1">
+      <c r="A13" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>546</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14" s="119" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>547</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="89"/>
+    </row>
+    <row r="15" spans="1:9" ht="26">
+      <c r="A15" s="115" t="s">
         <v>493</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="B15" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" s="116" t="s">
+        <v>491</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="116"/>
+      <c r="E16" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I16" s="76" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26">
+      <c r="A17" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="116"/>
+      <c r="E17" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26">
+      <c r="A18" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>523</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31" thickBot="1">
+      <c r="A19" s="123" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="H19" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="94" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="119" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>537</v>
+      </c>
+      <c r="H20" s="92"/>
+      <c r="I20" s="89"/>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>496</v>
+      </c>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>536</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="116" t="s">
+        <v>497</v>
+      </c>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" spans="1:9" ht="75">
+      <c r="A23" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="122"/>
+      <c r="E23" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="96" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="H23" s="67"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>538</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>539</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="26">
+      <c r="A26" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I26" s="76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="26">
+      <c r="A27" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="99" t="s">
+        <v>505</v>
+      </c>
+      <c r="H28" s="67"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:9" ht="75">
+      <c r="A29" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="H29" s="67"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="116" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B31" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>509</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31" thickBot="1">
+      <c r="A33" s="123" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" s="124"/>
+      <c r="E33" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>504</v>
+      </c>
+      <c r="H33" s="91"/>
+      <c r="I33" s="79"/>
+    </row>
+    <row r="34" spans="1:9" ht="31" thickBot="1">
+      <c r="A34" s="125" t="s">
+        <v>435</v>
+      </c>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="107" t="s">
+        <v>436</v>
+      </c>
+      <c r="G34" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="H34" s="95"/>
+      <c r="I34" s="81"/>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="119" t="s">
+        <v>437</v>
+      </c>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="87" t="s">
+        <v>549</v>
+      </c>
+      <c r="H35" s="92"/>
+      <c r="I35" s="89"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" s="116" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="116"/>
+      <c r="E37" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I37" s="76" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="B38" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C38" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="116"/>
+      <c r="E38" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="76" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="B39" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C39" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="21" thickBot="1">
+      <c r="A40" s="123" t="s">
+        <v>437</v>
+      </c>
+      <c r="B40" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="H40" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="100" t="s">
+        <v>447</v>
+      </c>
+      <c r="H41" s="92"/>
+      <c r="I41" s="89"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="115" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="45">
-      <c r="A2" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="88" t="s">
+      <c r="B42" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="76"/>
+    </row>
+    <row r="43" spans="1:9" ht="45">
+      <c r="A43" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>491</v>
+      </c>
+      <c r="C43" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="116"/>
+      <c r="E43" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I43" s="76" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C44" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="116"/>
+      <c r="E44" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="63" t="s">
+        <v>526</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="B45" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="116"/>
+      <c r="E45" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="31" thickBot="1">
+      <c r="A46" s="123" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="H46" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="119" t="s">
+        <v>439</v>
+      </c>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="100" t="s">
+        <v>449</v>
+      </c>
+      <c r="H47" s="92"/>
+      <c r="I47" s="89"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="115" t="s">
+        <v>439</v>
+      </c>
+      <c r="B48" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="64"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="76"/>
+    </row>
+    <row r="49" spans="1:9" ht="60">
+      <c r="A49" s="115" t="s">
+        <v>439</v>
+      </c>
+      <c r="B49" s="116" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="116"/>
+      <c r="E49" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="63" t="s">
+        <v>502</v>
+      </c>
+      <c r="H49" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I49" s="76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="115" t="s">
+        <v>439</v>
+      </c>
+      <c r="B50" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C50" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="116"/>
+      <c r="E50" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45">
+      <c r="A51" s="115" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C51" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="116"/>
+      <c r="E51" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="31" thickBot="1">
+      <c r="A52" s="123" t="s">
+        <v>439</v>
+      </c>
+      <c r="B52" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="H52" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="79" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="135">
+      <c r="A53" s="119" t="s">
+        <v>499</v>
+      </c>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="G53" s="87" t="s">
+        <v>558</v>
+      </c>
+      <c r="H53" s="92"/>
+      <c r="I53" s="89"/>
+    </row>
+    <row r="54" spans="1:9" ht="60">
+      <c r="A54" s="121" t="s">
         <v>500</v>
       </c>
-      <c r="F2" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="77" t="s">
+      <c r="B54" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="F54" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="99" t="s">
+        <v>553</v>
+      </c>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="115" t="s">
         <v>501</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="90"/>
-    </row>
-    <row r="3" spans="1:9" ht="60">
-      <c r="A3" s="76" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" s="78" t="s">
+      <c r="B55" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="D55" s="116"/>
+      <c r="E55" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="64"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="76"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B56" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="116" t="s">
+        <v>491</v>
+      </c>
+      <c r="D56" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I56" s="76" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B57" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="116" t="s">
         <v>492</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="89" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="78" t="s">
+      <c r="D57" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="63" t="s">
+        <v>531</v>
+      </c>
+      <c r="H57" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B58" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="D58" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="63" t="s">
+        <v>530</v>
+      </c>
+      <c r="H58" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="90">
+      <c r="A59" s="121" t="s">
+        <v>501</v>
+      </c>
+      <c r="B59" s="122" t="s">
+        <v>556</v>
+      </c>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="96" t="s">
+        <v>554</v>
+      </c>
+      <c r="H59" s="97"/>
+      <c r="I59" s="98"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B60" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="C60" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="116"/>
+      <c r="E60" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="H60" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B61" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="116"/>
+      <c r="E61" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="H61" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="76" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30">
+      <c r="A62" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B62" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="C62" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="116"/>
+      <c r="E62" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="77" t="s">
-        <v>532</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="89" t="s">
+      <c r="G62" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="H62" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I62" s="76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B63" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="C63" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="116"/>
+      <c r="E63" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="90"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="89" t="s">
+      <c r="F63" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="63" t="s">
+        <v>534</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="195">
+      <c r="A64" s="121" t="s">
+        <v>501</v>
+      </c>
+      <c r="B64" s="122" t="s">
+        <v>557</v>
+      </c>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="96" t="s">
+        <v>442</v>
+      </c>
+      <c r="G64" s="96" t="s">
+        <v>555</v>
+      </c>
+      <c r="H64" s="97"/>
+      <c r="I64" s="98"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B65" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C65" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" s="116"/>
+      <c r="E65" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>499</v>
-      </c>
-      <c r="H5" s="51" t="s">
+      <c r="F65" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="G65" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="H65" s="67"/>
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D66" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="H66" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="90" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>502</v>
-      </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" ht="60">
-      <c r="A7" s="76" t="s">
-        <v>494</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78" t="s">
+      <c r="I66" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B67" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C67" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F67" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="H67" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="76" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30">
+      <c r="A68" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B68" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="77" t="s">
-        <v>533</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I7" s="90" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78" t="s">
+      <c r="G68" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="H68" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I68" s="76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B69" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>430</v>
-      </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="78" t="s">
+      <c r="F69" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="63" t="s">
+        <v>534</v>
+      </c>
+      <c r="H69" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B70" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C70" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D70" s="116"/>
+      <c r="E70" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="H70" s="67"/>
+      <c r="I70" s="76"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B71" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C71" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78" t="s">
+      <c r="E71" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F71" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="77" t="s">
-        <v>536</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="78" t="s">
+      <c r="G71" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="H71" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I71" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B72" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D72" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78" t="s">
+      <c r="E72" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="77" t="s">
-        <v>463</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I10" s="90" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
-      <c r="A11" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="C11" s="78" t="s">
+      <c r="F72" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="G72" s="63" t="s">
+        <v>542</v>
+      </c>
+      <c r="H72" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I72" s="76" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B73" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="C73" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D73" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78" t="s">
+      <c r="E73" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F73" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="77" t="s">
-        <v>534</v>
-      </c>
-      <c r="H11" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I11" s="90" t="s">
+      <c r="G73" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="H73" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="I73" s="76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="C12" s="78" t="s">
+    <row r="74" spans="1:9" ht="21" thickBot="1">
+      <c r="A74" s="123" t="s">
+        <v>501</v>
+      </c>
+      <c r="B74" s="124" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="D74" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78" t="s">
+      <c r="E74" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F74" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="77" t="s">
-        <v>527</v>
-      </c>
-      <c r="H12" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I12" s="90" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="78" t="s">
-        <v>537</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="90" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60">
-      <c r="A14" s="76" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>464</v>
-      </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="76" t="s">
-        <v>507</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="F15" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="76" t="s">
-        <v>508</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="78" t="s">
-        <v>526</v>
-      </c>
-      <c r="H16" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I16" s="90" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="76" t="s">
-        <v>508</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>538</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="90" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="76" t="s">
-        <v>508</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="77" t="s">
-        <v>539</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="90" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30">
-      <c r="A19" s="76" t="s">
-        <v>508</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>465</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="91" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>466</v>
-      </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" ht="45">
-      <c r="A21" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>510</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>549</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="90" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>434</v>
-      </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="1:9" ht="45">
-      <c r="A23" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>430</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>447</v>
-      </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>540</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="D25" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>535</v>
-      </c>
-      <c r="H25" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I25" s="90" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="77" t="s">
-        <v>525</v>
-      </c>
-      <c r="H26" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I26" s="90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="77" t="s">
-        <v>524</v>
-      </c>
-      <c r="H27" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I27" s="90" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>519</v>
-      </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="1:9" ht="75">
-      <c r="A29" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="78" t="s">
-        <v>520</v>
-      </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="D30" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="78" t="s">
-        <v>521</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="90" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B31" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="D31" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="78" t="s">
-        <v>522</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="90" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="77" t="s">
-        <v>523</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="90" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="78" t="s">
-        <v>518</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="78" t="s">
-        <v>437</v>
-      </c>
-      <c r="G34" s="77" t="s">
-        <v>448</v>
-      </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="90"/>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="77" t="s">
-        <v>449</v>
-      </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="B36" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="89" t="s">
-        <v>307</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="78"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="90"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="B37" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="78" t="s">
-        <v>528</v>
-      </c>
-      <c r="H37" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="B38" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C38" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="78" t="s">
-        <v>541</v>
-      </c>
-      <c r="H38" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="90" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C39" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="78" t="s">
-        <v>542</v>
-      </c>
-      <c r="H39" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="90" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="77" t="s">
-        <v>450</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="90" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="77" t="s">
-        <v>451</v>
-      </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="90"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="76" t="s">
-        <v>512</v>
-      </c>
-      <c r="B42" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="90"/>
-    </row>
-    <row r="43" spans="1:9" ht="45">
-      <c r="A43" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="77" t="s">
-        <v>529</v>
-      </c>
-      <c r="H43" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I43" s="90" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="B44" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="77" t="s">
-        <v>543</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="90" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="B45" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C45" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="77" t="s">
-        <v>544</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="A46" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="B46" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="77" t="s">
+      <c r="G74" s="78" t="s">
         <v>452</v>
       </c>
-      <c r="H46" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="90" t="s">
+      <c r="H74" s="70" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="30">
-      <c r="A47" s="76" t="s">
-        <v>440</v>
-      </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="77" t="s">
-        <v>453</v>
-      </c>
-      <c r="H47" s="85"/>
-      <c r="I47" s="90"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="76" t="s">
-        <v>440</v>
-      </c>
-      <c r="B48" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="F48" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="78"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="1:9" ht="60">
-      <c r="A49" s="76" t="s">
-        <v>440</v>
-      </c>
-      <c r="B49" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="C49" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="77" t="s">
-        <v>516</v>
-      </c>
-      <c r="H49" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I49" s="90" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45">
-      <c r="A50" s="76" t="s">
-        <v>440</v>
-      </c>
-      <c r="B50" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C50" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="78" t="s">
-        <v>545</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="45">
-      <c r="A51" s="76" t="s">
-        <v>440</v>
-      </c>
-      <c r="B51" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="C51" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="78" t="s">
-        <v>546</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="90" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="76" t="s">
-        <v>440</v>
-      </c>
-      <c r="B52" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="77" t="s">
-        <v>454</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="90" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="32">
-      <c r="A53" s="76" t="s">
-        <v>513</v>
-      </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>434</v>
-      </c>
-      <c r="G53" s="77" t="s">
-        <v>547</v>
-      </c>
-      <c r="H53" s="85"/>
-      <c r="I53" s="90"/>
-    </row>
-    <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="76" t="s">
-        <v>514</v>
-      </c>
-      <c r="B54" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="77" t="s">
-        <v>455</v>
-      </c>
-      <c r="H54" s="85"/>
-      <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="1:9" ht="30">
-      <c r="A55" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B55" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="F55" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B56" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="H56" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I56" s="90" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30">
-      <c r="A57" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B57" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="D57" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="H57" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="30">
-      <c r="A58" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B58" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="D58" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="77" t="s">
-        <v>548</v>
-      </c>
-      <c r="H58" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="90" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="30">
-      <c r="A59" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" s="78" t="s">
-        <v>456</v>
-      </c>
-      <c r="H59" s="85"/>
-      <c r="I59" s="90"/>
-    </row>
-    <row r="60" spans="1:9" ht="30">
-      <c r="A60" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="C60" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="78" t="s">
-        <v>551</v>
-      </c>
-      <c r="H60" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="30">
-      <c r="A61" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B61" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="C61" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" s="77" t="s">
-        <v>552</v>
-      </c>
-      <c r="H61" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="90" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B62" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="C62" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="77" t="s">
-        <v>457</v>
-      </c>
-      <c r="H62" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I62" s="90" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="30">
-      <c r="A63" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B63" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="C63" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="77" t="s">
-        <v>553</v>
-      </c>
-      <c r="H63" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="90" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="30">
-      <c r="A64" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B64" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="78" t="s">
-        <v>443</v>
-      </c>
-      <c r="G64" s="78" t="s">
-        <v>458</v>
-      </c>
-      <c r="H64" s="85"/>
-      <c r="I64" s="90"/>
-    </row>
-    <row r="65" spans="1:9" ht="30">
-      <c r="A65" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B65" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C65" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="78" t="s">
-        <v>445</v>
-      </c>
-      <c r="G65" s="78" t="s">
-        <v>459</v>
-      </c>
-      <c r="H65" s="85"/>
-      <c r="I65" s="90"/>
-    </row>
-    <row r="66" spans="1:9" ht="30">
-      <c r="A66" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B66" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C66" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="D66" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="78" t="s">
-        <v>554</v>
-      </c>
-      <c r="H66" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="30">
-      <c r="A67" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B67" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C67" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="D67" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G67" s="77" t="s">
-        <v>552</v>
-      </c>
-      <c r="H67" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="90" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B68" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C68" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="D68" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="77" t="s">
-        <v>457</v>
-      </c>
-      <c r="H68" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I68" s="90" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="30">
-      <c r="A69" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B69" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C69" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="D69" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="77" t="s">
-        <v>553</v>
-      </c>
-      <c r="H69" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="90" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="30">
-      <c r="A70" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B70" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C70" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="78" t="s">
-        <v>445</v>
-      </c>
-      <c r="G70" s="78" t="s">
+      <c r="I74" s="79" t="s">
         <v>460</v>
-      </c>
-      <c r="H70" s="85"/>
-      <c r="I70" s="90"/>
-    </row>
-    <row r="71" spans="1:9" ht="30">
-      <c r="A71" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B71" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="D71" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="77"/>
-      <c r="H71" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I71" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="30">
-      <c r="A72" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B72" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C72" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="D72" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G72" s="77"/>
-      <c r="H72" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I72" s="90" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B73" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C73" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="D73" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="78" t="s">
-        <v>531</v>
-      </c>
-      <c r="H73" s="84" t="s">
-        <v>497</v>
-      </c>
-      <c r="I73" s="90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="31" thickBot="1">
-      <c r="A74" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B74" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="C74" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="D74" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="79" t="s">
-        <v>461</v>
-      </c>
-      <c r="H74" s="94" t="s">
-        <v>497</v>
-      </c>
-      <c r="I74" s="92" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9427B9-DEA0-8A49-85DA-3D0CD02C8667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51D786B-AA6B-5C43-85F6-F1688F42FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="460" windowWidth="34900" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="460" windowWidth="34900" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -6012,7 +6012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6397,6 +6397,120 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6411,126 +6525,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -10972,22 +10966,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="132"/>
-      <c r="B73" s="128" t="s">
+      <c r="A73" s="170"/>
+      <c r="B73" s="166" t="s">
         <v>356</v>
       </c>
-      <c r="C73" s="128"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128" t="s">
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="128" t="s">
+      <c r="F73" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="128" t="s">
+      <c r="G73" s="166" t="s">
         <v>357</v>
       </c>
-      <c r="H73" s="129" t="s">
+      <c r="H73" s="167" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -10995,27 +10989,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="128"/>
-      <c r="D74" s="128"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-      <c r="H74" s="130"/>
+      <c r="A74" s="170"/>
+      <c r="B74" s="166"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="166"/>
+      <c r="E74" s="166"/>
+      <c r="F74" s="166"/>
+      <c r="G74" s="166"/>
+      <c r="H74" s="168"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
-      <c r="H75" s="131"/>
+      <c r="A75" s="170"/>
+      <c r="B75" s="166"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="166"/>
+      <c r="E75" s="166"/>
+      <c r="F75" s="166"/>
+      <c r="G75" s="166"/>
+      <c r="H75" s="169"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -11215,8 +11209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11233,71 +11227,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="133" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="134" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="134" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="134" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="140" t="s">
+      <c r="F1" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="135" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="135" t="s">
         <v>482</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="136" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145" t="s">
+      <c r="F2" s="140"/>
+      <c r="G2" s="140" t="s">
         <v>367</v>
       </c>
       <c r="H2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="146" t="s">
+      <c r="I2" s="141" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="1:9" ht="270">
       <c r="A4" s="49" t="s">
@@ -11398,17 +11392,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="54" customFormat="1" ht="31" thickBot="1">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="149" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="91" t="s">
@@ -11420,26 +11414,26 @@
       <c r="H8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="155" t="s">
+      <c r="I8" s="150" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="54" customFormat="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159" t="s">
+      <c r="F9" s="154"/>
+      <c r="G9" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="159"/>
-      <c r="I9" s="160"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="155"/>
     </row>
     <row r="10" spans="1:9" s="54" customFormat="1" ht="75">
       <c r="A10" s="49" t="s">
@@ -11461,13 +11455,13 @@
       <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:9" s="54" customFormat="1" ht="136" thickBot="1">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="161" t="s">
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="156" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="91" t="s">
@@ -11477,28 +11471,28 @@
         <v>379</v>
       </c>
       <c r="H11" s="91"/>
-      <c r="I11" s="155"/>
+      <c r="I11" s="150"/>
     </row>
     <row r="12" spans="1:9" s="54" customFormat="1" ht="45">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="162" t="s">
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="159" t="s">
+      <c r="F12" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159" t="s">
+      <c r="G12" s="154"/>
+      <c r="H12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="163" t="s">
+      <c r="I12" s="158" t="s">
         <v>184</v>
       </c>
     </row>
@@ -11603,92 +11597,92 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="161" t="s">
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="136" t="s">
+      <c r="F17" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="131" t="s">
         <v>311</v>
       </c>
       <c r="H17" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="137" t="s">
+      <c r="I17" s="132" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="31" thickBot="1">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="137" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="145" t="s">
+      <c r="G18" s="140" t="s">
         <v>384</v>
       </c>
       <c r="H18" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="164" t="s">
+      <c r="I18" s="159" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="137" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="144" t="s">
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="145" t="s">
+      <c r="F19" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="140" t="s">
         <v>385</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="164" t="s">
+      <c r="H19" s="140"/>
+      <c r="I19" s="159" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="142" t="s">
         <v>386</v>
       </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="165" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="160" t="s">
         <v>387</v>
       </c>
-      <c r="F20" s="150" t="s">
+      <c r="F20" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="150" t="s">
+      <c r="G20" s="145" t="s">
         <v>388</v>
       </c>
-      <c r="H20" s="150"/>
-      <c r="I20" s="151"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9" ht="102" customHeight="1">
       <c r="A21" s="44" t="s">
@@ -11741,48 +11735,48 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="128" t="s">
         <v>392</v>
       </c>
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="129" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="166" t="s">
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="161" t="s">
         <v>387</v>
       </c>
-      <c r="F23" s="136" t="s">
+      <c r="F23" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="131" t="s">
         <v>397</v>
       </c>
       <c r="H23" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="137" t="s">
+      <c r="I23" s="132" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149" t="s">
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="144" t="s">
         <v>378</v>
       </c>
-      <c r="F24" s="150" t="s">
+      <c r="F24" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="150" t="s">
+      <c r="G24" s="145" t="s">
         <v>399</v>
       </c>
-      <c r="H24" s="150"/>
-      <c r="I24" s="151"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="146"/>
     </row>
     <row r="25" spans="1:9" ht="28">
       <c r="A25" s="44" t="s">
@@ -11858,52 +11852,52 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="31" thickBot="1">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="129" t="s">
         <v>403</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="167" t="s">
+      <c r="D28" s="129"/>
+      <c r="E28" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="136" t="s">
+      <c r="F28" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="136" t="s">
+      <c r="G28" s="131" t="s">
         <v>405</v>
       </c>
       <c r="H28" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="137" t="s">
+      <c r="I28" s="132" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="54" customFormat="1" ht="105">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="151" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="162" t="s">
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="159" t="s">
+      <c r="F29" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="159" t="s">
+      <c r="G29" s="154" t="s">
         <v>372</v>
       </c>
-      <c r="H29" s="159" t="s">
+      <c r="H29" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="160" t="s">
+      <c r="I29" s="155" t="s">
         <v>263</v>
       </c>
     </row>
@@ -11925,11 +11919,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="54" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A31" s="152"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="168"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="163"/>
       <c r="F31" s="91"/>
       <c r="G31" s="91" t="s">
         <v>267</v>
@@ -11937,114 +11931,114 @@
       <c r="H31" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="155" t="s">
+      <c r="I31" s="150" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="31" thickBot="1">
-      <c r="A32" s="142" t="s">
+      <c r="A32" s="137" t="s">
         <v>319</v>
       </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144" t="s">
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="145" t="s">
+      <c r="F32" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="145" t="s">
+      <c r="G32" s="140" t="s">
         <v>406</v>
       </c>
       <c r="H32" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="164" t="s">
+      <c r="I32" s="159" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="147" t="s">
+      <c r="A33" s="142" t="s">
         <v>407</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="169" t="s">
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="164" t="s">
         <v>408</v>
       </c>
-      <c r="F33" s="150" t="s">
+      <c r="F33" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="150" t="s">
+      <c r="G33" s="145" t="s">
         <v>409</v>
       </c>
-      <c r="H33" s="150"/>
-      <c r="I33" s="170"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="165"/>
     </row>
     <row r="34" spans="1:9" ht="61" thickBot="1">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="128" t="s">
         <v>410</v>
       </c>
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="135" t="s">
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="136" t="s">
+      <c r="F34" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="136" t="s">
+      <c r="G34" s="131" t="s">
         <v>411</v>
       </c>
       <c r="H34" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="137" t="s">
+      <c r="I34" s="132" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31" thickBot="1">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="137" t="s">
         <v>412</v>
       </c>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="144" t="s">
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="139" t="s">
         <v>413</v>
       </c>
-      <c r="F35" s="145" t="s">
+      <c r="F35" s="140" t="s">
         <v>322</v>
       </c>
-      <c r="G35" s="145" t="s">
+      <c r="G35" s="140" t="s">
         <v>480</v>
       </c>
-      <c r="H35" s="145"/>
-      <c r="I35" s="164"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="159"/>
     </row>
     <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="147" t="s">
+      <c r="A36" s="142" t="s">
         <v>560</v>
       </c>
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="172" t="s">
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="164" t="s">
         <v>243</v>
       </c>
-      <c r="F36" s="150" t="s">
+      <c r="F36" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="150" t="s">
+      <c r="G36" s="145" t="s">
         <v>561</v>
       </c>
-      <c r="H36" s="150"/>
-      <c r="I36" s="151"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="146"/>
     </row>
     <row r="37" spans="1:9" ht="28">
       <c r="A37" s="44" t="s">
@@ -12099,7 +12093,7 @@
         <v>327</v>
       </c>
       <c r="D39" s="45"/>
-      <c r="E39" s="171" t="s">
+      <c r="E39" s="42" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="41" t="s">
@@ -12374,29 +12368,29 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="29" thickBot="1">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="128" t="s">
         <v>323</v>
       </c>
-      <c r="B50" s="134" t="s">
+      <c r="B50" s="129" t="s">
         <v>341</v>
       </c>
-      <c r="C50" s="134" t="s">
+      <c r="C50" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="134"/>
-      <c r="E50" s="135" t="s">
+      <c r="D50" s="129"/>
+      <c r="E50" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="136" t="s">
+      <c r="F50" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="136" t="s">
+      <c r="G50" s="131" t="s">
         <v>423</v>
       </c>
       <c r="H50" s="91" t="s">
         <v>418</v>
       </c>
-      <c r="I50" s="137" t="s">
+      <c r="I50" s="132" t="s">
         <v>346</v>
       </c>
     </row>
@@ -12520,31 +12514,31 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="29" thickBot="1">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="128" t="s">
         <v>347</v>
       </c>
-      <c r="B56" s="134" t="s">
+      <c r="B56" s="129" t="s">
         <v>348</v>
       </c>
-      <c r="C56" s="134" t="s">
+      <c r="C56" s="129" t="s">
         <v>403</v>
       </c>
-      <c r="D56" s="134" t="s">
+      <c r="D56" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="136" t="s">
+      <c r="F56" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="136" t="s">
+      <c r="G56" s="131" t="s">
         <v>352</v>
       </c>
       <c r="H56" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="137" t="s">
+      <c r="I56" s="132" t="s">
         <v>353</v>
       </c>
     </row>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51D786B-AA6B-5C43-85F6-F1688F42FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DA8E10-0410-BA47-B197-25D051FF3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="460" windowWidth="34900" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -6012,7 +6012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6507,9 +6507,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10966,22 +10963,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="170"/>
-      <c r="B73" s="166" t="s">
+      <c r="A73" s="169"/>
+      <c r="B73" s="165" t="s">
         <v>356</v>
       </c>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166" t="s">
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="166" t="s">
+      <c r="F73" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="166" t="s">
+      <c r="G73" s="165" t="s">
         <v>357</v>
       </c>
-      <c r="H73" s="167" t="s">
+      <c r="H73" s="166" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -10989,27 +10986,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="170"/>
-      <c r="B74" s="166"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="166"/>
-      <c r="E74" s="166"/>
-      <c r="F74" s="166"/>
-      <c r="G74" s="166"/>
-      <c r="H74" s="168"/>
+      <c r="A74" s="169"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="165"/>
+      <c r="G74" s="165"/>
+      <c r="H74" s="167"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="170"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="166"/>
-      <c r="E75" s="166"/>
-      <c r="F75" s="166"/>
-      <c r="G75" s="166"/>
-      <c r="H75" s="169"/>
+      <c r="A75" s="169"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="168"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -11209,7 +11206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="171" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="176" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:I56"/>
     </sheetView>
   </sheetViews>
@@ -11975,7 +11972,7 @@
         <v>409</v>
       </c>
       <c r="H33" s="145"/>
-      <c r="I33" s="165"/>
+      <c r="I33" s="146"/>
     </row>
     <row r="34" spans="1:9" ht="61" thickBot="1">
       <c r="A34" s="128" t="s">
@@ -12555,8 +12552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DA8E10-0410-BA47-B197-25D051FF3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198D430-03E2-9C44-997C-677B0EE211C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!#REF!</definedName>
-    <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$H$28</definedName>
+    <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$H$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="566">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -2475,13 +2475,6 @@
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <t>投薬指示の意図。order を設定する。</t>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
     <t>category[*]</t>
     <phoneticPr fontId="35"/>
   </si>
@@ -2511,38 +2504,18 @@
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
     <t>category[=]</t>
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <t>MERIT9コードから、OHP:外来処方、OHI:院内処方（外来）、OHO:院外処方（外来）、IHP:入院処方、DCG:退院時処方、ORD:定期処方（入院）、XTR:臨時処方(入院）
-JHSP0007コードから、BDP:持参薬処方　などを使用することができる。</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
     <t>例示</t>
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <t>OHI</t>
-  </si>
-  <si>
     <t>display</t>
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <t>OHI:院内処方、OHO:院外処方、IHP:入院処方、DCG:退院時処方、ORD:定期処方、XTR:臨時処方、BDP:持参薬処方　</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <t>院内処方</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
     <r>
       <t>医薬品コードと医薬品名称。</t>
     </r>
@@ -2614,61 +2587,7 @@
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <r>
-      <t>医薬品コード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ共有サービスで使用する場合には、YJコード、HOT9またはHOT7コード、厚生労働省一般名コードのいずれかを必須とする。</t>
-    </r>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
     <t>coding[=]</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <t>医薬品コード</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <t>医薬品名称。</t>
     <phoneticPr fontId="35"/>
   </si>
   <si>
@@ -4723,6 +4642,230 @@
     <rPh sb="11" eb="13">
       <t xml:space="preserve">シジ </t>
     </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>医薬品名称。コード表におけるコードに対応する表示文字列。.text要素とは異なる文字列となることがある。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ヒョウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">コトナル </t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>ひとつの 必須のtext 要素と、複数の coding 要素を記述できる。本仕様では、処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ず text 要素に格納した上で、それをコード化した情報を 1 個以上の coding要素に記述する。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ共有サービスで使用する場合には、YJコード、HOT9またはHOT7コード、厚生労働省一般名コードのいずれかを必須とする。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ共有サービスで使用する場合には、YJコード、HOT9またはHOT7コード、厚生労働省一般名処方マスタコードのいずれかのsystem値を必須とする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+YJ: "urn:oid:1.2.392.100495.20.1.73"
+HOT9:  "urn:oid:1.2.392.200119.4.403.1"
+HOT7:  "urn:oid:1.2.392.200119.4.403.2"　(HOT9の末尾２桁である販社コードが不明の場合に限る)
+厚労省一般名処方マスタコード: "1.2.392.100495.20.2.81"</t>
+    </r>
+    <rPh sb="65" eb="67">
+      <t xml:space="preserve">ショホウ </t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t xml:space="preserve">ハンシャ </t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t xml:space="preserve">フメイ </t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t xml:space="preserve">マツビ </t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t xml:space="preserve">カギル </t>
+    </rPh>
+    <rPh sb="240" eb="243">
+      <t xml:space="preserve">コウロウショウ </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>医薬品コード。上記のコード表から選択したコード。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジョウキ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ヒョウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品名称。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ず設定する。</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>投薬指示の意図。"order" を固定で設定する。</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">コテイ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>MERIT9コードから、OHP:外来処方、OHI:院内処方（外来）、OHO:院外処方（外来）、IHP:入院処方、DCG:退院時処方、ORD:定期処方（入院）、XTR:臨時処方(入院）
+JHSP0007コードから、BDP:持参薬処方　などのコード部分（"OHP"など）を使用することができる。</t>
+    <rPh sb="122" eb="124">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>コードに対応する文字列部分。（OHI:院内処方、OHO:院外処方、IHP:入院処方、DCG:退院時処方、ORD:定期処方、XTR:臨時処方、BDP:持参薬処方　の"院内処方"の文字列など）</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">モジテレウ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">レツ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCategoryMERIT9_CS"</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>"OHI"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"院内処方"</t>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <t>例 1
+{
+  "reference":  "urn: ....."
+}"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>例 2
+{
+  "reference":  "#patient203987"
+}</t>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -4730,7 +4873,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5081,6 +5224,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -5317,7 +5468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -5874,6 +6025,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6012,7 +6189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6133,9 +6310,6 @@
     <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6175,9 +6349,6 @@
     <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6199,9 +6370,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6521,6 +6689,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9959,7 +10160,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="42" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -10963,22 +11164,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="169"/>
-      <c r="B73" s="165" t="s">
+      <c r="A73" s="166"/>
+      <c r="B73" s="162" t="s">
         <v>356</v>
       </c>
-      <c r="C73" s="165"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165" t="s">
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="165" t="s">
+      <c r="F73" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="165" t="s">
+      <c r="G73" s="162" t="s">
         <v>357</v>
       </c>
-      <c r="H73" s="166" t="s">
+      <c r="H73" s="163" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -10986,27 +11187,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="169"/>
-      <c r="B74" s="165"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="165"/>
-      <c r="F74" s="165"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="167"/>
+      <c r="A74" s="166"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="162"/>
+      <c r="F74" s="162"/>
+      <c r="G74" s="162"/>
+      <c r="H74" s="164"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="169"/>
-      <c r="B75" s="165"/>
-      <c r="C75" s="165"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="165"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="165"/>
-      <c r="H75" s="168"/>
+      <c r="A75" s="166"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="162"/>
+      <c r="D75" s="162"/>
+      <c r="E75" s="162"/>
+      <c r="F75" s="162"/>
+      <c r="G75" s="162"/>
+      <c r="H75" s="165"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -11204,1347 +11405,1374 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="176" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="176" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="62" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="40"/>
+    <col min="1" max="1" width="11.28515625" style="175" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="175" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="175" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="173" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="173" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="173" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="173" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="173" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="173"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76" thickBot="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="131" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="131" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="131" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="132" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="135" t="s">
-        <v>482</v>
-      </c>
-      <c r="I1" s="136" t="s">
+      <c r="H1" s="132" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="133" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31" thickBot="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140" t="s">
+      <c r="F2" s="137"/>
+      <c r="G2" s="137" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="138" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="143"/>
     </row>
     <row r="4" spans="1:9" ht="270">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="52" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="47" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="54" customFormat="1">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:9" s="174" customFormat="1">
+      <c r="A6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" s="54" customFormat="1" ht="45">
-      <c r="A7" s="49" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" s="174" customFormat="1" ht="45">
+      <c r="A7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="54" customFormat="1" ht="31" thickBot="1">
-      <c r="A8" s="147" t="s">
+    <row r="8" spans="1:9" s="174" customFormat="1" ht="31" thickBot="1">
+      <c r="A8" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="149" t="s">
+      <c r="D8" s="145"/>
+      <c r="E8" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="150" t="s">
+      <c r="I8" s="147" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="54" customFormat="1">
-      <c r="A9" s="151" t="s">
+    <row r="9" spans="1:9" s="174" customFormat="1">
+      <c r="A9" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153" t="s">
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154" t="s">
+      <c r="F9" s="151"/>
+      <c r="G9" s="151" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="154"/>
-      <c r="I9" s="155"/>
-    </row>
-    <row r="10" spans="1:9" s="54" customFormat="1" ht="75">
-      <c r="A10" s="49" t="s">
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
+    </row>
+    <row r="10" spans="1:9" s="174" customFormat="1" ht="75">
+      <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="56" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="51"/>
-    </row>
-    <row r="11" spans="1:9" s="54" customFormat="1" ht="136" thickBot="1">
-      <c r="A11" s="147" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="1:9" s="174" customFormat="1" ht="175" customHeight="1" thickBot="1">
+      <c r="A11" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="156" t="s">
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="150"/>
-    </row>
-    <row r="12" spans="1:9" s="54" customFormat="1" ht="45">
-      <c r="A12" s="151" t="s">
+      <c r="H11" s="88"/>
+      <c r="I11" s="147"/>
+    </row>
+    <row r="12" spans="1:9" s="174" customFormat="1" ht="45">
+      <c r="A12" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="157" t="s">
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="154" t="s">
+      <c r="F12" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154" t="s">
+      <c r="G12" s="151"/>
+      <c r="H12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="158" t="s">
+      <c r="I12" s="155" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="54" customFormat="1" ht="30">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:9" s="174" customFormat="1" ht="30">
+      <c r="A13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="57" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="47" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="47" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="57" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="47" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="156" t="s">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="131" t="s">
+      <c r="F17" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="H17" s="91" t="s">
+      <c r="H17" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="132" t="s">
+      <c r="I17" s="129" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="31" thickBot="1">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="134" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139" t="s">
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="140" t="s">
+      <c r="F18" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="140" t="s">
+      <c r="G18" s="137" t="s">
         <v>384</v>
       </c>
-      <c r="H18" s="93" t="s">
+      <c r="H18" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="159" t="s">
+      <c r="I18" s="156" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21" thickBot="1">
-      <c r="A19" s="137" t="s">
+    <row r="19" spans="1:9" ht="31" thickBot="1">
+      <c r="A19" s="134" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139" t="s">
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="140" t="s">
+      <c r="F19" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="140" t="s">
+      <c r="G19" s="137" t="s">
+        <v>558</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="156" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32" customHeight="1">
+      <c r="A20" s="139" t="s">
         <v>385</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="159" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="142" t="s">
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="157" t="s">
         <v>386</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="160" t="s">
+      <c r="F20" s="142" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="142" t="s">
         <v>387</v>
       </c>
-      <c r="F20" s="145" t="s">
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+    </row>
+    <row r="21" spans="1:9" ht="102" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="91" customHeight="1">
+      <c r="A22" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
+      <c r="A23" s="125" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" s="126" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="158" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="128" t="s">
+        <v>560</v>
+      </c>
+      <c r="H23" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="129" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="139" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="145" t="s">
-        <v>388</v>
-      </c>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
-    </row>
-    <row r="21" spans="1:9" ht="102" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="B21" s="45" t="s">
+      <c r="G24" s="142" t="s">
+        <v>393</v>
+      </c>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+    </row>
+    <row r="25" spans="1:9" ht="121" customHeight="1">
+      <c r="A25" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="47"/>
+    </row>
+    <row r="26" spans="1:9" ht="161" customHeight="1">
+      <c r="A26" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="F21" s="41" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="H21" s="47" t="s">
+      <c r="G26" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="48" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="91" customHeight="1">
-      <c r="A22" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="B22" s="45" t="s">
+      <c r="I26" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28">
+      <c r="A27" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="36">
+      <c r="A28" s="167" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="168" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="168" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="170" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="176" t="s">
+        <v>553</v>
+      </c>
+      <c r="H28" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="172" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="49" customHeight="1" thickBot="1">
+      <c r="A29" s="125" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="126" t="s">
+        <v>494</v>
+      </c>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="159" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="177" t="s">
+        <v>557</v>
+      </c>
+      <c r="H29" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="129" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="174" customFormat="1" ht="105">
+      <c r="A30" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="151" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="152" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="174" customFormat="1" ht="90">
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="174" customFormat="1" ht="201" customHeight="1" thickBot="1">
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31" thickBot="1">
+      <c r="A33" s="134" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="H33" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="156" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="139" t="s">
+        <v>398</v>
+      </c>
+      <c r="B34" s="140"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="161" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34" s="142" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+    </row>
+    <row r="35" spans="1:9" ht="61" thickBot="1">
+      <c r="A35" s="125" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="128" t="s">
+        <v>402</v>
+      </c>
+      <c r="H35" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="129" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31" thickBot="1">
+      <c r="A36" s="134" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="136" t="s">
+        <v>404</v>
+      </c>
+      <c r="F36" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="137" t="s">
+        <v>471</v>
+      </c>
+      <c r="H36" s="137"/>
+      <c r="I36" s="156"/>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="139" t="s">
+        <v>551</v>
+      </c>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="161" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="142" t="s">
+        <v>552</v>
+      </c>
+      <c r="H37" s="142"/>
+      <c r="I37" s="143"/>
+    </row>
+    <row r="38" spans="1:9" ht="28">
+      <c r="A38" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="H38" s="40"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="1:9" ht="30">
+      <c r="A39" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="47"/>
+    </row>
+    <row r="40" spans="1:9" ht="45">
+      <c r="A40" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28">
+      <c r="A41" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="I42" s="47"/>
+    </row>
+    <row r="43" spans="1:9" ht="28">
+      <c r="A43" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="F22" s="41" t="s">
+      <c r="D43" s="44"/>
+      <c r="E43" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28">
+      <c r="A44" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="H22" s="47" t="s">
+      <c r="G44" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="44"/>
+      <c r="E45" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28">
+      <c r="A46" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28">
+      <c r="A47" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="H47" s="40"/>
+      <c r="I47" s="47"/>
+    </row>
+    <row r="48" spans="1:9" ht="28">
+      <c r="A48" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="44"/>
+      <c r="E48" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28">
+      <c r="A49" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="44"/>
+      <c r="E49" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28">
+      <c r="A50" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="44"/>
+      <c r="E50" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="29" thickBot="1">
+      <c r="A51" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="126" t="s">
+        <v>341</v>
+      </c>
+      <c r="C51" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="126"/>
+      <c r="E51" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="128" t="s">
+        <v>414</v>
+      </c>
+      <c r="H51" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="I51" s="129" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="47"/>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="47"/>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="D54" s="44"/>
+      <c r="E54" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="47"/>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" s="44" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
-      <c r="A23" s="128" t="s">
-        <v>392</v>
-      </c>
-      <c r="B23" s="129" t="s">
+      <c r="D55" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="I55" s="47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="28">
+      <c r="A56" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="F23" s="131" t="s">
+      <c r="D56" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29" thickBot="1">
+      <c r="A57" s="125" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="D57" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="131" t="s">
-        <v>397</v>
-      </c>
-      <c r="H23" s="91" t="s">
+      <c r="G57" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="H57" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="132" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45">
-      <c r="A24" s="142" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="144" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="145" t="s">
-        <v>399</v>
-      </c>
-      <c r="H24" s="145"/>
-      <c r="I24" s="146"/>
-    </row>
-    <row r="25" spans="1:9" ht="28">
-      <c r="A25" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28">
-      <c r="A27" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31" thickBot="1">
-      <c r="A28" s="128" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="129" t="s">
-        <v>403</v>
-      </c>
-      <c r="C28" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="131" t="s">
-        <v>405</v>
-      </c>
-      <c r="H28" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="132" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="54" customFormat="1" ht="105">
-      <c r="A29" s="151" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="154" t="s">
-        <v>372</v>
-      </c>
-      <c r="H29" s="154" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="155" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="54" customFormat="1" ht="90">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="54" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="H31" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="150" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="31" thickBot="1">
-      <c r="A32" s="137" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="139" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" s="140" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="140" t="s">
-        <v>406</v>
-      </c>
-      <c r="H32" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="159" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="142" t="s">
-        <v>407</v>
-      </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="164" t="s">
-        <v>408</v>
-      </c>
-      <c r="F33" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="145" t="s">
-        <v>409</v>
-      </c>
-      <c r="H33" s="145"/>
-      <c r="I33" s="146"/>
-    </row>
-    <row r="34" spans="1:9" ht="61" thickBot="1">
-      <c r="A34" s="128" t="s">
-        <v>410</v>
-      </c>
-      <c r="B34" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" s="131" t="s">
-        <v>411</v>
-      </c>
-      <c r="H34" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="132" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="31" thickBot="1">
-      <c r="A35" s="137" t="s">
-        <v>412</v>
-      </c>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="139" t="s">
-        <v>413</v>
-      </c>
-      <c r="F35" s="140" t="s">
-        <v>322</v>
-      </c>
-      <c r="G35" s="140" t="s">
-        <v>480</v>
-      </c>
-      <c r="H35" s="140"/>
-      <c r="I35" s="159"/>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="142" t="s">
-        <v>560</v>
-      </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="164" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="145" t="s">
-        <v>561</v>
-      </c>
-      <c r="H36" s="145"/>
-      <c r="I36" s="146"/>
-    </row>
-    <row r="37" spans="1:9" ht="28">
-      <c r="A37" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="48"/>
-    </row>
-    <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="48"/>
-    </row>
-    <row r="39" spans="1:9" ht="45">
-      <c r="A39" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>417</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="28">
-      <c r="A40" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="48"/>
-    </row>
-    <row r="42" spans="1:9" ht="28">
-      <c r="A42" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28">
-      <c r="A43" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="H44" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="28">
-      <c r="A45" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="H45" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="48" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28">
-      <c r="A46" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="G46" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="48"/>
-    </row>
-    <row r="47" spans="1:9" ht="28">
-      <c r="A47" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="H47" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28">
-      <c r="A48" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="H48" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="28">
-      <c r="A49" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="I49" s="48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="29" thickBot="1">
-      <c r="A50" s="128" t="s">
-        <v>323</v>
-      </c>
-      <c r="B50" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="129"/>
-      <c r="E50" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="131" t="s">
-        <v>423</v>
-      </c>
-      <c r="H50" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="I50" s="132" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30">
-      <c r="A51" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="48"/>
-    </row>
-    <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="48"/>
-    </row>
-    <row r="53" spans="1:9" ht="30">
-      <c r="A53" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="48"/>
-    </row>
-    <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="H54" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="28">
-      <c r="A55" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="H55" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="29" thickBot="1">
-      <c r="A56" s="128" t="s">
-        <v>347</v>
-      </c>
-      <c r="B56" s="129" t="s">
-        <v>348</v>
-      </c>
-      <c r="C56" s="129" t="s">
-        <v>403</v>
-      </c>
-      <c r="D56" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="130" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" s="131" t="s">
-        <v>352</v>
-      </c>
-      <c r="H56" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="132" t="s">
+      <c r="I57" s="129" t="s">
         <v>353</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="25"/>
-  <hyperlinks>
-    <hyperlink ref="G28" r:id="rId1" location="_ftn1" display="applewebdata://36CC18F4-330A-4781-81CA-8EDA98B6FFCE/ - _ftn1" xr:uid="{DD89D984-68AD-A44F-AB88-FE866478FB77}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -12552,1864 +12780,1864 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I74"/>
+    <sheetView zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="127" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="127" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="127" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="124" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="124" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="124" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="69" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="71" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="71" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="76" thickBot="1">
+      <c r="A2" s="108" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="83" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" s="110" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="83" t="s">
+        <v>543</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>509</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>477</v>
+      </c>
+      <c r="I3" s="86" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="112" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="62"/>
+      <c r="I4" s="73"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" thickBot="1">
+      <c r="A5" s="114" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="115"/>
+      <c r="E5" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="101" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="116" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="86"/>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="112" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="112" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>536</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="118" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="112" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="112" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="113"/>
+      <c r="E11" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31" thickBot="1">
+      <c r="A12" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31" thickBot="1">
+      <c r="A13" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>537</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14" s="116" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>538</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="86"/>
+    </row>
+    <row r="15" spans="1:9" ht="26">
+      <c r="A15" s="112" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="112" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="113" t="s">
         <v>482</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="C16" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="113"/>
+      <c r="E16" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26">
+      <c r="A17" s="112" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="113"/>
+      <c r="E17" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>513</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26">
+      <c r="A18" s="112" t="s">
+        <v>485</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="113"/>
+      <c r="E18" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31" thickBot="1">
+      <c r="A19" s="120" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="H19" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>528</v>
+      </c>
+      <c r="H20" s="89"/>
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="113" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="76" thickBot="1">
-      <c r="A2" s="111" t="s">
-        <v>485</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="F2" s="110" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>551</v>
-      </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-    </row>
-    <row r="3" spans="1:9" ht="60">
-      <c r="A3" s="113" t="s">
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="73"/>
+    </row>
+    <row r="23" spans="1:9" ht="75">
+      <c r="A23" s="118" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="H23" s="64"/>
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25" s="113" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>530</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="26">
+      <c r="A26" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="113" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="26">
+      <c r="A27" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" s="113" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="118" t="s">
+        <v>421</v>
+      </c>
+      <c r="B28" s="119" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="96" t="s">
+        <v>496</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="73"/>
+    </row>
+    <row r="29" spans="1:9" ht="75">
+      <c r="A29" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>481</v>
+      </c>
+      <c r="D29" s="113"/>
+      <c r="E29" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="73"/>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="113" t="s">
         <v>483</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="D31" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="73" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31" thickBot="1">
+      <c r="A33" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="121" t="s">
+        <v>494</v>
+      </c>
+      <c r="D33" s="121"/>
+      <c r="E33" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="H33" s="88"/>
+      <c r="I33" s="76"/>
+    </row>
+    <row r="34" spans="1:9" ht="31" thickBot="1">
+      <c r="A34" s="122" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>539</v>
+      </c>
+      <c r="H34" s="92"/>
+      <c r="I34" s="78"/>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>540</v>
+      </c>
+      <c r="H35" s="89"/>
+      <c r="I35" s="86"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="112" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="F3" s="85" t="s">
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="61"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="73"/>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="112" t="s">
+        <v>428</v>
+      </c>
+      <c r="B37" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="C37" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="113"/>
+      <c r="E37" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G37" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I37" s="73" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="112" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C38" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="113"/>
+      <c r="E38" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="73" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="112" t="s">
+        <v>428</v>
+      </c>
+      <c r="B39" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C39" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="113"/>
+      <c r="E39" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="21" thickBot="1">
+      <c r="A40" s="120" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="H40" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="76" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="116" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="97" t="s">
+        <v>438</v>
+      </c>
+      <c r="H41" s="89"/>
+      <c r="I41" s="86"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="112" t="s">
+        <v>489</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>481</v>
+      </c>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="61"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="73"/>
+    </row>
+    <row r="43" spans="1:9" ht="45">
+      <c r="A43" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="C43" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="113"/>
+      <c r="E43" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="H43" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I43" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="113"/>
+      <c r="E44" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C45" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="113"/>
+      <c r="E45" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="H3" s="88" t="s">
-        <v>486</v>
-      </c>
-      <c r="I3" s="89" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="115" t="s">
-        <v>484</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>426</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="68" t="s">
+      <c r="H45" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="31" thickBot="1">
+      <c r="A46" s="120" t="s">
+        <v>429</v>
+      </c>
+      <c r="B46" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>439</v>
+      </c>
+      <c r="H46" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="116" t="s">
+        <v>430</v>
+      </c>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="H47" s="89"/>
+      <c r="I47" s="86"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>481</v>
+      </c>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="61"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="73"/>
+    </row>
+    <row r="49" spans="1:9" ht="60">
+      <c r="A49" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B49" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="C49" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="113"/>
+      <c r="E49" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" thickBot="1">
-      <c r="A5" s="117" t="s">
-        <v>484</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="103" t="s">
+      <c r="F49" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="H49" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I49" s="73" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B50" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C50" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="113"/>
+      <c r="E50" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>488</v>
-      </c>
-      <c r="H5" s="91" t="s">
+      <c r="F50" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="H50" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="79" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="119" t="s">
-        <v>485</v>
-      </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="106" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="87" t="s">
+      <c r="I50" s="73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45">
+      <c r="A51" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B51" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="C51" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="113"/>
+      <c r="E51" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="61" t="s">
+        <v>520</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="31" thickBot="1">
+      <c r="A52" s="120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B52" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="H52" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="76" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="135">
+      <c r="A53" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" s="84" t="s">
+        <v>549</v>
+      </c>
+      <c r="H53" s="89"/>
+      <c r="I53" s="86"/>
+    </row>
+    <row r="54" spans="1:9" ht="60">
+      <c r="A54" s="118" t="s">
+        <v>491</v>
+      </c>
+      <c r="B54" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="F54" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="96" t="s">
+        <v>544</v>
+      </c>
+      <c r="H54" s="94"/>
+      <c r="I54" s="95"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B55" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="113" t="s">
+        <v>481</v>
+      </c>
+      <c r="D55" s="113"/>
+      <c r="E55" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="61"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="73"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="D56" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="60" t="s">
+        <v>507</v>
+      </c>
+      <c r="H56" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I56" s="73" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B57" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="D57" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="D58" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>521</v>
+      </c>
+      <c r="H58" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="73" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="90">
+      <c r="A59" s="118" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59" s="119" t="s">
+        <v>547</v>
+      </c>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="93" t="s">
+        <v>545</v>
+      </c>
+      <c r="H59" s="94"/>
+      <c r="I59" s="95"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B60" s="113" t="s">
+        <v>431</v>
+      </c>
+      <c r="C60" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="113"/>
+      <c r="E60" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B61" s="113" t="s">
+        <v>431</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="113"/>
+      <c r="E61" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30">
+      <c r="A62" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B62" s="113" t="s">
+        <v>431</v>
+      </c>
+      <c r="C62" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="113"/>
+      <c r="E62" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="H62" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" s="73" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B63" s="113" t="s">
+        <v>431</v>
+      </c>
+      <c r="C63" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="113"/>
+      <c r="E63" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="195">
+      <c r="A64" s="118" t="s">
+        <v>492</v>
+      </c>
+      <c r="B64" s="119" t="s">
+        <v>548</v>
+      </c>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="93" t="s">
+        <v>433</v>
+      </c>
+      <c r="G64" s="93" t="s">
+        <v>546</v>
+      </c>
+      <c r="H64" s="94"/>
+      <c r="I64" s="95"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B65" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C65" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D65" s="113"/>
+      <c r="E65" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" s="61" t="s">
         <v>550</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="89"/>
-    </row>
-    <row r="7" spans="1:9" ht="60">
-      <c r="A7" s="115" t="s">
-        <v>483</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="64" t="s">
+      <c r="H65" s="64"/>
+      <c r="I65" s="73"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B66" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D66" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F66" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="61" t="s">
+        <v>526</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B67" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C67" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30">
+      <c r="A68" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B68" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C68" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="63" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="115" t="s">
-        <v>484</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="64" t="s">
+      <c r="G68" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="H68" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I68" s="73" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B69" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C69" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D69" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="64" t="s">
-        <v>429</v>
-      </c>
-      <c r="G8" s="105" t="s">
-        <v>545</v>
-      </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="76"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="121" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" s="122" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" s="122" t="s">
+      <c r="F69" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="H69" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B70" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" s="113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D70" s="113"/>
+      <c r="E70" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G70" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="H70" s="64"/>
+      <c r="I70" s="73"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B71" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C71" s="113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="96" t="s">
+      <c r="E71" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F71" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="99" t="s">
-        <v>521</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="115" t="s">
-        <v>484</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>428</v>
-      </c>
-      <c r="C10" s="116" t="s">
+      <c r="G71" s="60" t="s">
+        <v>534</v>
+      </c>
+      <c r="H71" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I71" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B72" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C72" s="113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D72" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="64" t="s">
+      <c r="E72" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>454</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="115" t="s">
-        <v>484</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" s="116" t="s">
+      <c r="F72" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>533</v>
+      </c>
+      <c r="H72" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I72" s="73" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="B73" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C73" s="113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D73" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="64" t="s">
+      <c r="E73" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F73" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="63" t="s">
-        <v>520</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I11" s="76" t="s">
+      <c r="G73" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="H73" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="I73" s="73" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31" thickBot="1">
-      <c r="A12" s="123" t="s">
-        <v>484</v>
-      </c>
-      <c r="B12" s="124" t="s">
-        <v>428</v>
-      </c>
-      <c r="C12" s="124" t="s">
+    <row r="74" spans="1:9" ht="21" thickBot="1">
+      <c r="A74" s="120" t="s">
+        <v>492</v>
+      </c>
+      <c r="B74" s="121" t="s">
+        <v>432</v>
+      </c>
+      <c r="C74" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="D74" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="77" t="s">
+      <c r="E74" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F74" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="78" t="s">
-        <v>513</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>486</v>
-      </c>
-      <c r="I12" s="79" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31" thickBot="1">
-      <c r="A13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="107" t="s">
-        <v>546</v>
-      </c>
-      <c r="H13" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="119" t="s">
-        <v>489</v>
-      </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>547</v>
-      </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="89"/>
-    </row>
-    <row r="15" spans="1:9" ht="26">
-      <c r="A15" s="115" t="s">
-        <v>493</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="76"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="115" t="s">
-        <v>494</v>
-      </c>
-      <c r="B16" s="116" t="s">
-        <v>491</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>512</v>
-      </c>
-      <c r="H16" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26">
-      <c r="A17" s="115" t="s">
-        <v>494</v>
-      </c>
-      <c r="B17" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C17" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="76" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="26">
-      <c r="A18" s="115" t="s">
-        <v>494</v>
-      </c>
-      <c r="B18" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C18" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>523</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="31" thickBot="1">
-      <c r="A19" s="123" t="s">
-        <v>494</v>
-      </c>
-      <c r="B19" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="77" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="78" t="s">
-        <v>455</v>
-      </c>
-      <c r="H19" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="94" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="119" t="s">
-        <v>430</v>
-      </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>431</v>
-      </c>
-      <c r="G20" s="100" t="s">
-        <v>537</v>
-      </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B21" s="116" t="s">
-        <v>496</v>
-      </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>536</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="76" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B22" s="116" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="76"/>
-    </row>
-    <row r="23" spans="1:9" ht="75">
-      <c r="A23" s="121" t="s">
-        <v>430</v>
-      </c>
-      <c r="B23" s="122" t="s">
-        <v>432</v>
-      </c>
-      <c r="C23" s="122" t="s">
-        <v>434</v>
-      </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="96" t="s">
-        <v>429</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>544</v>
-      </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="76"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B24" s="116" t="s">
-        <v>432</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>434</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>538</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B25" s="116" t="s">
-        <v>432</v>
-      </c>
-      <c r="C25" s="116" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>539</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="26">
-      <c r="A26" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26" s="116" t="s">
-        <v>432</v>
-      </c>
-      <c r="C26" s="116" t="s">
-        <v>434</v>
-      </c>
-      <c r="D26" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>511</v>
-      </c>
-      <c r="H26" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I26" s="76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="26">
-      <c r="A27" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>432</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>434</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>510</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I27" s="76" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="121" t="s">
-        <v>430</v>
-      </c>
-      <c r="B28" s="122" t="s">
-        <v>495</v>
-      </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="99" t="s">
-        <v>505</v>
-      </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="76"/>
-    </row>
-    <row r="29" spans="1:9" ht="75">
-      <c r="A29" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="76"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B30" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="116" t="s">
-        <v>491</v>
-      </c>
-      <c r="D30" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="76" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B31" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="D31" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="64" t="s">
-        <v>508</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="76" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B32" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="D32" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="63" t="s">
-        <v>509</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="76" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="31" thickBot="1">
-      <c r="A33" s="123" t="s">
-        <v>430</v>
-      </c>
-      <c r="B33" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="124" t="s">
-        <v>503</v>
-      </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>504</v>
-      </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="79"/>
-    </row>
-    <row r="34" spans="1:9" ht="31" thickBot="1">
-      <c r="A34" s="125" t="s">
-        <v>435</v>
-      </c>
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="107" t="s">
-        <v>436</v>
-      </c>
-      <c r="G34" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="81"/>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="119" t="s">
-        <v>437</v>
-      </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="87" t="s">
-        <v>549</v>
-      </c>
-      <c r="H35" s="92"/>
-      <c r="I35" s="89"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="B36" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="F36" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="76"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="B37" s="116" t="s">
-        <v>491</v>
-      </c>
-      <c r="C37" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="64" t="s">
-        <v>514</v>
-      </c>
-      <c r="H37" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I37" s="76" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="B38" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C38" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>524</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="76" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="B39" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C39" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="64" t="s">
-        <v>525</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="76" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="21" thickBot="1">
-      <c r="A40" s="123" t="s">
-        <v>437</v>
-      </c>
-      <c r="B40" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="H40" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="79" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="100" t="s">
-        <v>447</v>
-      </c>
-      <c r="H41" s="92"/>
-      <c r="I41" s="89"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="115" t="s">
-        <v>498</v>
-      </c>
-      <c r="B42" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="76"/>
-    </row>
-    <row r="43" spans="1:9" ht="45">
-      <c r="A43" s="115" t="s">
-        <v>438</v>
-      </c>
-      <c r="B43" s="116" t="s">
-        <v>491</v>
-      </c>
-      <c r="C43" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="116"/>
-      <c r="E43" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="63" t="s">
-        <v>515</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I43" s="76" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="115" t="s">
-        <v>438</v>
-      </c>
-      <c r="B44" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C44" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="63" t="s">
-        <v>526</v>
-      </c>
-      <c r="H44" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="76" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="115" t="s">
-        <v>438</v>
-      </c>
-      <c r="B45" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C45" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="63" t="s">
-        <v>527</v>
-      </c>
-      <c r="H45" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="76" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="31" thickBot="1">
-      <c r="A46" s="123" t="s">
-        <v>438</v>
-      </c>
-      <c r="B46" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="78" t="s">
-        <v>448</v>
-      </c>
-      <c r="H46" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="79" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30">
-      <c r="A47" s="119" t="s">
-        <v>439</v>
-      </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="H47" s="92"/>
-      <c r="I47" s="89"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="115" t="s">
-        <v>439</v>
-      </c>
-      <c r="B48" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="F48" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="64"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="76"/>
-    </row>
-    <row r="49" spans="1:9" ht="60">
-      <c r="A49" s="115" t="s">
-        <v>439</v>
-      </c>
-      <c r="B49" s="116" t="s">
-        <v>491</v>
-      </c>
-      <c r="C49" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="63" t="s">
-        <v>502</v>
-      </c>
-      <c r="H49" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I49" s="76" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45">
-      <c r="A50" s="115" t="s">
-        <v>439</v>
-      </c>
-      <c r="B50" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C50" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="64" t="s">
-        <v>528</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="76" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="45">
-      <c r="A51" s="115" t="s">
-        <v>439</v>
-      </c>
-      <c r="B51" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="C51" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="H51" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="76" t="s">
+      <c r="G74" s="75" t="s">
+        <v>443</v>
+      </c>
+      <c r="H74" s="67" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="31" thickBot="1">
-      <c r="A52" s="123" t="s">
-        <v>439</v>
-      </c>
-      <c r="B52" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="78" t="s">
-        <v>450</v>
-      </c>
-      <c r="H52" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="79" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="135">
-      <c r="A53" s="119" t="s">
-        <v>499</v>
-      </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="106" t="s">
-        <v>433</v>
-      </c>
-      <c r="G53" s="87" t="s">
-        <v>558</v>
-      </c>
-      <c r="H53" s="92"/>
-      <c r="I53" s="89"/>
-    </row>
-    <row r="54" spans="1:9" ht="60">
-      <c r="A54" s="121" t="s">
-        <v>500</v>
-      </c>
-      <c r="B54" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="F54" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="99" t="s">
-        <v>553</v>
-      </c>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B55" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="D55" s="116"/>
-      <c r="E55" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="F55" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="64"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="76"/>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B56" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="116" t="s">
-        <v>491</v>
-      </c>
-      <c r="D56" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>516</v>
-      </c>
-      <c r="H56" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I56" s="76" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B57" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="D57" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="63" t="s">
-        <v>531</v>
-      </c>
-      <c r="H57" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="76" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B58" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="D58" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="63" t="s">
-        <v>530</v>
-      </c>
-      <c r="H58" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="76" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="90">
-      <c r="A59" s="121" t="s">
-        <v>501</v>
-      </c>
-      <c r="B59" s="122" t="s">
-        <v>556</v>
-      </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" s="96" t="s">
-        <v>554</v>
-      </c>
-      <c r="H59" s="97"/>
-      <c r="I59" s="98"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B60" s="116" t="s">
-        <v>440</v>
-      </c>
-      <c r="C60" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="116"/>
-      <c r="E60" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="H60" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B61" s="116" t="s">
-        <v>440</v>
-      </c>
-      <c r="C61" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" s="63" t="s">
-        <v>533</v>
-      </c>
-      <c r="H61" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="76" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B62" s="116" t="s">
-        <v>440</v>
-      </c>
-      <c r="C62" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="116"/>
-      <c r="E62" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="63" t="s">
+      <c r="I74" s="76" t="s">
         <v>451</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I62" s="76" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B63" s="116" t="s">
-        <v>440</v>
-      </c>
-      <c r="C63" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="116"/>
-      <c r="E63" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="63" t="s">
-        <v>534</v>
-      </c>
-      <c r="H63" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="76" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="195">
-      <c r="A64" s="121" t="s">
-        <v>501</v>
-      </c>
-      <c r="B64" s="122" t="s">
-        <v>557</v>
-      </c>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="96" t="s">
-        <v>442</v>
-      </c>
-      <c r="G64" s="96" t="s">
-        <v>555</v>
-      </c>
-      <c r="H64" s="97"/>
-      <c r="I64" s="98"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B65" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C65" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="D65" s="116"/>
-      <c r="E65" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="G65" s="64" t="s">
-        <v>559</v>
-      </c>
-      <c r="H65" s="67"/>
-      <c r="I65" s="76"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B66" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C66" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="D66" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="64" t="s">
-        <v>535</v>
-      </c>
-      <c r="H66" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B67" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C67" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="D67" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G67" s="63" t="s">
-        <v>533</v>
-      </c>
-      <c r="H67" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="76" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B68" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C68" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="D68" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I68" s="76" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B69" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C69" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="D69" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="63" t="s">
-        <v>534</v>
-      </c>
-      <c r="H69" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="76" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B70" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C70" s="116" t="s">
-        <v>445</v>
-      </c>
-      <c r="D70" s="116"/>
-      <c r="E70" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="G70" s="64" t="s">
-        <v>540</v>
-      </c>
-      <c r="H70" s="67"/>
-      <c r="I70" s="76"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B71" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C71" s="116" t="s">
-        <v>445</v>
-      </c>
-      <c r="D71" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="63" t="s">
-        <v>543</v>
-      </c>
-      <c r="H71" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I71" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B72" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C72" s="116" t="s">
-        <v>445</v>
-      </c>
-      <c r="D72" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="64" t="s">
-        <v>541</v>
-      </c>
-      <c r="G72" s="63" t="s">
-        <v>542</v>
-      </c>
-      <c r="H72" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I72" s="76" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="B73" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C73" s="116" t="s">
-        <v>445</v>
-      </c>
-      <c r="D73" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="64" t="s">
-        <v>517</v>
-      </c>
-      <c r="H73" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="I73" s="76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="21" thickBot="1">
-      <c r="A74" s="123" t="s">
-        <v>501</v>
-      </c>
-      <c r="B74" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="C74" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="D74" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="78" t="s">
-        <v>452</v>
-      </c>
-      <c r="H74" s="70" t="s">
-        <v>486</v>
-      </c>
-      <c r="I74" s="79" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198D430-03E2-9C44-997C-677B0EE211C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B14B0-AC8E-7441-A76D-02976384A919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="37080" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -2516,69 +2516,6 @@
     <phoneticPr fontId="35"/>
   </si>
   <si>
-    <r>
-      <t>医薬品コードと医薬品名称。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>coding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>要素を繰り返すことで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>HOT9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>や</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>YJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コードなど複数のコード体系で医薬品コードを並記することが可能。</t>
-    </r>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
     <t>coding[*]</t>
     <phoneticPr fontId="35"/>
   </si>
@@ -4668,26 +4605,6 @@
       <t xml:space="preserve">モジレツ </t>
     </rPh>
     <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <r>
-      <t>ひとつの 必須のtext 要素と、複数の coding 要素を記述できる。本仕様では、処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ず text 要素に格納した上で、それをコード化した情報を 1 個以上の coding要素に記述する。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ共有サービスで使用する場合には、YJコード、HOT9またはHOT7コード、厚生労働省一般名コードのいずれかを必須とする。</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ヒッス </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
   </si>
   <si>
     <r>
@@ -4866,6 +4783,89 @@
 {
   "reference":  "#patient203987"
 }</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品コードと医薬品名称。ひとつの 必須のtext 要素と、複数の coding 要素を記述できる。本仕様では、処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ず text 要素に格納した上で、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>coding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要素を繰り返すことで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>HOT9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>YJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コードなど複数のコード体系で医薬品コードを並記することが可能。</t>
+    </r>
+    <phoneticPr fontId="35"/>
+  </si>
+  <si>
+    <r>
+      <t>コード化した情報を 1 個以上の coding要素に記述する。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ共有サービスで使用する場合には、YJコード、HOT9またはHOT7コード、厚生労働省一般名コードのいずれかを必須とする。</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -6676,6 +6676,39 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6689,39 +6722,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11164,22 +11164,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="166"/>
-      <c r="B73" s="162" t="s">
+      <c r="A73" s="177"/>
+      <c r="B73" s="173" t="s">
         <v>356</v>
       </c>
-      <c r="C73" s="162"/>
-      <c r="D73" s="162"/>
-      <c r="E73" s="162" t="s">
+      <c r="C73" s="173"/>
+      <c r="D73" s="173"/>
+      <c r="E73" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="162" t="s">
+      <c r="F73" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="162" t="s">
+      <c r="G73" s="173" t="s">
         <v>357</v>
       </c>
-      <c r="H73" s="163" t="s">
+      <c r="H73" s="174" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -11187,27 +11187,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="166"/>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="162"/>
-      <c r="E74" s="162"/>
-      <c r="F74" s="162"/>
-      <c r="G74" s="162"/>
-      <c r="H74" s="164"/>
+      <c r="A74" s="177"/>
+      <c r="B74" s="173"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="173"/>
+      <c r="F74" s="173"/>
+      <c r="G74" s="173"/>
+      <c r="H74" s="175"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="166"/>
-      <c r="B75" s="162"/>
-      <c r="C75" s="162"/>
-      <c r="D75" s="162"/>
-      <c r="E75" s="162"/>
-      <c r="F75" s="162"/>
-      <c r="G75" s="162"/>
-      <c r="H75" s="165"/>
+      <c r="A75" s="177"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="173"/>
+      <c r="F75" s="173"/>
+      <c r="G75" s="173"/>
+      <c r="H75" s="176"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -11407,21 +11407,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="176" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="175" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="175" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="175" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="173" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="173" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="173" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="173" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="173" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="173"/>
+    <col min="1" max="1" width="11.28515625" style="170" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="170" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="170" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="168" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="168" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="168" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="168" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="168" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="168"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76" thickBot="1">
@@ -11447,7 +11447,7 @@
         <v>302</v>
       </c>
       <c r="H1" s="132" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I1" s="133" t="s">
         <v>303</v>
@@ -11541,7 +11541,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="174" customFormat="1">
+    <row r="6" spans="1:9" s="169" customFormat="1">
       <c r="A6" s="48" t="s">
         <v>13</v>
       </c>
@@ -11562,7 +11562,7 @@
       <c r="H6" s="46"/>
       <c r="I6" s="50"/>
     </row>
-    <row r="7" spans="1:9" s="174" customFormat="1" ht="45">
+    <row r="7" spans="1:9" s="169" customFormat="1" ht="45">
       <c r="A7" s="48" t="s">
         <v>13</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="174" customFormat="1" ht="31" thickBot="1">
+    <row r="8" spans="1:9" s="169" customFormat="1" ht="31" thickBot="1">
       <c r="A8" s="144" t="s">
         <v>13</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="174" customFormat="1">
+    <row r="9" spans="1:9" s="169" customFormat="1">
       <c r="A9" s="148" t="s">
         <v>36</v>
       </c>
@@ -11633,7 +11633,7 @@
       <c r="H9" s="151"/>
       <c r="I9" s="152"/>
     </row>
-    <row r="10" spans="1:9" s="174" customFormat="1" ht="75">
+    <row r="10" spans="1:9" s="169" customFormat="1" ht="75">
       <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="H10" s="46"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:9" s="174" customFormat="1" ht="175" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" s="169" customFormat="1" ht="175" customHeight="1" thickBot="1">
       <c r="A11" s="144" t="s">
         <v>42</v>
       </c>
@@ -11671,7 +11671,7 @@
       <c r="H11" s="88"/>
       <c r="I11" s="147"/>
     </row>
-    <row r="12" spans="1:9" s="174" customFormat="1" ht="45">
+    <row r="12" spans="1:9" s="169" customFormat="1" ht="45">
       <c r="A12" s="148" t="s">
         <v>45</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="174" customFormat="1" ht="30">
+    <row r="13" spans="1:9" s="169" customFormat="1" ht="30">
       <c r="A13" s="48" t="s">
         <v>46</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="137" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H19" s="90" t="s">
         <v>11</v>
@@ -11906,7 +11906,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="91" customHeight="1">
@@ -11925,13 +11925,13 @@
         <v>48</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>391</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
@@ -11950,16 +11950,16 @@
         <v>48</v>
       </c>
       <c r="G23" s="128" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H23" s="88" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="129" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="90">
       <c r="A24" s="139" t="s">
         <v>315</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="142" t="s">
-        <v>393</v>
+        <v>564</v>
       </c>
       <c r="H24" s="142"/>
       <c r="I24" s="143"/>
@@ -11983,7 +11983,7 @@
         <v>315</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
@@ -11994,7 +11994,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="47"/>
@@ -12004,7 +12004,7 @@
         <v>315</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>26</v>
@@ -12017,7 +12017,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H26" s="46" t="s">
         <v>17</v>
@@ -12031,7 +12031,7 @@
         <v>315</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>31</v>
@@ -12044,7 +12044,7 @@
         <v>31</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>17</v>
@@ -12054,29 +12054,29 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="36">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="162" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="168" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" s="168" t="s">
+      <c r="B28" s="163" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169" t="s">
+      <c r="D28" s="163"/>
+      <c r="E28" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="170" t="s">
+      <c r="F28" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="176" t="s">
-        <v>553</v>
-      </c>
-      <c r="H28" s="171" t="s">
+      <c r="G28" s="171" t="s">
+        <v>552</v>
+      </c>
+      <c r="H28" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="172" t="s">
+      <c r="I28" s="167" t="s">
         <v>318</v>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
         <v>315</v>
       </c>
       <c r="B29" s="126" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C29" s="126"/>
       <c r="D29" s="126"/>
@@ -12095,8 +12095,8 @@
       <c r="F29" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="177" t="s">
-        <v>557</v>
+      <c r="G29" s="172" t="s">
+        <v>555</v>
       </c>
       <c r="H29" s="88" t="s">
         <v>17</v>
@@ -12105,7 +12105,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="174" customFormat="1" ht="105">
+    <row r="30" spans="1:9" s="169" customFormat="1" ht="105">
       <c r="A30" s="148" t="s">
         <v>266</v>
       </c>
@@ -12125,10 +12125,10 @@
         <v>17</v>
       </c>
       <c r="I30" s="152" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="174" customFormat="1" ht="90">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="169" customFormat="1" ht="90">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -12142,10 +12142,10 @@
         <v>17</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="174" customFormat="1" ht="201" customHeight="1" thickBot="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="169" customFormat="1" ht="201" customHeight="1" thickBot="1">
       <c r="A32" s="144"/>
       <c r="B32" s="145"/>
       <c r="C32" s="145"/>
@@ -12176,7 +12176,7 @@
         <v>93</v>
       </c>
       <c r="G33" s="137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H33" s="90" t="s">
         <v>17</v>
@@ -12187,26 +12187,26 @@
     </row>
     <row r="34" spans="1:9" ht="30">
       <c r="A34" s="139" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B34" s="140"/>
       <c r="C34" s="140"/>
       <c r="D34" s="140"/>
       <c r="E34" s="161" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F34" s="142" t="s">
         <v>136</v>
       </c>
       <c r="G34" s="142" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H34" s="142"/>
       <c r="I34" s="143"/>
     </row>
     <row r="35" spans="1:9" ht="61" thickBot="1">
       <c r="A35" s="125" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B35" s="126" t="s">
         <v>61</v>
@@ -12220,7 +12220,7 @@
         <v>145</v>
       </c>
       <c r="G35" s="128" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H35" s="88" t="s">
         <v>17</v>
@@ -12231,26 +12231,26 @@
     </row>
     <row r="36" spans="1:9" ht="31" thickBot="1">
       <c r="A36" s="134" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B36" s="135"/>
       <c r="C36" s="135"/>
       <c r="D36" s="135"/>
       <c r="E36" s="136" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F36" s="137" t="s">
         <v>322</v>
       </c>
       <c r="G36" s="137" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H36" s="137"/>
       <c r="I36" s="156"/>
     </row>
     <row r="37" spans="1:9" ht="30">
       <c r="A37" s="139" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B37" s="140"/>
       <c r="C37" s="140"/>
@@ -12262,7 +12262,7 @@
         <v>148</v>
       </c>
       <c r="G37" s="142" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H37" s="142"/>
       <c r="I37" s="143"/>
@@ -12272,7 +12272,7 @@
         <v>323</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
@@ -12283,7 +12283,7 @@
         <v>324</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="47"/>
@@ -12293,7 +12293,7 @@
         <v>323</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
@@ -12314,7 +12314,7 @@
         <v>323</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>327</v>
@@ -12327,10 +12327,10 @@
         <v>27</v>
       </c>
       <c r="G40" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="H40" s="46" t="s">
         <v>408</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>409</v>
       </c>
       <c r="I40" s="47" t="s">
         <v>328</v>
@@ -12341,7 +12341,7 @@
         <v>323</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>329</v>
@@ -12459,7 +12459,7 @@
         <v>337</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I45" s="47" t="s">
         <v>338</v>
@@ -12558,13 +12558,13 @@
         <v>48</v>
       </c>
       <c r="G49" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="I49" s="59" t="s">
         <v>411</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="I49" s="59" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="28">
@@ -12585,10 +12585,10 @@
         <v>27</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I50" s="47" t="s">
         <v>345</v>
@@ -12612,10 +12612,10 @@
         <v>31</v>
       </c>
       <c r="G51" s="128" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H51" s="88" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I51" s="129" t="s">
         <v>346</v>
@@ -12635,7 +12635,7 @@
         <v>148</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="47"/>
@@ -12667,7 +12667,7 @@
         <v>348</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D54" s="44"/>
       <c r="E54" s="41" t="s">
@@ -12690,7 +12690,7 @@
         <v>348</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>26</v>
@@ -12702,10 +12702,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I55" s="47" t="s">
         <v>350</v>
@@ -12719,7 +12719,7 @@
         <v>348</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D56" s="44" t="s">
         <v>31</v>
@@ -12748,7 +12748,7 @@
         <v>348</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D57" s="126" t="s">
         <v>153</v>
@@ -12819,62 +12819,62 @@
         <v>302</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="76" thickBot="1">
       <c r="A2" s="108" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
       <c r="D2" s="109"/>
       <c r="E2" s="83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F2" s="107" t="s">
         <v>324</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="60">
       <c r="A3" s="110" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C3" s="111"/>
       <c r="D3" s="111"/>
       <c r="E3" s="83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F3" s="82" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H3" s="85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" s="113" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="113"/>
@@ -12882,20 +12882,20 @@
         <v>10</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="62"/>
       <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1">
       <c r="A5" s="114" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" s="115" t="s">
         <v>110</v>
@@ -12908,18 +12908,18 @@
         <v>93</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H5" s="88" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="A6" s="116" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="117"/>
       <c r="C6" s="117"/>
@@ -12931,14 +12931,14 @@
         <v>324</v>
       </c>
       <c r="G6" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H6" s="89"/>
       <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="A7" s="112" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7" s="113" t="s">
         <v>327</v>
@@ -12952,21 +12952,21 @@
         <v>27</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8" s="112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="113"/>
       <c r="D8" s="113"/>
@@ -12974,20 +12974,20 @@
         <v>10</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9" s="119" t="s">
         <v>47</v>
@@ -13000,7 +13000,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="96" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>17</v>
@@ -13011,10 +13011,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C10" s="113" t="s">
         <v>103</v>
@@ -13027,21 +13027,21 @@
         <v>48</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C11" s="113" t="s">
         <v>26</v>
@@ -13054,10 +13054,10 @@
         <v>27</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I11" s="73" t="s">
         <v>105</v>
@@ -13065,10 +13065,10 @@
     </row>
     <row r="12" spans="1:9" ht="31" thickBot="1">
       <c r="A12" s="120" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B12" s="121" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C12" s="121" t="s">
         <v>31</v>
@@ -13081,13 +13081,13 @@
         <v>31</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H12" s="67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="31" thickBot="1">
@@ -13104,18 +13104,18 @@
         <v>48</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H13" s="90" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
       <c r="A14" s="116" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B14" s="117"/>
       <c r="C14" s="117"/>
@@ -13127,17 +13127,17 @@
         <v>52</v>
       </c>
       <c r="G14" s="84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H14" s="89"/>
       <c r="I14" s="86"/>
     </row>
     <row r="15" spans="1:9" ht="26">
       <c r="A15" s="112" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B15" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C15" s="113"/>
       <c r="D15" s="113"/>
@@ -13153,10 +13153,10 @@
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" s="112" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="113" t="s">
         <v>26</v>
@@ -13169,21 +13169,21 @@
         <v>27</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="26">
       <c r="A17" s="112" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B17" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="113" t="s">
         <v>31</v>
@@ -13196,21 +13196,21 @@
         <v>31</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
       <c r="A18" s="112" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B18" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" s="113" t="s">
         <v>153</v>
@@ -13223,18 +13223,18 @@
         <v>48</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31" thickBot="1">
       <c r="A19" s="120" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B19" s="121" t="s">
         <v>61</v>
@@ -13248,18 +13248,18 @@
         <v>48</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="116" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" s="117"/>
       <c r="C20" s="117"/>
@@ -13268,20 +13268,20 @@
         <v>10</v>
       </c>
       <c r="F20" s="103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G20" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H20" s="89"/>
       <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B21" s="113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C21" s="113"/>
       <c r="D21" s="113"/>
@@ -13292,21 +13292,21 @@
         <v>93</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22" s="113" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C22" s="113"/>
       <c r="D22" s="113"/>
@@ -13314,7 +13314,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G22" s="61"/>
       <c r="H22" s="64"/>
@@ -13322,36 +13322,36 @@
     </row>
     <row r="23" spans="1:9" ht="75">
       <c r="A23" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D23" s="119"/>
       <c r="E23" s="93" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H23" s="64"/>
       <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B24" s="113" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C24" s="113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D24" s="113" t="s">
         <v>47</v>
@@ -13363,7 +13363,7 @@
         <v>98</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H24" s="46" t="s">
         <v>17</v>
@@ -13374,13 +13374,13 @@
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D25" s="113" t="s">
         <v>103</v>
@@ -13392,24 +13392,24 @@
         <v>48</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I25" s="73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="26">
       <c r="A26" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B26" s="113" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C26" s="113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>26</v>
@@ -13421,10 +13421,10 @@
         <v>27</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H26" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I26" s="73" t="s">
         <v>105</v>
@@ -13432,13 +13432,13 @@
     </row>
     <row r="27" spans="1:9" ht="26">
       <c r="A27" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="113" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C27" s="113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D27" s="113" t="s">
         <v>31</v>
@@ -13450,21 +13450,21 @@
         <v>31</v>
       </c>
       <c r="G27" s="60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I27" s="73" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
@@ -13475,20 +13475,20 @@
         <v>52</v>
       </c>
       <c r="G28" s="96" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H28" s="64"/>
       <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" ht="75">
       <c r="A29" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B29" s="113" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D29" s="113"/>
       <c r="E29" s="68" t="s">
@@ -13498,20 +13498,20 @@
         <v>24</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H29" s="64"/>
       <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" ht="45">
       <c r="A30" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B30" s="113" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D30" s="113" t="s">
         <v>26</v>
@@ -13523,24 +13523,24 @@
         <v>27</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H30" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="73" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B31" s="113" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D31" s="113" t="s">
         <v>31</v>
@@ -13552,24 +13552,24 @@
         <v>31</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H31" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B32" s="113" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D32" s="113" t="s">
         <v>153</v>
@@ -13581,24 +13581,24 @@
         <v>48</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I32" s="73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31" thickBot="1">
       <c r="A33" s="120" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B33" s="121" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="121" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D33" s="121"/>
       <c r="E33" s="87" t="s">
@@ -13608,14 +13608,14 @@
         <v>48</v>
       </c>
       <c r="G33" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H33" s="88"/>
       <c r="I33" s="76"/>
     </row>
     <row r="34" spans="1:9" ht="31" thickBot="1">
       <c r="A34" s="122" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B34" s="123"/>
       <c r="C34" s="123"/>
@@ -13624,17 +13624,17 @@
         <v>51</v>
       </c>
       <c r="F34" s="104" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G34" s="77" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H34" s="92"/>
       <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" ht="30">
       <c r="A35" s="116" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B35" s="117"/>
       <c r="C35" s="117"/>
@@ -13646,17 +13646,17 @@
         <v>52</v>
       </c>
       <c r="G35" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H35" s="89"/>
       <c r="I35" s="86"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C36" s="113"/>
       <c r="D36" s="113"/>
@@ -13672,10 +13672,10 @@
     </row>
     <row r="37" spans="1:9" ht="30">
       <c r="A37" s="112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B37" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C37" s="113" t="s">
         <v>26</v>
@@ -13688,21 +13688,21 @@
         <v>27</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I37" s="73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B38" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C38" s="113" t="s">
         <v>31</v>
@@ -13715,21 +13715,21 @@
         <v>31</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H38" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I38" s="73" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B39" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C39" s="113" t="s">
         <v>153</v>
@@ -13742,18 +13742,18 @@
         <v>48</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="21" thickBot="1">
       <c r="A40" s="120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B40" s="121" t="s">
         <v>61</v>
@@ -13767,18 +13767,18 @@
         <v>48</v>
       </c>
       <c r="G40" s="75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H40" s="88" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30">
       <c r="A41" s="116" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B41" s="117"/>
       <c r="C41" s="117"/>
@@ -13790,17 +13790,17 @@
         <v>52</v>
       </c>
       <c r="G41" s="97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H41" s="89"/>
       <c r="I41" s="86"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B42" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C42" s="113"/>
       <c r="D42" s="113"/>
@@ -13816,10 +13816,10 @@
     </row>
     <row r="43" spans="1:9" ht="45">
       <c r="A43" s="112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C43" s="113" t="s">
         <v>26</v>
@@ -13832,21 +13832,21 @@
         <v>27</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H43" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I43" s="73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C44" s="113" t="s">
         <v>31</v>
@@ -13859,21 +13859,21 @@
         <v>31</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C45" s="113" t="s">
         <v>153</v>
@@ -13886,18 +13886,18 @@
         <v>48</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H45" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="31" thickBot="1">
       <c r="A46" s="120" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B46" s="121" t="s">
         <v>61</v>
@@ -13911,18 +13911,18 @@
         <v>48</v>
       </c>
       <c r="G46" s="75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H46" s="88" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30">
       <c r="A47" s="116" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="117"/>
       <c r="C47" s="117"/>
@@ -13934,17 +13934,17 @@
         <v>52</v>
       </c>
       <c r="G47" s="97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H47" s="89"/>
       <c r="I47" s="86"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B48" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C48" s="113"/>
       <c r="D48" s="113"/>
@@ -13960,10 +13960,10 @@
     </row>
     <row r="49" spans="1:9" ht="60">
       <c r="A49" s="112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B49" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C49" s="113" t="s">
         <v>26</v>
@@ -13976,21 +13976,21 @@
         <v>27</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H49" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I49" s="73" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45">
       <c r="A50" s="112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B50" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C50" s="113" t="s">
         <v>31</v>
@@ -14003,7 +14003,7 @@
         <v>31</v>
       </c>
       <c r="G50" s="61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H50" s="46" t="s">
         <v>17</v>
@@ -14014,10 +14014,10 @@
     </row>
     <row r="51" spans="1:9" ht="45">
       <c r="A51" s="112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B51" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C51" s="113" t="s">
         <v>153</v>
@@ -14030,18 +14030,18 @@
         <v>48</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H51" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="73" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="31" thickBot="1">
       <c r="A52" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B52" s="121" t="s">
         <v>61</v>
@@ -14055,18 +14055,18 @@
         <v>48</v>
       </c>
       <c r="G52" s="75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H52" s="88" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="135">
       <c r="A53" s="116" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B53" s="117"/>
       <c r="C53" s="117"/>
@@ -14075,17 +14075,17 @@
         <v>19</v>
       </c>
       <c r="F53" s="103" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G53" s="84" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H53" s="89"/>
       <c r="I53" s="86"/>
     </row>
     <row r="54" spans="1:9" ht="60">
       <c r="A54" s="118" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B54" s="119" t="s">
         <v>68</v>
@@ -14099,20 +14099,20 @@
         <v>52</v>
       </c>
       <c r="G54" s="96" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H54" s="94"/>
       <c r="I54" s="95"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B55" s="113" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D55" s="113"/>
       <c r="E55" s="61" t="s">
@@ -14127,13 +14127,13 @@
     </row>
     <row r="56" spans="1:9" ht="30">
       <c r="A56" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B56" s="113" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D56" s="113" t="s">
         <v>26</v>
@@ -14145,24 +14145,24 @@
         <v>27</v>
       </c>
       <c r="G56" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H56" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I56" s="73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B57" s="113" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D57" s="113" t="s">
         <v>31</v>
@@ -14174,7 +14174,7 @@
         <v>31</v>
       </c>
       <c r="G57" s="60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H57" s="46" t="s">
         <v>17</v>
@@ -14185,13 +14185,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B58" s="113" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D58" s="113" t="s">
         <v>153</v>
@@ -14203,21 +14203,21 @@
         <v>48</v>
       </c>
       <c r="G58" s="60" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H58" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I58" s="73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="90">
       <c r="A59" s="118" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B59" s="119" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="119"/>
@@ -14228,17 +14228,17 @@
         <v>118</v>
       </c>
       <c r="G59" s="93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H59" s="94"/>
       <c r="I59" s="95"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B60" s="113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C60" s="113" t="s">
         <v>47</v>
@@ -14251,7 +14251,7 @@
         <v>98</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H60" s="46" t="s">
         <v>17</v>
@@ -14262,10 +14262,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B61" s="113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C61" s="113" t="s">
         <v>103</v>
@@ -14278,7 +14278,7 @@
         <v>48</v>
       </c>
       <c r="G61" s="60" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>17</v>
@@ -14289,10 +14289,10 @@
     </row>
     <row r="62" spans="1:9" ht="30">
       <c r="A62" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B62" s="113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C62" s="113" t="s">
         <v>26</v>
@@ -14305,10 +14305,10 @@
         <v>27</v>
       </c>
       <c r="G62" s="60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H62" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I62" s="73" t="s">
         <v>338</v>
@@ -14316,10 +14316,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B63" s="113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" s="113" t="s">
         <v>31</v>
@@ -14332,7 +14332,7 @@
         <v>31</v>
       </c>
       <c r="G63" s="60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H63" s="46" t="s">
         <v>17</v>
@@ -14343,10 +14343,10 @@
     </row>
     <row r="64" spans="1:9" ht="195">
       <c r="A64" s="118" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B64" s="119" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C64" s="119"/>
       <c r="D64" s="119"/>
@@ -14354,46 +14354,46 @@
         <v>51</v>
       </c>
       <c r="F64" s="93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G64" s="93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H64" s="94"/>
       <c r="I64" s="95"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B65" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C65" s="113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D65" s="113"/>
       <c r="E65" s="61" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H65" s="64"/>
       <c r="I65" s="73"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B66" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C66" s="113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D66" s="113" t="s">
         <v>47</v>
@@ -14405,7 +14405,7 @@
         <v>98</v>
       </c>
       <c r="G66" s="61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H66" s="46" t="s">
         <v>17</v>
@@ -14416,13 +14416,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B67" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C67" s="113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D67" s="113" t="s">
         <v>103</v>
@@ -14434,7 +14434,7 @@
         <v>48</v>
       </c>
       <c r="G67" s="60" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>17</v>
@@ -14445,13 +14445,13 @@
     </row>
     <row r="68" spans="1:9" ht="30">
       <c r="A68" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C68" s="113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D68" s="113" t="s">
         <v>26</v>
@@ -14463,10 +14463,10 @@
         <v>27</v>
       </c>
       <c r="G68" s="60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H68" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I68" s="73" t="s">
         <v>338</v>
@@ -14474,13 +14474,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B69" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C69" s="113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D69" s="113" t="s">
         <v>31</v>
@@ -14492,7 +14492,7 @@
         <v>31</v>
       </c>
       <c r="G69" s="60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H69" s="46" t="s">
         <v>17</v>
@@ -14503,36 +14503,36 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B70" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C70" s="113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D70" s="113"/>
       <c r="E70" s="61" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H70" s="64"/>
       <c r="I70" s="73"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B71" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C71" s="113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D71" s="113" t="s">
         <v>47</v>
@@ -14544,10 +14544,10 @@
         <v>98</v>
       </c>
       <c r="G71" s="60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H71" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I71" s="73">
         <v>1</v>
@@ -14555,13 +14555,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C72" s="113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D72" s="113" t="s">
         <v>103</v>
@@ -14570,27 +14570,27 @@
         <v>10</v>
       </c>
       <c r="F72" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="G72" s="60" t="s">
         <v>532</v>
       </c>
-      <c r="G72" s="60" t="s">
-        <v>533</v>
-      </c>
       <c r="H72" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I72" s="73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B73" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C73" s="113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D73" s="113" t="s">
         <v>26</v>
@@ -14602,10 +14602,10 @@
         <v>27</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H73" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I73" s="73" t="s">
         <v>105</v>
@@ -14613,13 +14613,13 @@
     </row>
     <row r="74" spans="1:9" ht="21" thickBot="1">
       <c r="A74" s="120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C74" s="121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D74" s="121" t="s">
         <v>31</v>
@@ -14631,13 +14631,13 @@
         <v>31</v>
       </c>
       <c r="G74" s="75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H74" s="67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I74" s="76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B14B0-AC8E-7441-A76D-02976384A919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13472E78-07ED-5D48-B06D-2F15DB372D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="0" windowWidth="37080" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,9 +1541,6 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>"http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_MedicationRequest_ePrescriptionData"</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -4866,6 +4863,10 @@
     <rPh sb="2" eb="4">
       <t xml:space="preserve">ヒッス </t>
     </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_MedicationRequest_eClinicalSummary</t>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -6189,7 +6190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6355,9 +6356,6 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6723,6 +6721,48 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -7184,7 +7224,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>17</v>
@@ -7435,7 +7475,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -7481,7 +7521,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>17</v>
@@ -7901,7 +7941,7 @@
         <v>27</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>17</v>
@@ -8003,7 +8043,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>17</v>
@@ -9833,7 +9873,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9"/>
@@ -9879,7 +9919,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>17</v>
@@ -10094,7 +10134,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="120">
@@ -10215,7 +10255,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
@@ -10253,7 +10293,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -10401,7 +10441,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>17</v>
@@ -11091,7 +11131,7 @@
         <v>93</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>17</v>
@@ -11158,28 +11198,28 @@
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="177"/>
-      <c r="B73" s="173" t="s">
+      <c r="A73" s="176"/>
+      <c r="B73" s="172" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="172"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="172" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="172" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="172" t="s">
         <v>356</v>
       </c>
-      <c r="C73" s="173"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="173" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="173" t="s">
-        <v>52</v>
-      </c>
-      <c r="G73" s="173" t="s">
-        <v>357</v>
-      </c>
-      <c r="H73" s="174" t="s">
+      <c r="H73" s="173" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -11187,27 +11227,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="177"/>
-      <c r="B74" s="173"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="175"/>
+      <c r="A74" s="176"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="174"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="177"/>
-      <c r="B75" s="173"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="173"/>
-      <c r="F75" s="173"/>
-      <c r="G75" s="173"/>
-      <c r="H75" s="176"/>
+      <c r="A75" s="176"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="175"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -11266,7 +11306,7 @@
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="33"/>
@@ -11304,7 +11344,7 @@
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="33"/>
@@ -11338,7 +11378,7 @@
         <v>48</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="33" t="s">
@@ -11359,7 +11399,7 @@
         <v>93</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="33"/>
@@ -11378,7 +11418,7 @@
         <v>145</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="38"/>
@@ -11407,89 +11447,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="170" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="170" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="170" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="168" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="168" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="168" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="168" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="168" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="168"/>
+    <col min="1" max="1" width="11.28515625" style="169" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="169" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="169" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="167" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="167" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="167" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="167" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="167" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="167"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76" thickBot="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="C1" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="D1" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="E1" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="131" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" s="132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" thickBot="1">
+      <c r="A2" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="132" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="132" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="132" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="132" t="s">
-        <v>472</v>
-      </c>
-      <c r="I1" s="133" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="31" thickBot="1">
-      <c r="A2" s="134" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137" t="s">
-        <v>367</v>
-      </c>
-      <c r="H2" s="90" t="s">
+      <c r="F2" s="136"/>
+      <c r="G2" s="136" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="138" t="s">
+      <c r="I2" s="137" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="143"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="1:9" ht="270">
       <c r="A4" s="48" t="s">
@@ -11507,7 +11547,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H4" s="46" t="s">
         <v>17</v>
@@ -11516,7 +11556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60">
+    <row r="5" spans="1:9" ht="84">
       <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
@@ -11537,11 +11577,11 @@
       <c r="H5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="47" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="169" customFormat="1">
+      <c r="I5" s="20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="168" customFormat="1">
       <c r="A6" s="48" t="s">
         <v>13</v>
       </c>
@@ -11562,7 +11602,7 @@
       <c r="H6" s="46"/>
       <c r="I6" s="50"/>
     </row>
-    <row r="7" spans="1:9" s="169" customFormat="1" ht="45">
+    <row r="7" spans="1:9" s="168" customFormat="1" ht="45">
       <c r="A7" s="48" t="s">
         <v>13</v>
       </c>
@@ -11589,51 +11629,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="169" customFormat="1" ht="31" thickBot="1">
-      <c r="A8" s="144" t="s">
+    <row r="8" spans="1:9" s="168" customFormat="1" ht="31" thickBot="1">
+      <c r="A8" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="146" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="147" t="s">
+      <c r="I8" s="146" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="169" customFormat="1">
-      <c r="A9" s="148" t="s">
+    <row r="9" spans="1:9" s="168" customFormat="1">
+      <c r="A9" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150" t="s">
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151" t="s">
+      <c r="F9" s="150"/>
+      <c r="G9" s="150" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="151"/>
-      <c r="I9" s="152"/>
-    </row>
-    <row r="10" spans="1:9" s="169" customFormat="1" ht="75">
+      <c r="H9" s="150"/>
+      <c r="I9" s="151"/>
+    </row>
+    <row r="10" spans="1:9" s="168" customFormat="1" ht="75">
       <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
@@ -11652,338 +11692,338 @@
       <c r="H10" s="46"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:9" s="169" customFormat="1" ht="175" customHeight="1" thickBot="1">
-      <c r="A11" s="144" t="s">
+    <row r="11" spans="1:9" s="168" customFormat="1" ht="175" customHeight="1" thickBot="1">
+      <c r="A11" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="153" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="87" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="146"/>
+    </row>
+    <row r="12" spans="1:9" s="168" customFormat="1" ht="45">
+      <c r="A12" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="168" customFormat="1" ht="31" thickBot="1">
+      <c r="A13" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="180" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="180" t="s">
         <v>379</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="147"/>
-    </row>
-    <row r="12" spans="1:9" s="169" customFormat="1" ht="45">
-      <c r="A12" s="148" t="s">
+      <c r="H13" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B14" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="154" t="s">
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="151" t="s">
+      <c r="F14" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151" t="s">
+      <c r="G14" s="141" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="155" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="169" customFormat="1" ht="30">
-      <c r="A13" s="48" t="s">
+      <c r="I14" s="142" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" thickBot="1">
+      <c r="A15" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B15" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="55" t="s">
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F15" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="46" t="s">
-        <v>380</v>
-      </c>
-      <c r="H13" s="46" t="s">
+      <c r="G15" s="183" t="s">
+        <v>381</v>
+      </c>
+      <c r="H15" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="48" t="s">
+      <c r="I15" s="184" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B16" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="55" t="s">
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F16" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="H14" s="46" t="s">
+      <c r="G16" s="141" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I16" s="142" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" thickBot="1">
+      <c r="A17" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="182" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="183" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="183" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="184" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="55" t="s">
+    <row r="18" spans="1:9" ht="31" thickBot="1">
+      <c r="A18" s="185" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="55" t="s">
+      <c r="F18" s="188" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="188" t="s">
+        <v>383</v>
+      </c>
+      <c r="H18" s="189" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="190" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31" thickBot="1">
+      <c r="A19" s="185" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="H16" s="46" t="s">
+      <c r="F19" s="188" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="188" t="s">
+        <v>555</v>
+      </c>
+      <c r="H19" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="21" thickBot="1">
-      <c r="A17" s="144" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="153" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="128" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="128" t="s">
-        <v>311</v>
-      </c>
-      <c r="H17" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="129" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="31" thickBot="1">
-      <c r="A18" s="134" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="137" t="s">
+      <c r="I19" s="190" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32" customHeight="1">
+      <c r="A20" s="138" t="s">
         <v>384</v>
       </c>
-      <c r="H18" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="156" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="31" thickBot="1">
-      <c r="A19" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="137" t="s">
-        <v>556</v>
-      </c>
-      <c r="H19" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="156" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="156" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="157" t="s">
+      <c r="F20" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="F20" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="142" t="s">
-        <v>387</v>
-      </c>
-      <c r="H20" s="142"/>
-      <c r="I20" s="143"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="1:9" ht="102" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="56" t="s">
-        <v>378</v>
+      <c r="E21" s="55" t="s">
+        <v>377</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="91" customHeight="1">
       <c r="A22" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="56" t="s">
-        <v>378</v>
+      <c r="E22" s="55" t="s">
+        <v>377</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
+      <c r="A23" s="124" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="157" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="127" t="s">
         <v>557</v>
       </c>
-      <c r="H22" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="I22" s="47" t="s">
+      <c r="H23" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="128" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
-      <c r="A23" s="125" t="s">
-        <v>390</v>
-      </c>
-      <c r="B23" s="126" t="s">
-        <v>392</v>
-      </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="158" t="s">
-        <v>386</v>
-      </c>
-      <c r="F23" s="128" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="128" t="s">
-        <v>558</v>
-      </c>
-      <c r="H23" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="129" t="s">
-        <v>561</v>
-      </c>
-    </row>
     <row r="24" spans="1:9" ht="90">
-      <c r="A24" s="139" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="142" t="s">
+      <c r="A24" s="138" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="142" t="s">
-        <v>564</v>
-      </c>
-      <c r="H24" s="142"/>
-      <c r="I24" s="143"/>
+      <c r="G24" s="141" t="s">
+        <v>563</v>
+      </c>
+      <c r="H24" s="141"/>
+      <c r="I24" s="142"/>
     </row>
     <row r="25" spans="1:9" ht="121" customHeight="1">
       <c r="A25" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
@@ -11994,17 +12034,17 @@
         <v>24</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" ht="161" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>26</v>
@@ -12017,21 +12057,21 @@
         <v>27</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H26" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28">
       <c r="A27" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>31</v>
@@ -12044,235 +12084,235 @@
         <v>31</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="36">
+      <c r="A28" s="161" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="162" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="162" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="162"/>
+      <c r="E28" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="164" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="170" t="s">
+        <v>551</v>
+      </c>
+      <c r="H28" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="166" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="36">
-      <c r="A28" s="162" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="163" t="s">
-        <v>395</v>
-      </c>
-      <c r="C28" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="163"/>
-      <c r="E28" s="164" t="s">
+    <row r="29" spans="1:9" ht="49" customHeight="1" thickBot="1">
+      <c r="A29" s="124" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="165" t="s">
+      <c r="F29" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="171" t="s">
-        <v>552</v>
-      </c>
-      <c r="H28" s="166" t="s">
+      <c r="G29" s="171" t="s">
+        <v>554</v>
+      </c>
+      <c r="H29" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="167" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="49" customHeight="1" thickBot="1">
-      <c r="A29" s="125" t="s">
-        <v>315</v>
-      </c>
-      <c r="B29" s="126" t="s">
-        <v>493</v>
-      </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="159" t="s">
+      <c r="I29" s="128" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="168" customFormat="1" ht="105">
+      <c r="A30" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="128" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="172" t="s">
-        <v>555</v>
-      </c>
-      <c r="H29" s="88" t="s">
+      <c r="F30" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="150" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="129" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="169" customFormat="1" ht="105">
-      <c r="A30" s="148" t="s">
-        <v>266</v>
-      </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="151" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="151" t="s">
-        <v>372</v>
-      </c>
-      <c r="H30" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="152" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="169" customFormat="1" ht="90">
+      <c r="I30" s="151" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="168" customFormat="1" ht="90">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
-      <c r="E31" s="57"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="46"/>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="57" t="s">
         <v>231</v>
       </c>
       <c r="H31" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="169" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A32" s="144"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="168" customFormat="1" ht="201" customHeight="1" thickBot="1">
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="H32" s="88" t="s">
+      <c r="H32" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="147" t="s">
+      <c r="I32" s="146" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31" thickBot="1">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="136" t="s">
+        <v>395</v>
+      </c>
+      <c r="H33" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="136" t="s">
-        <v>245</v>
-      </c>
-      <c r="F33" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="137" t="s">
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="138" t="s">
         <v>396</v>
       </c>
-      <c r="H33" s="90" t="s">
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="160" t="s">
+        <v>397</v>
+      </c>
+      <c r="F34" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="141" t="s">
+        <v>398</v>
+      </c>
+      <c r="H34" s="141"/>
+      <c r="I34" s="142"/>
+    </row>
+    <row r="35" spans="1:9" ht="61" thickBot="1">
+      <c r="A35" s="124" t="s">
+        <v>399</v>
+      </c>
+      <c r="B35" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="127" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="127" t="s">
+        <v>400</v>
+      </c>
+      <c r="H35" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="156" t="s">
+      <c r="I35" s="128" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="139" t="s">
-        <v>397</v>
-      </c>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="161" t="s">
-        <v>398</v>
-      </c>
-      <c r="F34" s="142" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="142" t="s">
-        <v>399</v>
-      </c>
-      <c r="H34" s="142"/>
-      <c r="I34" s="143"/>
-    </row>
-    <row r="35" spans="1:9" ht="61" thickBot="1">
-      <c r="A35" s="125" t="s">
-        <v>400</v>
-      </c>
-      <c r="B35" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="128" t="s">
+    <row r="36" spans="1:9" ht="31" thickBot="1">
+      <c r="A36" s="133" t="s">
         <v>401</v>
       </c>
-      <c r="H35" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="129" t="s">
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="135" t="s">
+        <v>402</v>
+      </c>
+      <c r="F36" s="136" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="31" thickBot="1">
-      <c r="A36" s="134" t="s">
-        <v>402</v>
-      </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="136" t="s">
-        <v>403</v>
-      </c>
-      <c r="F36" s="137" t="s">
-        <v>322</v>
-      </c>
-      <c r="G36" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="H36" s="137"/>
-      <c r="I36" s="156"/>
+      <c r="G36" s="136" t="s">
+        <v>469</v>
+      </c>
+      <c r="H36" s="136"/>
+      <c r="I36" s="155"/>
     </row>
     <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="138" t="s">
+        <v>549</v>
+      </c>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="160" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="141" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="141" t="s">
         <v>550</v>
       </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="161" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="142" t="s">
-        <v>551</v>
-      </c>
-      <c r="H37" s="142"/>
-      <c r="I37" s="143"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="142"/>
     </row>
     <row r="38" spans="1:9" ht="28">
       <c r="A38" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
@@ -12280,44 +12320,44 @@
         <v>19</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="47"/>
     </row>
     <row r="39" spans="1:9" ht="30">
       <c r="A39" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" s="40" t="s">
         <v>325</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>326</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="47"/>
     </row>
     <row r="40" spans="1:9" ht="45">
       <c r="A40" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="41" t="s">
@@ -12327,34 +12367,34 @@
         <v>27</v>
       </c>
       <c r="G40" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="H40" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="H40" s="46" t="s">
-        <v>408</v>
-      </c>
       <c r="I40" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="28">
       <c r="A41" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="41" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" s="40" t="s">
         <v>330</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>331</v>
       </c>
       <c r="H41" s="46" t="s">
         <v>17</v>
@@ -12365,10 +12405,10 @@
     </row>
     <row r="42" spans="1:9" ht="30">
       <c r="A42" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
@@ -12379,17 +12419,17 @@
         <v>118</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H42" s="40"/>
       <c r="I42" s="47"/>
     </row>
     <row r="43" spans="1:9" ht="28">
       <c r="A43" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>47</v>
@@ -12402,7 +12442,7 @@
         <v>98</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H43" s="46" t="s">
         <v>17</v>
@@ -12413,10 +12453,10 @@
     </row>
     <row r="44" spans="1:9" ht="28">
       <c r="A44" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>103</v>
@@ -12429,21 +12469,21 @@
         <v>48</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
       <c r="A45" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>26</v>
@@ -12456,21 +12496,21 @@
         <v>27</v>
       </c>
       <c r="G45" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="I45" s="47" t="s">
         <v>337</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="I45" s="47" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="28">
       <c r="A46" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>31</v>
@@ -12483,21 +12523,21 @@
         <v>31</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H46" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="28">
       <c r="A47" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -12505,20 +12545,20 @@
         <v>243</v>
       </c>
       <c r="F47" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" s="40" t="s">
         <v>342</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>343</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="47"/>
     </row>
     <row r="48" spans="1:9" ht="28">
       <c r="A48" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C48" s="44" t="s">
         <v>47</v>
@@ -12531,7 +12571,7 @@
         <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H48" s="46" t="s">
         <v>17</v>
@@ -12542,10 +12582,10 @@
     </row>
     <row r="49" spans="1:9" ht="28">
       <c r="A49" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C49" s="44" t="s">
         <v>103</v>
@@ -12558,21 +12598,21 @@
         <v>48</v>
       </c>
       <c r="G49" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="I49" s="58" t="s">
         <v>410</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="I49" s="59" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="28">
       <c r="A50" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C50" s="44" t="s">
         <v>26</v>
@@ -12585,45 +12625,45 @@
         <v>27</v>
       </c>
       <c r="G50" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="29" thickBot="1">
+      <c r="A51" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="B51" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="125"/>
+      <c r="E51" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="127" t="s">
         <v>412</v>
       </c>
-      <c r="H50" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="I50" s="47" t="s">
+      <c r="H51" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="I51" s="128" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="29" thickBot="1">
-      <c r="A51" s="125" t="s">
-        <v>323</v>
-      </c>
-      <c r="B51" s="126" t="s">
-        <v>341</v>
-      </c>
-      <c r="C51" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="126"/>
-      <c r="E51" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="128" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="128" t="s">
-        <v>413</v>
-      </c>
-      <c r="H51" s="88" t="s">
-        <v>408</v>
-      </c>
-      <c r="I51" s="129" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
       <c r="A52" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -12635,17 +12675,17 @@
         <v>148</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="47"/>
     </row>
     <row r="53" spans="1:9" ht="30">
       <c r="A53" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="44" t="s">
         <v>347</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>348</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
@@ -12661,36 +12701,36 @@
     </row>
     <row r="54" spans="1:9" ht="30">
       <c r="A54" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="B54" s="44" t="s">
-        <v>348</v>
-      </c>
       <c r="C54" s="44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D54" s="44"/>
       <c r="E54" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F54" s="40" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="47"/>
     </row>
     <row r="55" spans="1:9" ht="30">
       <c r="A55" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="B55" s="44" t="s">
-        <v>348</v>
-      </c>
       <c r="C55" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>26</v>
@@ -12702,24 +12742,24 @@
         <v>27</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I55" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28">
       <c r="A56" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="B56" s="44" t="s">
-        <v>348</v>
-      </c>
       <c r="C56" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D56" s="44" t="s">
         <v>31</v>
@@ -12731,46 +12771,49 @@
         <v>31</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H56" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I56" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="29" thickBot="1">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="124" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="125" t="s">
         <v>347</v>
       </c>
-      <c r="B57" s="126" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" s="126" t="s">
-        <v>395</v>
-      </c>
-      <c r="D57" s="126" t="s">
+      <c r="C57" s="125" t="s">
+        <v>394</v>
+      </c>
+      <c r="D57" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="127" t="s">
+      <c r="E57" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="128" t="s">
+      <c r="F57" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="128" t="s">
+      <c r="G57" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="H57" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="128" t="s">
         <v>352</v>
-      </c>
-      <c r="H57" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="129" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="25"/>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{4B41E160-EEE1-5945-A956-C99138C1DAA0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -12786,1858 +12829,1858 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="124" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="124" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="124" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="123" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="123" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="123" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="66" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="76" thickBot="1">
+      <c r="A2" s="107" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="82" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" s="109" t="s">
         <v>472</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="B3" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="82" t="s">
+        <v>541</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>475</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="111" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="72"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" thickBot="1">
+      <c r="A5" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="100" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="76" thickBot="1">
-      <c r="A2" s="108" t="s">
+      <c r="H5" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="115" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="H6" s="88"/>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="111" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="H7" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="83" t="s">
-        <v>542</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>541</v>
-      </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9" ht="60">
-      <c r="A3" s="110" t="s">
+      <c r="I7" s="72" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="111" t="s">
         <v>473</v>
       </c>
-      <c r="B3" s="111" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="83" t="s">
-        <v>542</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>508</v>
-      </c>
-      <c r="H3" s="85" t="s">
-        <v>476</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="112" t="s">
-        <v>474</v>
-      </c>
-      <c r="B4" s="113" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="65" t="s">
+      <c r="B8" s="112" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F8" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>534</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="117" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="118" t="s">
         <v>417</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>443</v>
-      </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" thickBot="1">
-      <c r="A5" s="114" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="100" t="s">
+      <c r="C9" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="101" t="s">
-        <v>478</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="76" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="116" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>540</v>
-      </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="86"/>
-    </row>
-    <row r="7" spans="1:9" ht="60">
-      <c r="A7" s="112" t="s">
-        <v>473</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>509</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="112" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" s="113" t="s">
-        <v>418</v>
-      </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>535</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="73"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="118" t="s">
-        <v>474</v>
-      </c>
-      <c r="B9" s="119" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="96" t="s">
-        <v>511</v>
+      <c r="G9" s="95" t="s">
+        <v>510</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="72">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="112" t="s">
-        <v>474</v>
-      </c>
-      <c r="B10" s="113" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="113" t="s">
+      <c r="A10" s="111" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="H10" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I10" s="73" t="s">
+      <c r="G10" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="111" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="112" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31" thickBot="1">
+      <c r="A12" s="119" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="120"/>
+      <c r="E12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="I12" s="75" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="112" t="s">
-        <v>474</v>
-      </c>
-      <c r="B11" s="113" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="113" t="s">
+    <row r="13" spans="1:9" ht="31" thickBot="1">
+      <c r="A13" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>535</v>
+      </c>
+      <c r="H13" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14" s="115" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>536</v>
+      </c>
+      <c r="H14" s="88"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:9" ht="26">
+      <c r="A15" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="72"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="61" t="s">
+      <c r="D16" s="112"/>
+      <c r="E16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="60" t="s">
-        <v>510</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="31" thickBot="1">
-      <c r="A12" s="120" t="s">
-        <v>474</v>
-      </c>
-      <c r="B12" s="121" t="s">
-        <v>418</v>
-      </c>
-      <c r="C12" s="121" t="s">
+      <c r="G16" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26">
+      <c r="A17" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="74" t="s">
+      <c r="D17" s="112"/>
+      <c r="E17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="75" t="s">
-        <v>503</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31" thickBot="1">
-      <c r="A13" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>536</v>
-      </c>
-      <c r="H13" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="78" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="116" t="s">
-        <v>479</v>
-      </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>537</v>
-      </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="86"/>
-    </row>
-    <row r="15" spans="1:9" ht="26">
-      <c r="A15" s="112" t="s">
-        <v>483</v>
-      </c>
-      <c r="B15" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="112" t="s">
-        <v>484</v>
-      </c>
-      <c r="B16" s="113" t="s">
-        <v>481</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26">
-      <c r="A17" s="112" t="s">
-        <v>484</v>
-      </c>
-      <c r="B17" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>512</v>
+      <c r="G17" s="60" t="s">
+        <v>511</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="73" t="s">
-        <v>453</v>
+      <c r="I17" s="72" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
-      <c r="A18" s="112" t="s">
-        <v>484</v>
-      </c>
-      <c r="B18" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C18" s="113" t="s">
+      <c r="A18" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="61" t="s">
+      <c r="D18" s="112"/>
+      <c r="E18" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="60" t="s">
-        <v>513</v>
+      <c r="G18" s="59" t="s">
+        <v>512</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31" thickBot="1">
+      <c r="A19" s="119" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="90" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31" thickBot="1">
-      <c r="A19" s="120" t="s">
-        <v>484</v>
-      </c>
-      <c r="B19" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>445</v>
-      </c>
-      <c r="H19" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="91" t="s">
-        <v>455</v>
-      </c>
-    </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="102" t="s">
         <v>420</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="103" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" s="97" t="s">
-        <v>527</v>
-      </c>
-      <c r="H20" s="89"/>
-      <c r="I20" s="86"/>
+      <c r="G20" s="96" t="s">
+        <v>526</v>
+      </c>
+      <c r="H20" s="88"/>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B21" s="113" t="s">
-        <v>486</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="61" t="s">
+      <c r="A21" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="112" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="60" t="s">
-        <v>526</v>
+      <c r="G21" s="59" t="s">
+        <v>525</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="73" t="s">
-        <v>447</v>
+      <c r="I21" s="72" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B22" s="113" t="s">
-        <v>487</v>
-      </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="61" t="s">
+      <c r="A22" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="112" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="60"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="1:9" ht="75">
+      <c r="A23" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="118" t="s">
         <v>423</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="73"/>
-    </row>
-    <row r="23" spans="1:9" ht="75">
-      <c r="A23" s="118" t="s">
-        <v>420</v>
-      </c>
-      <c r="B23" s="119" t="s">
-        <v>422</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>424</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="93" t="s">
+      <c r="D23" s="118"/>
+      <c r="E23" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="92" t="s">
+        <v>418</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" s="63"/>
+      <c r="I23" s="72"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="111" t="s">
         <v>419</v>
       </c>
-      <c r="G23" s="60" t="s">
-        <v>534</v>
-      </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="73"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>422</v>
-      </c>
-      <c r="C24" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="D24" s="113" t="s">
+      <c r="B24" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="60" t="s">
-        <v>528</v>
+      <c r="G24" s="59" t="s">
+        <v>527</v>
       </c>
       <c r="H24" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="72">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B25" s="113" t="s">
-        <v>422</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="D25" s="113" t="s">
+      <c r="A25" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="60" t="s">
-        <v>529</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I25" s="73" t="s">
+      <c r="G25" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="26">
+      <c r="A26" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>500</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I26" s="72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="26">
+      <c r="A27" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" s="112" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I27" s="72" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="26">
-      <c r="A26" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B26" s="113" t="s">
-        <v>422</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="D26" s="113" t="s">
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="H28" s="63"/>
+      <c r="I28" s="72"/>
+    </row>
+    <row r="29" spans="1:9" ht="75">
+      <c r="A29" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" s="112"/>
+      <c r="E29" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="H29" s="63"/>
+      <c r="I29" s="72"/>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="D30" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E30" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F30" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I26" s="73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="26">
-      <c r="A27" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B27" s="113" t="s">
-        <v>422</v>
-      </c>
-      <c r="C27" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="D27" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>500</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I27" s="73" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="118" t="s">
-        <v>420</v>
-      </c>
-      <c r="B28" s="119" t="s">
-        <v>485</v>
-      </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="96" t="s">
-        <v>495</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="73"/>
-    </row>
-    <row r="29" spans="1:9" ht="75">
-      <c r="A29" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B29" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="68" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="61" t="s">
+      <c r="G30" s="60" t="s">
         <v>496</v>
-      </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="73"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B30" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>481</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>497</v>
       </c>
       <c r="H30" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="73" t="s">
-        <v>456</v>
+      <c r="I30" s="72" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B31" s="113" t="s">
+      <c r="A31" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="D31" s="113" t="s">
+      <c r="C31" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="D31" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="61" t="s">
-        <v>498</v>
+      <c r="G31" s="60" t="s">
+        <v>497</v>
       </c>
       <c r="H31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="73" t="s">
-        <v>457</v>
+      <c r="I31" s="72" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="112" t="s">
-        <v>420</v>
-      </c>
-      <c r="B32" s="113" t="s">
+      <c r="A32" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="D32" s="113" t="s">
+      <c r="C32" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="D32" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="60" t="s">
-        <v>499</v>
+      <c r="G32" s="59" t="s">
+        <v>498</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="73" t="s">
+      <c r="I32" s="72" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31" thickBot="1">
+      <c r="A33" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="120" t="s">
+        <v>492</v>
+      </c>
+      <c r="D33" s="120"/>
+      <c r="E33" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>493</v>
+      </c>
+      <c r="H33" s="87"/>
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34" spans="1:9" ht="31" thickBot="1">
+      <c r="A34" s="121" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>537</v>
+      </c>
+      <c r="H34" s="91"/>
+      <c r="I34" s="77"/>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="115" t="s">
+        <v>426</v>
+      </c>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="H35" s="88"/>
+      <c r="I35" s="85"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="111" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="112" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="60"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="72"/>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="111" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="112"/>
+      <c r="E37" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I37" s="72" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="31" thickBot="1">
-      <c r="A33" s="120" t="s">
-        <v>420</v>
-      </c>
-      <c r="B33" s="121" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="111" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="121" t="s">
-        <v>493</v>
-      </c>
-      <c r="D33" s="121"/>
-      <c r="E33" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="74" t="s">
-        <v>494</v>
-      </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="76"/>
-    </row>
-    <row r="34" spans="1:9" ht="31" thickBot="1">
-      <c r="A34" s="122" t="s">
-        <v>425</v>
-      </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="104" t="s">
-        <v>426</v>
-      </c>
-      <c r="G34" s="77" t="s">
-        <v>538</v>
-      </c>
-      <c r="H34" s="92"/>
-      <c r="I34" s="78"/>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="116" t="s">
-        <v>427</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="84" t="s">
-        <v>539</v>
-      </c>
-      <c r="H35" s="89"/>
-      <c r="I35" s="86"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="B36" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="F36" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="73"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="B37" s="113" t="s">
-        <v>481</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="61" t="s">
+      <c r="D38" s="112"/>
+      <c r="E38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="61" t="s">
-        <v>504</v>
-      </c>
-      <c r="H37" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I37" s="73" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="B38" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C38" s="113" t="s">
+      <c r="F38" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="113"/>
-      <c r="E38" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>514</v>
+      <c r="G38" s="60" t="s">
+        <v>513</v>
       </c>
       <c r="H38" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="73" t="s">
-        <v>460</v>
+      <c r="I38" s="72" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="B39" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C39" s="113" t="s">
+      <c r="A39" s="111" t="s">
+        <v>426</v>
+      </c>
+      <c r="B39" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="113"/>
-      <c r="E39" s="61" t="s">
+      <c r="D39" s="112"/>
+      <c r="E39" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="61" t="s">
-        <v>515</v>
+      <c r="G39" s="60" t="s">
+        <v>514</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="73" t="s">
+      <c r="I39" s="72" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="21" thickBot="1">
+      <c r="A40" s="119" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="H40" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="75" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="115" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="H41" s="88"/>
+      <c r="I41" s="85"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42" s="112" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="60"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="72"/>
+    </row>
+    <row r="43" spans="1:9" ht="45">
+      <c r="A43" s="111" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="C43" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="112"/>
+      <c r="E43" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="H43" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I43" s="72" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="21" thickBot="1">
-      <c r="A40" s="120" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="111" t="s">
         <v>427</v>
       </c>
-      <c r="B40" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="75" t="s">
-        <v>436</v>
-      </c>
-      <c r="H40" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="76" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="116" t="s">
-        <v>428</v>
-      </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="97" t="s">
-        <v>437</v>
-      </c>
-      <c r="H41" s="89"/>
-      <c r="I41" s="86"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="112" t="s">
-        <v>488</v>
-      </c>
-      <c r="B42" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="73"/>
-    </row>
-    <row r="43" spans="1:9" ht="45">
-      <c r="A43" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="B43" s="113" t="s">
+      <c r="B44" s="112" t="s">
         <v>481</v>
       </c>
-      <c r="C43" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="113"/>
-      <c r="E43" s="61" t="s">
+      <c r="C44" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="112"/>
+      <c r="E44" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>505</v>
-      </c>
-      <c r="H43" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I43" s="73" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="B44" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C44" s="113" t="s">
+      <c r="F44" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="113"/>
-      <c r="E44" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>516</v>
+      <c r="G44" s="59" t="s">
+        <v>515</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="73" t="s">
-        <v>463</v>
+      <c r="I44" s="72" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="B45" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C45" s="113" t="s">
+      <c r="A45" s="111" t="s">
+        <v>427</v>
+      </c>
+      <c r="B45" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="C45" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="113"/>
-      <c r="E45" s="61" t="s">
+      <c r="D45" s="112"/>
+      <c r="E45" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="61" t="s">
+      <c r="F45" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="60" t="s">
-        <v>517</v>
+      <c r="G45" s="59" t="s">
+        <v>516</v>
       </c>
       <c r="H45" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="I45" s="72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="31" thickBot="1">
+      <c r="A46" s="119" t="s">
+        <v>427</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="74" t="s">
+        <v>437</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="75" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31" thickBot="1">
-      <c r="A46" s="120" t="s">
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="115" t="s">
         <v>428</v>
       </c>
-      <c r="B46" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="74" t="s">
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="75" t="s">
+      <c r="F47" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="96" t="s">
         <v>438</v>
       </c>
-      <c r="H46" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="76" t="s">
+      <c r="H47" s="88"/>
+      <c r="I47" s="85"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="B48" s="112" t="s">
+        <v>479</v>
+      </c>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="60"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="72"/>
+    </row>
+    <row r="49" spans="1:9" ht="60">
+      <c r="A49" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="112"/>
+      <c r="E49" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="H49" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I49" s="72" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30">
-      <c r="A47" s="116" t="s">
-        <v>429</v>
-      </c>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="97" t="s">
-        <v>439</v>
-      </c>
-      <c r="H47" s="89"/>
-      <c r="I47" s="86"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="112" t="s">
-        <v>429</v>
-      </c>
-      <c r="B48" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="F48" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="61"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="73"/>
-    </row>
-    <row r="49" spans="1:9" ht="60">
-      <c r="A49" s="112" t="s">
-        <v>429</v>
-      </c>
-      <c r="B49" s="113" t="s">
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="B50" s="112" t="s">
         <v>481</v>
       </c>
-      <c r="C49" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="113"/>
-      <c r="E49" s="61" t="s">
+      <c r="C50" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="112"/>
+      <c r="E50" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="H49" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I49" s="73" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45">
-      <c r="A50" s="112" t="s">
-        <v>429</v>
-      </c>
-      <c r="B50" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C50" s="113" t="s">
+      <c r="F50" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="113"/>
-      <c r="E50" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="61" t="s">
-        <v>518</v>
+      <c r="G50" s="60" t="s">
+        <v>517</v>
       </c>
       <c r="H50" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="73" t="s">
-        <v>309</v>
+      <c r="I50" s="72" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45">
-      <c r="A51" s="112" t="s">
-        <v>429</v>
-      </c>
-      <c r="B51" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C51" s="113" t="s">
+      <c r="A51" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="B51" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="C51" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="113"/>
-      <c r="E51" s="61" t="s">
+      <c r="D51" s="112"/>
+      <c r="E51" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="61" t="s">
+      <c r="F51" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="61" t="s">
-        <v>519</v>
+      <c r="G51" s="60" t="s">
+        <v>518</v>
       </c>
       <c r="H51" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="73" t="s">
+      <c r="I51" s="72" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="31" thickBot="1">
+      <c r="A52" s="119" t="s">
+        <v>428</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="H52" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="75" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="135">
+      <c r="A53" s="115" t="s">
+        <v>488</v>
+      </c>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>547</v>
+      </c>
+      <c r="H53" s="88"/>
+      <c r="I53" s="85"/>
+    </row>
+    <row r="54" spans="1:9" ht="60">
+      <c r="A54" s="117" t="s">
+        <v>489</v>
+      </c>
+      <c r="B54" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="F54" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="95" t="s">
+        <v>542</v>
+      </c>
+      <c r="H54" s="93"/>
+      <c r="I54" s="94"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B55" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="112" t="s">
+        <v>479</v>
+      </c>
+      <c r="D55" s="112"/>
+      <c r="E55" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="60"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="72"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B56" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I56" s="72" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="31" thickBot="1">
-      <c r="A52" s="120" t="s">
-        <v>429</v>
-      </c>
-      <c r="B52" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="75" t="s">
-        <v>440</v>
-      </c>
-      <c r="H52" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="76" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="135">
-      <c r="A53" s="116" t="s">
-        <v>489</v>
-      </c>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="103" t="s">
-        <v>423</v>
-      </c>
-      <c r="G53" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="H53" s="89"/>
-      <c r="I53" s="86"/>
-    </row>
-    <row r="54" spans="1:9" ht="60">
-      <c r="A54" s="118" t="s">
+    <row r="57" spans="1:9">
+      <c r="A57" s="111" t="s">
         <v>490</v>
       </c>
-      <c r="B54" s="119" t="s">
+      <c r="B57" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="F54" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="96" t="s">
-        <v>543</v>
-      </c>
-      <c r="H54" s="94"/>
-      <c r="I54" s="95"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B55" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="D55" s="113"/>
-      <c r="E55" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="F55" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="73"/>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B56" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="113" t="s">
+      <c r="C57" s="112" t="s">
         <v>481</v>
       </c>
-      <c r="D56" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="61" t="s">
+      <c r="D57" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>506</v>
-      </c>
-      <c r="H56" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I56" s="73" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B57" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="D57" s="113" t="s">
+      <c r="F57" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="60" t="s">
-        <v>521</v>
+      <c r="G57" s="59" t="s">
+        <v>520</v>
       </c>
       <c r="H57" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="73" t="s">
-        <v>309</v>
+      <c r="I57" s="72" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B58" s="113" t="s">
+      <c r="A58" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="D58" s="113" t="s">
+      <c r="C58" s="112" t="s">
+        <v>481</v>
+      </c>
+      <c r="D58" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="E58" s="61" t="s">
+      <c r="E58" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="61" t="s">
+      <c r="F58" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="60" t="s">
-        <v>520</v>
+      <c r="G58" s="59" t="s">
+        <v>519</v>
       </c>
       <c r="H58" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="73" t="s">
-        <v>469</v>
+      <c r="I58" s="72" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="90">
-      <c r="A59" s="118" t="s">
-        <v>491</v>
-      </c>
-      <c r="B59" s="119" t="s">
-        <v>546</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="93" t="s">
+      <c r="A59" s="117" t="s">
+        <v>490</v>
+      </c>
+      <c r="B59" s="118" t="s">
+        <v>545</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="93" t="s">
+      <c r="F59" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="93" t="s">
-        <v>544</v>
-      </c>
-      <c r="H59" s="94"/>
-      <c r="I59" s="95"/>
+      <c r="G59" s="92" t="s">
+        <v>543</v>
+      </c>
+      <c r="H59" s="93"/>
+      <c r="I59" s="94"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B60" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="C60" s="113" t="s">
+      <c r="A60" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="C60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="113"/>
-      <c r="E60" s="61" t="s">
+      <c r="D60" s="112"/>
+      <c r="E60" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="61" t="s">
-        <v>522</v>
+      <c r="G60" s="60" t="s">
+        <v>521</v>
       </c>
       <c r="H60" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="73">
+      <c r="I60" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B61" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="C61" s="113" t="s">
+      <c r="A61" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B61" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="C61" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="113"/>
-      <c r="E61" s="61" t="s">
+      <c r="D61" s="112"/>
+      <c r="E61" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G61" s="60" t="s">
-        <v>523</v>
+      <c r="G61" s="59" t="s">
+        <v>522</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="73" t="s">
-        <v>336</v>
+      <c r="I61" s="72" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B62" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="C62" s="113" t="s">
+      <c r="A62" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B62" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="C62" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="113"/>
-      <c r="E62" s="61" t="s">
+      <c r="D62" s="112"/>
+      <c r="E62" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="F62" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="H62" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I62" s="73" t="s">
-        <v>338</v>
+      <c r="G62" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="H62" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I62" s="72" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B63" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="C63" s="113" t="s">
+      <c r="A63" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B63" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="C63" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="113"/>
-      <c r="E63" s="61" t="s">
+      <c r="D63" s="112"/>
+      <c r="E63" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="60" t="s">
-        <v>524</v>
+      <c r="G63" s="59" t="s">
+        <v>523</v>
       </c>
       <c r="H63" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="73" t="s">
-        <v>340</v>
+      <c r="I63" s="72" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="195">
-      <c r="A64" s="118" t="s">
-        <v>491</v>
-      </c>
-      <c r="B64" s="119" t="s">
-        <v>547</v>
-      </c>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="93" t="s">
+      <c r="A64" s="117" t="s">
+        <v>490</v>
+      </c>
+      <c r="B64" s="118" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="93" t="s">
+      <c r="F64" s="92" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" s="92" t="s">
+        <v>544</v>
+      </c>
+      <c r="H64" s="93"/>
+      <c r="I64" s="94"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B65" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="112" t="s">
         <v>432</v>
       </c>
-      <c r="G64" s="93" t="s">
-        <v>545</v>
-      </c>
-      <c r="H64" s="94"/>
-      <c r="I64" s="95"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B65" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C65" s="113" t="s">
+      <c r="D65" s="112"/>
+      <c r="E65" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="60" t="s">
         <v>433</v>
       </c>
-      <c r="D65" s="113"/>
-      <c r="E65" s="61" t="s">
+      <c r="G65" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="H65" s="63"/>
+      <c r="I65" s="72"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B66" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C66" s="112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D66" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="61" t="s">
-        <v>434</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>549</v>
-      </c>
-      <c r="H65" s="64"/>
-      <c r="I65" s="73"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B66" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C66" s="113" t="s">
-        <v>433</v>
-      </c>
-      <c r="D66" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="61" t="s">
+      <c r="F66" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="61" t="s">
-        <v>525</v>
+      <c r="G66" s="60" t="s">
+        <v>524</v>
       </c>
       <c r="H66" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="73">
+      <c r="I66" s="72">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B67" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C67" s="113" t="s">
-        <v>433</v>
-      </c>
-      <c r="D67" s="113" t="s">
+      <c r="A67" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B67" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C67" s="112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D67" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="61" t="s">
+      <c r="F67" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="60" t="s">
-        <v>523</v>
+      <c r="G67" s="59" t="s">
+        <v>522</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="73" t="s">
-        <v>336</v>
+      <c r="I67" s="72" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B68" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C68" s="113" t="s">
-        <v>433</v>
-      </c>
-      <c r="D68" s="113" t="s">
+      <c r="A68" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B68" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" s="112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D68" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="61" t="s">
+      <c r="F68" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G68" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="H68" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I68" s="73" t="s">
-        <v>338</v>
+      <c r="G68" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="H68" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I68" s="72" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B69" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C69" s="113" t="s">
-        <v>433</v>
-      </c>
-      <c r="D69" s="113" t="s">
+      <c r="A69" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B69" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C69" s="112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D69" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="61" t="s">
+      <c r="F69" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="60" t="s">
-        <v>524</v>
+      <c r="G69" s="59" t="s">
+        <v>523</v>
       </c>
       <c r="H69" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="73" t="s">
-        <v>340</v>
+      <c r="I69" s="72" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B70" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C70" s="113" t="s">
-        <v>435</v>
-      </c>
-      <c r="D70" s="113"/>
-      <c r="E70" s="61" t="s">
+      <c r="A70" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B70" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C70" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="D70" s="112"/>
+      <c r="E70" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="61" t="s">
+      <c r="F70" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="G70" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="H70" s="63"/>
+      <c r="I70" s="72"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B71" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C71" s="112" t="s">
         <v>434</v>
       </c>
-      <c r="G70" s="61" t="s">
+      <c r="D71" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="H71" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I71" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B72" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C72" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="H70" s="64"/>
-      <c r="I70" s="73"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B71" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C71" s="113" t="s">
-        <v>435</v>
-      </c>
-      <c r="D71" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="61" t="s">
+      <c r="G72" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="H72" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I72" s="72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B73" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C73" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="D73" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>533</v>
-      </c>
-      <c r="H71" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I71" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B72" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C72" s="113" t="s">
-        <v>435</v>
-      </c>
-      <c r="D72" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="61" t="s">
+      <c r="F73" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="H73" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="I73" s="72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="21" thickBot="1">
+      <c r="A74" s="119" t="s">
+        <v>490</v>
+      </c>
+      <c r="B74" s="120" t="s">
+        <v>430</v>
+      </c>
+      <c r="C74" s="120" t="s">
+        <v>434</v>
+      </c>
+      <c r="D74" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="61" t="s">
-        <v>531</v>
-      </c>
-      <c r="G72" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I72" s="73" t="s">
+      <c r="F74" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="H74" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="I74" s="75" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="112" t="s">
-        <v>491</v>
-      </c>
-      <c r="B73" s="113" t="s">
-        <v>431</v>
-      </c>
-      <c r="C73" s="113" t="s">
-        <v>435</v>
-      </c>
-      <c r="D73" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="H73" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="I73" s="73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="21" thickBot="1">
-      <c r="A74" s="120" t="s">
-        <v>491</v>
-      </c>
-      <c r="B74" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="C74" s="121" t="s">
-        <v>435</v>
-      </c>
-      <c r="D74" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="75" t="s">
-        <v>442</v>
-      </c>
-      <c r="H74" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="I74" s="76" t="s">
-        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA9A999-6B90-F04C-BB46-E3A6FB7D9E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2092D2EF-DF04-B841-9728-2576B87E748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52620" yWindow="0" windowWidth="37080" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="460" windowWidth="37080" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="567">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -2861,9 +2861,6 @@
     </r>
   </si>
   <si>
-    <t>投与期間を表す</t>
-  </si>
-  <si>
     <t>単位「日」。</t>
   </si>
   <si>
@@ -3589,9 +3586,6 @@
     <t>UCUM単位コードを識別するURI。</t>
   </si>
   <si>
-    <t>拡張を識別するURL。</t>
-  </si>
-  <si>
     <t>拡張を識別するためのURL。</t>
   </si>
   <si>
@@ -4142,108 +4136,6 @@
       </rPr>
       <t>記述仕様も参照すること。</t>
     </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>投与開始日を明示するために使用する拡張「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>PeriodOfUse</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。投与開始日を明示しない処方の場合には、処方箋発行日を投与開始日として設定する。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報共有サービスにおいては、本要素を必須とする。</t>
-    </r>
-    <rPh sb="33" eb="36">
-      <t>メイジテ_x0000_!</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>_x0003__x0006_'_x0002_</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t xml:space="preserve">
-,_x0002__x000F_/</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>_x0002__x0013_4_x0003_</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>_x001A_7_x0003_ ;_x0002_$</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>=_x0003_)C_x0002__x0000_</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>_x0000__x0000__x0000_c</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>_x0008_c隔日投</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t/>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t xml:space="preserve">デンシ </t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t xml:space="preserve">キョウユウ </t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t xml:space="preserve">ホｎ </t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t xml:space="preserve">ヒッス </t>
-    </rPh>
     <phoneticPr fontId="25"/>
   </si>
   <si>
@@ -4867,6 +4759,54 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_MedicationRequest_eClinicalSummary</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>拡張を識別するURL。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与開始日や実投与日数を明示するために使用する拡張を記述。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ジツ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ニッスウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>投与開始日を明示するために使用する拡張「PeriodOfUse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」。投与開始日を明示しない処方の場合には、処方箋発行日を投与開始日として設定する。電子カルテ情報共有サービスにおいては、本要素を必須とする。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与期間を表す</t>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -5940,32 +5880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -6052,6 +5966,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6190,7 +6130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6332,18 +6272,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="41" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6365,9 +6299,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6395,18 +6326,6 @@
     <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6425,15 +6344,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6458,255 +6368,252 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="37" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6722,47 +6629,71 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="41" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="15" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="18" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="32" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -11204,22 +11135,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="176"/>
-      <c r="B73" s="172" t="s">
+      <c r="A73" s="165"/>
+      <c r="B73" s="161" t="s">
         <v>355</v>
       </c>
-      <c r="C73" s="172"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="172" t="s">
+      <c r="C73" s="161"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="172" t="s">
+      <c r="F73" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="172" t="s">
+      <c r="G73" s="161" t="s">
         <v>356</v>
       </c>
-      <c r="H73" s="173" t="s">
+      <c r="H73" s="162" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -11227,27 +11158,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="176"/>
-      <c r="B74" s="172"/>
-      <c r="C74" s="172"/>
-      <c r="D74" s="172"/>
-      <c r="E74" s="172"/>
-      <c r="F74" s="172"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="174"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="161"/>
+      <c r="C74" s="161"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="161"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="163"/>
       <c r="I74" s="33" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="176"/>
-      <c r="B75" s="172"/>
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="172"/>
-      <c r="H75" s="175"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="161"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="161"/>
+      <c r="H75" s="164"/>
       <c r="I75" s="33" t="s">
         <v>284</v>
       </c>
@@ -11447,95 +11378,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="169" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="169" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="169" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="167" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="167" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="167" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="167" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="167" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="167"/>
+    <col min="1" max="1" width="11.28515625" style="147" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="147" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="147" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="145" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="145" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="145" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="145" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="181" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="145"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="116" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="116" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="116" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="117" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="131" t="s">
-        <v>471</v>
-      </c>
-      <c r="I1" s="132" t="s">
+      <c r="H1" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="I1" s="166" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31" thickBot="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120" t="s">
         <v>377</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136" t="s">
+      <c r="F2" s="121"/>
+      <c r="G2" s="121" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="167" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="142"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="168"/>
     </row>
     <row r="4" spans="1:9" ht="270">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="44"/>
@@ -11552,20 +11483,20 @@
       <c r="H4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="169" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>227</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="49" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -11577,20 +11508,20 @@
       <c r="H5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="168" customFormat="1">
-      <c r="A6" s="48" t="s">
+      <c r="I5" s="170" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="146" customFormat="1">
+      <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -11600,87 +11531,87 @@
         <v>234</v>
       </c>
       <c r="H6" s="46"/>
-      <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="1:9" s="168" customFormat="1" ht="45">
-      <c r="A7" s="48" t="s">
+      <c r="I6" s="169"/>
+    </row>
+    <row r="7" spans="1:9" s="146" customFormat="1" ht="45">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="51" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="169" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="168" customFormat="1" ht="31" thickBot="1">
-      <c r="A8" s="143" t="s">
+    <row r="8" spans="1:9" s="146" customFormat="1" ht="31" thickBot="1">
+      <c r="A8" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="146" t="s">
+      <c r="I8" s="171" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="168" customFormat="1">
-      <c r="A9" s="147" t="s">
+    <row r="9" spans="1:9" s="146" customFormat="1">
+      <c r="A9" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="149" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150" t="s">
+      <c r="F9" s="132"/>
+      <c r="G9" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="150"/>
-      <c r="I9" s="151"/>
-    </row>
-    <row r="10" spans="1:9" s="168" customFormat="1" ht="75">
-      <c r="A10" s="48" t="s">
+      <c r="H9" s="132"/>
+      <c r="I9" s="172"/>
+    </row>
+    <row r="10" spans="1:9" s="146" customFormat="1" ht="75">
+      <c r="A10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="54" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="52" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="46" t="s">
@@ -11690,239 +11621,239 @@
         <v>236</v>
       </c>
       <c r="H10" s="46"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="1:9" s="168" customFormat="1" ht="175" customHeight="1" thickBot="1">
-      <c r="A11" s="143" t="s">
+      <c r="I10" s="169"/>
+    </row>
+    <row r="11" spans="1:9" s="146" customFormat="1" ht="175" customHeight="1" thickBot="1">
+      <c r="A11" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="152" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="146"/>
-    </row>
-    <row r="12" spans="1:9" s="168" customFormat="1" ht="45">
-      <c r="A12" s="147" t="s">
+      <c r="H11" s="77"/>
+      <c r="I11" s="171"/>
+    </row>
+    <row r="12" spans="1:9" s="146" customFormat="1" ht="63">
+      <c r="A12" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="153" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="150" t="s">
+      <c r="F12" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150" t="s">
+      <c r="G12" s="132"/>
+      <c r="H12" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="154" t="s">
+      <c r="I12" s="182" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="168" customFormat="1" ht="31" thickBot="1">
-      <c r="A13" s="177" t="s">
+    <row r="13" spans="1:9" s="146" customFormat="1" ht="31" thickBot="1">
+      <c r="A13" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="179" t="s">
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="180" t="s">
+      <c r="F13" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="180" t="s">
+      <c r="G13" s="153" t="s">
         <v>379</v>
       </c>
-      <c r="H13" s="180" t="s">
+      <c r="H13" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="181" t="s">
+      <c r="I13" s="173" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="153" t="s">
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="141" t="s">
+      <c r="F14" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="141" t="s">
+      <c r="G14" s="125" t="s">
         <v>380</v>
       </c>
-      <c r="H14" s="150" t="s">
+      <c r="H14" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="142" t="s">
+      <c r="I14" s="168" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="179" t="s">
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="183" t="s">
+      <c r="F15" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="183" t="s">
+      <c r="G15" s="155" t="s">
         <v>381</v>
       </c>
-      <c r="H15" s="180" t="s">
+      <c r="H15" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="184" t="s">
+      <c r="I15" s="174" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="153" t="s">
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="141" t="s">
+      <c r="F16" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="141" t="s">
+      <c r="G16" s="125" t="s">
         <v>382</v>
       </c>
-      <c r="H16" s="150" t="s">
+      <c r="H16" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="142" t="s">
+      <c r="I16" s="168" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="179" t="s">
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="183" t="s">
+      <c r="F17" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="183" t="s">
+      <c r="G17" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="184" t="s">
+      <c r="I17" s="174" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="31" thickBot="1">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="156" t="s">
         <v>305</v>
       </c>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="187" t="s">
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="188" t="s">
+      <c r="F18" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="188" t="s">
+      <c r="G18" s="159" t="s">
         <v>383</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="190" t="s">
+      <c r="I18" s="175" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31" thickBot="1">
-      <c r="A19" s="185" t="s">
+      <c r="A19" s="156" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="187" t="s">
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="188" t="s">
+      <c r="F19" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="188" t="s">
-        <v>555</v>
-      </c>
-      <c r="H19" s="189" t="s">
+      <c r="G19" s="159" t="s">
+        <v>552</v>
+      </c>
+      <c r="H19" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="190" t="s">
+      <c r="I19" s="175" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="122" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="156" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="135" t="s">
         <v>385</v>
       </c>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="141" t="s">
+      <c r="G20" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="168"/>
     </row>
     <row r="21" spans="1:9" ht="102" customHeight="1">
       <c r="A21" s="43" t="s">
@@ -11933,7 +11864,7 @@
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="53" t="s">
         <v>377</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -11945,8 +11876,8 @@
       <c r="H21" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="47" t="s">
-        <v>558</v>
+      <c r="I21" s="176" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="91" customHeight="1">
@@ -11958,65 +11889,65 @@
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="53" t="s">
         <v>377</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>559</v>
+      <c r="I22" s="176" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" customHeight="1" thickBot="1">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="111" t="s">
         <v>389</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="112" t="s">
         <v>391</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="157" t="s">
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="136" t="s">
         <v>385</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="127" t="s">
+      <c r="G23" s="114" t="s">
+        <v>554</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="177" t="s">
         <v>557</v>
       </c>
-      <c r="H23" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="128" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="90">
+      <c r="A24" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="125" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="90">
-      <c r="A24" s="138" t="s">
-        <v>314</v>
-      </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="141" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="141" t="s">
-        <v>563</v>
-      </c>
-      <c r="H24" s="141"/>
-      <c r="I24" s="142"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="168"/>
     </row>
     <row r="25" spans="1:9" ht="121" customHeight="1">
       <c r="A25" s="43" t="s">
@@ -12034,10 +11965,10 @@
         <v>24</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H25" s="40"/>
-      <c r="I25" s="47"/>
+      <c r="I25" s="176"/>
     </row>
     <row r="26" spans="1:9" ht="161" customHeight="1">
       <c r="A26" s="43" t="s">
@@ -12057,12 +11988,12 @@
         <v>27</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="176" t="s">
         <v>315</v>
       </c>
     </row>
@@ -12084,228 +12015,228 @@
         <v>31</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="176" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="36">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="140" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="141" t="s">
         <v>394</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="163" t="s">
+      <c r="D28" s="141"/>
+      <c r="E28" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="164" t="s">
+      <c r="F28" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="170" t="s">
+      <c r="G28" s="148" t="s">
+        <v>548</v>
+      </c>
+      <c r="H28" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="178" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="49" customHeight="1" thickBot="1">
+      <c r="A29" s="111" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="149" t="s">
         <v>551</v>
       </c>
-      <c r="H28" s="165" t="s">
+      <c r="H29" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="166" t="s">
+      <c r="I29" s="177" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="49" customHeight="1" thickBot="1">
-      <c r="A29" s="124" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="125" t="s">
-        <v>492</v>
-      </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="158" t="s">
+    <row r="30" spans="1:9" s="146" customFormat="1" ht="105">
+      <c r="A30" s="129" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="171" t="s">
-        <v>554</v>
-      </c>
-      <c r="H29" s="87" t="s">
+      <c r="F30" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="132" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="128" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="168" customFormat="1" ht="105">
-      <c r="A30" s="147" t="s">
-        <v>266</v>
-      </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="153" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="150" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="150" t="s">
-        <v>371</v>
-      </c>
-      <c r="H30" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="151" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="168" customFormat="1" ht="90">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="56"/>
+      <c r="I30" s="172" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="146" customFormat="1" ht="90">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="46"/>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="55" t="s">
         <v>231</v>
       </c>
       <c r="H31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="50" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="168" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87" t="s">
+      <c r="I31" s="169" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="146" customFormat="1" ht="201" customHeight="1" thickBot="1">
+      <c r="A32" s="126"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="H32" s="87" t="s">
+      <c r="H32" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="146" t="s">
+      <c r="I32" s="171" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31" thickBot="1">
-      <c r="A33" s="133" t="s">
+      <c r="A33" s="118" t="s">
         <v>318</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135" t="s">
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120" t="s">
         <v>245</v>
       </c>
-      <c r="F33" s="136" t="s">
+      <c r="F33" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="136" t="s">
+      <c r="G33" s="121" t="s">
         <v>395</v>
       </c>
-      <c r="H33" s="89" t="s">
+      <c r="H33" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="155" t="s">
+      <c r="I33" s="179" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="138" t="s">
+      <c r="A34" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="160" t="s">
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="139" t="s">
         <v>397</v>
       </c>
-      <c r="F34" s="141" t="s">
+      <c r="F34" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="141" t="s">
+      <c r="G34" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="142"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="168"/>
     </row>
     <row r="35" spans="1:9" ht="61" thickBot="1">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="111" t="s">
         <v>399</v>
       </c>
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="126" t="s">
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="127" t="s">
+      <c r="F35" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="127" t="s">
+      <c r="G35" s="114" t="s">
         <v>400</v>
       </c>
-      <c r="H35" s="87" t="s">
+      <c r="H35" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="128" t="s">
+      <c r="I35" s="177" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31" thickBot="1">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="118" t="s">
         <v>401</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="135" t="s">
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="120" t="s">
         <v>402</v>
       </c>
-      <c r="F36" s="136" t="s">
+      <c r="F36" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="G36" s="136" t="s">
-        <v>469</v>
-      </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="155"/>
+      <c r="G36" s="121" t="s">
+        <v>468</v>
+      </c>
+      <c r="H36" s="121"/>
+      <c r="I36" s="179"/>
     </row>
     <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="138" t="s">
-        <v>549</v>
-      </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="160" t="s">
+      <c r="A37" s="122" t="s">
+        <v>546</v>
+      </c>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="141" t="s">
+      <c r="F37" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="141" t="s">
-        <v>550</v>
-      </c>
-      <c r="H37" s="141"/>
-      <c r="I37" s="142"/>
+      <c r="G37" s="125" t="s">
+        <v>547</v>
+      </c>
+      <c r="H37" s="125"/>
+      <c r="I37" s="168"/>
     </row>
     <row r="38" spans="1:9" ht="28">
       <c r="A38" s="43" t="s">
@@ -12326,7 +12257,7 @@
         <v>404</v>
       </c>
       <c r="H38" s="40"/>
-      <c r="I38" s="47"/>
+      <c r="I38" s="176"/>
     </row>
     <row r="39" spans="1:9" ht="30">
       <c r="A39" s="43" t="s">
@@ -12347,7 +12278,7 @@
         <v>325</v>
       </c>
       <c r="H39" s="40"/>
-      <c r="I39" s="47"/>
+      <c r="I39" s="176"/>
     </row>
     <row r="40" spans="1:9" ht="45">
       <c r="A40" s="43" t="s">
@@ -12372,7 +12303,7 @@
       <c r="H40" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="176" t="s">
         <v>327</v>
       </c>
     </row>
@@ -12399,7 +12330,7 @@
       <c r="H41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="176">
         <v>5</v>
       </c>
     </row>
@@ -12422,7 +12353,7 @@
         <v>332</v>
       </c>
       <c r="H42" s="40"/>
-      <c r="I42" s="47"/>
+      <c r="I42" s="176"/>
     </row>
     <row r="43" spans="1:9" ht="28">
       <c r="A43" s="43" t="s">
@@ -12447,7 +12378,7 @@
       <c r="H43" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="47">
+      <c r="I43" s="176">
         <v>21</v>
       </c>
     </row>
@@ -12474,7 +12405,7 @@
       <c r="H44" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="47" t="s">
+      <c r="I44" s="176" t="s">
         <v>335</v>
       </c>
     </row>
@@ -12501,7 +12432,7 @@
       <c r="H45" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="176" t="s">
         <v>337</v>
       </c>
     </row>
@@ -12528,7 +12459,7 @@
       <c r="H46" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="176" t="s">
         <v>339</v>
       </c>
     </row>
@@ -12551,7 +12482,7 @@
         <v>342</v>
       </c>
       <c r="H47" s="40"/>
-      <c r="I47" s="47"/>
+      <c r="I47" s="176"/>
     </row>
     <row r="48" spans="1:9" ht="28">
       <c r="A48" s="43" t="s">
@@ -12576,7 +12507,7 @@
       <c r="H48" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="47">
+      <c r="I48" s="176">
         <v>7</v>
       </c>
     </row>
@@ -12603,7 +12534,7 @@
       <c r="H49" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="I49" s="58" t="s">
+      <c r="I49" s="180" t="s">
         <v>410</v>
       </c>
     </row>
@@ -12630,34 +12561,34 @@
       <c r="H50" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="176" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="29" thickBot="1">
-      <c r="A51" s="124" t="s">
+      <c r="A51" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="B51" s="125" t="s">
+      <c r="B51" s="112" t="s">
         <v>340</v>
       </c>
-      <c r="C51" s="125" t="s">
+      <c r="C51" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="125"/>
-      <c r="E51" s="126" t="s">
+      <c r="D51" s="112"/>
+      <c r="E51" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="127" t="s">
+      <c r="F51" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="127" t="s">
+      <c r="G51" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="H51" s="87" t="s">
+      <c r="H51" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="I51" s="128" t="s">
+      <c r="I51" s="177" t="s">
         <v>345</v>
       </c>
     </row>
@@ -12678,7 +12609,7 @@
         <v>413</v>
       </c>
       <c r="H52" s="40"/>
-      <c r="I52" s="47"/>
+      <c r="I52" s="176"/>
     </row>
     <row r="53" spans="1:9" ht="30">
       <c r="A53" s="43" t="s">
@@ -12697,7 +12628,7 @@
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
-      <c r="I53" s="47"/>
+      <c r="I53" s="176"/>
     </row>
     <row r="54" spans="1:9" ht="30">
       <c r="A54" s="43" t="s">
@@ -12720,7 +12651,7 @@
         <v>348</v>
       </c>
       <c r="H54" s="40"/>
-      <c r="I54" s="47"/>
+      <c r="I54" s="176"/>
     </row>
     <row r="55" spans="1:9" ht="30">
       <c r="A55" s="43" t="s">
@@ -12747,7 +12678,7 @@
       <c r="H55" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="176" t="s">
         <v>349</v>
       </c>
     </row>
@@ -12776,36 +12707,36 @@
       <c r="H56" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="47" t="s">
+      <c r="I56" s="176" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="29" thickBot="1">
-      <c r="A57" s="124" t="s">
+      <c r="A57" s="111" t="s">
         <v>346</v>
       </c>
-      <c r="B57" s="125" t="s">
+      <c r="B57" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="125" t="s">
+      <c r="C57" s="112" t="s">
         <v>394</v>
       </c>
-      <c r="D57" s="125" t="s">
+      <c r="D57" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="126" t="s">
+      <c r="E57" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="127" t="s">
+      <c r="F57" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="127" t="s">
+      <c r="G57" s="114" t="s">
         <v>351</v>
       </c>
-      <c r="H57" s="87" t="s">
+      <c r="H57" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="128" t="s">
+      <c r="I57" s="177" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12813,6 +12744,7 @@
   <phoneticPr fontId="25"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{4B41E160-EEE1-5945-A956-C99138C1DAA0}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{E4A03938-6A27-6B45-B8A2-F976F4B66562}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12821,1866 +12753,1881 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="123" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="123" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="123" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="110" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="110" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="110" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="65" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76" thickBot="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:9" ht="75">
+      <c r="A1" s="184" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="185" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="185" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="185" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="186" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="186" t="s">
+        <v>470</v>
+      </c>
+      <c r="I1" s="187" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" thickBot="1">
+      <c r="A2" s="104" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="61" t="s">
+        <v>538</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" ht="76" thickBot="1">
+      <c r="A3" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="H3" s="183"/>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" ht="60">
+      <c r="A4" s="96" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>563</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" thickBot="1">
+      <c r="A6" s="100" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="90" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="76" thickBot="1">
-      <c r="A2" s="107" t="s">
+      <c r="H6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="102" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="H7" s="78"/>
+      <c r="I7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" ht="60">
+      <c r="A8" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="H8" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="82" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" s="106" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>540</v>
-      </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="1:9" ht="60">
-      <c r="A3" s="109" t="s">
+      <c r="I8" s="65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="110" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="82" t="s">
-        <v>541</v>
-      </c>
-      <c r="F3" s="81" t="s">
+      <c r="B9" s="99" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>532</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="105"/>
+      <c r="E10" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>508</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G12" s="56" t="s">
         <v>507</v>
       </c>
-      <c r="H3" s="84" t="s">
-        <v>475</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="111" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="64" t="s">
+      <c r="H12" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31" thickBot="1">
+      <c r="A13" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>416</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="72"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" thickBot="1">
-      <c r="A5" s="113" t="s">
-        <v>473</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="99" t="s">
+      <c r="F13" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31" thickBot="1">
+      <c r="A14" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="100" t="s">
+      <c r="F14" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45">
+      <c r="A15" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="H5" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="75" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="115" t="s">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>534</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="75"/>
+    </row>
+    <row r="16" spans="1:9" ht="26">
+      <c r="A16" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="H17" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="102" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>539</v>
-      </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="85"/>
-    </row>
-    <row r="7" spans="1:9" ht="60">
-      <c r="A7" s="111" t="s">
-        <v>472</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="60" t="s">
+      <c r="I17" s="65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26">
+      <c r="A18" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="111" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>417</v>
-      </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>418</v>
-      </c>
-      <c r="G8" s="101" t="s">
-        <v>534</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="117" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="118" t="s">
-        <v>417</v>
-      </c>
-      <c r="C9" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="95" t="s">
-        <v>510</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="111" t="s">
-        <v>473</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="111" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" s="112" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="59" t="s">
+      <c r="F18" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="57" t="s">
         <v>509</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="31" thickBot="1">
-      <c r="A12" s="119" t="s">
-        <v>473</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>417</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>502</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31" thickBot="1">
-      <c r="A13" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="103" t="s">
-        <v>535</v>
-      </c>
-      <c r="H13" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="115" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>536</v>
-      </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="85"/>
-    </row>
-    <row r="15" spans="1:9" ht="26">
-      <c r="A15" s="111" t="s">
-        <v>482</v>
-      </c>
-      <c r="B15" s="112" t="s">
-        <v>479</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="72"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>480</v>
-      </c>
-      <c r="C16" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26">
-      <c r="A17" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="B17" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C17" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>511</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="26">
-      <c r="A18" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="B18" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>512</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="65" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26">
+      <c r="A19" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31" thickBot="1">
+      <c r="A20" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>443</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="80" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31" thickBot="1">
-      <c r="A19" s="119" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>524</v>
+      </c>
+      <c r="H21" s="78"/>
+      <c r="I21" s="75"/>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="1:9" ht="75">
+      <c r="A24" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="H24" s="60"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="26">
+      <c r="A27" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="26">
+      <c r="A28" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30">
+      <c r="A29" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="B19" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>444</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="90" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="115" t="s">
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="85" t="s">
+        <v>493</v>
+      </c>
+      <c r="H29" s="60"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="1:9" ht="75">
+      <c r="A30" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105" t="s">
+      <c r="B30" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="D30" s="99"/>
+      <c r="E30" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="H30" s="60"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="D31" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="102" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>526</v>
-      </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="85"/>
-    </row>
-    <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>485</v>
-      </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="72" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B22" s="112" t="s">
-        <v>486</v>
-      </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="72"/>
-    </row>
-    <row r="23" spans="1:9" ht="75">
-      <c r="A23" s="117" t="s">
-        <v>419</v>
-      </c>
-      <c r="B23" s="118" t="s">
-        <v>421</v>
-      </c>
-      <c r="C23" s="118" t="s">
-        <v>423</v>
-      </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="92" t="s">
-        <v>418</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="72"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>421</v>
-      </c>
-      <c r="C24" s="112" t="s">
-        <v>423</v>
-      </c>
-      <c r="D24" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>527</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25" s="112" t="s">
-        <v>421</v>
-      </c>
-      <c r="C25" s="112" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>528</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="26">
-      <c r="A26" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>423</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="60" t="s">
+      <c r="F31" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="59" t="s">
-        <v>500</v>
-      </c>
-      <c r="H26" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I26" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="26">
-      <c r="A27" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>421</v>
-      </c>
-      <c r="C27" s="112" t="s">
-        <v>423</v>
-      </c>
-      <c r="D27" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>499</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I27" s="72" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="117" t="s">
-        <v>419</v>
-      </c>
-      <c r="B28" s="118" t="s">
-        <v>484</v>
-      </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="95" t="s">
-        <v>494</v>
-      </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="72"/>
-    </row>
-    <row r="29" spans="1:9" ht="75">
-      <c r="A29" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B29" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="112" t="s">
-        <v>479</v>
-      </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="60" t="s">
+      <c r="G31" s="57" t="s">
         <v>495</v>
-      </c>
-      <c r="H29" s="63"/>
-      <c r="I29" s="72"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B30" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="112" t="s">
-        <v>480</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>496</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="72" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="D31" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>497</v>
       </c>
       <c r="H31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="72" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="111" t="s">
+      <c r="I31" s="65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>498</v>
+      <c r="C32" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="D32" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>496</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="72" t="s">
+      <c r="I32" s="65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="D33" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="31" thickBot="1">
+      <c r="A34" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>491</v>
+      </c>
+      <c r="D34" s="107"/>
+      <c r="E34" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="H34" s="77"/>
+      <c r="I34" s="68"/>
+    </row>
+    <row r="35" spans="1:9" ht="31" thickBot="1">
+      <c r="A35" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="G35" s="69" t="s">
+        <v>535</v>
+      </c>
+      <c r="H35" s="81"/>
+      <c r="I35" s="70"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="102" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>536</v>
+      </c>
+      <c r="H36" s="78"/>
+      <c r="I36" s="75"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="99"/>
+      <c r="E38" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I38" s="65" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="31" thickBot="1">
-      <c r="A33" s="119" t="s">
-        <v>419</v>
-      </c>
-      <c r="B33" s="120" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="B39" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C39" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="120" t="s">
-        <v>492</v>
-      </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="73" t="s">
-        <v>493</v>
-      </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="75"/>
-    </row>
-    <row r="34" spans="1:9" ht="31" thickBot="1">
-      <c r="A34" s="121" t="s">
-        <v>424</v>
-      </c>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>425</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>537</v>
-      </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="77"/>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="115" t="s">
-        <v>426</v>
-      </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="85"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="111" t="s">
-        <v>426</v>
-      </c>
-      <c r="B36" s="112" t="s">
-        <v>479</v>
-      </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="F36" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="72"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="111" t="s">
-        <v>426</v>
-      </c>
-      <c r="B37" s="112" t="s">
-        <v>480</v>
-      </c>
-      <c r="C37" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="60" t="s">
+      <c r="D39" s="99"/>
+      <c r="E39" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>503</v>
-      </c>
-      <c r="H37" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I37" s="72" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="111" t="s">
-        <v>426</v>
-      </c>
-      <c r="B38" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C38" s="112" t="s">
+      <c r="F39" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>513</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="111" t="s">
-        <v>426</v>
-      </c>
-      <c r="B39" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C39" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>514</v>
+      <c r="G39" s="57" t="s">
+        <v>511</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="72" t="s">
+      <c r="I39" s="65" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="99"/>
+      <c r="E40" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="21" thickBot="1">
+      <c r="A41" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="B41" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="H42" s="78"/>
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="B43" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="57"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="65"/>
+    </row>
+    <row r="44" spans="1:9" ht="45">
+      <c r="A44" s="98" t="s">
+        <v>427</v>
+      </c>
+      <c r="B44" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="C44" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="99"/>
+      <c r="E44" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I44" s="65" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="21" thickBot="1">
-      <c r="A40" s="119" t="s">
-        <v>426</v>
-      </c>
-      <c r="B40" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="H40" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="75" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="115" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="98" t="s">
         <v>427</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="H41" s="88"/>
-      <c r="I41" s="85"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="111" t="s">
-        <v>487</v>
-      </c>
-      <c r="B42" s="112" t="s">
-        <v>479</v>
-      </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="72"/>
-    </row>
-    <row r="43" spans="1:9" ht="45">
-      <c r="A43" s="111" t="s">
-        <v>427</v>
-      </c>
-      <c r="B43" s="112" t="s">
+      <c r="B45" s="99" t="s">
         <v>480</v>
       </c>
-      <c r="C43" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="112"/>
-      <c r="E43" s="60" t="s">
+      <c r="C45" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="99"/>
+      <c r="E45" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>504</v>
-      </c>
-      <c r="H43" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I43" s="72" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="111" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C44" s="112" t="s">
+      <c r="F45" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="72" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="111" t="s">
-        <v>427</v>
-      </c>
-      <c r="B45" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C45" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="112"/>
-      <c r="E45" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>516</v>
+      <c r="G45" s="56" t="s">
+        <v>513</v>
       </c>
       <c r="H45" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="72" t="s">
+      <c r="I45" s="65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="98" t="s">
+        <v>427</v>
+      </c>
+      <c r="B46" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="99"/>
+      <c r="E46" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="31" thickBot="1">
+      <c r="A47" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="H47" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="68" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31" thickBot="1">
-      <c r="A46" s="119" t="s">
-        <v>427</v>
-      </c>
-      <c r="B46" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="73" t="s">
+    <row r="48" spans="1:9" ht="30">
+      <c r="A48" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="74" t="s">
-        <v>437</v>
-      </c>
-      <c r="H46" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="75" t="s">
+      <c r="F48" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="86" t="s">
+        <v>438</v>
+      </c>
+      <c r="H48" s="78"/>
+      <c r="I48" s="75"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="57"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="65"/>
+    </row>
+    <row r="50" spans="1:9" ht="60">
+      <c r="A50" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="B50" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="99"/>
+      <c r="E50" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I50" s="65" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30">
-      <c r="A47" s="115" t="s">
+    <row r="51" spans="1:9" ht="45">
+      <c r="A51" s="98" t="s">
         <v>428</v>
       </c>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="96" t="s">
-        <v>438</v>
-      </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="85"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="B48" s="112" t="s">
-        <v>479</v>
-      </c>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="72"/>
-    </row>
-    <row r="49" spans="1:9" ht="60">
-      <c r="A49" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="B49" s="112" t="s">
+      <c r="B51" s="99" t="s">
         <v>480</v>
       </c>
-      <c r="C49" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="112"/>
-      <c r="E49" s="60" t="s">
+      <c r="C51" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="99"/>
+      <c r="E51" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>491</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I49" s="72" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45">
-      <c r="A50" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C50" s="112" t="s">
+      <c r="F51" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="60" t="s">
-        <v>517</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="72" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="45">
-      <c r="A51" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="B51" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="C51" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="112"/>
-      <c r="E51" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="60" t="s">
-        <v>518</v>
+      <c r="G51" s="57" t="s">
+        <v>515</v>
       </c>
       <c r="H51" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="72" t="s">
+      <c r="I51" s="65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45">
+      <c r="A52" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="B52" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C52" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="99"/>
+      <c r="E52" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="31" thickBot="1">
+      <c r="A53" s="106" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="135">
+      <c r="A54" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="G54" s="73" t="s">
+        <v>544</v>
+      </c>
+      <c r="H54" s="78"/>
+      <c r="I54" s="75"/>
+    </row>
+    <row r="55" spans="1:9" ht="60">
+      <c r="A55" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="B55" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="85" t="s">
+        <v>539</v>
+      </c>
+      <c r="H55" s="83"/>
+      <c r="I55" s="84"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B56" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="D56" s="99"/>
+      <c r="E56" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="57"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="65"/>
+    </row>
+    <row r="57" spans="1:9" ht="30">
+      <c r="A57" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="D57" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I57" s="65" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="31" thickBot="1">
-      <c r="A52" s="119" t="s">
-        <v>428</v>
-      </c>
-      <c r="B52" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="H52" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="75" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="135">
-      <c r="A53" s="115" t="s">
-        <v>488</v>
-      </c>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="102" t="s">
-        <v>422</v>
-      </c>
-      <c r="G53" s="83" t="s">
-        <v>547</v>
-      </c>
-      <c r="H53" s="88"/>
-      <c r="I53" s="85"/>
-    </row>
-    <row r="54" spans="1:9" ht="60">
-      <c r="A54" s="117" t="s">
+    <row r="58" spans="1:9">
+      <c r="A58" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="B54" s="118" t="s">
+      <c r="B58" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="F54" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="95" t="s">
-        <v>542</v>
-      </c>
-      <c r="H54" s="93"/>
-      <c r="I54" s="94"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B55" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="112" t="s">
-        <v>479</v>
-      </c>
-      <c r="D55" s="112"/>
-      <c r="E55" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="72"/>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B56" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="112" t="s">
+      <c r="C58" s="99" t="s">
         <v>480</v>
       </c>
-      <c r="D56" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="60" t="s">
+      <c r="D58" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="59" t="s">
-        <v>505</v>
-      </c>
-      <c r="H56" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I56" s="72" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B57" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="D57" s="112" t="s">
+      <c r="F58" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="59" t="s">
-        <v>520</v>
-      </c>
-      <c r="H57" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="72" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B58" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="D58" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>519</v>
+      <c r="G58" s="56" t="s">
+        <v>518</v>
       </c>
       <c r="H58" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="72" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="90">
-      <c r="A59" s="117" t="s">
-        <v>490</v>
-      </c>
-      <c r="B59" s="118" t="s">
-        <v>545</v>
-      </c>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="92" t="s">
+      <c r="I58" s="65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B59" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="D59" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="56" t="s">
+        <v>517</v>
+      </c>
+      <c r="H59" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="65" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="90">
+      <c r="A60" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="B60" s="105" t="s">
+        <v>542</v>
+      </c>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="92" t="s">
+      <c r="F60" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="92" t="s">
-        <v>543</v>
-      </c>
-      <c r="H59" s="93"/>
-      <c r="I59" s="94"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B60" s="112" t="s">
+      <c r="G60" s="82" t="s">
+        <v>540</v>
+      </c>
+      <c r="H60" s="83"/>
+      <c r="I60" s="84"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B61" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="C60" s="112" t="s">
+      <c r="C61" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="112"/>
-      <c r="E60" s="60" t="s">
+      <c r="D61" s="99"/>
+      <c r="E61" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F61" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="60" t="s">
-        <v>521</v>
-      </c>
-      <c r="H60" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B61" s="112" t="s">
-        <v>429</v>
-      </c>
-      <c r="C61" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="112"/>
-      <c r="E61" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" s="59" t="s">
-        <v>522</v>
+      <c r="G61" s="57" t="s">
+        <v>519</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="72" t="s">
+      <c r="I61" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="C62" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="99"/>
+      <c r="E62" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="65" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B62" s="112" t="s">
+    <row r="63" spans="1:9" ht="30">
+      <c r="A63" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B63" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="C62" s="112" t="s">
+      <c r="C63" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="112"/>
-      <c r="E62" s="60" t="s">
+      <c r="D63" s="99"/>
+      <c r="E63" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="60" t="s">
+      <c r="F63" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="59" t="s">
+      <c r="G63" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="H62" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I62" s="72" t="s">
+      <c r="H63" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I63" s="65" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B63" s="112" t="s">
+    <row r="64" spans="1:9">
+      <c r="A64" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B64" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="C63" s="112" t="s">
+      <c r="C64" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="112"/>
-      <c r="E63" s="60" t="s">
+      <c r="D64" s="99"/>
+      <c r="E64" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="F64" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="59" t="s">
-        <v>523</v>
-      </c>
-      <c r="H63" s="46" t="s">
+      <c r="G64" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="H64" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="72" t="s">
+      <c r="I64" s="65" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="195">
-      <c r="A64" s="117" t="s">
-        <v>490</v>
-      </c>
-      <c r="B64" s="118" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="92" t="s">
+    <row r="65" spans="1:9" ht="195">
+      <c r="A65" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>543</v>
+      </c>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="92" t="s">
+      <c r="F65" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="G64" s="92" t="s">
-        <v>544</v>
-      </c>
-      <c r="H64" s="93"/>
-      <c r="I64" s="94"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B65" s="112" t="s">
+      <c r="G65" s="82" t="s">
+        <v>541</v>
+      </c>
+      <c r="H65" s="83"/>
+      <c r="I65" s="84"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B66" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C65" s="112" t="s">
+      <c r="C66" s="99" t="s">
         <v>432</v>
       </c>
-      <c r="D65" s="112"/>
-      <c r="E65" s="60" t="s">
+      <c r="D66" s="99"/>
+      <c r="E66" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F66" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="G65" s="60" t="s">
-        <v>548</v>
-      </c>
-      <c r="H65" s="63"/>
-      <c r="I65" s="72"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B66" s="112" t="s">
+      <c r="G66" s="57" t="s">
+        <v>545</v>
+      </c>
+      <c r="H66" s="60"/>
+      <c r="I66" s="65"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B67" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C66" s="112" t="s">
+      <c r="C67" s="99" t="s">
         <v>432</v>
       </c>
-      <c r="D66" s="112" t="s">
+      <c r="D67" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E67" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F67" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="60" t="s">
-        <v>524</v>
-      </c>
-      <c r="H66" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B67" s="112" t="s">
-        <v>430</v>
-      </c>
-      <c r="C67" s="112" t="s">
-        <v>432</v>
-      </c>
-      <c r="D67" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G67" s="59" t="s">
+      <c r="G67" s="57" t="s">
         <v>522</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="72" t="s">
+      <c r="I67" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B68" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="D68" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="65" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B68" s="112" t="s">
+    <row r="69" spans="1:9" ht="30">
+      <c r="A69" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B69" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C68" s="112" t="s">
+      <c r="C69" s="99" t="s">
         <v>432</v>
       </c>
-      <c r="D68" s="112" t="s">
+      <c r="D69" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="60" t="s">
+      <c r="E69" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="60" t="s">
+      <c r="F69" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G68" s="59" t="s">
+      <c r="G69" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="H68" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I68" s="72" t="s">
+      <c r="H69" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I69" s="65" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B69" s="112" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B70" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C69" s="112" t="s">
+      <c r="C70" s="99" t="s">
         <v>432</v>
       </c>
-      <c r="D69" s="112" t="s">
+      <c r="D70" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E70" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F70" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="59" t="s">
-        <v>523</v>
-      </c>
-      <c r="H69" s="46" t="s">
+      <c r="G70" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="H70" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="72" t="s">
+      <c r="I70" s="65" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B70" s="112" t="s">
+    <row r="71" spans="1:9">
+      <c r="A71" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B71" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C70" s="112" t="s">
+      <c r="C71" s="99" t="s">
         <v>434</v>
       </c>
-      <c r="D70" s="112"/>
-      <c r="E70" s="60" t="s">
+      <c r="D71" s="99"/>
+      <c r="E71" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F71" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="G70" s="60" t="s">
+      <c r="G71" s="57" t="s">
+        <v>527</v>
+      </c>
+      <c r="H71" s="60"/>
+      <c r="I71" s="65"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B72" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="C72" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I72" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B73" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="C73" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="D73" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="G73" s="56" t="s">
         <v>529</v>
       </c>
-      <c r="H70" s="63"/>
-      <c r="I70" s="72"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B71" s="112" t="s">
+      <c r="H73" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I73" s="65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B74" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C71" s="112" t="s">
+      <c r="C74" s="99" t="s">
         <v>434</v>
       </c>
-      <c r="D71" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="60" t="s">
+      <c r="D74" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="59" t="s">
-        <v>532</v>
-      </c>
-      <c r="H71" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I71" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B72" s="112" t="s">
+      <c r="F74" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="H74" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I74" s="65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="21" thickBot="1">
+      <c r="A75" s="106" t="s">
+        <v>489</v>
+      </c>
+      <c r="B75" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="C72" s="112" t="s">
+      <c r="C75" s="107" t="s">
         <v>434</v>
       </c>
-      <c r="D72" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="60" t="s">
+      <c r="D75" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="60" t="s">
-        <v>530</v>
-      </c>
-      <c r="G72" s="59" t="s">
-        <v>531</v>
-      </c>
-      <c r="H72" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I72" s="72" t="s">
+      <c r="F75" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="H75" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="I75" s="68" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="B73" s="112" t="s">
-        <v>430</v>
-      </c>
-      <c r="C73" s="112" t="s">
-        <v>434</v>
-      </c>
-      <c r="D73" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="60" t="s">
-        <v>506</v>
-      </c>
-      <c r="H73" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I73" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="21" thickBot="1">
-      <c r="A74" s="119" t="s">
-        <v>490</v>
-      </c>
-      <c r="B74" s="120" t="s">
-        <v>430</v>
-      </c>
-      <c r="C74" s="120" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="H74" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="I74" s="75" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7E05C075-4D01-0848-8D74-88F06CC1C999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{35051221-4DEB-E747-B67F-6B478D9246C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="20" windowWidth="31200" windowHeight="19900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-460" yWindow="500" windowWidth="18480" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -3250,30 +3250,6 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>補足的な処方指示。不均等投与を1日用法として記載する場合に、補足用法コードを記録するために使用する。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>詳細は処方情報HL７FHIR記述仕様も参照。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
       <t>頓用型の用法を指定する場合に"true"を指定する</t>
     </r>
     <r>
@@ -4096,13 +4072,7 @@
   <si>
     <t>この薬剤に対する調剤指示のコード化をする場合のコード。</t>
     <rPh sb="20" eb="22">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">ヒョウゲン </t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t xml:space="preserve">ヒッス </t>
+      <t xml:space="preserve">バアイ ヒョウゲン ヒッス </t>
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
@@ -4118,13 +4088,7 @@
       <t xml:space="preserve">ヒョウジ </t>
     </rPh>
     <rPh sb="33" eb="36">
-      <t xml:space="preserve">モジレツ </t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t xml:space="preserve">ヒョウゲン </t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t xml:space="preserve">ヒッス </t>
+      <t xml:space="preserve">モジレツ ヒョウゲン ヒッス </t>
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
@@ -4263,36 +4227,6 @@
     <t>隔日投与など、投与開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明示したい場合に使用する拡張 「UsageDuration」。詳細は処方情報HL７FHIR記述仕様も参照すること。</t>
   </si>
   <si>
-    <t>不均等投与の表現文字列。
-dosageInstruction.additionalInstruction要素に、1 日の投与回数分だけ繰り返し、JAMI補足用法コードを使用し記述する仕様であるが、コード化できるかどうかにかかわらず常にテキストでも記述する。</t>
-    <rPh sb="91" eb="93">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t xml:space="preserve">ツネ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与タイミングや投与期間と期間中の投与用法を記録する。</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">キカン </t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t xml:space="preserve">キカンチュウ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ヨウホウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与タイミングを具体的な日時で指定する場合に使用する。詳細は処方情報HL７FHIR記述仕様も参照。</t>
-  </si>
-  <si>
     <t>投薬期間（投与開始日から投与終了日まで）の全日数。実投与（投与）日数ではないことに注意する。すなわち、実際に投与しない日も１日と数える。詳細は処方情報HL７FHIR記述仕様も参照。なお、この実投与（投与）日数を別に記述したい場合には、実投与日数を明示したい場合に使用する拡張を使用して記述すること。</t>
     <rPh sb="51" eb="53">
       <t xml:space="preserve">ジッサイ </t>
@@ -4341,49 +4275,6 @@
   </si>
   <si>
     <t>"4月1日から4日間投与。2週間休薬後、4月19日から4日間投与。患者に書面にて説明済み。"</t>
-  </si>
-  <si>
-    <t>投与期間と期間中の投与の繰り返し方法を記述する要素。repeat子要素で投与期間の全日数、code子要素でこの期間中の投与方法を記述する。</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">キカンチュウ </t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">クリカエシ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ホウホウ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t xml:space="preserve">コヨウソ </t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t xml:space="preserve">トウヨ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t xml:space="preserve">キカン </t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t xml:space="preserve">ゼンニッスウ </t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t xml:space="preserve">コヨウソ </t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t xml:space="preserve">キカンチュウ </t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t xml:space="preserve">トウヨ </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">ホウホウ </t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>用法。できるかぎりコード化をすることを推奨する。コード化の有無にかかわらず、用法の完全な文字列をtext子要素に設定する。</t>
@@ -5226,108 +5117,6 @@
   </si>
   <si>
     <t>"http://jami.jp/CodeSystem/MedicationMethodBasicUsage"</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>"http://jami.jp/CodeSystem/MedicationUsageAdditional"</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>補足用法８桁コードを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI（固定値参照）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。やむを得ず施設固有コードを使用する場合には、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"http://jpfhir.jp/fhir/CodeSystem/MedicationUsageAdditional/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>医療機関</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桁コード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を設定する。</t>
-    </r>
-    <rPh sb="22" eb="25">
-      <t xml:space="preserve">コテイチ </t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">サンショウ </t>
-    </rPh>
     <phoneticPr fontId="25"/>
   </si>
   <si>
@@ -5534,6 +5323,246 @@
   </si>
   <si>
     <t>"103831601"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>補足用法８桁コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（固定値参照）。やむを得ず施設固有コードを使用する場合には、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"http://jpfhir.jp/fhir/CodeSystem/MedicationUsageAdditional/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>医療機関</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を設定する。</t>
+    </r>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">コテイチ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/MedicationUsageAdditional</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>補足的な処方または投与指示の表現文字列。不均等な投与指示の場合には、additionalInstruction要素に、1 日の投与回数分だけ繰り返し、JAMI補足用法コードを使用し記述する仕様であるが、コード化できるかどうかにかかわらず常にテキストでも記述する。</t>
+    <rPh sb="20" eb="23">
+      <t xml:space="preserve">フキントウ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">シジ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t xml:space="preserve">ツネ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>補足的な処方または投与指示。不均等投与を1日用法として記載する場合に、補足用法コードを記録するために使用する。不均等な投与指示の場合には、additionalInstruction要素に、1 日の投与回数分だけ繰り返し、JAMI補足用法コードを使用し記述する。また、隔日投与、曜日指定投与の場合にも、JAMI補足補足用法コードを使用して記述する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 本要素は繰り返し記述が可能であり、どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがある」や「日光や紫外線が皮膚にあたららないようにすること」）なども記述するのに使用できる。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細は処方情報HL７FHIR記述仕様も参照。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与タイミングを具体的な日時で指定する場合に使用する。詳細は処方情報HL７FHIR記述仕様も参照。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与タイミングや投与期間と期間中の投与用法を記録する。
+投与期間と期間中の投与用法を指定する場合には通常、code子要素とrepeant子要素とで記述する。投与タイミングを直接具体的な日時で指定する場合には、event子要素を使用することができる。</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">キカン </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">キカンチュウ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与期間と期間中の投与の繰り返し方法を記述する要素。このrepeat子要素で投与期間の全日数、code子要素でこの期間中の投与方法を記述する。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キカンチュウ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">クリカエシ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t xml:space="preserve">コヨウソ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キカン </t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t xml:space="preserve">ゼンニッスウ </t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t xml:space="preserve">コヨウソ </t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t xml:space="preserve">キカンチュウ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -6895,7 +6924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -7427,6 +7456,66 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="41" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7442,71 +7531,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="47" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -8159,7 +8185,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>229</v>
@@ -8178,7 +8204,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>182</v>
@@ -8197,7 +8223,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>183</v>
@@ -8784,7 +8810,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>354</v>
@@ -8813,7 +8839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="195">
+    <row r="41" spans="1:9" ht="210">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -8841,7 +8867,7 @@
         <v>48</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>195</v>
@@ -9451,7 +9477,7 @@
         <v>48</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>206</v>
@@ -9474,7 +9500,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>207</v>
@@ -10557,7 +10583,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>229</v>
@@ -10576,7 +10602,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>228</v>
@@ -10595,7 +10621,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>183</v>
@@ -11182,7 +11208,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>353</v>
@@ -11211,7 +11237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="195">
+    <row r="41" spans="1:9" ht="210">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -11239,7 +11265,7 @@
         <v>48</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>261</v>
@@ -11895,7 +11921,7 @@
         <v>48</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>206</v>
@@ -11918,7 +11944,7 @@
         <v>48</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>207</v>
@@ -11948,22 +11974,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="181"/>
-      <c r="B73" s="177" t="s">
+      <c r="A73" s="201"/>
+      <c r="B73" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="C73" s="177"/>
-      <c r="D73" s="177"/>
-      <c r="E73" s="177" t="s">
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="177" t="s">
+      <c r="F73" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="G73" s="177" t="s">
+      <c r="G73" s="197" t="s">
         <v>338</v>
       </c>
-      <c r="H73" s="178" t="s">
+      <c r="H73" s="198" t="s">
         <v>286</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -11971,27 +11997,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="181"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="177"/>
-      <c r="D74" s="177"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="179"/>
+      <c r="A74" s="201"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
+      <c r="F74" s="197"/>
+      <c r="G74" s="197"/>
+      <c r="H74" s="199"/>
       <c r="I74" s="33" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="181"/>
-      <c r="B75" s="177"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="180"/>
+      <c r="A75" s="201"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
+      <c r="F75" s="197"/>
+      <c r="G75" s="197"/>
+      <c r="H75" s="200"/>
       <c r="I75" s="33" t="s">
         <v>277</v>
       </c>
@@ -12007,7 +12033,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>280</v>
@@ -12324,13 +12350,13 @@
         <v>20</v>
       </c>
       <c r="H5" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="J5" s="177" t="s">
         <v>525</v>
-      </c>
-      <c r="J5" s="182" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="142" customFormat="1">
@@ -12441,7 +12467,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>229</v>
@@ -12461,7 +12487,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>228</v>
@@ -12481,10 +12507,10 @@
         <v>38</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="9"/>
@@ -12501,10 +12527,10 @@
         <v>38</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9"/>
@@ -12524,7 +12550,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="161"/>
@@ -12546,12 +12572,12 @@
         <v>27</v>
       </c>
       <c r="H15" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I15" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="183" t="s">
+      <c r="J15" s="178" t="s">
         <v>177</v>
       </c>
     </row>
@@ -12624,7 +12650,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="151" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I18" s="149" t="s">
         <v>17</v>
@@ -12676,7 +12702,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="151" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I20" s="149" t="s">
         <v>17</v>
@@ -12700,7 +12726,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="155" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I21" s="156" t="s">
         <v>11</v>
@@ -12724,7 +12750,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="155" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I22" s="156" t="s">
         <v>11</v>
@@ -12776,7 +12802,7 @@
         <v>17</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="91" customHeight="1">
@@ -12796,13 +12822,13 @@
         <v>45</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I25" s="46" t="s">
         <v>369</v>
       </c>
       <c r="J25" s="166" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="58" customHeight="1" thickBot="1">
@@ -12822,13 +12848,13 @@
         <v>45</v>
       </c>
       <c r="H26" s="111" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="167" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="90">
@@ -12846,7 +12872,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="122" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I27" s="122"/>
       <c r="J27" s="159"/>
@@ -12868,7 +12894,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="166"/>
@@ -12892,13 +12918,13 @@
         <v>27</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="166" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="42">
@@ -12920,13 +12946,13 @@
         <v>31</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I30" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="166" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="42">
@@ -12948,7 +12974,7 @@
         <v>45</v>
       </c>
       <c r="H31" s="144" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I31" s="140" t="s">
         <v>17</v>
@@ -12974,7 +13000,7 @@
         <v>45</v>
       </c>
       <c r="H32" s="145" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I32" s="76" t="s">
         <v>17</v>
@@ -12995,7 +13021,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="129" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H33" s="129" t="s">
         <v>353</v>
@@ -13004,7 +13030,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="162" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="142" customFormat="1" ht="90">
@@ -13022,7 +13048,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="160" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="142" customFormat="1" ht="201" customHeight="1" thickBot="1">
@@ -13055,7 +13081,7 @@
         <v>48</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>261</v>
@@ -13087,7 +13113,7 @@
     </row>
     <row r="38" spans="1:10" customFormat="1" ht="61" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -13097,10 +13123,10 @@
         <v>48</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>17</v>
@@ -13135,26 +13161,26 @@
     </row>
     <row r="40" spans="1:10" ht="121" thickBot="1">
       <c r="A40" s="152" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B40" s="153"/>
       <c r="C40" s="153"/>
       <c r="D40" s="153"/>
       <c r="E40" s="153"/>
-      <c r="F40" s="187" t="s">
+      <c r="F40" s="180" t="s">
         <v>236</v>
       </c>
       <c r="G40" s="155" t="s">
+        <v>535</v>
+      </c>
+      <c r="H40" s="155" t="s">
         <v>536</v>
-      </c>
-      <c r="H40" s="155" t="s">
-        <v>537</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="180">
@@ -13165,14 +13191,14 @@
       <c r="C41" s="120"/>
       <c r="D41" s="120"/>
       <c r="E41" s="120"/>
-      <c r="F41" s="186" t="s">
+      <c r="F41" s="179" t="s">
         <v>376</v>
       </c>
       <c r="G41" s="122" t="s">
         <v>129</v>
       </c>
       <c r="H41" s="122" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I41" s="122"/>
       <c r="J41" s="159"/>
@@ -13187,20 +13213,20 @@
       <c r="C42" s="109"/>
       <c r="D42" s="109"/>
       <c r="E42" s="109"/>
-      <c r="F42" s="188" t="s">
+      <c r="F42" s="181" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="111" t="s">
+        <v>539</v>
+      </c>
+      <c r="H42" s="111" t="s">
         <v>540</v>
-      </c>
-      <c r="H42" s="111" t="s">
-        <v>541</v>
       </c>
       <c r="I42" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="167" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="31" thickBot="1">
@@ -13225,7 +13251,7 @@
     </row>
     <row r="44" spans="1:10" ht="31" thickBot="1">
       <c r="A44" s="152" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B44" s="153"/>
       <c r="C44" s="153"/>
@@ -13238,7 +13264,7 @@
         <v>141</v>
       </c>
       <c r="H44" s="155" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I44" s="155"/>
       <c r="J44" s="165"/>
@@ -13253,14 +13279,14 @@
       <c r="C45" s="153"/>
       <c r="D45" s="153"/>
       <c r="E45" s="153"/>
-      <c r="F45" s="194" t="s">
+      <c r="F45" s="187" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="155" t="s">
         <v>311</v>
       </c>
       <c r="H45" s="155" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I45" s="155"/>
       <c r="J45" s="165"/>
@@ -13275,14 +13301,14 @@
       <c r="C46" s="120"/>
       <c r="D46" s="120"/>
       <c r="E46" s="120"/>
-      <c r="F46" s="193" t="s">
+      <c r="F46" s="186" t="s">
         <v>254</v>
       </c>
       <c r="G46" s="122" t="s">
         <v>311</v>
       </c>
       <c r="H46" s="122" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I46" s="122"/>
       <c r="J46" s="159"/>
@@ -13299,18 +13325,18 @@
       </c>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
-      <c r="F47" s="184" t="s">
+      <c r="F47" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>27</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="166" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
@@ -13321,18 +13347,18 @@
         <v>383</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
-      <c r="F48" s="184" t="s">
+      <c r="F48" s="41" t="s">
         <v>243</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>255</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="166"/>
@@ -13345,20 +13371,20 @@
         <v>383</v>
       </c>
       <c r="C49" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="40" t="s">
         <v>551</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>547</v>
-      </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="184" t="s">
-        <v>254</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>552</v>
-      </c>
       <c r="H49" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="166"/>
@@ -13371,28 +13397,28 @@
         <v>383</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>561</v>
-      </c>
-      <c r="F50" s="184" t="s">
+        <v>560</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>243</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>437</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="I50" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="166" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
@@ -13403,28 +13429,28 @@
         <v>383</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="F51" s="184" t="s">
+      <c r="F51" s="41" t="s">
         <v>243</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>482</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I51" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
@@ -13435,28 +13461,28 @@
         <v>383</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>562</v>
-      </c>
-      <c r="F52" s="184" t="s">
+        <v>561</v>
+      </c>
+      <c r="F52" s="41" t="s">
         <v>243</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>482</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I52" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="31" thickBot="1">
@@ -13467,7 +13493,7 @@
         <v>383</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D53" s="109" t="s">
         <v>457</v>
@@ -13475,20 +13501,20 @@
       <c r="E53" s="109" t="s">
         <v>457</v>
       </c>
-      <c r="F53" s="185" t="s">
+      <c r="F53" s="110" t="s">
         <v>243</v>
       </c>
       <c r="G53" s="111" t="s">
         <v>482</v>
       </c>
       <c r="H53" s="111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I53" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J53" s="167" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
@@ -13501,14 +13527,14 @@
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
       <c r="E54" s="44"/>
-      <c r="F54" s="184" t="s">
+      <c r="F54" s="41" t="s">
         <v>312</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>311</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I54" s="40"/>
       <c r="J54" s="166"/>
@@ -13525,14 +13551,14 @@
       </c>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
-      <c r="F55" s="184" t="s">
+      <c r="F55" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>27</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I55" s="46" t="s">
         <v>382</v>
@@ -13542,30 +13568,30 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="29" thickBot="1">
-      <c r="A56" s="195" t="s">
+      <c r="A56" s="188" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="196" t="s">
+      <c r="B56" s="189" t="s">
         <v>383</v>
       </c>
-      <c r="C56" s="196" t="s">
+      <c r="C56" s="189" t="s">
         <v>315</v>
       </c>
-      <c r="D56" s="196"/>
-      <c r="E56" s="196"/>
-      <c r="F56" s="197" t="s">
+      <c r="D56" s="189"/>
+      <c r="E56" s="189"/>
+      <c r="F56" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="198" t="s">
+      <c r="G56" s="191" t="s">
         <v>316</v>
       </c>
-      <c r="H56" s="198" t="s">
+      <c r="H56" s="191" t="s">
         <v>317</v>
       </c>
-      <c r="I56" s="199" t="s">
+      <c r="I56" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="200">
+      <c r="J56" s="193">
         <v>5</v>
       </c>
     </row>
@@ -13579,14 +13605,14 @@
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
       <c r="E57" s="44"/>
-      <c r="F57" s="184" t="s">
+      <c r="F57" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>113</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I57" s="40"/>
       <c r="J57" s="166"/>
@@ -13603,14 +13629,14 @@
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="44"/>
-      <c r="F58" s="184" t="s">
+      <c r="F58" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>93</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I58" s="46" t="s">
         <v>17</v>
@@ -13631,14 +13657,14 @@
       </c>
       <c r="D59" s="44"/>
       <c r="E59" s="44"/>
-      <c r="F59" s="184" t="s">
+      <c r="F59" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I59" s="46" t="s">
         <v>17</v>
@@ -13659,14 +13685,14 @@
       </c>
       <c r="D60" s="44"/>
       <c r="E60" s="44"/>
-      <c r="F60" s="184" t="s">
+      <c r="F60" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>27</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I60" s="46" t="s">
         <v>382</v>
@@ -13687,7 +13713,7 @@
       </c>
       <c r="D61" s="44"/>
       <c r="E61" s="44"/>
-      <c r="F61" s="184" t="s">
+      <c r="F61" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="40" t="s">
@@ -13713,7 +13739,7 @@
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
       <c r="E62" s="44"/>
-      <c r="F62" s="184" t="s">
+      <c r="F62" s="41" t="s">
         <v>236</v>
       </c>
       <c r="G62" s="40" t="s">
@@ -13737,7 +13763,7 @@
       </c>
       <c r="D63" s="44"/>
       <c r="E63" s="44"/>
-      <c r="F63" s="184" t="s">
+      <c r="F63" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="40" t="s">
@@ -13765,7 +13791,7 @@
       </c>
       <c r="D64" s="44"/>
       <c r="E64" s="44"/>
-      <c r="F64" s="184" t="s">
+      <c r="F64" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="40" t="s">
@@ -13793,7 +13819,7 @@
       </c>
       <c r="D65" s="44"/>
       <c r="E65" s="44"/>
-      <c r="F65" s="184" t="s">
+      <c r="F65" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="40" t="s">
@@ -13821,7 +13847,7 @@
       </c>
       <c r="D66" s="109"/>
       <c r="E66" s="109"/>
-      <c r="F66" s="185" t="s">
+      <c r="F66" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="111" t="s">
@@ -13862,7 +13888,7 @@
         <v>329</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -13956,7 +13982,7 @@
         <v>31</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I71" s="46" t="s">
         <v>17</v>
@@ -14008,8 +14034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="159" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14065,7 +14091,7 @@
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2" s="58"/>
       <c r="I2" s="64"/>
@@ -14078,13 +14104,13 @@
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
       <c r="E3" s="75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F3" s="81" t="s">
         <v>311</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H3" s="172"/>
       <c r="I3" s="67"/>
@@ -14105,7 +14131,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>442</v>
@@ -14119,7 +14145,7 @@
         <v>440</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="96"/>
@@ -14130,7 +14156,7 @@
         <v>391</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="64"/>
@@ -14153,7 +14179,7 @@
         <v>88</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H6" s="76" t="s">
         <v>17</v>
@@ -14169,14 +14195,14 @@
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
-      <c r="E7" s="189" t="s">
+      <c r="E7" s="182" t="s">
         <v>312</v>
       </c>
       <c r="F7" s="90" t="s">
         <v>311</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="74"/>
@@ -14190,14 +14216,14 @@
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>442</v>
@@ -14215,7 +14241,7 @@
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="57" t="s">
@@ -14238,7 +14264,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="102"/>
-      <c r="E10" s="191" t="s">
+      <c r="E10" s="184" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="81" t="s">
@@ -14265,7 +14291,7 @@
         <v>98</v>
       </c>
       <c r="D11" s="96"/>
-      <c r="E11" s="190" t="s">
+      <c r="E11" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="57" t="s">
@@ -14292,7 +14318,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="96"/>
-      <c r="E12" s="190" t="s">
+      <c r="E12" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="57" t="s">
@@ -14319,7 +14345,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="104"/>
-      <c r="E13" s="192" t="s">
+      <c r="E13" s="185" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="65" t="s">
@@ -14358,21 +14384,21 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45">
+    <row r="15" spans="1:9" ht="210">
       <c r="A15" s="99" t="s">
         <v>444</v>
       </c>
       <c r="B15" s="100"/>
       <c r="C15" s="100"/>
       <c r="D15" s="100"/>
-      <c r="E15" s="189" t="s">
+      <c r="E15" s="182" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="90" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>487</v>
+        <v>605</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="74"/>
@@ -14386,7 +14412,7 @@
       </c>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
-      <c r="E16" s="190" t="s">
+      <c r="E16" s="183" t="s">
         <v>298</v>
       </c>
       <c r="F16" s="57" t="s">
@@ -14407,7 +14433,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="96"/>
-      <c r="E17" s="190" t="s">
+      <c r="E17" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="57" t="s">
@@ -14419,8 +14445,8 @@
       <c r="H17" s="59" t="s">
         <v>442</v>
       </c>
-      <c r="I17" s="64" t="s">
-        <v>601</v>
+      <c r="I17" s="202" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
@@ -14434,7 +14460,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="96"/>
-      <c r="E18" s="190" t="s">
+      <c r="E18" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="57" t="s">
@@ -14461,7 +14487,7 @@
         <v>146</v>
       </c>
       <c r="D19" s="96"/>
-      <c r="E19" s="190" t="s">
+      <c r="E19" s="183" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="57" t="s">
@@ -14486,14 +14512,14 @@
       </c>
       <c r="C20" s="104"/>
       <c r="D20" s="104"/>
-      <c r="E20" s="192" t="s">
+      <c r="E20" s="185" t="s">
         <v>243</v>
       </c>
       <c r="F20" s="65" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="H20" s="76" t="s">
         <v>17</v>
@@ -14502,21 +14528,21 @@
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="90">
       <c r="A21" s="99" t="s">
         <v>394</v>
       </c>
       <c r="B21" s="100"/>
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
-      <c r="E21" s="189" t="s">
+      <c r="E21" s="182" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="90" t="s">
         <v>395</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="H21" s="77"/>
       <c r="I21" s="74"/>
@@ -14530,14 +14556,14 @@
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="96"/>
-      <c r="E22" s="190" t="s">
+      <c r="E22" s="183" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>17</v>
@@ -14555,14 +14581,14 @@
       </c>
       <c r="C23" s="96"/>
       <c r="D23" s="96"/>
-      <c r="E23" s="190" t="s">
+      <c r="E23" s="183" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="G23" s="202" t="s">
-        <v>576</v>
+      <c r="G23" s="195" t="s">
+        <v>608</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="64"/>
@@ -14578,14 +14604,14 @@
         <v>398</v>
       </c>
       <c r="D24" s="102"/>
-      <c r="E24" s="191" t="s">
+      <c r="E24" s="184" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="81" t="s">
         <v>393</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H24" s="60"/>
       <c r="I24" s="64"/>
@@ -14603,14 +14629,14 @@
       <c r="D25" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="190" t="s">
+      <c r="E25" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>17</v>
@@ -14632,14 +14658,14 @@
       <c r="D26" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="190" t="s">
+      <c r="E26" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="57" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H26" s="59" t="s">
         <v>442</v>
@@ -14661,7 +14687,7 @@
       <c r="D27" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="190" t="s">
+      <c r="E27" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="57" t="s">
@@ -14690,7 +14716,7 @@
       <c r="D28" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="190" t="s">
+      <c r="E28" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="57" t="s">
@@ -14715,14 +14741,14 @@
       </c>
       <c r="C29" s="102"/>
       <c r="D29" s="102"/>
-      <c r="E29" s="191" t="s">
+      <c r="E29" s="184" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="81" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H29" s="60"/>
       <c r="I29" s="64"/>
@@ -14738,7 +14764,7 @@
         <v>445</v>
       </c>
       <c r="D30" s="96"/>
-      <c r="E30" s="190" t="s">
+      <c r="E30" s="183" t="s">
         <v>312</v>
       </c>
       <c r="F30" s="57" t="s">
@@ -14763,20 +14789,20 @@
       <c r="D31" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="190" t="s">
+      <c r="E31" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="57" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="H31" s="59" t="s">
         <v>442</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -14792,7 +14818,7 @@
       <c r="D32" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="190" t="s">
+      <c r="E32" s="183" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="57" t="s">
@@ -14821,7 +14847,7 @@
       <c r="D33" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="190" t="s">
+      <c r="E33" s="183" t="s">
         <v>48</v>
       </c>
       <c r="F33" s="57" t="s">
@@ -14834,7 +14860,7 @@
         <v>17</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31" thickBot="1">
@@ -14848,20 +14874,20 @@
         <v>457</v>
       </c>
       <c r="D34" s="104"/>
-      <c r="E34" s="192" t="s">
+      <c r="E34" s="185" t="s">
         <v>243</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="201" t="s">
+      <c r="G34" s="194" t="s">
         <v>458</v>
       </c>
       <c r="H34" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31" thickBot="1">
@@ -14871,14 +14897,14 @@
       <c r="B35" s="106"/>
       <c r="C35" s="106"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="203" t="s">
+      <c r="E35" s="196" t="s">
         <v>48</v>
       </c>
       <c r="F35" s="91" t="s">
         <v>400</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="69"/>
@@ -14890,14 +14916,14 @@
       <c r="B36" s="100"/>
       <c r="C36" s="100"/>
       <c r="D36" s="100"/>
-      <c r="E36" s="189" t="s">
+      <c r="E36" s="182" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="90" t="s">
         <v>49</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H36" s="77"/>
       <c r="I36" s="74"/>
@@ -14918,7 +14944,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H37" s="60"/>
       <c r="I37" s="64"/>
@@ -14947,7 +14973,7 @@
         <v>442</v>
       </c>
       <c r="I38" s="64" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -15036,7 +15062,7 @@
       <c r="B42" s="100"/>
       <c r="C42" s="100"/>
       <c r="D42" s="100"/>
-      <c r="E42" s="189" t="s">
+      <c r="E42" s="182" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="90" t="s">
@@ -15064,7 +15090,7 @@
         <v>24</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H43" s="60"/>
       <c r="I43" s="64"/>
@@ -15087,7 +15113,7 @@
         <v>27</v>
       </c>
       <c r="G44" s="56" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H44" s="59" t="s">
         <v>442</v>
@@ -15182,14 +15208,14 @@
       <c r="B48" s="100"/>
       <c r="C48" s="100"/>
       <c r="D48" s="100"/>
-      <c r="E48" s="189" t="s">
+      <c r="E48" s="182" t="s">
         <v>48</v>
       </c>
       <c r="F48" s="90" t="s">
         <v>49</v>
       </c>
       <c r="G48" s="85" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H48" s="77"/>
       <c r="I48" s="74"/>
@@ -15210,7 +15236,7 @@
         <v>24</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H49" s="60"/>
       <c r="I49" s="64"/>
@@ -15233,13 +15259,13 @@
         <v>27</v>
       </c>
       <c r="G50" s="56" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H50" s="59" t="s">
         <v>442</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45">
@@ -15287,7 +15313,7 @@
         <v>45</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H52" s="46" t="s">
         <v>17</v>
@@ -15328,14 +15354,14 @@
       <c r="B54" s="100"/>
       <c r="C54" s="100"/>
       <c r="D54" s="100"/>
-      <c r="E54" s="189" t="s">
+      <c r="E54" s="182" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="90" t="s">
         <v>397</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H54" s="77"/>
       <c r="I54" s="74"/>
@@ -15345,18 +15371,18 @@
         <v>455</v>
       </c>
       <c r="B55" s="102" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C55" s="102"/>
       <c r="D55" s="102"/>
-      <c r="E55" s="191" t="s">
+      <c r="E55" s="184" t="s">
         <v>243</v>
       </c>
       <c r="F55" s="81" t="s">
         <v>49</v>
       </c>
       <c r="G55" s="84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H55" s="82"/>
       <c r="I55" s="83"/>
@@ -15474,18 +15500,18 @@
         <v>456</v>
       </c>
       <c r="B60" s="102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C60" s="102"/>
       <c r="D60" s="102"/>
-      <c r="E60" s="191" t="s">
+      <c r="E60" s="184" t="s">
         <v>48</v>
       </c>
       <c r="F60" s="81" t="s">
         <v>113</v>
       </c>
       <c r="G60" s="81" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H60" s="82"/>
       <c r="I60" s="83"/>
@@ -15508,7 +15534,7 @@
         <v>93</v>
       </c>
       <c r="G61" s="57" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>17</v>
@@ -15535,7 +15561,7 @@
         <v>45</v>
       </c>
       <c r="G62" s="56" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H62" s="46" t="s">
         <v>17</v>
@@ -15589,7 +15615,7 @@
         <v>31</v>
       </c>
       <c r="G64" s="56" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H64" s="46" t="s">
         <v>17</v>
@@ -15603,18 +15629,18 @@
         <v>456</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C65" s="102"/>
       <c r="D65" s="102"/>
-      <c r="E65" s="191" t="s">
+      <c r="E65" s="184" t="s">
         <v>48</v>
       </c>
       <c r="F65" s="81" t="s">
         <v>406</v>
       </c>
       <c r="G65" s="81" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H65" s="82"/>
       <c r="I65" s="83"/>
@@ -15637,7 +15663,7 @@
         <v>408</v>
       </c>
       <c r="G66" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H66" s="60"/>
       <c r="I66" s="64"/>
@@ -15776,7 +15802,7 @@
         <v>408</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H71" s="60"/>
       <c r="I71" s="64"/>
@@ -15899,6 +15925,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="25"/>
+  <hyperlinks>
+    <hyperlink ref="I17" r:id="rId1" xr:uid="{847EE82C-D2FB-A148-945F-822B2650AC9E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{35051221-4DEB-E747-B67F-6B478D9246C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A24E3C3D-C769-FB4F-90C2-84769C76DE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-460" yWindow="500" windowWidth="18480" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32600" yWindow="0" windowWidth="30520" windowHeight="19600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="614">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -2510,30 +2509,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>「日」を表す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UCUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>単位コード。</t>
-    </r>
-  </si>
-  <si>
     <t>単位「日」。</t>
   </si>
   <si>
@@ -3034,9 +3009,6 @@
     <t>力価区分コードのコード体系を識別するURI。</t>
   </si>
   <si>
-    <t>UCUM単位コードを識別するURI。</t>
-  </si>
-  <si>
     <t>単位コード UCUMを識別するURI。</t>
   </si>
   <si>
@@ -3163,15 +3135,6 @@
   </si>
   <si>
     <t>力価区分コード。（1：製剤量　2：原薬量）</t>
-  </si>
-  <si>
-    <t>投与量の単位。</t>
-  </si>
-  <si>
-    <t>医薬品単位略号。</t>
-  </si>
-  <si>
-    <t>1日投与量。</t>
   </si>
   <si>
     <t>string</t>
@@ -5563,6 +5526,142 @@
     <rPh sb="66" eb="68">
       <t xml:space="preserve">キジュツ </t>
     </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日投与量。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>uri</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品単位略号を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>OID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.2.101"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>denominator</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>「日」を表す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コード。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv5</t>
+    </r>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -7516,6 +7615,9 @@
     <xf numFmtId="0" fontId="40" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7530,9 +7632,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -7894,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView showGridLines="0" topLeftCell="A92" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8185,7 +8284,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>229</v>
@@ -8204,7 +8303,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>182</v>
@@ -8223,7 +8322,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>183</v>
@@ -8810,7 +8909,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>354</v>
@@ -8839,7 +8938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="210">
+    <row r="41" spans="1:9" ht="195">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -8867,7 +8966,7 @@
         <v>48</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>195</v>
@@ -9477,7 +9576,7 @@
         <v>48</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>206</v>
@@ -9500,7 +9599,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>207</v>
@@ -10292,8 +10391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView showGridLines="0" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10583,7 +10682,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>229</v>
@@ -10602,7 +10701,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>228</v>
@@ -10621,7 +10720,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>183</v>
@@ -11208,7 +11307,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>353</v>
@@ -11237,7 +11336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="210">
+    <row r="41" spans="1:9" ht="195">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -11265,7 +11364,7 @@
         <v>48</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>261</v>
@@ -11921,7 +12020,7 @@
         <v>48</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>206</v>
@@ -11944,7 +12043,7 @@
         <v>48</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>207</v>
@@ -11974,22 +12073,22 @@
       <c r="I72" s="33"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="201"/>
-      <c r="B73" s="197" t="s">
+      <c r="A73" s="202"/>
+      <c r="B73" s="198" t="s">
         <v>337</v>
       </c>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197" t="s">
+      <c r="C73" s="198"/>
+      <c r="D73" s="198"/>
+      <c r="E73" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="197" t="s">
+      <c r="F73" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="G73" s="197" t="s">
+      <c r="G73" s="198" t="s">
         <v>338</v>
       </c>
-      <c r="H73" s="198" t="s">
+      <c r="H73" s="199" t="s">
         <v>286</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -11997,27 +12096,27 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="201"/>
-      <c r="B74" s="197"/>
-      <c r="C74" s="197"/>
-      <c r="D74" s="197"/>
-      <c r="E74" s="197"/>
-      <c r="F74" s="197"/>
-      <c r="G74" s="197"/>
-      <c r="H74" s="199"/>
+      <c r="A74" s="202"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="198"/>
+      <c r="D74" s="198"/>
+      <c r="E74" s="198"/>
+      <c r="F74" s="198"/>
+      <c r="G74" s="198"/>
+      <c r="H74" s="200"/>
       <c r="I74" s="33" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="201"/>
-      <c r="B75" s="197"/>
-      <c r="C75" s="197"/>
-      <c r="D75" s="197"/>
-      <c r="E75" s="197"/>
-      <c r="F75" s="197"/>
-      <c r="G75" s="197"/>
-      <c r="H75" s="200"/>
+      <c r="A75" s="202"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="198"/>
+      <c r="D75" s="198"/>
+      <c r="E75" s="198"/>
+      <c r="F75" s="198"/>
+      <c r="G75" s="198"/>
+      <c r="H75" s="201"/>
       <c r="I75" s="33" t="s">
         <v>277</v>
       </c>
@@ -12033,7 +12132,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>280</v>
@@ -12218,7 +12317,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView topLeftCell="A63" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12249,7 +12348,7 @@
         <v>358</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>358</v>
+        <v>613</v>
       </c>
       <c r="F1" s="114" t="s">
         <v>4</v>
@@ -12261,7 +12360,7 @@
         <v>294</v>
       </c>
       <c r="I1" s="114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J1" s="157" t="s">
         <v>295</v>
@@ -12350,13 +12449,13 @@
         <v>20</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J5" s="177" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="142" customFormat="1">
@@ -12467,7 +12566,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>229</v>
@@ -12487,7 +12586,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>228</v>
@@ -12507,10 +12606,10 @@
         <v>38</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="9"/>
@@ -12527,10 +12626,10 @@
         <v>38</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9"/>
@@ -12550,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="161"/>
@@ -12572,7 +12671,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="129" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I15" s="129" t="s">
         <v>11</v>
@@ -12650,7 +12749,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="151" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I18" s="149" t="s">
         <v>17</v>
@@ -12702,7 +12801,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="151" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I20" s="149" t="s">
         <v>17</v>
@@ -12726,7 +12825,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="155" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I21" s="156" t="s">
         <v>11</v>
@@ -12750,7 +12849,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="155" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I22" s="156" t="s">
         <v>11</v>
@@ -12802,7 +12901,7 @@
         <v>17</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="91" customHeight="1">
@@ -12822,13 +12921,13 @@
         <v>45</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I25" s="46" t="s">
         <v>369</v>
       </c>
       <c r="J25" s="166" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="58" customHeight="1" thickBot="1">
@@ -12848,13 +12947,13 @@
         <v>45</v>
       </c>
       <c r="H26" s="111" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I26" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="167" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="90">
@@ -12872,7 +12971,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="122" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I27" s="122"/>
       <c r="J27" s="159"/>
@@ -12894,7 +12993,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="166"/>
@@ -12918,13 +13017,13 @@
         <v>27</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="166" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="42">
@@ -12946,13 +13045,13 @@
         <v>31</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="I30" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="166" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="42">
@@ -12974,7 +13073,7 @@
         <v>45</v>
       </c>
       <c r="H31" s="144" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I31" s="140" t="s">
         <v>17</v>
@@ -12988,7 +13087,7 @@
         <v>305</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C32" s="109"/>
       <c r="D32" s="109"/>
@@ -13000,7 +13099,7 @@
         <v>45</v>
       </c>
       <c r="H32" s="145" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I32" s="76" t="s">
         <v>17</v>
@@ -13021,7 +13120,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="129" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H33" s="129" t="s">
         <v>353</v>
@@ -13030,7 +13129,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="162" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="142" customFormat="1" ht="90">
@@ -13048,7 +13147,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="160" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="142" customFormat="1" ht="201" customHeight="1" thickBot="1">
@@ -13081,7 +13180,7 @@
         <v>48</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>261</v>
@@ -13113,7 +13212,7 @@
     </row>
     <row r="38" spans="1:10" customFormat="1" ht="61" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -13123,10 +13222,10 @@
         <v>48</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>17</v>
@@ -13161,7 +13260,7 @@
     </row>
     <row r="40" spans="1:10" ht="121" thickBot="1">
       <c r="A40" s="152" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B40" s="153"/>
       <c r="C40" s="153"/>
@@ -13171,16 +13270,16 @@
         <v>236</v>
       </c>
       <c r="G40" s="155" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H40" s="155" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="180">
@@ -13198,7 +13297,7 @@
         <v>129</v>
       </c>
       <c r="H41" s="122" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I41" s="122"/>
       <c r="J41" s="159"/>
@@ -13217,16 +13316,16 @@
         <v>10</v>
       </c>
       <c r="G42" s="111" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H42" s="111" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I42" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="167" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="31" thickBot="1">
@@ -13244,14 +13343,14 @@
         <v>309</v>
       </c>
       <c r="H43" s="118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I43" s="118"/>
       <c r="J43" s="169"/>
     </row>
     <row r="44" spans="1:10" ht="31" thickBot="1">
       <c r="A44" s="152" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B44" s="153"/>
       <c r="C44" s="153"/>
@@ -13264,7 +13363,7 @@
         <v>141</v>
       </c>
       <c r="H44" s="155" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I44" s="155"/>
       <c r="J44" s="165"/>
@@ -13286,7 +13385,7 @@
         <v>311</v>
       </c>
       <c r="H45" s="155" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I45" s="155"/>
       <c r="J45" s="165"/>
@@ -13308,7 +13407,7 @@
         <v>311</v>
       </c>
       <c r="H46" s="122" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I46" s="122"/>
       <c r="J46" s="159"/>
@@ -13321,7 +13420,7 @@
         <v>383</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
@@ -13332,11 +13431,11 @@
         <v>27</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="166" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
@@ -13347,7 +13446,7 @@
         <v>383</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
@@ -13358,7 +13457,7 @@
         <v>255</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="166"/>
@@ -13371,20 +13470,20 @@
         <v>383</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E49" s="44"/>
       <c r="F49" s="41" t="s">
         <v>254</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="166"/>
@@ -13397,28 +13496,28 @@
         <v>383</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>243</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I50" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="166" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
@@ -13429,28 +13528,28 @@
         <v>383</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F51" s="41" t="s">
         <v>243</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I51" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="166" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
@@ -13461,28 +13560,28 @@
         <v>383</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F52" s="41" t="s">
         <v>243</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I52" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="31" thickBot="1">
@@ -13493,28 +13592,28 @@
         <v>383</v>
       </c>
       <c r="C53" s="109" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E53" s="109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F53" s="110" t="s">
         <v>243</v>
       </c>
       <c r="G53" s="111" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H53" s="111" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I53" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J53" s="167" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
@@ -13534,7 +13633,7 @@
         <v>311</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I54" s="40"/>
       <c r="J54" s="166"/>
@@ -13558,7 +13657,7 @@
         <v>27</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I55" s="46" t="s">
         <v>382</v>
@@ -13612,7 +13711,7 @@
         <v>113</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I57" s="40"/>
       <c r="J57" s="166"/>
@@ -13636,7 +13735,7 @@
         <v>93</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I58" s="46" t="s">
         <v>17</v>
@@ -13664,7 +13763,7 @@
         <v>45</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I59" s="46" t="s">
         <v>17</v>
@@ -13692,7 +13791,7 @@
         <v>27</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I60" s="46" t="s">
         <v>382</v>
@@ -13888,7 +13987,7 @@
         <v>329</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -13982,7 +14081,7 @@
         <v>31</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I71" s="46" t="s">
         <v>17</v>
@@ -14034,8 +14133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14073,15 +14172,15 @@
         <v>294</v>
       </c>
       <c r="H1" s="175" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I1" s="176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31" thickBot="1">
       <c r="A2" s="101" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -14091,36 +14190,36 @@
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="56" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H2" s="58"/>
       <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="76" thickBot="1">
       <c r="A3" s="93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
       <c r="E3" s="75" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F3" s="81" t="s">
         <v>311</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H3" s="172"/>
       <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="60">
       <c r="A4" s="93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C4" s="94"/>
       <c r="D4" s="94"/>
@@ -14131,21 +14230,21 @@
         <v>27</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="96"/>
@@ -14156,14 +14255,14 @@
         <v>391</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1">
       <c r="A6" s="97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="98" t="s">
         <v>390</v>
@@ -14179,18 +14278,18 @@
         <v>88</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="A7" s="99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
@@ -14202,14 +14301,14 @@
         <v>311</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="74"/>
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="A8" s="95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="96" t="s">
         <v>313</v>
@@ -14223,18 +14322,18 @@
         <v>27</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" s="95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="96" t="s">
         <v>392</v>
@@ -14248,14 +14347,14 @@
         <v>393</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="101" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="102" t="s">
         <v>392</v>
@@ -14271,7 +14370,7 @@
         <v>93</v>
       </c>
       <c r="G10" s="84" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>17</v>
@@ -14282,7 +14381,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>392</v>
@@ -14298,18 +14397,18 @@
         <v>45</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>392</v>
@@ -14325,10 +14424,10 @@
         <v>27</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I12" s="64" t="s">
         <v>100</v>
@@ -14336,7 +14435,7 @@
     </row>
     <row r="13" spans="1:9" ht="31" thickBot="1">
       <c r="A13" s="103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="104" t="s">
         <v>392</v>
@@ -14352,13 +14451,13 @@
         <v>31</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="31" thickBot="1">
@@ -14375,18 +14474,18 @@
         <v>45</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H14" s="78" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="210">
       <c r="A15" s="99" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B15" s="100"/>
       <c r="C15" s="100"/>
@@ -14398,17 +14497,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="74"/>
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" s="95" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
@@ -14424,10 +14523,10 @@
     </row>
     <row r="17" spans="1:9" ht="75">
       <c r="A17" s="95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="96" t="s">
         <v>26</v>
@@ -14440,21 +14539,21 @@
         <v>27</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="I17" s="202" t="s">
-        <v>603</v>
+        <v>441</v>
+      </c>
+      <c r="I17" s="197" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
       <c r="A18" s="95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C18" s="96" t="s">
         <v>31</v>
@@ -14467,21 +14566,21 @@
         <v>31</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="26">
       <c r="A19" s="95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C19" s="96" t="s">
         <v>146</v>
@@ -14494,18 +14593,18 @@
         <v>45</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="76" thickBot="1">
       <c r="A20" s="103" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B20" s="104" t="s">
         <v>58</v>
@@ -14519,13 +14618,13 @@
         <v>45</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H20" s="76" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="90">
@@ -14542,7 +14641,7 @@
         <v>395</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H21" s="77"/>
       <c r="I21" s="74"/>
@@ -14552,7 +14651,7 @@
         <v>394</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="96"/>
@@ -14563,13 +14662,13 @@
         <v>88</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45">
@@ -14577,7 +14676,7 @@
         <v>394</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C23" s="96"/>
       <c r="D23" s="96"/>
@@ -14588,7 +14687,7 @@
         <v>397</v>
       </c>
       <c r="G23" s="195" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="64"/>
@@ -14611,7 +14710,7 @@
         <v>393</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H24" s="60"/>
       <c r="I24" s="64"/>
@@ -14636,7 +14735,7 @@
         <v>93</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>17</v>
@@ -14665,13 +14764,13 @@
         <v>45</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H26" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="26">
@@ -14694,10 +14793,10 @@
         <v>27</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I27" s="64" t="s">
         <v>100</v>
@@ -14723,13 +14822,13 @@
         <v>31</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H28" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
@@ -14737,7 +14836,7 @@
         <v>394</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C29" s="102"/>
       <c r="D29" s="102"/>
@@ -14748,7 +14847,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H29" s="60"/>
       <c r="I29" s="64"/>
@@ -14761,7 +14860,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D30" s="96"/>
       <c r="E30" s="183" t="s">
@@ -14771,7 +14870,7 @@
         <v>24</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H30" s="60"/>
       <c r="I30" s="64"/>
@@ -14784,7 +14883,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D31" s="96" t="s">
         <v>26</v>
@@ -14796,13 +14895,13 @@
         <v>27</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -14813,7 +14912,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D32" s="96" t="s">
         <v>31</v>
@@ -14825,13 +14924,13 @@
         <v>31</v>
       </c>
       <c r="G32" s="57" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
@@ -14842,7 +14941,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D33" s="96" t="s">
         <v>146</v>
@@ -14854,13 +14953,13 @@
         <v>45</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H33" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31" thickBot="1">
@@ -14871,7 +14970,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D34" s="104"/>
       <c r="E34" s="185" t="s">
@@ -14881,13 +14980,13 @@
         <v>45</v>
       </c>
       <c r="G34" s="194" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H34" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31" thickBot="1">
@@ -14904,7 +15003,7 @@
         <v>400</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="69"/>
@@ -14923,7 +15022,7 @@
         <v>49</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H36" s="77"/>
       <c r="I36" s="74"/>
@@ -14933,7 +15032,7 @@
         <v>401</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C37" s="96"/>
       <c r="D37" s="96"/>
@@ -14944,7 +15043,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H37" s="60"/>
       <c r="I37" s="64"/>
@@ -14954,7 +15053,7 @@
         <v>401</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C38" s="96" t="s">
         <v>26</v>
@@ -14967,13 +15066,13 @@
         <v>27</v>
       </c>
       <c r="G38" s="57" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I38" s="64" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -14981,7 +15080,7 @@
         <v>401</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C39" s="96" t="s">
         <v>31</v>
@@ -14994,13 +15093,13 @@
         <v>31</v>
       </c>
       <c r="G39" s="57" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -15008,7 +15107,7 @@
         <v>401</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C40" s="96" t="s">
         <v>146</v>
@@ -15021,13 +15120,13 @@
         <v>45</v>
       </c>
       <c r="G40" s="57" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H40" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="21" thickBot="1">
@@ -15052,7 +15151,7 @@
         <v>17</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30">
@@ -15076,10 +15175,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="95" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C43" s="96"/>
       <c r="D43" s="96"/>
@@ -15090,7 +15189,7 @@
         <v>24</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H43" s="60"/>
       <c r="I43" s="64"/>
@@ -15100,7 +15199,7 @@
         <v>402</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C44" s="96" t="s">
         <v>26</v>
@@ -15113,13 +15212,13 @@
         <v>27</v>
       </c>
       <c r="G44" s="56" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H44" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I44" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -15127,7 +15226,7 @@
         <v>402</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C45" s="96" t="s">
         <v>31</v>
@@ -15140,13 +15239,13 @@
         <v>31</v>
       </c>
       <c r="G45" s="56" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H45" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -15154,7 +15253,7 @@
         <v>402</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C46" s="96" t="s">
         <v>146</v>
@@ -15167,13 +15266,13 @@
         <v>45</v>
       </c>
       <c r="G46" s="56" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H46" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="31" thickBot="1">
@@ -15198,7 +15297,7 @@
         <v>17</v>
       </c>
       <c r="I47" s="67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="60">
@@ -15215,7 +15314,7 @@
         <v>49</v>
       </c>
       <c r="G48" s="85" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H48" s="77"/>
       <c r="I48" s="74"/>
@@ -15225,7 +15324,7 @@
         <v>403</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C49" s="96"/>
       <c r="D49" s="96"/>
@@ -15236,7 +15335,7 @@
         <v>24</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H49" s="60"/>
       <c r="I49" s="64"/>
@@ -15246,7 +15345,7 @@
         <v>403</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C50" s="96" t="s">
         <v>26</v>
@@ -15259,13 +15358,13 @@
         <v>27</v>
       </c>
       <c r="G50" s="56" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H50" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45">
@@ -15273,7 +15372,7 @@
         <v>403</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C51" s="96" t="s">
         <v>31</v>
@@ -15286,7 +15385,7 @@
         <v>31</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H51" s="46" t="s">
         <v>17</v>
@@ -15300,7 +15399,7 @@
         <v>403</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C52" s="96" t="s">
         <v>146</v>
@@ -15313,13 +15412,13 @@
         <v>45</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H52" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="31" thickBot="1">
@@ -15344,12 +15443,12 @@
         <v>17</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="165">
       <c r="A54" s="99" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B54" s="100"/>
       <c r="C54" s="100"/>
@@ -15361,17 +15460,17 @@
         <v>397</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H54" s="77"/>
       <c r="I54" s="74"/>
     </row>
     <row r="55" spans="1:9" ht="60">
       <c r="A55" s="101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B55" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C55" s="102"/>
       <c r="D55" s="102"/>
@@ -15382,20 +15481,20 @@
         <v>49</v>
       </c>
       <c r="G55" s="84" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H55" s="82"/>
       <c r="I55" s="83"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B56" s="96" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D56" s="96"/>
       <c r="E56" s="57" t="s">
@@ -15410,13 +15509,13 @@
     </row>
     <row r="57" spans="1:9" ht="30">
       <c r="A57" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" s="96" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D57" s="96" t="s">
         <v>26</v>
@@ -15428,24 +15527,24 @@
         <v>27</v>
       </c>
       <c r="G57" s="56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H57" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B58" s="96" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D58" s="96" t="s">
         <v>31</v>
@@ -15457,7 +15556,7 @@
         <v>31</v>
       </c>
       <c r="G58" s="56" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H58" s="46" t="s">
         <v>17</v>
@@ -15468,13 +15567,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B59" s="96" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D59" s="96" t="s">
         <v>146</v>
@@ -15486,21 +15585,21 @@
         <v>45</v>
       </c>
       <c r="G59" s="56" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H59" s="46" t="s">
         <v>17</v>
       </c>
       <c r="I59" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="90">
       <c r="A60" s="101" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B60" s="102" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C60" s="102"/>
       <c r="D60" s="102"/>
@@ -15511,14 +15610,14 @@
         <v>113</v>
       </c>
       <c r="G60" s="81" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H60" s="82"/>
       <c r="I60" s="83"/>
     </row>
     <row r="61" spans="1:9" ht="30">
       <c r="A61" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B61" s="96" t="s">
         <v>404</v>
@@ -15534,7 +15633,7 @@
         <v>93</v>
       </c>
       <c r="G61" s="57" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>17</v>
@@ -15545,7 +15644,7 @@
     </row>
     <row r="62" spans="1:9" ht="30">
       <c r="A62" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B62" s="96" t="s">
         <v>404</v>
@@ -15561,7 +15660,7 @@
         <v>45</v>
       </c>
       <c r="G62" s="56" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H62" s="46" t="s">
         <v>17</v>
@@ -15572,7 +15671,7 @@
     </row>
     <row r="63" spans="1:9" ht="30">
       <c r="A63" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" s="96" t="s">
         <v>404</v>
@@ -15591,7 +15690,7 @@
         <v>414</v>
       </c>
       <c r="H63" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I63" s="64" t="s">
         <v>320</v>
@@ -15599,7 +15698,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B64" s="96" t="s">
         <v>404</v>
@@ -15615,7 +15714,7 @@
         <v>31</v>
       </c>
       <c r="G64" s="56" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H64" s="46" t="s">
         <v>17</v>
@@ -15626,10 +15725,10 @@
     </row>
     <row r="65" spans="1:9" ht="225">
       <c r="A65" s="101" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C65" s="102"/>
       <c r="D65" s="102"/>
@@ -15640,14 +15739,14 @@
         <v>406</v>
       </c>
       <c r="G65" s="81" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H65" s="82"/>
       <c r="I65" s="83"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="96" t="s">
         <v>405</v>
@@ -15663,14 +15762,14 @@
         <v>408</v>
       </c>
       <c r="G66" s="57" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H66" s="60"/>
       <c r="I66" s="64"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" s="96" t="s">
         <v>405</v>
@@ -15688,7 +15787,7 @@
         <v>93</v>
       </c>
       <c r="G67" s="57" t="s">
-        <v>481</v>
+        <v>604</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>17</v>
@@ -15699,7 +15798,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B68" s="96" t="s">
         <v>405</v>
@@ -15708,7 +15807,7 @@
         <v>407</v>
       </c>
       <c r="D68" s="96" t="s">
-        <v>98</v>
+        <v>605</v>
       </c>
       <c r="E68" s="57" t="s">
         <v>10</v>
@@ -15717,7 +15816,7 @@
         <v>45</v>
       </c>
       <c r="G68" s="56" t="s">
-        <v>479</v>
+        <v>606</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>17</v>
@@ -15728,7 +15827,7 @@
     </row>
     <row r="69" spans="1:9" ht="30">
       <c r="A69" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B69" s="96" t="s">
         <v>405</v>
@@ -15743,24 +15842,24 @@
         <v>10</v>
       </c>
       <c r="F69" s="57" t="s">
-        <v>27</v>
+        <v>607</v>
       </c>
       <c r="G69" s="56" t="s">
-        <v>414</v>
+        <v>608</v>
       </c>
       <c r="H69" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>320</v>
+        <v>609</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B70" s="96" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C70" s="96" t="s">
         <v>407</v>
@@ -15775,7 +15874,7 @@
         <v>31</v>
       </c>
       <c r="G70" s="56" t="s">
-        <v>480</v>
+        <v>582</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>17</v>
@@ -15786,13 +15885,13 @@
     </row>
     <row r="71" spans="1:9" ht="30">
       <c r="A71" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B71" s="96" t="s">
         <v>405</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>409</v>
+        <v>610</v>
       </c>
       <c r="D71" s="96"/>
       <c r="E71" s="57" t="s">
@@ -15802,14 +15901,14 @@
         <v>408</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H71" s="60"/>
       <c r="I71" s="64"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" s="96" t="s">
         <v>405</v>
@@ -15827,10 +15926,10 @@
         <v>93</v>
       </c>
       <c r="G72" s="56" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H72" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I72" s="64">
         <v>1</v>
@@ -15838,7 +15937,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" s="96" t="s">
         <v>405</v>
@@ -15853,21 +15952,21 @@
         <v>10</v>
       </c>
       <c r="F73" s="57" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G73" s="56" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H73" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I73" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B74" s="96" t="s">
         <v>405</v>
@@ -15885,18 +15984,18 @@
         <v>27</v>
       </c>
       <c r="G74" s="57" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="H74" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I74" s="64" t="s">
-        <v>100</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="21" thickBot="1">
       <c r="A75" s="103" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B75" s="104" t="s">
         <v>405</v>
@@ -15914,13 +16013,13 @@
         <v>31</v>
       </c>
       <c r="G75" s="66" t="s">
-        <v>415</v>
+        <v>612</v>
       </c>
       <c r="H75" s="63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I75" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A24E3C3D-C769-FB4F-90C2-84769C76DE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9BB90C-B3AC-D14F-B082-EFF888BC952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="0" windowWidth="30520" windowHeight="19600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="500" windowWidth="30520" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -5083,6 +5083,410 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
+    <t>http://jami.jp/CodeSystem/DrugDispensePreparationMethod</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"http://medis.or.jp/CodeSystem/master-HOT9"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"103831601"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/MedicationUsageAdditional</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>補足的な処方または投与指示の表現文字列。不均等な投与指示の場合には、additionalInstruction要素に、1 日の投与回数分だけ繰り返し、JAMI補足用法コードを使用し記述する仕様であるが、コード化できるかどうかにかかわらず常にテキストでも記述する。</t>
+    <rPh sb="20" eb="23">
+      <t xml:space="preserve">フキントウ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">シジ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t xml:space="preserve">ツネ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>補足的な処方または投与指示。不均等投与を1日用法として記載する場合に、補足用法コードを記録するために使用する。不均等な投与指示の場合には、additionalInstruction要素に、1 日の投与回数分だけ繰り返し、JAMI補足用法コードを使用し記述する。また、隔日投与、曜日指定投与の場合にも、JAMI補足補足用法コードを使用して記述する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 本要素は繰り返し記述が可能であり、どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがある」や「日光や紫外線が皮膚にあたららないようにすること」）なども記述するのに使用できる。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細は処方情報HL７FHIR記述仕様も参照。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与タイミングを具体的な日時で指定する場合に使用する。詳細は処方情報HL７FHIR記述仕様も参照。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与タイミングや投与期間と期間中の投与用法を記録する。
+投与期間と期間中の投与用法を指定する場合には通常、code子要素とrepeant子要素とで記述する。投与タイミングを直接具体的な日時で指定する場合には、event子要素を使用することができる。</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">キカン </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">キカンチュウ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ヨウホウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与期間と期間中の投与の繰り返し方法を記述する要素。このrepeat子要素で投与期間の全日数、code子要素でこの期間中の投与方法を記述する。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キカンチュウ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">クリカエシ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t xml:space="preserve">コヨウソ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キカン </t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t xml:space="preserve">ゼンニッスウ </t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t xml:space="preserve">コヨウソ </t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t xml:space="preserve">キカンチュウ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">トウヨ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日投与量。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>uri</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>医薬品単位略号を識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>OID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"urn:oid:1.2.392.100495.20.2.101"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>denominator</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>「日」を表す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UCUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単位コード。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lv5</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>この薬剤に対する調剤指示のコード化をする場合のコードsystem値。施設固有コードを使用する場合には、"http://jpfhir.jp/fhir/clins/CodeSystem/DrugDispensePreparationMethod/医療機関10桁コード"を設定する。</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ヒョウゲン </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>JAMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>補足用法８桁コードを識別する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>URI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（固定値参照）。やむを得ず施設固有コードを使用する場合には、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"http://jpfhir.jp/fhir/clins/CodeSystem/MedicationUsageAdditional/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>医療機関</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を設定する。</t>
+    </r>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">コテイチ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
     <r>
       <t>JAMI</t>
     </r>
@@ -5142,7 +5546,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>施設固有コードを使用する場合には、"http://jpfhir.jp/fhir/CodeSystem/MedicationUsage/医療機関10桁コード"を設定する。</t>
+      <t>施設固有コードを使用する場合には、"http://jpfhir.jp/fhir/clins/CodeSystem/MedicationUsage/医療機関10桁コード"を設定する。</t>
     </r>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">バアイ </t>
@@ -5168,31 +5572,11 @@
     <rPh sb="60" eb="62">
       <t xml:space="preserve">バアイ </t>
     </rPh>
-    <rPh sb="90" eb="92">
+    <rPh sb="96" eb="98">
       <t xml:space="preserve">キカン </t>
     </rPh>
-    <rPh sb="101" eb="103">
+    <rPh sb="107" eb="109">
       <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>http://jami.jp/CodeSystem/DrugDispensePreparationMethod</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>この薬剤に対する調剤指示のコード化をする場合のコードsystem値。施設固有コードを使用する場合には、"http://jpfhir.jp/fhir/CodeSystem/DrugDispensePreparationMethod/医療機関10桁コード"を設定する。</t>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t xml:space="preserve">チ </t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t xml:space="preserve">ヒョウゲン </t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t xml:space="preserve">ヒッス </t>
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
@@ -5252,7 +5636,18 @@
 YJ: "urn:oid:1.2.392.100495.20.1.73"
 HOT9:  "http://medis.or.jp/CodeSystem/master-HOT9"
 HOT7:  "http://medis.or.jp/CodeSystem/master-HOT7"　(HOT9の末尾２桁である販社コードが不明の場合に限る)
-厚労省一般名処方マスタコード: "1.2.392.100495.20.2.81"</t>
+厚労省一般名処方マスタコード: "urn:oid:1.2.392.100495.20.2.81"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>これ以外に施設固有コードを追加する場合には、施設固有コード体系のsystem値は、"http://jpfhir.jp/fhir/clins/CodeSystem/DrugCode/医療機関10桁コード"を使用すること。</t>
     </r>
     <rPh sb="65" eb="67">
       <t xml:space="preserve">ショホウ </t>
@@ -5278,391 +5673,31 @@
     <rPh sb="240" eb="243">
       <t xml:space="preserve">コウロウショウ </t>
     </rPh>
+    <rPh sb="316" eb="318">
+      <t xml:space="preserve">シセツ </t>
+    </rPh>
+    <rPh sb="318" eb="320">
+      <t xml:space="preserve">コユウ </t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="328" eb="330">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="333" eb="335">
+      <t xml:space="preserve">シセツ </t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t xml:space="preserve">コユウ </t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t xml:space="preserve">タイケイ チ </t>
+    </rPh>
+    <rPh sb="413" eb="415">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
     <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <t>"http://medis.or.jp/CodeSystem/master-HOT9"</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>"103831601"</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>JAMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>補足用法８桁コードを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（固定値参照）。やむを得ず施設固有コードを使用する場合には、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"http://jpfhir.jp/fhir/CodeSystem/MedicationUsageAdditional/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>医療機関</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桁コード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を設定する。</t>
-    </r>
-    <rPh sb="22" eb="25">
-      <t xml:space="preserve">コテイチ </t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">サンショウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>http://jami.jp/CodeSystem/MedicationUsageAdditional</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>補足的な処方または投与指示の表現文字列。不均等な投与指示の場合には、additionalInstruction要素に、1 日の投与回数分だけ繰り返し、JAMI補足用法コードを使用し記述する仕様であるが、コード化できるかどうかにかかわらず常にテキストでも記述する。</t>
-    <rPh sb="20" eb="23">
-      <t xml:space="preserve">フキントウ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">トウヨ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">シジ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t xml:space="preserve">ツネ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>補足的な処方または投与指示。不均等投与を1日用法として記載する場合に、補足用法コードを記録するために使用する。不均等な投与指示の場合には、additionalInstruction要素に、1 日の投与回数分だけ繰り返し、JAMI補足用法コードを使用し記述する。また、隔日投与、曜日指定投与の場合にも、JAMI補足補足用法コードを使用して記述する。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 本要素は繰り返し記述が可能であり、どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがある」や「日光や紫外線が皮膚にあたららないようにすること」）なども記述するのに使用できる。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>詳細は処方情報HL７FHIR記述仕様も参照。</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">トウヨ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与タイミングを具体的な日時で指定する場合に使用する。詳細は処方情報HL７FHIR記述仕様も参照。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与タイミングや投与期間と期間中の投与用法を記録する。
-投与期間と期間中の投与用法を指定する場合には通常、code子要素とrepeant子要素とで記述する。投与タイミングを直接具体的な日時で指定する場合には、event子要素を使用することができる。</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">キカン </t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t xml:space="preserve">キカンチュウ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ヨウホウ </t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t xml:space="preserve">トウヨ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与期間と期間中の投与の繰り返し方法を記述する要素。このrepeat子要素で投与期間の全日数、code子要素でこの期間中の投与方法を記述する。</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">キカンチュウ </t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">クリカエシ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ホウホウ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t xml:space="preserve">コヨウソ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t xml:space="preserve">トウヨ </t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t xml:space="preserve">キカン </t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t xml:space="preserve">ゼンニッスウ </t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t xml:space="preserve">コヨウソ </t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t xml:space="preserve">キカンチュウ </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">トウヨ </t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t xml:space="preserve">ホウホウ </t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日投与量。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>投与量の単位。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>uri</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>医薬品単位略号を識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>OID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>"urn:oid:1.2.392.100495.20.2.101"</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>denominator</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>UCUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>単位コードを識別する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>「日」を表す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>UCUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>単位コード。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>要素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lv5</t>
-    </r>
-    <phoneticPr fontId="25"/>
   </si>
 </sst>
 </file>
@@ -12316,8 +12351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12348,7 +12383,7 @@
         <v>358</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F1" s="114" t="s">
         <v>4</v>
@@ -12998,7 +13033,7 @@
       <c r="I28" s="40"/>
       <c r="J28" s="166"/>
     </row>
-    <row r="29" spans="1:10" ht="161" customHeight="1">
+    <row r="29" spans="1:10" ht="213" customHeight="1">
       <c r="A29" s="43" t="s">
         <v>305</v>
       </c>
@@ -13017,13 +13052,13 @@
         <v>27</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="I29" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="166" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="42">
@@ -13051,7 +13086,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="166" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="42">
@@ -13511,13 +13546,13 @@
         <v>436</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="I50" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="166" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
@@ -14133,8 +14168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:I75"/>
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14497,7 +14532,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="74"/>
@@ -14539,13 +14574,13 @@
         <v>27</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="H17" s="59" t="s">
         <v>441</v>
       </c>
       <c r="I17" s="197" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
@@ -14618,7 +14653,7 @@
         <v>45</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H20" s="76" t="s">
         <v>17</v>
@@ -14641,7 +14676,7 @@
         <v>395</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H21" s="77"/>
       <c r="I21" s="74"/>
@@ -14662,7 +14697,7 @@
         <v>88</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>17</v>
@@ -14687,7 +14722,7 @@
         <v>397</v>
       </c>
       <c r="G23" s="195" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="64"/>
@@ -14895,7 +14930,7 @@
         <v>27</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="H31" s="59" t="s">
         <v>441</v>
@@ -15787,7 +15822,7 @@
         <v>93</v>
       </c>
       <c r="G67" s="57" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>17</v>
@@ -15807,7 +15842,7 @@
         <v>407</v>
       </c>
       <c r="D68" s="96" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E68" s="57" t="s">
         <v>10</v>
@@ -15816,7 +15851,7 @@
         <v>45</v>
       </c>
       <c r="G68" s="56" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>17</v>
@@ -15842,16 +15877,16 @@
         <v>10</v>
       </c>
       <c r="F69" s="57" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G69" s="56" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H69" s="59" t="s">
         <v>441</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -15891,7 +15926,7 @@
         <v>405</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D71" s="96"/>
       <c r="E71" s="57" t="s">
@@ -15984,7 +16019,7 @@
         <v>27</v>
       </c>
       <c r="G74" s="57" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H74" s="59" t="s">
         <v>441</v>
@@ -16013,7 +16048,7 @@
         <v>31</v>
       </c>
       <c r="G75" s="66" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H75" s="63" t="s">
         <v>441</v>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81321CFE-2778-224B-B6A4-1FE7D07ABC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDAD758-79D1-5743-A6BE-A5C2A400C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="480" windowWidth="38140" windowHeight="20840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="460" windowWidth="38140" windowHeight="20840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -10459,7 +10459,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13195,8 +13195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD28"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17632,7 +17632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33D4670-3618-B947-8E34-E3DBE4848E0C}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="165" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="165" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDAD758-79D1-5743-A6BE-A5C2A400C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BA01765B-123A-AF47-AD75-5D81EF287CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="460" windowWidth="38140" windowHeight="20840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27360" windowHeight="20320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$I$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="787">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -3754,17 +3755,6 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>元の処方オーダ情報。処方オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照処方オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照"。
-元のオーダID情報や処方依頼に関する情報（処方者の所属や診療科など）が記述されるContainedリソースに含まれるServiceRequest（処方オーダー情報）リソースをこのリソース内で参照する。</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">モト </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ショホウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>{
   "reference":  "#prescriptionOrder203999"
 }</t>
@@ -5659,18 +5649,6 @@
     </r>
   </si>
   <si>
-    <t>Narrative</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>xhtml</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -5816,85 +5794,6 @@
       </rPr>
       <t>リソースであることを示す</t>
     </r>
-  </si>
-  <si>
-    <t>本リソースをテキストで表現したものを入れてもよい。</t>
-  </si>
-  <si>
-    <t>固定値。テキスト内容の全てがリソースのコンテンツから生成されたことを示す。</t>
-  </si>
-  <si>
-    <r>
-      <t>この検査・観察情報に付番された</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>検査・観察情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の文字列。値は例示。</t>
-    </r>
-  </si>
-  <si>
-    <t>検査・観察のステータス。</t>
-  </si>
-  <si>
-    <r>
-      <t>コード表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"http://hl7.org/fhir/observation-status"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>registered | preliminary | final | amended</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　など。</t>
-    </r>
-  </si>
-  <si>
-    <t>結果未着、中間結果、最終結果、更新結果、エラー修正、キャンセル、エラー、不明、</t>
   </si>
   <si>
     <t>検査・観察の種類区分。</t>
@@ -7251,15 +7150,6 @@
   </si>
   <si>
     <t>"Observation"</t>
-  </si>
-  <si>
-    <t>"generated"</t>
-  </si>
-  <si>
-    <t>&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;xxx&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>"http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier"</t>
   </si>
   <si>
     <t>"final"</t>
@@ -7848,7 +7738,7 @@
   </si>
   <si>
     <t>医療機関１０桁番号。</t>
-    <rPh sb="12" eb="13">
+    <rPh sb="0" eb="10">
       <t xml:space="preserve">ケタ </t>
     </rPh>
     <phoneticPr fontId="25"/>
@@ -7885,6 +7775,136 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>診療科のコード化記述。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>Resource(JP_Observation_LabResult )</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>hasMember要素から参照される子検査結果をJP_Observation_LabResultプロファイルに準拠したObservationリソースとして記述する。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>未説明フラグ（病名の未告知フラグと同じ）</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ビョウメイ </t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t xml:space="preserve">ミコクチ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>検査・観察のステータス。使用するコード表："http://hl7.org/fhir/observation-status"
+　registered : 結果未着
+　preliminary : 暫定結果報告
+　final : 最終結果報告
+　amended : 訂正報告
+　cancelled : 検査中止
+　entered-in-error : エラー入力
+　unknown : ステータス不明</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">ミチャク </t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t xml:space="preserve">ザンテイ </t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t xml:space="preserve">ホウコク </t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t xml:space="preserve">サイシュウ </t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t xml:space="preserve">ホウコク </t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t xml:space="preserve">テイセイ </t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t xml:space="preserve">ホウコク </t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t xml:space="preserve">チュウシ </t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t xml:space="preserve">フメイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>元の処方オーダ情報。処方オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。処方オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。
+元のオーダID情報や処方依頼に関する情報（処方者の所属や診療科など）が記述されるContainedリソースであるServiceRequest（処方オーダー情報）リソースをこのリソース内で参照する。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モト </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ショホウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>元の検査オーダ情報。オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。処方オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。
+元のオーダID情報や依頼に関する情報（検査依頼者の所属や診療科など）が記述されるContainedリソースに含まれるServiceRequest（検査オーダー情報）リソースをこのリソース内で参照する。ただし、医療機関番号と診療科情報は、extensionでも記述することになっている。</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t xml:space="preserve">イライ </t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t xml:space="preserve">シャ </t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t xml:space="preserve">イリョウ </t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t xml:space="preserve">キカｎ </t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="230" eb="233">
+      <t xml:space="preserve">シンリョウカ </t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -9320,7 +9340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -9981,6 +10001,27 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10005,98 +10046,50 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -10456,10 +10449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10589,7 +10582,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10667,677 +10660,663 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="75">
       <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="39" t="s">
-        <v>10</v>
+      <c r="E10" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>501</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>747</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="90">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="G11" s="6" t="s">
-        <v>178</v>
+        <v>741</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="75">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="90">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="31" thickBot="1">
-      <c r="A15" s="209" t="s">
+    <row r="13" spans="1:9" ht="31" thickBot="1">
+      <c r="A13" s="209" t="s">
         <v>435</v>
       </c>
-      <c r="B15" s="210"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="211" t="s">
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="212"/>
-      <c r="G15" s="213" t="s">
-        <v>785</v>
-      </c>
-      <c r="H15" s="214"/>
-      <c r="I15" s="215"/>
-    </row>
-    <row r="16" spans="1:9" ht="120">
-      <c r="A16" s="243" t="s">
+      <c r="F13" s="212"/>
+      <c r="G13" s="213" t="s">
+        <v>769</v>
+      </c>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
+    </row>
+    <row r="14" spans="1:9" ht="120">
+      <c r="A14" s="93" t="s">
         <v>433</v>
       </c>
-      <c r="B16" s="244"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="245" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="246" t="s">
+      <c r="F14" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="247" t="s">
-        <v>786</v>
-      </c>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
-    </row>
-    <row r="17" spans="1:9" ht="84">
-      <c r="A17" s="233" t="s">
+      <c r="G14" s="72" t="s">
+        <v>770</v>
+      </c>
+      <c r="H14" s="222"/>
+      <c r="I14" s="74"/>
+    </row>
+    <row r="15" spans="1:9" ht="84">
+      <c r="A15" s="216" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B15" s="217" t="s">
         <v>431</v>
       </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="240" t="s">
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="235" t="s">
+      <c r="F15" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="236" t="s">
+      <c r="G15" s="218" t="s">
+        <v>761</v>
+      </c>
+      <c r="H15" s="219" t="s">
+        <v>436</v>
+      </c>
+      <c r="I15" s="224" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="35" customHeight="1">
+      <c r="A16" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="64"/>
+    </row>
+    <row r="17" spans="1:9" ht="63">
+      <c r="A17" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="96"/>
+      <c r="E17" s="182" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="208" t="s">
+        <v>594</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="H17" s="219" t="s">
+        <v>436</v>
+      </c>
+      <c r="I17" s="220" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" thickBot="1">
+      <c r="A18" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="104"/>
+      <c r="E18" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>772</v>
+      </c>
+      <c r="H18" s="172" t="s">
+        <v>756</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60">
+      <c r="A19" s="93" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="H19" s="222"/>
+      <c r="I19" s="74"/>
+    </row>
+    <row r="20" spans="1:9" ht="84">
+      <c r="A20" s="216" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="217" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="208" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="218" t="s">
+        <v>776</v>
+      </c>
+      <c r="H20" s="219" t="s">
+        <v>436</v>
+      </c>
+      <c r="I20" s="225" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31" thickBot="1">
+      <c r="A21" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="56" t="s">
         <v>777</v>
       </c>
-      <c r="H17" s="237" t="s">
-        <v>436</v>
-      </c>
-      <c r="I17" s="256" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="35" customHeight="1">
-      <c r="A18" s="228" t="s">
+      <c r="H21" s="58"/>
+      <c r="I21" s="64"/>
+    </row>
+    <row r="22" spans="1:9" ht="27" thickBot="1">
+      <c r="A22" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="238" t="s">
+      <c r="B22" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="56" t="s">
         <v>778</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="229" t="s">
-        <v>779</v>
-      </c>
-      <c r="G18" s="230" t="s">
-        <v>782</v>
-      </c>
-      <c r="H18" s="231"/>
-      <c r="I18" s="232"/>
-    </row>
-    <row r="19" spans="1:9" ht="63">
-      <c r="A19" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="B19" s="238" t="s">
-        <v>778</v>
-      </c>
-      <c r="C19" s="238" t="s">
-        <v>547</v>
-      </c>
-      <c r="D19" s="238"/>
-      <c r="E19" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="235" t="s">
-        <v>595</v>
-      </c>
-      <c r="G19" s="230" t="s">
-        <v>781</v>
-      </c>
-      <c r="H19" s="237" t="s">
-        <v>436</v>
-      </c>
-      <c r="I19" s="239" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27" thickBot="1">
-      <c r="A20" s="250" t="s">
-        <v>434</v>
-      </c>
-      <c r="B20" s="251" t="s">
-        <v>778</v>
-      </c>
-      <c r="C20" s="251" t="s">
-        <v>780</v>
-      </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="184" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="252" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" s="253" t="s">
-        <v>788</v>
-      </c>
-      <c r="H20" s="254" t="s">
-        <v>772</v>
-      </c>
-      <c r="I20" s="255" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60">
-      <c r="A21" s="93" t="s">
-        <v>433</v>
-      </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="F21" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>791</v>
-      </c>
-      <c r="H21" s="242"/>
-      <c r="I21" s="74"/>
-    </row>
-    <row r="22" spans="1:9" ht="84">
-      <c r="A22" s="216" t="s">
-        <v>434</v>
-      </c>
-      <c r="B22" s="217" t="s">
-        <v>431</v>
-      </c>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="208" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="208" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="218" t="s">
-        <v>792</v>
-      </c>
-      <c r="H22" s="219" t="s">
-        <v>436</v>
-      </c>
-      <c r="I22" s="257" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="31" thickBot="1">
+      <c r="H22" s="73"/>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="95" t="s">
         <v>434</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>537</v>
-      </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
+        <v>536</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>546</v>
+      </c>
       <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>250</v>
+        <v>231</v>
+      </c>
+      <c r="F23" s="208" t="s">
+        <v>26</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>793</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="1:9" ht="27" thickBot="1">
+        <v>754</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="26">
       <c r="A24" s="95" t="s">
         <v>434</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>533</v>
-      </c>
-      <c r="D24" s="96"/>
+        <v>532</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>444</v>
+      </c>
       <c r="E24" s="57" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>794</v>
-      </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="64"/>
-    </row>
-    <row r="25" spans="1:9" ht="45">
+        <v>755</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>756</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="26">
       <c r="A25" s="95" t="s">
         <v>434</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>547</v>
+        <v>287</v>
       </c>
       <c r="E25" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="F25" s="208" t="s">
+      <c r="F25" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>753</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="64" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31" thickBot="1">
+      <c r="A26" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="104" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="104" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" s="104"/>
+      <c r="E26" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>760</v>
+      </c>
+      <c r="H26" s="172" t="s">
+        <v>756</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="90">
+      <c r="A27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="63">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="56" t="s">
-        <v>770</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>436</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="26">
-      <c r="A26" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>537</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>533</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>444</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>771</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>772</v>
-      </c>
-      <c r="I26" s="64" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="26">
-      <c r="A27" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>537</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>533</v>
-      </c>
-      <c r="D27" s="96" t="s">
-        <v>287</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>769</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="64" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31" thickBot="1">
-      <c r="A28" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="B28" s="104" t="s">
-        <v>537</v>
-      </c>
-      <c r="C28" s="104" t="s">
-        <v>451</v>
-      </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>472</v>
-      </c>
-      <c r="G28" s="66" t="s">
-        <v>776</v>
-      </c>
-      <c r="H28" s="172" t="s">
-        <v>772</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="90">
+      <c r="G28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30">
       <c r="A29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="63">
+        <v>347</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45">
       <c r="A30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
-        <v>10</v>
+      <c r="E30" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30">
+        <v>181</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
-        <v>10</v>
+      <c r="E31" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="45">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="12" t="s">
-        <v>47</v>
+      <c r="E32" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="75">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="39" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" ht="45">
+        <v>183</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="39" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="39" t="s">
-        <v>10</v>
+      <c r="E36" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" ht="30">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="39" t="s">
-        <v>47</v>
+      <c r="E37" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>185</v>
+        <v>23</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="9"/>
@@ -11346,147 +11325,153 @@
       <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="21" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" ht="30">
+        <v>182</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="60">
       <c r="A39" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="21" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" ht="45">
+        <v>30</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" ht="105">
+      <c r="A42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30">
-      <c r="A42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="G42" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="195">
       <c r="A43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="105">
       <c r="A44" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -11498,307 +11483,303 @@
         <v>30</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="195">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="39" t="s">
-        <v>47</v>
+      <c r="E45" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" ht="75">
+      <c r="A46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="105">
-      <c r="A46" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="14" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30">
+        <v>190</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" ht="165">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" ht="75">
+        <v>340</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="14" t="s">
-        <v>19</v>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" ht="165">
+        <v>72</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45">
       <c r="A50" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="120">
       <c r="A51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>44</v>
+        <v>513</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="45">
-      <c r="A52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="90">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>75</v>
+      <c r="E52" s="14"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="120">
-      <c r="A53" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="210">
+      <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>349</v>
+      <c r="E53" s="14"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="90">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="11" t="s">
-        <v>257</v>
+      <c r="E54" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="210">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="165">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="14"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="24" t="s">
-        <v>255</v>
+      <c r="G55" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="90">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="195">
       <c r="A56" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>514</v>
+        <v>85</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="165">
-      <c r="A57" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" ht="60">
+      <c r="A57" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G57" s="6" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="195">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -11807,58 +11788,66 @@
         <v>47</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" ht="60">
+        <v>195</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="14" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="90">
       <c r="A60" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -11866,7 +11855,7 @@
         <v>89</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -11874,24 +11863,24 @@
         <v>10</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="90">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -11899,74 +11888,68 @@
         <v>47</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="30">
+        <v>103</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -11974,64 +11957,60 @@
         <v>47</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>100</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -12039,55 +12018,69 @@
         <v>47</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9">
       <c r="A69" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" ht="30">
+        <v>201</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="D70" s="6"/>
       <c r="E70" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="5" t="s">
         <v>108</v>
       </c>
@@ -12095,26 +12088,26 @@
         <v>111</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="5" t="s">
         <v>108</v>
       </c>
@@ -12122,23 +12115,23 @@
         <v>111</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30">
@@ -12146,77 +12139,77 @@
         <v>108</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="30">
+        <v>178</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="D75" s="6"/>
       <c r="E75" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="5" t="s">
         <v>108</v>
       </c>
@@ -12224,26 +12217,26 @@
         <v>114</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="5" t="s">
         <v>108</v>
       </c>
@@ -12251,105 +12244,93 @@
         <v>114</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" ht="60">
       <c r="A80" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="90">
       <c r="A81" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -12358,204 +12339,214 @@
         <v>47</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>87</v>
+        <v>518</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" ht="60">
+        <v>204</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>515</v>
+        <v>87</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="90">
+        <v>126</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="10" t="s">
-        <v>47</v>
+      <c r="E83" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>518</v>
+        <v>128</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" ht="30">
       <c r="A84" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B84" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" ht="30">
+        <v>132</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="9"/>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="14" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="14" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" ht="30">
+    <row r="88" spans="1:9" ht="225">
       <c r="A88" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9">
       <c r="A89" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D89" s="6"/>
       <c r="E89" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9" ht="225">
+    <row r="90" spans="1:9" ht="195">
       <c r="A90" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E90" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="9"/>
+        <v>208</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="5" t="s">
@@ -12565,22 +12556,28 @@
         <v>142</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E91" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:9" ht="195">
+        <v>72</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="5" t="s">
         <v>143</v>
       </c>
@@ -12588,25 +12585,25 @@
         <v>142</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="E92" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -12617,154 +12614,154 @@
         <v>142</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D93" s="6"/>
       <c r="E93" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="14" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="30">
+        <v>150</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:9" ht="45">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E96" s="14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E97" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:9" ht="45">
+        <v>30</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="30">
@@ -12772,92 +12769,84 @@
         <v>143</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G100" s="15" t="s">
-        <v>178</v>
+      <c r="G100" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="30">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>211</v>
+        <v>87</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="75">
       <c r="A102" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -12865,24 +12854,24 @@
         <v>47</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -12890,42 +12879,36 @@
         <v>47</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="75">
+        <v>168</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D104" s="6"/>
       <c r="E104" s="14" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="9"/>
     </row>
     <row r="105" spans="1:9" ht="30">
       <c r="A105" s="5" t="s">
@@ -12934,19 +12917,27 @@
       <c r="B105" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="C105" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E105" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H105" s="6"/>
-      <c r="I105" s="9"/>
+        <v>213</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="30">
       <c r="A106" s="5" t="s">
@@ -12956,20 +12947,26 @@
         <v>167</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E106" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H106" s="6"/>
-      <c r="I106" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="30">
       <c r="A107" s="5" t="s">
@@ -12979,25 +12976,25 @@
         <v>167</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>213</v>
+        <v>44</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30">
@@ -13008,25 +13005,23 @@
         <v>167</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D108" s="6"/>
       <c r="E108" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="30">
@@ -13034,39 +13029,31 @@
         <v>143</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="14" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>172</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H109" s="6"/>
+      <c r="I109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="30">
       <c r="A110" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="14" t="s">
@@ -13075,117 +13062,69 @@
       <c r="F110" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G110" s="15" t="s">
-        <v>216</v>
+      <c r="G110" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="30">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D111" s="6"/>
       <c r="E111" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" spans="1:9" ht="30">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:9" ht="31" thickBot="1">
+      <c r="A112" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="B112" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H113" s="6"/>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114" spans="1:9" ht="31" thickBot="1">
-      <c r="A114" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C114" s="17" t="s">
+      <c r="C112" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D114" s="17"/>
-      <c r="E114" s="18" t="s">
+      <c r="D112" s="17"/>
+      <c r="E112" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F112" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G112" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H114" s="17"/>
-      <c r="I114" s="19"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25"/>
   <hyperlinks>
-    <hyperlink ref="I30" r:id="rId1" xr:uid="{31259AA5-2232-FE45-B527-54F5618754A7}"/>
-    <hyperlink ref="I19" r:id="rId2" xr:uid="{B7640151-F4E3-034D-BA41-2066A5DB6950}"/>
-    <hyperlink ref="I17" r:id="rId3" xr:uid="{10A6CF99-C3FA-1140-946A-69D49C8612AF}"/>
-    <hyperlink ref="I22" r:id="rId4" xr:uid="{9B224DA6-093B-F943-87DF-F70964A31B1A}"/>
+    <hyperlink ref="I28" r:id="rId1" xr:uid="{31259AA5-2232-FE45-B527-54F5618754A7}"/>
+    <hyperlink ref="I17" r:id="rId2" xr:uid="{B7640151-F4E3-034D-BA41-2066A5DB6950}"/>
+    <hyperlink ref="I15" r:id="rId3" xr:uid="{10A6CF99-C3FA-1140-946A-69D49C8612AF}"/>
+    <hyperlink ref="I20" r:id="rId4" xr:uid="{9B224DA6-093B-F943-87DF-F70964A31B1A}"/>
   </hyperlinks>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
 </worksheet>
@@ -13195,8 +13134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13326,7 +13265,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13489,7 +13428,7 @@
         <v>501</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -13508,7 +13447,7 @@
         <v>504</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
@@ -13527,7 +13466,7 @@
         <v>505</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
@@ -13544,128 +13483,128 @@
       </c>
       <c r="F15" s="212"/>
       <c r="G15" s="213" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="H15" s="214"/>
       <c r="I15" s="215"/>
     </row>
     <row r="16" spans="1:9" ht="120">
-      <c r="A16" s="243" t="s">
+      <c r="A16" s="93" t="s">
         <v>433</v>
       </c>
-      <c r="B16" s="244"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="245" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="246" t="s">
+      <c r="F16" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="247" t="s">
-        <v>786</v>
-      </c>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
+      <c r="G16" s="72" t="s">
+        <v>770</v>
+      </c>
+      <c r="H16" s="222"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" ht="84">
-      <c r="A17" s="233" t="s">
+      <c r="A17" s="216" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="217" t="s">
         <v>431</v>
       </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="240" t="s">
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="235" t="s">
+      <c r="F17" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="236" t="s">
-        <v>777</v>
-      </c>
-      <c r="H17" s="237" t="s">
+      <c r="G17" s="218" t="s">
+        <v>761</v>
+      </c>
+      <c r="H17" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="I17" s="256" t="s">
-        <v>790</v>
+      <c r="I17" s="224" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="35" customHeight="1">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="238" t="s">
-        <v>778</v>
-      </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="B18" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="229" t="s">
-        <v>779</v>
-      </c>
-      <c r="G18" s="230" t="s">
-        <v>782</v>
-      </c>
-      <c r="H18" s="231"/>
-      <c r="I18" s="232"/>
+      <c r="F18" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" ht="63">
-      <c r="A19" s="228" t="s">
+      <c r="A19" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="238" t="s">
-        <v>778</v>
-      </c>
-      <c r="C19" s="238" t="s">
-        <v>547</v>
-      </c>
-      <c r="D19" s="238"/>
+      <c r="B19" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>546</v>
+      </c>
+      <c r="D19" s="96"/>
       <c r="E19" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="F19" s="235" t="s">
-        <v>595</v>
-      </c>
-      <c r="G19" s="230" t="s">
-        <v>781</v>
-      </c>
-      <c r="H19" s="237" t="s">
+      <c r="F19" s="208" t="s">
+        <v>594</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="H19" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="I19" s="239" t="s">
-        <v>784</v>
+      <c r="I19" s="220" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27" thickBot="1">
-      <c r="A20" s="250" t="s">
+      <c r="A20" s="103" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="251" t="s">
-        <v>778</v>
-      </c>
-      <c r="C20" s="251" t="s">
-        <v>780</v>
-      </c>
-      <c r="D20" s="251"/>
+      <c r="B20" s="104" t="s">
+        <v>762</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>764</v>
+      </c>
+      <c r="D20" s="104"/>
       <c r="E20" s="184" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="252" t="s">
+      <c r="F20" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="G20" s="253" t="s">
-        <v>788</v>
-      </c>
-      <c r="H20" s="254" t="s">
+      <c r="G20" s="66" t="s">
         <v>772</v>
       </c>
-      <c r="I20" s="255" t="s">
-        <v>783</v>
+      <c r="H20" s="172" t="s">
+        <v>756</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60">
@@ -13682,9 +13621,9 @@
         <v>306</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>791</v>
-      </c>
-      <c r="H21" s="242"/>
+        <v>775</v>
+      </c>
+      <c r="H21" s="222"/>
       <c r="I21" s="74"/>
     </row>
     <row r="22" spans="1:9" ht="84">
@@ -13703,13 +13642,13 @@
         <v>26</v>
       </c>
       <c r="G22" s="218" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="H22" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="I22" s="257" t="s">
-        <v>789</v>
+      <c r="I22" s="225" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31" thickBot="1">
@@ -13717,7 +13656,7 @@
         <v>434</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C23" s="96"/>
       <c r="D23" s="96"/>
@@ -13728,7 +13667,7 @@
         <v>250</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="H23" s="58"/>
       <c r="I23" s="64"/>
@@ -13738,20 +13677,20 @@
         <v>434</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D24" s="96"/>
       <c r="E24" s="57" t="s">
         <v>307</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="H24" s="73"/>
       <c r="I24" s="64"/>
@@ -13761,13 +13700,13 @@
         <v>434</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E25" s="57" t="s">
         <v>231</v>
@@ -13776,13 +13715,13 @@
         <v>26</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="H25" s="73" t="s">
         <v>436</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="26">
@@ -13790,10 +13729,10 @@
         <v>434</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D26" s="96" t="s">
         <v>444</v>
@@ -13805,13 +13744,13 @@
         <v>472</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="26">
@@ -13819,10 +13758,10 @@
         <v>434</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D27" s="96" t="s">
         <v>287</v>
@@ -13834,11 +13773,11 @@
         <v>472</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="H27" s="58"/>
       <c r="I27" s="64" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31" thickBot="1">
@@ -13846,7 +13785,7 @@
         <v>434</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C28" s="104" t="s">
         <v>451</v>
@@ -13859,13 +13798,13 @@
         <v>472</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="H28" s="172" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
@@ -14551,7 +14490,7 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="9"/>
-      <c r="R58" s="258"/>
+      <c r="R58" s="226"/>
     </row>
     <row r="59" spans="1:18" ht="60">
       <c r="A59" s="5" t="s">
@@ -15214,22 +15153,22 @@
       <c r="I86" s="33"/>
     </row>
     <row r="87" spans="1:9" ht="30">
-      <c r="A87" s="224"/>
-      <c r="B87" s="220" t="s">
+      <c r="A87" s="231"/>
+      <c r="B87" s="227" t="s">
         <v>332</v>
       </c>
-      <c r="C87" s="220"/>
-      <c r="D87" s="220"/>
-      <c r="E87" s="220" t="s">
+      <c r="C87" s="227"/>
+      <c r="D87" s="227"/>
+      <c r="E87" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="F87" s="220" t="s">
+      <c r="F87" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="G87" s="220" t="s">
+      <c r="G87" s="227" t="s">
         <v>333</v>
       </c>
-      <c r="H87" s="221" t="s">
+      <c r="H87" s="228" t="s">
         <v>281</v>
       </c>
       <c r="I87" s="33" t="s">
@@ -15237,27 +15176,27 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="224"/>
-      <c r="B88" s="220"/>
-      <c r="C88" s="220"/>
-      <c r="D88" s="220"/>
-      <c r="E88" s="220"/>
-      <c r="F88" s="220"/>
-      <c r="G88" s="220"/>
-      <c r="H88" s="222"/>
+      <c r="A88" s="231"/>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="227"/>
+      <c r="F88" s="227"/>
+      <c r="G88" s="227"/>
+      <c r="H88" s="229"/>
       <c r="I88" s="33" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="224"/>
-      <c r="B89" s="220"/>
-      <c r="C89" s="220"/>
-      <c r="D89" s="220"/>
-      <c r="E89" s="220"/>
-      <c r="F89" s="220"/>
-      <c r="G89" s="220"/>
-      <c r="H89" s="223"/>
+      <c r="A89" s="231"/>
+      <c r="B89" s="227"/>
+      <c r="C89" s="227"/>
+      <c r="D89" s="227"/>
+      <c r="E89" s="227"/>
+      <c r="F89" s="227"/>
+      <c r="G89" s="227"/>
+      <c r="H89" s="230"/>
       <c r="I89" s="33" t="s">
         <v>272</v>
       </c>
@@ -15460,8 +15399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="144" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD27"/>
+    <sheetView topLeftCell="A35" zoomScale="144" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15492,7 +15431,7 @@
         <v>353</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F1" s="114" t="s">
         <v>4</v>
@@ -15599,7 +15538,7 @@
         <v>512</v>
       </c>
       <c r="J5" s="207" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="142" customFormat="1">
@@ -15643,7 +15582,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="I7" s="46" t="s">
         <v>11</v>
@@ -15713,7 +15652,7 @@
         <v>501</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="160"/>
@@ -15733,7 +15672,7 @@
         <v>502</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="9"/>
@@ -15746,14 +15685,14 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="241" t="s">
+      <c r="F12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>505</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="9"/>
@@ -15766,14 +15705,14 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="241" t="s">
+      <c r="F13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9"/>
@@ -15791,133 +15730,133 @@
       </c>
       <c r="G14" s="212"/>
       <c r="H14" s="213" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="I14" s="214"/>
       <c r="J14" s="215"/>
     </row>
     <row r="15" spans="1:10" customFormat="1" ht="120">
-      <c r="A15" s="243" t="s">
+      <c r="A15" s="93" t="s">
         <v>433</v>
       </c>
-      <c r="B15" s="244"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="245" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="246" t="s">
+      <c r="G15" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="247" t="s">
-        <v>786</v>
-      </c>
-      <c r="I15" s="248"/>
-      <c r="J15" s="249"/>
+      <c r="H15" s="72" t="s">
+        <v>770</v>
+      </c>
+      <c r="I15" s="222"/>
+      <c r="J15" s="74"/>
     </row>
     <row r="16" spans="1:10" customFormat="1" ht="84">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="216" t="s">
         <v>434</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="217" t="s">
         <v>431</v>
       </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="240" t="s">
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="235" t="s">
+      <c r="G16" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="236" t="s">
-        <v>777</v>
-      </c>
-      <c r="I16" s="237" t="s">
+      <c r="H16" s="218" t="s">
+        <v>761</v>
+      </c>
+      <c r="I16" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="J16" s="256" t="s">
-        <v>790</v>
+      <c r="J16" s="224" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:10" customFormat="1" ht="35" customHeight="1">
-      <c r="A17" s="228" t="s">
+      <c r="A17" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="238" t="s">
-        <v>778</v>
-      </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
+      <c r="B17" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="229" t="s">
-        <v>779</v>
-      </c>
-      <c r="H17" s="230" t="s">
-        <v>782</v>
-      </c>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
+      <c r="G17" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="I17" s="58"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" customFormat="1" ht="63">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="238" t="s">
-        <v>778</v>
-      </c>
-      <c r="C18" s="238" t="s">
-        <v>547</v>
-      </c>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
+      <c r="B18" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="G18" s="235" t="s">
-        <v>595</v>
-      </c>
-      <c r="H18" s="230" t="s">
-        <v>781</v>
-      </c>
-      <c r="I18" s="237" t="s">
+      <c r="G18" s="208" t="s">
+        <v>594</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="I18" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="J18" s="239" t="s">
-        <v>784</v>
+      <c r="J18" s="220" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:10" customFormat="1" ht="21" thickBot="1">
-      <c r="A19" s="250" t="s">
+      <c r="A19" s="103" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="251" t="s">
-        <v>778</v>
-      </c>
-      <c r="C19" s="251" t="s">
-        <v>780</v>
-      </c>
-      <c r="D19" s="251"/>
-      <c r="E19" s="251"/>
+      <c r="B19" s="104" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>764</v>
+      </c>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="184" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="252" t="s">
+      <c r="G19" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="H19" s="253" t="s">
-        <v>788</v>
-      </c>
-      <c r="I19" s="254" t="s">
+      <c r="H19" s="66" t="s">
         <v>772</v>
       </c>
-      <c r="J19" s="255" t="s">
-        <v>783</v>
+      <c r="I19" s="172" t="s">
+        <v>756</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:10" customFormat="1" ht="60">
@@ -15935,9 +15874,9 @@
         <v>306</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>791</v>
-      </c>
-      <c r="I20" s="242"/>
+        <v>775</v>
+      </c>
+      <c r="I20" s="222"/>
       <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="84">
@@ -15957,13 +15896,13 @@
         <v>26</v>
       </c>
       <c r="H21" s="218" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="I21" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="J21" s="257" t="s">
-        <v>789</v>
+      <c r="J21" s="225" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="31" thickBot="1">
@@ -15971,7 +15910,7 @@
         <v>434</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="96"/>
@@ -15983,7 +15922,7 @@
         <v>250</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="I22" s="58"/>
       <c r="J22" s="64"/>
@@ -15993,10 +15932,10 @@
         <v>434</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D23" s="96"/>
       <c r="E23" s="96"/>
@@ -16004,10 +15943,10 @@
         <v>307</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H23" s="56" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="I23" s="73"/>
       <c r="J23" s="64"/>
@@ -16017,13 +15956,13 @@
         <v>434</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E24" s="96"/>
       <c r="F24" s="57" t="s">
@@ -16033,13 +15972,13 @@
         <v>26</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="I24" s="73" t="s">
         <v>436</v>
       </c>
       <c r="J24" s="64" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:10" customFormat="1" ht="26">
@@ -16047,10 +15986,10 @@
         <v>434</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D25" s="96" t="s">
         <v>444</v>
@@ -16063,13 +16002,13 @@
         <v>472</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="J25" s="64" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="1:10" customFormat="1" ht="26">
@@ -16077,10 +16016,10 @@
         <v>434</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D26" s="96" t="s">
         <v>287</v>
@@ -16093,11 +16032,11 @@
         <v>472</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="64" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="1:10" customFormat="1" ht="31" thickBot="1">
@@ -16105,7 +16044,7 @@
         <v>434</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="104" t="s">
         <v>451</v>
@@ -16119,13 +16058,13 @@
         <v>472</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="I27" s="172" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="142" customFormat="1" ht="175" customHeight="1" thickBot="1">
@@ -16511,13 +16450,13 @@
         <v>26</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I43" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="166" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="42">
@@ -16545,7 +16484,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="166" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="42">
@@ -16767,13 +16706,13 @@
         <v>522</v>
       </c>
       <c r="H54" s="155" t="s">
-        <v>523</v>
+        <v>785</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="180">
@@ -16791,7 +16730,7 @@
         <v>128</v>
       </c>
       <c r="H55" s="122" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I55" s="122"/>
       <c r="J55" s="159"/>
@@ -16810,16 +16749,16 @@
         <v>10</v>
       </c>
       <c r="G56" s="111" t="s">
+        <v>525</v>
+      </c>
+      <c r="H56" s="111" t="s">
         <v>526</v>
-      </c>
-      <c r="H56" s="111" t="s">
-        <v>527</v>
       </c>
       <c r="I56" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="167" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="31" thickBot="1">
@@ -16879,7 +16818,7 @@
         <v>306</v>
       </c>
       <c r="H59" s="155" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I59" s="155"/>
       <c r="J59" s="165"/>
@@ -16901,7 +16840,7 @@
         <v>306</v>
       </c>
       <c r="H60" s="122" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I60" s="122"/>
       <c r="J60" s="159"/>
@@ -16925,11 +16864,11 @@
         <v>26</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I61" s="40"/>
       <c r="J61" s="166" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30">
@@ -16940,7 +16879,7 @@
         <v>378</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D62" s="44"/>
       <c r="E62" s="44"/>
@@ -16951,7 +16890,7 @@
         <v>250</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I62" s="40"/>
       <c r="J62" s="166"/>
@@ -16964,20 +16903,20 @@
         <v>378</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E63" s="44"/>
       <c r="F63" s="41" t="s">
         <v>249</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I63" s="40"/>
       <c r="J63" s="166"/>
@@ -16990,13 +16929,13 @@
         <v>378</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F64" s="41" t="s">
         <v>238</v>
@@ -17005,13 +16944,13 @@
         <v>431</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I64" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J64" s="166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30">
@@ -17022,10 +16961,10 @@
         <v>378</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E65" s="44" t="s">
         <v>444</v>
@@ -17037,13 +16976,13 @@
         <v>472</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I65" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J65" s="166" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30">
@@ -17054,13 +16993,13 @@
         <v>378</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F66" s="41" t="s">
         <v>238</v>
@@ -17069,13 +17008,13 @@
         <v>472</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I66" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J66" s="166" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="31" thickBot="1">
@@ -17086,7 +17025,7 @@
         <v>378</v>
       </c>
       <c r="C67" s="109" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D67" s="109" t="s">
         <v>451</v>
@@ -17101,13 +17040,13 @@
         <v>472</v>
       </c>
       <c r="H67" s="111" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I67" s="76" t="s">
         <v>17</v>
       </c>
       <c r="J67" s="167" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
@@ -17127,7 +17066,7 @@
         <v>306</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I68" s="40"/>
       <c r="J68" s="166"/>
@@ -17151,7 +17090,7 @@
         <v>26</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I69" s="46" t="s">
         <v>377</v>
@@ -17205,7 +17144,7 @@
         <v>112</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I71" s="40"/>
       <c r="J71" s="166"/>
@@ -17229,7 +17168,7 @@
         <v>92</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I72" s="46" t="s">
         <v>17</v>
@@ -17257,7 +17196,7 @@
         <v>44</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I73" s="46" t="s">
         <v>17</v>
@@ -17285,7 +17224,7 @@
         <v>26</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I74" s="46" t="s">
         <v>377</v>
@@ -17481,7 +17420,7 @@
         <v>324</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
@@ -17575,7 +17514,7 @@
         <v>30</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I85" s="46" t="s">
         <v>17</v>
@@ -17630,10 +17569,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33D4670-3618-B947-8E34-E3DBE4848E0C}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="165" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17650,16 +17589,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="76" thickBot="1">
       <c r="A1" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" s="198" t="s">
         <v>606</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="C1" s="198" t="s">
         <v>607</v>
       </c>
-      <c r="C1" s="198" t="s">
+      <c r="D1" s="198" t="s">
         <v>608</v>
-      </c>
-      <c r="D1" s="198" t="s">
-        <v>609</v>
       </c>
       <c r="E1" s="198" t="s">
         <v>4</v>
@@ -17689,11 +17628,11 @@
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="201" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H2" s="201"/>
       <c r="I2" s="33" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -17758,7 +17697,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="K5" s="33"/>
     </row>
@@ -17810,68 +17749,86 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="142" customFormat="1" ht="31" thickBot="1">
-      <c r="A8" s="123" t="s">
+    <row r="8" spans="1:11" s="142" customFormat="1" ht="30">
+      <c r="A8" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="161" t="s">
+      <c r="I8" s="163" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="142" customFormat="1">
-      <c r="A9" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="162"/>
-    </row>
-    <row r="10" spans="1:11" s="142" customFormat="1" ht="75">
-      <c r="A10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>763</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="160"/>
+    <row r="9" spans="1:11" ht="75">
+      <c r="A9" s="236" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="238" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="239" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31" thickBot="1">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="90">
       <c r="A11" s="5" t="s">
@@ -17887,7 +17844,7 @@
         <v>502</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
@@ -17903,10 +17860,10 @@
         <v>37</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
@@ -17922,15 +17879,15 @@
         <v>37</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="60" customHeight="1">
+    <row r="14" spans="1:11" ht="81" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -17941,294 +17898,284 @@
         <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="31" thickBot="1">
-      <c r="A15" s="209" t="s">
+    <row r="15" spans="1:11" ht="60" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="31" thickBot="1">
+      <c r="A16" s="209" t="s">
         <v>435</v>
       </c>
-      <c r="B15" s="210"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="211" t="s">
+      <c r="B16" s="210"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="212"/>
-      <c r="G15" s="213" t="s">
-        <v>785</v>
-      </c>
-      <c r="H15" s="214"/>
-      <c r="I15" s="215"/>
-    </row>
-    <row r="16" spans="1:11" ht="120">
-      <c r="A16" s="243" t="s">
+      <c r="F16" s="212"/>
+      <c r="G16" s="213" t="s">
+        <v>769</v>
+      </c>
+      <c r="H16" s="214"/>
+      <c r="I16" s="215"/>
+    </row>
+    <row r="17" spans="1:9" ht="120">
+      <c r="A17" s="93" t="s">
         <v>433</v>
       </c>
-      <c r="B16" s="244"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="245" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="246" t="s">
+      <c r="F17" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="247" t="s">
-        <v>786</v>
-      </c>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
-    </row>
-    <row r="17" spans="1:9" ht="84">
-      <c r="A17" s="233" t="s">
+      <c r="G17" s="72" t="s">
+        <v>770</v>
+      </c>
+      <c r="H17" s="222"/>
+      <c r="I17" s="74"/>
+    </row>
+    <row r="18" spans="1:9" ht="84">
+      <c r="A18" s="216" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B18" s="217" t="s">
         <v>431</v>
       </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="240" t="s">
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="221" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="235" t="s">
+      <c r="F18" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="236" t="s">
-        <v>777</v>
-      </c>
-      <c r="H17" s="237" t="s">
+      <c r="G18" s="218" t="s">
+        <v>761</v>
+      </c>
+      <c r="H18" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="I17" s="256" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="35" customHeight="1">
-      <c r="A18" s="228" t="s">
+      <c r="I18" s="224" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="35" customHeight="1">
+      <c r="A19" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="238" t="s">
-        <v>778</v>
-      </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="182" t="s">
+      <c r="B19" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="229" t="s">
+      <c r="F19" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="64"/>
+    </row>
+    <row r="20" spans="1:9" ht="63">
+      <c r="A20" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>546</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="182" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="208" t="s">
+        <v>594</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="H20" s="219" t="s">
+        <v>436</v>
+      </c>
+      <c r="I20" s="220" t="s">
         <v>779</v>
       </c>
-      <c r="G18" s="230" t="s">
-        <v>782</v>
-      </c>
-      <c r="H18" s="231"/>
-      <c r="I18" s="232"/>
-    </row>
-    <row r="19" spans="1:9" ht="63">
-      <c r="A19" s="228" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="21" thickBot="1">
+      <c r="A21" s="103" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="238" t="s">
-        <v>778</v>
-      </c>
-      <c r="C19" s="238" t="s">
-        <v>547</v>
-      </c>
-      <c r="D19" s="238"/>
-      <c r="E19" s="182" t="s">
+      <c r="B21" s="104" t="s">
+        <v>762</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>764</v>
+      </c>
+      <c r="D21" s="104"/>
+      <c r="E21" s="184" t="s">
         <v>238</v>
       </c>
-      <c r="F19" s="235" t="s">
-        <v>595</v>
-      </c>
-      <c r="G19" s="230" t="s">
-        <v>781</v>
-      </c>
-      <c r="H19" s="237" t="s">
+      <c r="F21" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>772</v>
+      </c>
+      <c r="H21" s="172" t="s">
+        <v>756</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60">
+      <c r="A22" s="93" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="H22" s="222"/>
+      <c r="I22" s="74"/>
+    </row>
+    <row r="23" spans="1:9" ht="84">
+      <c r="A23" s="216" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="217" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="208" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="218" t="s">
+        <v>776</v>
+      </c>
+      <c r="H23" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="I19" s="239" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="21" thickBot="1">
-      <c r="A20" s="250" t="s">
-        <v>434</v>
-      </c>
-      <c r="B20" s="251" t="s">
-        <v>778</v>
-      </c>
-      <c r="C20" s="251" t="s">
-        <v>780</v>
-      </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="184" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="252" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" s="253" t="s">
-        <v>788</v>
-      </c>
-      <c r="H20" s="254" t="s">
-        <v>772</v>
-      </c>
-      <c r="I20" s="255" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60">
-      <c r="A21" s="93" t="s">
-        <v>433</v>
-      </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="F21" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>791</v>
-      </c>
-      <c r="H21" s="242"/>
-      <c r="I21" s="74"/>
-    </row>
-    <row r="22" spans="1:9" ht="84">
-      <c r="A22" s="216" t="s">
-        <v>434</v>
-      </c>
-      <c r="B22" s="217" t="s">
-        <v>431</v>
-      </c>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="208" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="208" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="218" t="s">
-        <v>792</v>
-      </c>
-      <c r="H22" s="219" t="s">
-        <v>436</v>
-      </c>
-      <c r="I22" s="257" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="31" thickBot="1">
-      <c r="A23" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>537</v>
-      </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>793</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="1:9" ht="27" thickBot="1">
+      <c r="I23" s="225" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="31" thickBot="1">
       <c r="A24" s="95" t="s">
         <v>434</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>537</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>533</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C24" s="96"/>
       <c r="D24" s="96"/>
       <c r="E24" s="57" t="s">
-        <v>307</v>
+        <v>10</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>538</v>
+        <v>250</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>794</v>
-      </c>
-      <c r="H24" s="73"/>
+        <v>777</v>
+      </c>
+      <c r="H24" s="58"/>
       <c r="I24" s="64"/>
     </row>
-    <row r="25" spans="1:9" ht="45">
+    <row r="25" spans="1:9" ht="27" thickBot="1">
       <c r="A25" s="95" t="s">
         <v>434</v>
       </c>
       <c r="B25" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="D25" s="96"/>
+      <c r="E25" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="C25" s="96" t="s">
-        <v>533</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>547</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="208" t="s">
-        <v>26</v>
-      </c>
       <c r="G25" s="56" t="s">
-        <v>770</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>436</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="26">
+        <v>780</v>
+      </c>
+      <c r="H25" s="73"/>
+      <c r="I25" s="64"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
       <c r="A26" s="95" t="s">
         <v>434</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>444</v>
+        <v>546</v>
       </c>
       <c r="E26" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="F26" s="57" t="s">
-        <v>472</v>
+      <c r="F26" s="208" t="s">
+        <v>26</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>771</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>772</v>
+        <v>754</v>
+      </c>
+      <c r="H26" s="73" t="s">
+        <v>436</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="26">
@@ -18236,13 +18183,13 @@
         <v>434</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D27" s="96" t="s">
-        <v>287</v>
+        <v>444</v>
       </c>
       <c r="E27" s="57" t="s">
         <v>231</v>
@@ -18251,538 +18198,592 @@
         <v>472</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>769</v>
-      </c>
-      <c r="H27" s="58"/>
+        <v>755</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>756</v>
+      </c>
       <c r="I27" s="64" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31" thickBot="1">
-      <c r="A28" s="103" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="26">
+      <c r="A28" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="104" t="s">
-        <v>537</v>
-      </c>
-      <c r="C28" s="104" t="s">
+      <c r="B28" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>753</v>
+      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="64" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31" thickBot="1">
+      <c r="A29" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="104" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29" s="104" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="65" t="s">
+      <c r="D29" s="104"/>
+      <c r="E29" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F29" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="G28" s="66" t="s">
-        <v>776</v>
-      </c>
-      <c r="H28" s="172" t="s">
-        <v>772</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="142" customFormat="1" ht="175" customHeight="1" thickBot="1">
-      <c r="A29" s="123" t="s">
+      <c r="G29" s="66" t="s">
+        <v>760</v>
+      </c>
+      <c r="H29" s="172" t="s">
+        <v>756</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="142" customFormat="1" ht="43" customHeight="1" thickBot="1">
+      <c r="A30" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="130" t="s">
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F30" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="76" t="s">
+      <c r="G30" s="76" t="s">
         <v>507</v>
       </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="161"/>
-    </row>
-    <row r="30" spans="1:9" s="142" customFormat="1" ht="105">
-      <c r="A30" s="126" t="s">
+      <c r="H30" s="76"/>
+      <c r="I30" s="161"/>
+    </row>
+    <row r="31" spans="1:9" s="142" customFormat="1" ht="105">
+      <c r="A31" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B31" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="131" t="s">
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F31" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="129" t="s">
+      <c r="G31" s="129" t="s">
         <v>506</v>
       </c>
-      <c r="H30" s="129" t="s">
+      <c r="H31" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="177" t="s">
+      <c r="I31" s="177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="142" customFormat="1" ht="30">
-      <c r="A31" s="146" t="s">
+    <row r="32" spans="1:9" s="142" customFormat="1" ht="30">
+      <c r="A32" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B32" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148" t="s">
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="149" t="s">
+      <c r="F32" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="149" t="s">
+      <c r="G32" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="H31" s="149" t="s">
+      <c r="H32" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="163" t="s">
+      <c r="I32" s="163" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>610</v>
-      </c>
-      <c r="G32" s="32" t="s">
+    <row r="33" spans="1:9" s="142" customFormat="1" ht="135">
+      <c r="A33" s="245" t="s">
+        <v>521</v>
+      </c>
+      <c r="B33" s="246"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="248" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33" s="140" t="s">
+        <v>786</v>
+      </c>
+      <c r="H33" s="140"/>
+      <c r="I33" s="247"/>
+    </row>
+    <row r="34" spans="1:9" ht="136" thickBot="1">
+      <c r="A34" s="241" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="242"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="242"/>
+      <c r="E34" s="249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="243" t="s">
+        <v>784</v>
+      </c>
+      <c r="H34" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="244" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="141" customFormat="1" ht="32" customHeight="1">
+      <c r="A35" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="122" t="s">
+        <v>360</v>
+      </c>
+      <c r="H35" s="122"/>
+      <c r="I35" s="159"/>
+    </row>
+    <row r="36" spans="1:9" s="141" customFormat="1" ht="102" customHeight="1">
+      <c r="A36" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="166" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="141" customFormat="1" ht="91" customHeight="1">
+      <c r="A37" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="I37" s="166" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="141" customFormat="1" ht="58" customHeight="1" thickBot="1">
+      <c r="A38" s="108" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" s="109" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="133" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="111" t="s">
+        <v>491</v>
+      </c>
+      <c r="H38" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="167" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28">
+      <c r="A39" s="231" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="227" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="231"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="227"/>
+      <c r="F40" s="227"/>
+      <c r="G40" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="33" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="231"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="202"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="231"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="H42" s="31"/>
+      <c r="I42" s="202"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="231"/>
+      <c r="B43" s="227"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="H43" s="31"/>
+      <c r="I43" s="202"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="231"/>
+      <c r="B44" s="227"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="227"/>
+      <c r="E44" s="227"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="34"/>
-      <c r="B33" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="32" t="s">
+      <c r="H44" s="31"/>
+      <c r="I44" s="202"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="231"/>
+      <c r="B45" s="227"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="227"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="31" t="s">
         <v>649</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="42">
-      <c r="A34" s="34"/>
-      <c r="B34" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>612</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="224" t="s">
-        <v>613</v>
-      </c>
-      <c r="B35" s="220"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="220" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="226" t="s">
-        <v>650</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="225"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="224"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="225"/>
-    </row>
-    <row r="37" spans="1:9" ht="42">
-      <c r="A37" s="34"/>
-      <c r="B37" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="33" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28">
-      <c r="A38" s="34"/>
-      <c r="B38" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="224" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" s="220"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="220" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="225" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="224"/>
-      <c r="B40" s="220"/>
-      <c r="C40" s="220"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="220"/>
-      <c r="G40" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="225"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="224"/>
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="31" t="s">
-        <v>654</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="225"/>
-    </row>
-    <row r="42" spans="1:9" ht="30">
-      <c r="A42" s="224"/>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="32" t="s">
-        <v>655</v>
-      </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="225"/>
-    </row>
-    <row r="43" spans="1:9" ht="28">
-      <c r="A43" s="224" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="220"/>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="224"/>
-      <c r="B44" s="220"/>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="33" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="224"/>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="31" t="s">
-        <v>658</v>
       </c>
       <c r="H45" s="31"/>
       <c r="I45" s="202"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="224"/>
-      <c r="B46" s="220"/>
-      <c r="C46" s="220"/>
-      <c r="D46" s="220"/>
-      <c r="E46" s="220"/>
-      <c r="F46" s="220"/>
+      <c r="A46" s="231"/>
+      <c r="B46" s="227"/>
+      <c r="C46" s="227"/>
+      <c r="D46" s="227"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="227"/>
       <c r="G46" s="31" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H46" s="31"/>
       <c r="I46" s="202"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="224"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="220"/>
-      <c r="D47" s="220"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="220"/>
+      <c r="A47" s="231"/>
+      <c r="B47" s="227"/>
+      <c r="C47" s="227"/>
+      <c r="D47" s="227"/>
+      <c r="E47" s="227"/>
+      <c r="F47" s="227"/>
       <c r="G47" s="31" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="H47" s="31"/>
       <c r="I47" s="202"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="224"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="220"/>
+      <c r="A48" s="231"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="227"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="227"/>
       <c r="G48" s="31" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="H48" s="31"/>
       <c r="I48" s="202"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="224"/>
-      <c r="B49" s="220"/>
-      <c r="C49" s="220"/>
-      <c r="D49" s="220"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="220"/>
-      <c r="G49" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="H49" s="31"/>
-      <c r="I49" s="202"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="224"/>
-      <c r="B50" s="220"/>
-      <c r="C50" s="220"/>
-      <c r="D50" s="220"/>
-      <c r="E50" s="220"/>
-      <c r="F50" s="220"/>
+      <c r="A49" s="231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="227"/>
+      <c r="C49" s="227"/>
+      <c r="D49" s="227"/>
+      <c r="E49" s="227" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="H49" s="32"/>
+      <c r="I49" s="232"/>
+    </row>
+    <row r="50" spans="1:9" ht="60">
+      <c r="A50" s="231"/>
+      <c r="B50" s="227"/>
+      <c r="C50" s="227"/>
+      <c r="D50" s="227"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="227"/>
       <c r="G50" s="31" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="H50" s="31"/>
-      <c r="I50" s="202"/>
+      <c r="I50" s="232"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="224"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="31" t="s">
-        <v>664</v>
-      </c>
-      <c r="H51" s="31"/>
-      <c r="I51" s="202"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="224"/>
-      <c r="B52" s="220"/>
-      <c r="C52" s="220"/>
-      <c r="D52" s="220"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="31" t="s">
-        <v>665</v>
-      </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="202"/>
+      <c r="A51" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="33"/>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="33"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="224" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="220"/>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="220" t="s">
-        <v>48</v>
-      </c>
+      <c r="A53" s="234" t="s">
+        <v>612</v>
+      </c>
+      <c r="B53" s="227"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="227"/>
+      <c r="E53" s="227"/>
+      <c r="F53" s="227"/>
       <c r="G53" s="32" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="H53" s="32"/>
-      <c r="I53" s="225"/>
-    </row>
-    <row r="54" spans="1:9" ht="60">
-      <c r="A54" s="224"/>
-      <c r="B54" s="220"/>
-      <c r="C54" s="220"/>
-      <c r="D54" s="220"/>
-      <c r="E54" s="220"/>
-      <c r="F54" s="220"/>
+      <c r="I53" s="232"/>
+    </row>
+    <row r="54" spans="1:9" ht="75">
+      <c r="A54" s="234"/>
+      <c r="B54" s="227"/>
+      <c r="C54" s="227"/>
+      <c r="D54" s="227"/>
+      <c r="E54" s="227"/>
+      <c r="F54" s="227"/>
       <c r="G54" s="31" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="H54" s="31"/>
-      <c r="I54" s="225"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="34" t="s">
-        <v>614</v>
-      </c>
-      <c r="B55" s="31"/>
+      <c r="I54" s="232"/>
+    </row>
+    <row r="55" spans="1:9" ht="28">
+      <c r="A55" s="34"/>
+      <c r="B55" s="31" t="s">
+        <v>613</v>
+      </c>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>615</v>
+        <v>87</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="33"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="31"/>
+    <row r="56" spans="1:9" ht="28">
+      <c r="A56" s="34"/>
+      <c r="B56" s="31" t="s">
+        <v>614</v>
+      </c>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
       <c r="E56" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>616</v>
+        <v>386</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="33"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="227" t="s">
-        <v>617</v>
-      </c>
-      <c r="B57" s="220"/>
-      <c r="C57" s="220"/>
-      <c r="D57" s="220"/>
-      <c r="E57" s="220"/>
-      <c r="F57" s="220"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="G57" s="32" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="H57" s="32"/>
-      <c r="I57" s="225"/>
-    </row>
-    <row r="58" spans="1:9" ht="75">
-      <c r="A58" s="227"/>
-      <c r="B58" s="220"/>
-      <c r="C58" s="220"/>
-      <c r="D58" s="220"/>
-      <c r="E58" s="220"/>
-      <c r="F58" s="220"/>
-      <c r="G58" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="225"/>
-    </row>
-    <row r="59" spans="1:9" ht="28">
+      <c r="I57" s="33"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="34"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="H58" s="32"/>
+      <c r="I58" s="33"/>
+    </row>
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="34"/>
       <c r="B59" s="31" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
@@ -18790,10 +18791,10 @@
         <v>47</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>87</v>
+        <v>390</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="33"/>
@@ -18801,7 +18802,7 @@
     <row r="60" spans="1:9" ht="28">
       <c r="A60" s="34"/>
       <c r="B60" s="31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
@@ -18809,75 +18810,65 @@
         <v>47</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="H60" s="32"/>
       <c r="I60" s="33"/>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="34"/>
+    <row r="61" spans="1:9" ht="126">
+      <c r="A61" s="34" t="s">
+        <v>617</v>
+      </c>
       <c r="B61" s="31"/>
-      <c r="C61" s="31" t="s">
-        <v>104</v>
-      </c>
+      <c r="C61" s="31"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>87</v>
+        <v>618</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="33"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="34"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>87</v>
-      </c>
+      <c r="A62" s="231" t="s">
+        <v>619</v>
+      </c>
+      <c r="B62" s="227"/>
+      <c r="C62" s="227"/>
+      <c r="D62" s="227"/>
+      <c r="E62" s="227"/>
+      <c r="F62" s="227"/>
       <c r="G62" s="32" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="1:9" ht="30">
-      <c r="A63" s="34"/>
-      <c r="B63" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="1:9" ht="28">
+      <c r="I62" s="232"/>
+    </row>
+    <row r="63" spans="1:9" ht="45">
+      <c r="A63" s="231"/>
+      <c r="B63" s="227"/>
+      <c r="C63" s="227"/>
+      <c r="D63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="H63" s="31"/>
+      <c r="I63" s="232"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="34"/>
       <c r="B64" s="31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
@@ -18885,65 +18876,75 @@
         <v>47</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="H64" s="32"/>
       <c r="I64" s="33"/>
     </row>
-    <row r="65" spans="1:9" ht="126">
-      <c r="A65" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="B65" s="31"/>
+    <row r="65" spans="1:9" ht="28">
+      <c r="A65" s="34"/>
+      <c r="B65" s="31" t="s">
+        <v>621</v>
+      </c>
       <c r="C65" s="31"/>
       <c r="D65" s="31"/>
       <c r="E65" s="31" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>623</v>
+        <v>48</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="33"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="224" t="s">
-        <v>624</v>
-      </c>
-      <c r="B66" s="220"/>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="220"/>
-      <c r="F66" s="220"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="G66" s="32" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="H66" s="32"/>
-      <c r="I66" s="225"/>
-    </row>
-    <row r="67" spans="1:9" ht="45">
-      <c r="A67" s="224"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="220"/>
-      <c r="D67" s="220"/>
-      <c r="E67" s="220"/>
-      <c r="F67" s="220"/>
-      <c r="G67" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="H67" s="31"/>
-      <c r="I67" s="225"/>
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="34"/>
+      <c r="B67" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="33"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="34"/>
       <c r="B68" s="31" t="s">
-        <v>625</v>
+        <v>310</v>
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
@@ -18951,18 +18952,18 @@
         <v>47</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="H68" s="32"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="1:9" ht="28">
+    <row r="69" spans="1:9">
       <c r="A69" s="34"/>
       <c r="B69" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
@@ -18970,10 +18971,10 @@
         <v>47</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H69" s="32"/>
       <c r="I69" s="33"/>
@@ -18981,7 +18982,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="34"/>
       <c r="B70" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
@@ -18989,18 +18990,18 @@
         <v>47</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="28">
       <c r="A71" s="34"/>
       <c r="B71" s="31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
@@ -19008,10 +19009,10 @@
         <v>47</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>395</v>
+        <v>627</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H71" s="32"/>
       <c r="I71" s="33"/>
@@ -19019,7 +19020,7 @@
     <row r="72" spans="1:9">
       <c r="A72" s="34"/>
       <c r="B72" s="31" t="s">
-        <v>310</v>
+        <v>628</v>
       </c>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
@@ -19027,15 +19028,15 @@
         <v>47</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" ht="28">
       <c r="A73" s="34"/>
       <c r="B73" s="31" t="s">
         <v>629</v>
@@ -19046,10 +19047,10 @@
         <v>47</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="H73" s="32"/>
       <c r="I73" s="33"/>
@@ -19057,7 +19058,7 @@
     <row r="74" spans="1:9">
       <c r="A74" s="34"/>
       <c r="B74" s="31" t="s">
-        <v>630</v>
+        <v>385</v>
       </c>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
@@ -19065,980 +19066,889 @@
         <v>47</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="H74" s="32"/>
       <c r="I74" s="33"/>
     </row>
     <row r="75" spans="1:9" ht="28">
-      <c r="A75" s="34"/>
-      <c r="B75" s="31" t="s">
+      <c r="A75" s="231" t="s">
+        <v>630</v>
+      </c>
+      <c r="B75" s="227"/>
+      <c r="C75" s="227"/>
+      <c r="D75" s="227"/>
+      <c r="E75" s="227" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" s="233" t="s">
+        <v>679</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="33" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="231"/>
+      <c r="B76" s="227"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="227"/>
+      <c r="F76" s="227"/>
+      <c r="G76" s="233"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="42">
+      <c r="A77" s="231" t="s">
         <v>631</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31" t="s">
+      <c r="B77" s="227"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="227" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="H77" s="32"/>
+      <c r="I77" s="33" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="231"/>
+      <c r="B78" s="227"/>
+      <c r="C78" s="227"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="227"/>
+      <c r="F78" s="227"/>
+      <c r="G78" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="H78" s="32"/>
+      <c r="I78" s="33" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="31"/>
+      <c r="G79" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="33"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="34"/>
+      <c r="B80" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="31" t="s">
-        <v>632</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="34"/>
-      <c r="B76" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31" t="s">
+      <c r="F80" s="31"/>
+      <c r="G80" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
+    </row>
+    <row r="81" spans="1:9" ht="28">
+      <c r="A81" s="34"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>689</v>
-      </c>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33"/>
-    </row>
-    <row r="77" spans="1:9" ht="28">
-      <c r="A77" s="34"/>
-      <c r="B77" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>690</v>
-      </c>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="34"/>
-      <c r="B78" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
-    </row>
-    <row r="79" spans="1:9" ht="28">
-      <c r="A79" s="224" t="s">
-        <v>635</v>
-      </c>
-      <c r="B79" s="220"/>
-      <c r="C79" s="220"/>
-      <c r="D79" s="220"/>
-      <c r="E79" s="220" t="s">
-        <v>47</v>
-      </c>
-      <c r="F79" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="G79" s="226" t="s">
-        <v>692</v>
-      </c>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="224"/>
-      <c r="B80" s="220"/>
-      <c r="C80" s="220"/>
-      <c r="D80" s="220"/>
-      <c r="E80" s="220"/>
-      <c r="F80" s="220"/>
-      <c r="G80" s="226"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="33" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="42">
-      <c r="A81" s="224" t="s">
-        <v>636</v>
-      </c>
-      <c r="B81" s="220"/>
-      <c r="C81" s="220"/>
-      <c r="D81" s="220"/>
-      <c r="E81" s="220" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="220" t="s">
-        <v>48</v>
+      <c r="F81" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>693</v>
+        <v>132</v>
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="33" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="224"/>
-      <c r="B82" s="220"/>
-      <c r="C82" s="220"/>
-      <c r="D82" s="220"/>
-      <c r="E82" s="220"/>
-      <c r="F82" s="220"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="G82" s="32" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="H82" s="32"/>
-      <c r="I82" s="33" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="B83" s="31"/>
+      <c r="I82" s="33"/>
+    </row>
+    <row r="83" spans="1:9" ht="30">
+      <c r="A83" s="34"/>
+      <c r="B83" s="31" t="s">
+        <v>57</v>
+      </c>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
       <c r="E83" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="31"/>
+        <v>10</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="G83" s="32" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="33"/>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="34"/>
-      <c r="B84" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31" t="s">
+    <row r="84" spans="1:9" ht="28">
+      <c r="A84" s="231" t="s">
+        <v>632</v>
+      </c>
+      <c r="B84" s="227"/>
+      <c r="C84" s="227"/>
+      <c r="D84" s="227"/>
+      <c r="E84" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="31"/>
+      <c r="F84" s="227" t="s">
+        <v>48</v>
+      </c>
       <c r="G84" s="32" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="1:9" ht="28">
-      <c r="A85" s="34"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31" t="s">
+      <c r="I84" s="33" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="60">
+      <c r="A85" s="231"/>
+      <c r="B85" s="227"/>
+      <c r="C85" s="227"/>
+      <c r="D85" s="227"/>
+      <c r="E85" s="227"/>
+      <c r="F85" s="227"/>
+      <c r="G85" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="H85" s="31"/>
+      <c r="I85" s="33" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="231"/>
+      <c r="B86" s="227"/>
+      <c r="C86" s="227"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="227"/>
+      <c r="F86" s="227"/>
+      <c r="G86" s="203"/>
+      <c r="H86" s="203"/>
+      <c r="I86" s="33" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="231"/>
+      <c r="B87" s="227"/>
+      <c r="C87" s="227"/>
+      <c r="D87" s="227"/>
+      <c r="E87" s="227"/>
+      <c r="F87" s="227"/>
+      <c r="G87" s="203"/>
+      <c r="H87" s="203"/>
+      <c r="I87" s="33" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="231" t="s">
+        <v>398</v>
+      </c>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G85" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="34"/>
-      <c r="B86" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31" t="s">
+      <c r="F88" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="H88" s="32"/>
+      <c r="I88" s="232"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="231"/>
+      <c r="B89" s="227"/>
+      <c r="C89" s="227"/>
+      <c r="D89" s="227"/>
+      <c r="E89" s="227"/>
+      <c r="F89" s="227"/>
+      <c r="G89" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="H89" s="31"/>
+      <c r="I89" s="232"/>
+    </row>
+    <row r="90" spans="1:9" ht="30">
+      <c r="A90" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" s="32" t="s">
-        <v>697</v>
-      </c>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
-    </row>
-    <row r="87" spans="1:9" ht="30">
-      <c r="A87" s="34"/>
-      <c r="B87" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31" t="s">
+      <c r="F90" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>690</v>
+      </c>
+      <c r="H90" s="32"/>
+      <c r="I90" s="33"/>
+    </row>
+    <row r="91" spans="1:9" ht="30">
+      <c r="A91" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="33"/>
+    </row>
+    <row r="92" spans="1:9" ht="28">
+      <c r="A92" s="34"/>
+      <c r="B92" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="33"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="34"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G87" s="32" t="s">
-        <v>698</v>
-      </c>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
-    </row>
-    <row r="88" spans="1:9" ht="28">
-      <c r="A88" s="224" t="s">
-        <v>637</v>
-      </c>
-      <c r="B88" s="220"/>
-      <c r="C88" s="220"/>
-      <c r="D88" s="220"/>
-      <c r="E88" s="220" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" s="32" t="s">
-        <v>699</v>
-      </c>
-      <c r="H88" s="32"/>
-      <c r="I88" s="33" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="60">
-      <c r="A89" s="224"/>
-      <c r="B89" s="220"/>
-      <c r="C89" s="220"/>
-      <c r="D89" s="220"/>
-      <c r="E89" s="220"/>
-      <c r="F89" s="220"/>
-      <c r="G89" s="31" t="s">
-        <v>700</v>
-      </c>
-      <c r="H89" s="31"/>
-      <c r="I89" s="33" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="224"/>
-      <c r="B90" s="220"/>
-      <c r="C90" s="220"/>
-      <c r="D90" s="220"/>
-      <c r="E90" s="220"/>
-      <c r="F90" s="220"/>
-      <c r="G90" s="203"/>
-      <c r="H90" s="203"/>
-      <c r="I90" s="33" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="224"/>
-      <c r="B91" s="220"/>
-      <c r="C91" s="220"/>
-      <c r="D91" s="220"/>
-      <c r="E91" s="220"/>
-      <c r="F91" s="220"/>
-      <c r="G91" s="203"/>
-      <c r="H91" s="203"/>
-      <c r="I91" s="33" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="224" t="s">
-        <v>398</v>
-      </c>
-      <c r="B92" s="220"/>
-      <c r="C92" s="220"/>
-      <c r="D92" s="220"/>
-      <c r="E92" s="220" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="G92" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="H92" s="32"/>
-      <c r="I92" s="225"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="224"/>
-      <c r="B93" s="220"/>
-      <c r="C93" s="220"/>
-      <c r="D93" s="220"/>
-      <c r="E93" s="220"/>
-      <c r="F93" s="220"/>
-      <c r="G93" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="H93" s="31"/>
-      <c r="I93" s="225"/>
-    </row>
-    <row r="94" spans="1:9" ht="30">
-      <c r="A94" s="34" t="s">
-        <v>638</v>
-      </c>
+      <c r="F93" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="H93" s="32"/>
+      <c r="I93" s="33"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="34"/>
       <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
+      <c r="C94" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="D94" s="31"/>
       <c r="E94" s="31" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>639</v>
+        <v>44</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="H94" s="32"/>
-      <c r="I94" s="33"/>
-    </row>
-    <row r="95" spans="1:9" ht="30">
-      <c r="A95" s="34" t="s">
-        <v>640</v>
-      </c>
+      <c r="I94" s="33" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="34"/>
       <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+      <c r="C95" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="D95" s="31"/>
       <c r="E95" s="31" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
-    </row>
-    <row r="96" spans="1:9" ht="28">
+      <c r="I95" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="34"/>
-      <c r="B96" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="D96" s="31"/>
       <c r="E96" s="31" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="33"/>
-    </row>
-    <row r="97" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="33" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="28">
       <c r="A97" s="34"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31" t="s">
-        <v>43</v>
-      </c>
+      <c r="B97" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="31"/>
       <c r="D97" s="31"/>
       <c r="E97" s="31" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>92</v>
+        <v>636</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="H97" s="32"/>
       <c r="I97" s="33"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="34"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="31" t="s">
+      <c r="A98" s="231"/>
+      <c r="B98" s="227" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="227"/>
+      <c r="D98" s="227"/>
+      <c r="E98" s="227" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="H98" s="32"/>
+      <c r="I98" s="232" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="231"/>
+      <c r="B99" s="227"/>
+      <c r="C99" s="227"/>
+      <c r="D99" s="227"/>
+      <c r="E99" s="227"/>
+      <c r="F99" s="227"/>
+      <c r="G99" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="H99" s="32"/>
+      <c r="I99" s="232"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="231"/>
+      <c r="B100" s="227"/>
+      <c r="C100" s="227"/>
+      <c r="D100" s="227"/>
+      <c r="E100" s="227"/>
+      <c r="F100" s="227"/>
+      <c r="G100" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="H100" s="31"/>
+      <c r="I100" s="232"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="231"/>
+      <c r="B101" s="227"/>
+      <c r="C101" s="227"/>
+      <c r="D101" s="227"/>
+      <c r="E101" s="227"/>
+      <c r="F101" s="227"/>
+      <c r="G101" s="204" t="s">
+        <v>699</v>
+      </c>
+      <c r="H101" s="204"/>
+      <c r="I101" s="232"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="231"/>
+      <c r="B102" s="227"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="227"/>
+      <c r="E102" s="227"/>
+      <c r="F102" s="227"/>
+      <c r="G102" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="H102" s="31"/>
+      <c r="I102" s="232"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="231"/>
+      <c r="B103" s="227"/>
+      <c r="C103" s="227"/>
+      <c r="D103" s="227"/>
+      <c r="E103" s="227"/>
+      <c r="F103" s="227"/>
+      <c r="G103" s="204" t="s">
+        <v>701</v>
+      </c>
+      <c r="H103" s="204"/>
+      <c r="I103" s="232"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="231"/>
+      <c r="B104" s="227"/>
+      <c r="C104" s="227"/>
+      <c r="D104" s="227"/>
+      <c r="E104" s="227"/>
+      <c r="F104" s="227"/>
+      <c r="G104" s="204" t="s">
+        <v>702</v>
+      </c>
+      <c r="H104" s="204"/>
+      <c r="I104" s="232"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="231"/>
+      <c r="B105" s="227"/>
+      <c r="C105" s="227"/>
+      <c r="D105" s="227"/>
+      <c r="E105" s="227"/>
+      <c r="F105" s="227"/>
+      <c r="G105" s="204" t="s">
+        <v>703</v>
+      </c>
+      <c r="H105" s="204"/>
+      <c r="I105" s="232"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="231"/>
+      <c r="B106" s="227"/>
+      <c r="C106" s="227"/>
+      <c r="D106" s="227"/>
+      <c r="E106" s="227"/>
+      <c r="F106" s="227"/>
+      <c r="G106" s="204" t="s">
+        <v>704</v>
+      </c>
+      <c r="H106" s="204"/>
+      <c r="I106" s="232"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="231"/>
+      <c r="B107" s="227"/>
+      <c r="C107" s="227"/>
+      <c r="D107" s="227"/>
+      <c r="E107" s="227"/>
+      <c r="F107" s="227"/>
+      <c r="G107" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="H107" s="31"/>
+      <c r="I107" s="232"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="231"/>
+      <c r="B108" s="227"/>
+      <c r="C108" s="227"/>
+      <c r="D108" s="227"/>
+      <c r="E108" s="227"/>
+      <c r="F108" s="227"/>
+      <c r="G108" s="204" t="s">
+        <v>706</v>
+      </c>
+      <c r="H108" s="204"/>
+      <c r="I108" s="232"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="231"/>
+      <c r="B109" s="227"/>
+      <c r="C109" s="227"/>
+      <c r="D109" s="227"/>
+      <c r="E109" s="227"/>
+      <c r="F109" s="227"/>
+      <c r="G109" s="204" t="s">
+        <v>707</v>
+      </c>
+      <c r="H109" s="204"/>
+      <c r="I109" s="232"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="231"/>
+      <c r="B110" s="227"/>
+      <c r="C110" s="227"/>
+      <c r="D110" s="227"/>
+      <c r="E110" s="227"/>
+      <c r="F110" s="227"/>
+      <c r="G110" s="204" t="s">
+        <v>708</v>
+      </c>
+      <c r="H110" s="204"/>
+      <c r="I110" s="232"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="231"/>
+      <c r="B111" s="227"/>
+      <c r="C111" s="227"/>
+      <c r="D111" s="227"/>
+      <c r="E111" s="227"/>
+      <c r="F111" s="227"/>
+      <c r="G111" s="204" t="s">
+        <v>709</v>
+      </c>
+      <c r="H111" s="204"/>
+      <c r="I111" s="232"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="231"/>
+      <c r="B112" s="227"/>
+      <c r="C112" s="227"/>
+      <c r="D112" s="227"/>
+      <c r="E112" s="227"/>
+      <c r="F112" s="227"/>
+      <c r="G112" s="204" t="s">
+        <v>710</v>
+      </c>
+      <c r="H112" s="204"/>
+      <c r="I112" s="232"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="34"/>
+      <c r="B113" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G98" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="34"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="H99" s="32"/>
-      <c r="I99" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="34"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31" t="s">
+      <c r="G113" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="H113" s="32"/>
+      <c r="I113" s="33"/>
+    </row>
+    <row r="114" spans="1:9" ht="60">
+      <c r="A114" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="H114" s="32"/>
+      <c r="I114" s="33"/>
+    </row>
+    <row r="115" spans="1:9" ht="56">
+      <c r="A115" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>713</v>
+      </c>
+      <c r="H115" s="32"/>
+      <c r="I115" s="33"/>
+    </row>
+    <row r="116" spans="1:9" ht="75">
+      <c r="A116" s="231" t="s">
+        <v>640</v>
+      </c>
+      <c r="B116" s="227"/>
+      <c r="C116" s="227"/>
+      <c r="D116" s="227"/>
+      <c r="E116" s="227" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="227" t="s">
+        <v>140</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="H116" s="32"/>
+      <c r="I116" s="232"/>
+    </row>
+    <row r="117" spans="1:9" ht="45">
+      <c r="A117" s="231"/>
+      <c r="B117" s="227"/>
+      <c r="C117" s="227"/>
+      <c r="D117" s="227"/>
+      <c r="E117" s="227"/>
+      <c r="F117" s="227"/>
+      <c r="G117" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="H117" s="32"/>
+      <c r="I117" s="232"/>
+    </row>
+    <row r="118" spans="1:9" ht="28">
+      <c r="A118" s="34"/>
+      <c r="B118" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="H100" s="32"/>
-      <c r="I100" s="33" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="28">
-      <c r="A101" s="34"/>
-      <c r="B101" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="G101" s="32" t="s">
-        <v>708</v>
-      </c>
-      <c r="H101" s="32"/>
-      <c r="I101" s="33"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="224"/>
-      <c r="B102" s="220" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="220"/>
-      <c r="D102" s="220"/>
-      <c r="E102" s="220" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="G102" s="32" t="s">
-        <v>709</v>
-      </c>
-      <c r="H102" s="32"/>
-      <c r="I102" s="225" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="224"/>
-      <c r="B103" s="220"/>
-      <c r="C103" s="220"/>
-      <c r="D103" s="220"/>
-      <c r="E103" s="220"/>
-      <c r="F103" s="220"/>
-      <c r="G103" s="32" t="s">
-        <v>710</v>
-      </c>
-      <c r="H103" s="32"/>
-      <c r="I103" s="225"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="224"/>
-      <c r="B104" s="220"/>
-      <c r="C104" s="220"/>
-      <c r="D104" s="220"/>
-      <c r="E104" s="220"/>
-      <c r="F104" s="220"/>
-      <c r="G104" s="31" t="s">
-        <v>711</v>
-      </c>
-      <c r="H104" s="31"/>
-      <c r="I104" s="225"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="224"/>
-      <c r="B105" s="220"/>
-      <c r="C105" s="220"/>
-      <c r="D105" s="220"/>
-      <c r="E105" s="220"/>
-      <c r="F105" s="220"/>
-      <c r="G105" s="204" t="s">
-        <v>712</v>
-      </c>
-      <c r="H105" s="204"/>
-      <c r="I105" s="225"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="224"/>
-      <c r="B106" s="220"/>
-      <c r="C106" s="220"/>
-      <c r="D106" s="220"/>
-      <c r="E106" s="220"/>
-      <c r="F106" s="220"/>
-      <c r="G106" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="H106" s="31"/>
-      <c r="I106" s="225"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="224"/>
-      <c r="B107" s="220"/>
-      <c r="C107" s="220"/>
-      <c r="D107" s="220"/>
-      <c r="E107" s="220"/>
-      <c r="F107" s="220"/>
-      <c r="G107" s="204" t="s">
-        <v>714</v>
-      </c>
-      <c r="H107" s="204"/>
-      <c r="I107" s="225"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="224"/>
-      <c r="B108" s="220"/>
-      <c r="C108" s="220"/>
-      <c r="D108" s="220"/>
-      <c r="E108" s="220"/>
-      <c r="F108" s="220"/>
-      <c r="G108" s="204" t="s">
-        <v>715</v>
-      </c>
-      <c r="H108" s="204"/>
-      <c r="I108" s="225"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="224"/>
-      <c r="B109" s="220"/>
-      <c r="C109" s="220"/>
-      <c r="D109" s="220"/>
-      <c r="E109" s="220"/>
-      <c r="F109" s="220"/>
-      <c r="G109" s="204" t="s">
-        <v>716</v>
-      </c>
-      <c r="H109" s="204"/>
-      <c r="I109" s="225"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="224"/>
-      <c r="B110" s="220"/>
-      <c r="C110" s="220"/>
-      <c r="D110" s="220"/>
-      <c r="E110" s="220"/>
-      <c r="F110" s="220"/>
-      <c r="G110" s="204" t="s">
-        <v>717</v>
-      </c>
-      <c r="H110" s="204"/>
-      <c r="I110" s="225"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="224"/>
-      <c r="B111" s="220"/>
-      <c r="C111" s="220"/>
-      <c r="D111" s="220"/>
-      <c r="E111" s="220"/>
-      <c r="F111" s="220"/>
-      <c r="G111" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="H111" s="31"/>
-      <c r="I111" s="225"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="224"/>
-      <c r="B112" s="220"/>
-      <c r="C112" s="220"/>
-      <c r="D112" s="220"/>
-      <c r="E112" s="220"/>
-      <c r="F112" s="220"/>
-      <c r="G112" s="204" t="s">
-        <v>719</v>
-      </c>
-      <c r="H112" s="204"/>
-      <c r="I112" s="225"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="224"/>
-      <c r="B113" s="220"/>
-      <c r="C113" s="220"/>
-      <c r="D113" s="220"/>
-      <c r="E113" s="220"/>
-      <c r="F113" s="220"/>
-      <c r="G113" s="204" t="s">
-        <v>720</v>
-      </c>
-      <c r="H113" s="204"/>
-      <c r="I113" s="225"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="224"/>
-      <c r="B114" s="220"/>
-      <c r="C114" s="220"/>
-      <c r="D114" s="220"/>
-      <c r="E114" s="220"/>
-      <c r="F114" s="220"/>
-      <c r="G114" s="204" t="s">
-        <v>721</v>
-      </c>
-      <c r="H114" s="204"/>
-      <c r="I114" s="225"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="224"/>
-      <c r="B115" s="220"/>
-      <c r="C115" s="220"/>
-      <c r="D115" s="220"/>
-      <c r="E115" s="220"/>
-      <c r="F115" s="220"/>
-      <c r="G115" s="204" t="s">
-        <v>722</v>
-      </c>
-      <c r="H115" s="204"/>
-      <c r="I115" s="225"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="224"/>
-      <c r="B116" s="220"/>
-      <c r="C116" s="220"/>
-      <c r="D116" s="220"/>
-      <c r="E116" s="220"/>
-      <c r="F116" s="220"/>
-      <c r="G116" s="204" t="s">
-        <v>723</v>
-      </c>
-      <c r="H116" s="204"/>
-      <c r="I116" s="225"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="34"/>
-      <c r="B117" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G117" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="H117" s="32"/>
-      <c r="I117" s="33"/>
-    </row>
-    <row r="118" spans="1:9" ht="60">
-      <c r="A118" s="34" t="s">
-        <v>642</v>
-      </c>
-      <c r="B118" s="31"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
       <c r="E118" s="31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="G118" s="32" t="s">
-        <v>725</v>
-      </c>
-      <c r="H118" s="32"/>
+        <v>48</v>
+      </c>
+      <c r="G118" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="H118" s="31"/>
       <c r="I118" s="33"/>
     </row>
-    <row r="119" spans="1:9" ht="56">
-      <c r="A119" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="B119" s="31"/>
+    <row r="119" spans="1:9" ht="60">
+      <c r="A119" s="34"/>
+      <c r="B119" s="31" t="s">
+        <v>619</v>
+      </c>
       <c r="C119" s="31"/>
       <c r="D119" s="31"/>
       <c r="E119" s="31" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="G119" s="32" t="s">
-        <v>726</v>
-      </c>
-      <c r="H119" s="32"/>
+        <v>641</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="H119" s="31"/>
       <c r="I119" s="33"/>
     </row>
-    <row r="120" spans="1:9" ht="75">
-      <c r="A120" s="224" t="s">
-        <v>645</v>
-      </c>
-      <c r="B120" s="220"/>
-      <c r="C120" s="220"/>
-      <c r="D120" s="220"/>
-      <c r="E120" s="220" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="220" t="s">
-        <v>140</v>
-      </c>
-      <c r="G120" s="32" t="s">
-        <v>727</v>
-      </c>
-      <c r="H120" s="32"/>
-      <c r="I120" s="225"/>
-    </row>
-    <row r="121" spans="1:9" ht="45">
-      <c r="A121" s="224"/>
-      <c r="B121" s="220"/>
-      <c r="C121" s="220"/>
-      <c r="D121" s="220"/>
-      <c r="E121" s="220"/>
-      <c r="F121" s="220"/>
-      <c r="G121" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="H121" s="32"/>
-      <c r="I121" s="225"/>
+    <row r="120" spans="1:9" ht="28">
+      <c r="A120" s="34"/>
+      <c r="B120" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="H120" s="31"/>
+      <c r="I120" s="33"/>
+    </row>
+    <row r="121" spans="1:9" ht="28">
+      <c r="A121" s="34"/>
+      <c r="B121" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G121" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="H121" s="31"/>
+      <c r="I121" s="33"/>
     </row>
     <row r="122" spans="1:9" ht="28">
       <c r="A122" s="34"/>
       <c r="B122" s="31" t="s">
-        <v>30</v>
+        <v>635</v>
       </c>
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="G122" s="31" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="H122" s="31"/>
       <c r="I122" s="33"/>
     </row>
-    <row r="123" spans="1:9" ht="60">
-      <c r="A123" s="34"/>
-      <c r="B123" s="31" t="s">
-        <v>624</v>
-      </c>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F123" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="G123" s="31" t="s">
-        <v>730</v>
-      </c>
-      <c r="H123" s="31"/>
-      <c r="I123" s="33"/>
-    </row>
-    <row r="124" spans="1:9" ht="28">
-      <c r="A124" s="34"/>
-      <c r="B124" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F124" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G124" s="31" t="s">
-        <v>731</v>
-      </c>
-      <c r="H124" s="31"/>
-      <c r="I124" s="33"/>
-    </row>
-    <row r="125" spans="1:9" ht="28">
-      <c r="A125" s="34"/>
-      <c r="B125" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G125" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="H125" s="31"/>
-      <c r="I125" s="33"/>
-    </row>
-    <row r="126" spans="1:9" ht="28">
-      <c r="A126" s="34"/>
-      <c r="B126" s="31" t="s">
-        <v>640</v>
-      </c>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F126" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G126" s="31" t="s">
-        <v>733</v>
-      </c>
-      <c r="H126" s="31"/>
-      <c r="I126" s="33"/>
-    </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="I57:I58"/>
+  <mergeCells count="67">
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="A98:A112"/>
+    <mergeCell ref="B98:B112"/>
+    <mergeCell ref="C98:C112"/>
+    <mergeCell ref="D98:D112"/>
+    <mergeCell ref="E98:E112"/>
+    <mergeCell ref="F98:F112"/>
+    <mergeCell ref="I98:I112"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="B102:B116"/>
-    <mergeCell ref="C102:C116"/>
-    <mergeCell ref="D102:D116"/>
-    <mergeCell ref="E102:E116"/>
-    <mergeCell ref="F102:F116"/>
-    <mergeCell ref="I102:I116"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C39:C48"/>
+    <mergeCell ref="D39:D48"/>
+    <mergeCell ref="E39:E48"/>
+    <mergeCell ref="F39:F48"/>
   </mergeCells>
   <phoneticPr fontId="25"/>
   <hyperlinks>
-    <hyperlink ref="I19" r:id="rId1" xr:uid="{2A2500F6-8DF8-374A-9932-5A64869825A9}"/>
-    <hyperlink ref="I17" r:id="rId2" xr:uid="{68428752-1FC6-A842-A665-77BA54C6915A}"/>
-    <hyperlink ref="I22" r:id="rId3" xr:uid="{FF253282-C154-6D41-8161-FE49B54F9C30}"/>
+    <hyperlink ref="I20" r:id="rId1" xr:uid="{2A2500F6-8DF8-374A-9932-5A64869825A9}"/>
+    <hyperlink ref="I18" r:id="rId2" xr:uid="{68428752-1FC6-A842-A665-77BA54C6915A}"/>
+    <hyperlink ref="I23" r:id="rId3" xr:uid="{FF253282-C154-6D41-8161-FE49B54F9C30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20124,7 +20034,7 @@
         <v>306</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H3" s="172"/>
       <c r="I3" s="67"/>
@@ -20145,7 +20055,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>436</v>
@@ -20159,7 +20069,7 @@
         <v>434</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="96"/>
@@ -20193,7 +20103,7 @@
         <v>87</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H6" s="76" t="s">
         <v>17</v>
@@ -20216,7 +20126,7 @@
         <v>306</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="74"/>
@@ -20237,7 +20147,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>436</v>
@@ -20412,7 +20322,7 @@
         <v>48</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="74"/>
@@ -20454,13 +20364,13 @@
         <v>26</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H17" s="59" t="s">
         <v>436</v>
       </c>
       <c r="I17" s="196" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
@@ -20533,7 +20443,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H20" s="76" t="s">
         <v>17</v>
@@ -20556,7 +20466,7 @@
         <v>390</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H21" s="77"/>
       <c r="I21" s="74"/>
@@ -20577,7 +20487,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>17</v>
@@ -20602,7 +20512,7 @@
         <v>392</v>
       </c>
       <c r="G23" s="194" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="64"/>
@@ -20625,7 +20535,7 @@
         <v>388</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H24" s="60"/>
       <c r="I24" s="64"/>
@@ -20650,7 +20560,7 @@
         <v>92</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>17</v>
@@ -20679,7 +20589,7 @@
         <v>44</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H26" s="59" t="s">
         <v>436</v>
@@ -20762,7 +20672,7 @@
         <v>48</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H29" s="60"/>
       <c r="I29" s="64"/>
@@ -20810,13 +20720,13 @@
         <v>26</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H31" s="59" t="s">
         <v>436</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -20874,7 +20784,7 @@
         <v>17</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31" thickBot="1">
@@ -20901,7 +20811,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31" thickBot="1">
@@ -20958,7 +20868,7 @@
         <v>23</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H37" s="60"/>
       <c r="I37" s="64"/>
@@ -20987,7 +20897,7 @@
         <v>436</v>
       </c>
       <c r="I38" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -21104,7 +21014,7 @@
         <v>23</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H43" s="60"/>
       <c r="I43" s="64"/>
@@ -21127,7 +21037,7 @@
         <v>26</v>
       </c>
       <c r="G44" s="56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H44" s="59" t="s">
         <v>436</v>
@@ -21229,7 +21139,7 @@
         <v>48</v>
       </c>
       <c r="G48" s="85" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H48" s="77"/>
       <c r="I48" s="74"/>
@@ -21250,7 +21160,7 @@
         <v>23</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H49" s="60"/>
       <c r="I49" s="64"/>
@@ -21273,13 +21183,13 @@
         <v>26</v>
       </c>
       <c r="G50" s="56" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H50" s="59" t="s">
         <v>436</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45">
@@ -21327,7 +21237,7 @@
         <v>44</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H52" s="46" t="s">
         <v>17</v>
@@ -21375,7 +21285,7 @@
         <v>392</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H54" s="77"/>
       <c r="I54" s="74"/>
@@ -21385,7 +21295,7 @@
         <v>449</v>
       </c>
       <c r="B55" s="102" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C55" s="102"/>
       <c r="D55" s="102"/>
@@ -21525,7 +21435,7 @@
         <v>112</v>
       </c>
       <c r="G60" s="81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H60" s="82"/>
       <c r="I60" s="83"/>
@@ -21548,7 +21458,7 @@
         <v>92</v>
       </c>
       <c r="G61" s="57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>17</v>
@@ -21575,7 +21485,7 @@
         <v>44</v>
       </c>
       <c r="G62" s="56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H62" s="46" t="s">
         <v>17</v>
@@ -21629,7 +21539,7 @@
         <v>30</v>
       </c>
       <c r="G64" s="56" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H64" s="46" t="s">
         <v>17</v>
@@ -21654,7 +21564,7 @@
         <v>401</v>
       </c>
       <c r="G65" s="81" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H65" s="82"/>
       <c r="I65" s="83"/>
@@ -21702,7 +21612,7 @@
         <v>92</v>
       </c>
       <c r="G67" s="57" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>17</v>
@@ -21722,7 +21632,7 @@
         <v>402</v>
       </c>
       <c r="D68" s="96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E68" s="57" t="s">
         <v>10</v>
@@ -21731,7 +21641,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="56" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>17</v>
@@ -21757,16 +21667,16 @@
         <v>10</v>
       </c>
       <c r="F69" s="57" t="s">
+        <v>594</v>
+      </c>
+      <c r="G69" s="56" t="s">
         <v>595</v>
-      </c>
-      <c r="G69" s="56" t="s">
-        <v>596</v>
       </c>
       <c r="H69" s="59" t="s">
         <v>436</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -21789,7 +21699,7 @@
         <v>30</v>
       </c>
       <c r="G70" s="56" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>17</v>
@@ -21806,7 +21716,7 @@
         <v>400</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D71" s="96"/>
       <c r="E71" s="57" t="s">
@@ -21816,7 +21726,7 @@
         <v>403</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H71" s="60"/>
       <c r="I71" s="64"/>
@@ -21899,7 +21809,7 @@
         <v>26</v>
       </c>
       <c r="G74" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H74" s="59" t="s">
         <v>436</v>
@@ -21928,7 +21838,7 @@
         <v>30</v>
       </c>
       <c r="G75" s="66" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H75" s="63" t="s">
         <v>436</v>

--- a/reference/Core6ResourcesTable.xlsx
+++ b/reference/Core6ResourcesTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D1E85B-65A0-744F-95DE-6258FEFD201B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{90356AF3-081A-E143-93B1-AE7CB29D9198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="23640" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52260" yWindow="0" windowWidth="42680" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$I$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="777">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -3549,45 +3550,6 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるID。このID情報をキーとして本リソース情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。処方を発行したシステムで固有に発番している処方オーダ番号に相当する。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-このリソース情報、および必要であれば処方箋における剤グループ番号、剤グループ内の順序番号などを格納する。</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ヒツヨウ </t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t xml:space="preserve">ショホウセン </t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve">ザイ </t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t xml:space="preserve">ザイ </t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>🈚️</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t xml:space="preserve">ジュンジョ </t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t xml:space="preserve">カクノウ ソウトウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>剤グループ番号。この医薬品が処方箋の中のひとつの医薬品情報として記述されたのではない場合や、元の処方箋内での番号などを必要としない場合には、常に"1"を設定する。</t>
     <rPh sb="10" eb="13">
       <t xml:space="preserve">イヤクヒン </t>
@@ -5647,21 +5609,9 @@
     <t>effectiveDateTime</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
     <t>(value)</t>
   </si>
   <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
     <t>valueBoolean</t>
   </si>
   <si>
@@ -5689,9 +5639,6 @@
     <t>interpretation</t>
   </si>
   <si>
-    <t>bodySite</t>
-  </si>
-  <si>
     <t>specimen</t>
   </si>
   <si>
@@ -5725,14 +5672,17 @@
     </r>
   </si>
   <si>
-    <t>検査結果値が欠落している理由。</t>
-  </si>
-  <si>
-    <t>検査結果値の評価コード。</t>
-  </si>
-  <si>
-    <r>
-      <t>基準値より</t>
+    <t>結果に関するコメントテキスト記述</t>
+  </si>
+  <si>
+    <t>記載者の情報</t>
+  </si>
+  <si>
+    <t>この追加的な情報が作成された日時。</t>
+  </si>
+  <si>
+    <r>
+      <t>追加的な情報の内容。</t>
     </r>
     <r>
       <rPr>
@@ -5741,7 +5691,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>High</t>
+      <t>markdown</t>
     </r>
     <r>
       <rPr>
@@ -5751,21 +5701,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>など。</t>
-    </r>
-  </si>
-  <si>
-    <t>結果に関するコメントテキスト記述</t>
-  </si>
-  <si>
-    <t>記載者の情報</t>
-  </si>
-  <si>
-    <t>この追加的な情報が作成された日時。</t>
-  </si>
-  <si>
-    <r>
-      <t>追加的な情報の内容。</t>
+      <t>形式のテキストが使用できる。データとして</t>
     </r>
     <r>
       <rPr>
@@ -5774,7 +5710,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>markdown</t>
+      <t>1M</t>
     </r>
     <r>
       <rPr>
@@ -5784,7 +5720,21 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>形式のテキストが使用できる。データとして</t>
+      <t>バイト以内であること。</t>
+    </r>
+  </si>
+  <si>
+    <t>推奨範囲として結果値を解釈するためのガイダンス。基準値範囲。</t>
+  </si>
+  <si>
+    <t>下限値。</t>
+  </si>
+  <si>
+    <t>検査下限値の単位</t>
+  </si>
+  <si>
+    <r>
+      <t>単位体系</t>
     </r>
     <r>
       <rPr>
@@ -5793,7 +5743,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>1M</t>
+      <t xml:space="preserve"> UCUM</t>
     </r>
     <r>
       <rPr>
@@ -5803,21 +5753,12 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>バイト以内であること。</t>
-    </r>
-  </si>
-  <si>
-    <t>推奨範囲として結果値を解釈するためのガイダンス。基準値範囲。</t>
-  </si>
-  <si>
-    <t>下限値。</t>
-  </si>
-  <si>
-    <t>検査下限値の単位</t>
-  </si>
-  <si>
-    <r>
-      <t>単位体系</t>
+      <t>コード体系。固定値。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>上限値。（</t>
     </r>
     <r>
       <rPr>
@@ -5826,7 +5767,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> UCUM</t>
+      <t xml:space="preserve">low </t>
     </r>
     <r>
       <rPr>
@@ -5836,21 +5777,27 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>コード体系。固定値。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>上限値。（</t>
+      <t>と同じ記述方法なので省略）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Observation.code</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">low </t>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と同じ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Observation.(value)</t>
     </r>
     <r>
       <rPr>
@@ -5860,12 +5807,12 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>と同じ記述方法なので省略）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Observation.code</t>
+      <t>と同じ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Observation.dataAbsentReason</t>
     </r>
     <r>
       <rPr>
@@ -5880,7 +5827,7 @@
   </si>
   <si>
     <r>
-      <t>Observation.(value)</t>
+      <t>Observation. interpretation</t>
     </r>
     <r>
       <rPr>
@@ -5895,7 +5842,7 @@
   </si>
   <si>
     <r>
-      <t>Observation.dataAbsentReason</t>
+      <t>Observation. referenceRange</t>
     </r>
     <r>
       <rPr>
@@ -5909,103 +5856,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Observation. interpretation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と同じ。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Observation. referenceRange</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と同じ。</t>
-    </r>
-  </si>
-  <si>
     <t>"Observation"</t>
   </si>
   <si>
     <t>"final"</t>
   </si>
   <si>
-    <t>"http://terminology.hl7.org/CodeSystem/data-absent-reason"</t>
-  </si>
-  <si>
-    <t>"unknown"</t>
-  </si>
-  <si>
     <t>"http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation"</t>
-  </si>
-  <si>
-    <t>"H"</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>"1244"</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>腹部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
   </si>
   <si>
     <t>"mg/L"</t>
@@ -6213,13 +6070,6 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>Resource(各種  )</t>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">カクシュ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>basedOn要素から元のオーダ情報をServiceRequestとして記述してそれを参照する場合には、そのJP_ServiceRequestリソースの実体。JP_ServiceRequestリソースにおける必要最小限の要素だけが含まれればよい。</t>
     <rPh sb="11" eb="12">
       <t xml:space="preserve">モト </t>
@@ -6229,31 +6079,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>basedOn要素から元のオーダ情報をServiceRequestとして記述してそれを参照する場合に、そのServiceRequestリソースからさらに参照される依頼者、依頼元診療科、依頼元機関、</t>
-    <rPh sb="76" eb="78">
-      <t xml:space="preserve">サンショウ </t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t xml:space="preserve">イライシャ </t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t xml:space="preserve">イライモト </t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t xml:space="preserve">シンリョウカ </t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t xml:space="preserve">イライ </t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t xml:space="preserve">モト </t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t xml:space="preserve">キカン </t>
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
@@ -6557,14 +6382,6 @@
   </si>
   <si>
     <t>診療科のコード化記述。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>Resource(JP_Observation_LabResult )</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>hasMember要素から参照される子検査結果をJP_Observation_LabResultプロファイルに準拠したObservationリソースとして記述する。</t>
     <phoneticPr fontId="25"/>
   </si>
   <si>
@@ -6744,11 +6561,6 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t xml:space="preserve">この検査・観察結果に責任をもつ者。
-</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>例示</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">レイ </t>
@@ -6833,10 +6645,6 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>Reference(Practitioner | PractitionerRole )</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>結果が数量で記述できる場合。</t>
     <phoneticPr fontId="25"/>
   </si>
@@ -6967,170 +6775,9 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>"urn:oid:1.2.392.200119.4.201.5"</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>検体採取部位を記述する場合に使用する。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケンタイ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">サイシュブイ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-"1244"
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>腹部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>腹部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>例示</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">レイジ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コード化する場合には、コード表の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>system uri</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>例）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"urn:oid:1.2.392.200119.4.201.5"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　（MEDIS修飾語交換用コード）</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">バアイ </t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">ヒョウ </t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t xml:space="preserve">レイ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>部位コード</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ブイ </t>
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
@@ -7216,29 +6863,6 @@
     </rPh>
     <rPh sb="166" eb="168">
       <t xml:space="preserve">ヒッス </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>コードに対応する部位文字列</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">タイオウ </t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">ブイ </t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t xml:space="preserve">モジレツ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>部位名</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ブイ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">メイショウ </t>
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
@@ -7582,10 +7206,424 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>例 2
-{
-  "reference":  "#obsLab203987"
-}</t>
+    <r>
+      <t>この検査が他の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つ以上の検査値から派生している（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>BMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が体重と身長から派生して算出される場合など）場合に、その派生元の検査への参照のリスト。
+記述方法としては、hasMember要素と同様に記述する。</t>
+    </r>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>同じ検査・観察において、メソッドが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つ、観察が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つ、実行者が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つ、デバイスが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つ、時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つしかない１回の検査・観察で同時に複数の検査結果が得られる場合に、その各検査を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をみなして、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Observation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソースの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要素に記述する。たとえばこのObservationリソースが血圧である場合に、収縮期血圧値と拡張期血圧値の2つは、Observationリソース：血圧の2つのcomponentとして記述される。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>元の検査オーダ情報。オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。検査オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。
+元のオーダID情報や依頼に関する情報（検査依頼者の所属や診療科など）が記述されるContainedリソースに含まれるServiceRequest（検査オーダー情報）リソースをこのリソース内で参照する。ただし、医療機関番号と診療科情報は、extensionでも記述することになっている。</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t xml:space="preserve">イライ </t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t xml:space="preserve">シャ </t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t xml:space="preserve">イリョウ </t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t xml:space="preserve">キカｎ </t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="230" eb="233">
+      <t xml:space="preserve">シンリョウカ </t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>issued</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>instant</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>2022-02-07T13:28:17.239+09:00</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>結果提供システム日時（検査結果がシステムに格納された日時）　YYYY-MM-DDThh:mm:ss[.sss]+zz:zz (例. 2015-02-07T13:28:17.239+09:00) [  ]部分は省略可能。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">テイキョウ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ニチジ </t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t xml:space="preserve">ブブｎ </t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">ショウリャク </t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>valueString</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>検査結果値の評価コード。基準値よりHighなど。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"H"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>value要素に結果を記述しない場合で検査結果値が欠落している場合には、その理由。コードかして設定することは一般に難しいのでtextだけで記述する。</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">イッパｎ </t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t xml:space="preserve">ムズカシイ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"検体量不足のため"</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ケンタイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">フソク </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>検査結果値の評価コード表のsystem値で固定。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>検査結果値の評価コード。
+H:High,L:Low,N:Normal のいずれかを使う。</t>
+    <rPh sb="11" eb="12">
+      <t>。</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">ツカウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>検査結果値の評価コードに対応する表示名</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>”High"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>評価表示文字列</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒョウカ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">モジレｔ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">レツ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>検査室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ケンサシツ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"高"</t>
     <phoneticPr fontId="25"/>
   </si>
   <si>
@@ -7603,359 +7641,106 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合、子検査結果を親検査グループの子検査としてContainedリソースで記述してもよいが、親検査グループと並列にBundleリソース内に並べて、そのリソースの識別URIを参照相互参照してもよい。
-Containedリソースとして記述する場合には、それを参照する記述（次行の例）。</t>
+      <t>個々の子検査の結果Observationリソースを、このリソースにContainedリソースとして埋め込むのではなく、別の検査結果Observationリソースとして作成し、そのidentifierを論理参照する方法をとること。</t>
     </r>
     <rPh sb="2" eb="4">
       <t xml:space="preserve">ケンサ </t>
     </rPh>
-    <rPh sb="328" eb="330">
+    <rPh sb="181" eb="182">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <rPh sb="337" eb="339">
       <t>_x0000__x0002__x0002__x0004_ň</t>
     </rPh>
-    <rPh sb="328" eb="330">
-      <t/>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>子検査結果を親検査グループの子検査としてContainedリソースで記述する場合には、JP_Observation_LabResultタイプのリソース（Observation.idの値が"#obsLab203987"と仮定）が本リソースのContainedリソースとして埋め込み記述されることが必須であるため、そのcontainedリソースのid値(Observation.id)を記述する例2となる。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>{
+  "reference":  "urn: ....."
+}</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+このリソース情報を一意識別ID、および必要であれば処方箋における剤グループ番号、剤グループ内の順序番号などを格納する。
+少なくともひとつのidentifierは次の仕様に従う値を設定すること。処方を発行したシステムで固有に発番しているオーダ番号に相当する。
+一意識別IDは、このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるID。ただし、ひとつのオーダで発生する複数の検査結果は、同一IDを持っていてもよい。
+このID情報をキーとして本リソース情報の更新・削除ができる一意性があること。
+このidentifier以外のIDも追加して複数格納しても構わない。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">イチイ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シキベツ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">ショホウセン </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">ザイ </t>
+    </rPh>
     <rPh sb="38" eb="40">
-      <t xml:space="preserve">バアイ </t>
+      <t xml:space="preserve">バンゴウ </t>
     </rPh>
     <rPh sb="41" eb="42">
-      <t xml:space="preserve">ケッカ </t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t xml:space="preserve">オヤ </t>
+      <t xml:space="preserve">ザイ </t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>🈚️</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">ジュンジョ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カクノウ ソウトウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+このリソースインスタンスを一意に識別できるID。ただし、ひとつのオーダで発生する複数の検査結果は、同一IDを持っていてもよい。このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるID。このID情報をキーとして本リソース情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。
+少なくともひとつのidentifierは上記の仕様に従う値を設定すること。検査結果報告を発行したシステムで固有に発番している検査実施番号、あるいは検査オーダシステムが発番するオーダ番号に相当する。
+ひとつのオーダで発生する複数の検査結果は、同一IDを持っていてもよく、その場合には、同一IDを持つすべての検査結果リソースインスタンスは、一括して更新・削除が行われることになる。</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">イチイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シキベツ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ハッセイ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">フクスウ </t>
     </rPh>
     <rPh sb="44" eb="46">
       <t xml:space="preserve">ケンサ </t>
     </rPh>
-    <rPh sb="51" eb="52">
-      <t xml:space="preserve">コ </t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t xml:space="preserve">オヤ </t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t xml:space="preserve">ヘイレツ </t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t xml:space="preserve">ナイ </t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t xml:space="preserve">ナラベテ </t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t xml:space="preserve">ソウゴ </t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t xml:space="preserve">サンショウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>この検査が他の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>つ以上の検査値から派生している（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>BMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が体重と身長から派生して算出される場合など）場合に、その派生元の検査への参照のリスト。
-記述方法としては、hasMember要素と同様に記述する。</t>
-    </r>
-    <rPh sb="71" eb="73">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t xml:space="preserve">ホウホウ </t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <r>
-      <t>同じ検査・観察において、メソッドが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>つ、観察が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>つ、実行者が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>つ、デバイスが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>つ、時間が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>つしかない１回の検査・観察で同時に複数の検査結果が得られる場合に、その各検査を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>component</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をみなして、この</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Observation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リソースの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>component</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>要素に記述する。たとえばこのObservationリソースが血圧である場合に、収縮期血圧値と拡張期血圧値の2つは、Observationリソース：血圧の2つのcomponentとして記述される。</t>
-    </r>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>このリソース情報を作成した施設内で、このリソース情報を他のリソース情報と一意に区別できるID。このID情報をキーとして本リソース情報の更新・削除ができる一意性があること。このidentifier以外のIDも追加して複数格納しても構わない。少なくともひとつのidentifierは次の仕様に従う値を設定すること。検査結果報告を発行したシステムで固有に発番している検査実施番号、あるいは検査オーダシステムが発番するオーダ番号に相当する。</t>
-    <rPh sb="155" eb="157">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="157" eb="159">
+    <rPh sb="46" eb="48">
       <t xml:space="preserve">ケッカ </t>
     </rPh>
-    <rPh sb="159" eb="161">
-      <t xml:space="preserve">ホウコク </t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t xml:space="preserve">ジッシ </t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t xml:space="preserve">ハツバン </t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-このリソースインスタンスを一意に識別できるID。</t>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">イチイ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">シキベツ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>元の検査オーダ情報。オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。検査オーダ番号等の一意識別子を含むServiceRequestリソース（Containedリソース）への参照。
-元のオーダID情報や依頼に関する情報（検査依頼者の所属や診療科など）が記述されるContainedリソースに含まれるServiceRequest（検査オーダー情報）リソースをこのリソース内で参照する。ただし、医療機関番号と診療科情報は、extensionでも記述することになっている。</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t xml:space="preserve">イライ </t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t xml:space="preserve">シャ </t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t xml:space="preserve">ケンサ </t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t xml:space="preserve">イリョウ </t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t xml:space="preserve">キカｎ </t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="230" eb="233">
-      <t xml:space="preserve">シンリョウカ </t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t xml:space="preserve">モッテイテモ </t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t xml:space="preserve">ジョウキ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>このリソース情報を他のリソース情報と一意に区別できるIDである場合に、system値を固定で設定する。</t>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -7963,7 +7748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8378,8 +8163,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8625,8 +8419,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -9274,6 +9074,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9412,7 +9236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -10016,9 +9840,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10112,6 +9933,123 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="37" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontI